--- a/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
+++ b/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
@@ -2504,7 +2504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2532,6 +2532,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2614,7 +2620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2670,6 +2676,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -19779,8 +19788,8 @@
   </sheetPr>
   <dimension ref="A1:BS240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z214" sqref="Z214"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19789,7 +19798,7 @@
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="72" max="72" width="9" customWidth="1"/>
   </cols>
@@ -27139,95 +27148,95 @@
         <v>0</v>
       </c>
       <c r="F177" s="33"/>
-      <c r="G177" s="34" t="str">
+      <c r="G177" s="35" t="str">
         <f>DEC2HEX(G223)</f>
         <v>0</v>
       </c>
-      <c r="H177" s="34" t="str">
+      <c r="H177" s="35" t="str">
         <f t="shared" ref="H177:AC177" si="14">DEC2HEX(H223)</f>
         <v>1</v>
       </c>
-      <c r="I177" s="34" t="str">
+      <c r="I177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="J177" s="34" t="str">
+      <c r="J177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="K177" s="34" t="str">
+      <c r="K177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="L177" s="34" t="str">
+      <c r="L177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="M177" s="34" t="str">
+      <c r="M177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="N177" s="34" t="str">
+      <c r="N177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="O177" s="34" t="str">
+      <c r="O177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="P177" s="34" t="str">
+      <c r="P177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="Q177" s="34" t="str">
+      <c r="Q177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>A</v>
       </c>
-      <c r="R177" s="34" t="str">
+      <c r="R177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>B</v>
       </c>
-      <c r="S177" s="34" t="str">
+      <c r="S177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>C</v>
       </c>
-      <c r="T177" s="34" t="str">
+      <c r="T177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>D</v>
       </c>
-      <c r="U177" s="34" t="str">
+      <c r="U177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>E</v>
       </c>
-      <c r="V177" s="34" t="str">
+      <c r="V177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>F</v>
       </c>
-      <c r="W177" s="34" t="str">
+      <c r="W177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="X177" s="34" t="str">
+      <c r="X177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="Y177" s="34" t="str">
+      <c r="Y177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="Z177" s="34" t="str">
+      <c r="Z177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="AA177" s="34" t="str">
+      <c r="AA177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="AB177" s="34" t="str">
+      <c r="AB177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="AC177" s="34" t="str">
+      <c r="AC177" s="35" t="str">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
@@ -27238,95 +27247,95 @@
       </c>
       <c r="E178" s="33"/>
       <c r="F178" s="33"/>
-      <c r="G178" s="34" t="str">
+      <c r="G178" s="35" t="str">
         <f t="shared" ref="G178:AC178" si="15">DEC2HEX(G224)</f>
         <v>17</v>
       </c>
-      <c r="H178" s="34" t="str">
+      <c r="H178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>18</v>
       </c>
-      <c r="I178" s="34" t="str">
+      <c r="I178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
-      <c r="J178" s="34" t="str">
+      <c r="J178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>1A</v>
       </c>
-      <c r="K178" s="34" t="str">
+      <c r="K178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>1B</v>
       </c>
-      <c r="L178" s="34" t="str">
+      <c r="L178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>1C</v>
       </c>
-      <c r="M178" s="34" t="str">
+      <c r="M178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>1D</v>
       </c>
-      <c r="N178" s="34" t="str">
+      <c r="N178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>1E</v>
       </c>
-      <c r="O178" s="34" t="str">
+      <c r="O178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>1F</v>
       </c>
-      <c r="P178" s="34" t="str">
+      <c r="P178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="Q178" s="34" t="str">
+      <c r="Q178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-      <c r="R178" s="34" t="str">
+      <c r="R178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-      <c r="S178" s="34" t="str">
+      <c r="S178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>23</v>
       </c>
-      <c r="T178" s="34" t="str">
+      <c r="T178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-      <c r="U178" s="34" t="str">
+      <c r="U178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>25</v>
       </c>
-      <c r="V178" s="34" t="str">
+      <c r="V178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>26</v>
       </c>
-      <c r="W178" s="34" t="str">
+      <c r="W178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="X178" s="34" t="str">
+      <c r="X178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>28</v>
       </c>
-      <c r="Y178" s="34" t="str">
+      <c r="Y178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>29</v>
       </c>
-      <c r="Z178" s="34" t="str">
+      <c r="Z178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>2A</v>
       </c>
-      <c r="AA178" s="34" t="str">
+      <c r="AA178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>2B</v>
       </c>
-      <c r="AB178" s="34" t="str">
+      <c r="AB178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>2C</v>
       </c>
-      <c r="AC178" s="34" t="str">
+      <c r="AC178" s="35" t="str">
         <f t="shared" si="15"/>
         <v>2D</v>
       </c>
@@ -27337,95 +27346,95 @@
       </c>
       <c r="E179" s="33"/>
       <c r="F179" s="33"/>
-      <c r="G179" s="34" t="str">
+      <c r="G179" s="35" t="str">
         <f t="shared" ref="G179:AC179" si="16">DEC2HEX(G225)</f>
         <v>2E</v>
       </c>
-      <c r="H179" s="34" t="str">
+      <c r="H179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>2F</v>
       </c>
-      <c r="I179" s="34" t="str">
+      <c r="I179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="J179" s="34" t="str">
+      <c r="J179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>31</v>
       </c>
-      <c r="K179" s="34" t="str">
+      <c r="K179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>32</v>
       </c>
-      <c r="L179" s="34" t="str">
+      <c r="L179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>33</v>
       </c>
-      <c r="M179" s="34" t="str">
+      <c r="M179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>34</v>
       </c>
-      <c r="N179" s="34" t="str">
+      <c r="N179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>35</v>
       </c>
-      <c r="O179" s="34" t="str">
+      <c r="O179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>36</v>
       </c>
-      <c r="P179" s="34" t="str">
+      <c r="P179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>37</v>
       </c>
-      <c r="Q179" s="34" t="str">
+      <c r="Q179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>38</v>
       </c>
-      <c r="R179" s="34" t="str">
+      <c r="R179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>39</v>
       </c>
-      <c r="S179" s="34" t="str">
+      <c r="S179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>3A</v>
       </c>
-      <c r="T179" s="34" t="str">
+      <c r="T179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>3B</v>
       </c>
-      <c r="U179" s="34" t="str">
+      <c r="U179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>3C</v>
       </c>
-      <c r="V179" s="34" t="str">
+      <c r="V179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>3D</v>
       </c>
-      <c r="W179" s="34" t="str">
+      <c r="W179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>3E</v>
       </c>
-      <c r="X179" s="34" t="str">
+      <c r="X179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>3F</v>
       </c>
-      <c r="Y179" s="34" t="str">
+      <c r="Y179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>40</v>
       </c>
-      <c r="Z179" s="34" t="str">
+      <c r="Z179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>41</v>
       </c>
-      <c r="AA179" s="34" t="str">
+      <c r="AA179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>42</v>
       </c>
-      <c r="AB179" s="34" t="str">
+      <c r="AB179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>43</v>
       </c>
-      <c r="AC179" s="34" t="str">
+      <c r="AC179" s="35" t="str">
         <f t="shared" si="16"/>
         <v>44</v>
       </c>
@@ -27436,95 +27445,95 @@
       </c>
       <c r="E180" s="33"/>
       <c r="F180" s="33"/>
-      <c r="G180" s="34" t="str">
+      <c r="G180" s="35" t="str">
         <f t="shared" ref="G180:AC180" si="17">DEC2HEX(G226)</f>
         <v>45</v>
       </c>
-      <c r="H180" s="34" t="str">
+      <c r="H180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>46</v>
       </c>
-      <c r="I180" s="34" t="str">
+      <c r="I180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>47</v>
       </c>
-      <c r="J180" s="34" t="str">
+      <c r="J180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>48</v>
       </c>
-      <c r="K180" s="34" t="str">
+      <c r="K180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>49</v>
       </c>
-      <c r="L180" s="34" t="str">
+      <c r="L180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>4A</v>
       </c>
-      <c r="M180" s="34" t="str">
+      <c r="M180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>4B</v>
       </c>
-      <c r="N180" s="34" t="str">
+      <c r="N180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>4C</v>
       </c>
-      <c r="O180" s="34" t="str">
+      <c r="O180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>4D</v>
       </c>
-      <c r="P180" s="34" t="str">
+      <c r="P180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>4E</v>
       </c>
-      <c r="Q180" s="34" t="str">
+      <c r="Q180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>4F</v>
       </c>
-      <c r="R180" s="34" t="str">
+      <c r="R180" s="28" t="str">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="S180" s="34" t="str">
+      <c r="S180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>51</v>
       </c>
-      <c r="T180" s="34" t="str">
+      <c r="T180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>52</v>
       </c>
-      <c r="U180" s="34" t="str">
+      <c r="U180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>53</v>
       </c>
-      <c r="V180" s="34" t="str">
+      <c r="V180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>54</v>
       </c>
-      <c r="W180" s="34" t="str">
+      <c r="W180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
-      <c r="X180" s="34" t="str">
+      <c r="X180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="Y180" s="34" t="str">
+      <c r="Y180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>57</v>
       </c>
-      <c r="Z180" s="34" t="str">
+      <c r="Z180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>58</v>
       </c>
-      <c r="AA180" s="34" t="str">
+      <c r="AA180" s="23" t="str">
         <f t="shared" si="17"/>
         <v>59</v>
       </c>
-      <c r="AB180" s="34" t="str">
+      <c r="AB180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>5A</v>
       </c>
-      <c r="AC180" s="34" t="str">
+      <c r="AC180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>5B</v>
       </c>
@@ -27540,95 +27549,95 @@
         <v>38</v>
       </c>
       <c r="F181" s="4"/>
-      <c r="G181" s="34" t="str">
+      <c r="G181" s="35" t="str">
         <f t="shared" ref="G181:AC181" si="18">DEC2HEX(G227)</f>
         <v>5C</v>
       </c>
-      <c r="H181" s="34" t="str">
+      <c r="H181" s="35" t="str">
         <f t="shared" si="18"/>
         <v>5D</v>
       </c>
-      <c r="I181" s="34" t="str">
+      <c r="I181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>5E</v>
       </c>
-      <c r="J181" s="34" t="str">
+      <c r="J181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>5F</v>
       </c>
-      <c r="K181" s="34" t="str">
+      <c r="K181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>60</v>
       </c>
-      <c r="L181" s="34" t="str">
+      <c r="L181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>61</v>
       </c>
-      <c r="M181" s="34" t="str">
+      <c r="M181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>62</v>
       </c>
-      <c r="N181" s="34" t="str">
+      <c r="N181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>63</v>
       </c>
-      <c r="O181" s="34" t="str">
+      <c r="O181" s="24" t="str">
         <f t="shared" si="18"/>
         <v>64</v>
       </c>
-      <c r="P181" s="34" t="str">
+      <c r="P181" s="24" t="str">
         <f t="shared" si="18"/>
         <v>65</v>
       </c>
-      <c r="Q181" s="34" t="str">
+      <c r="Q181" s="24" t="str">
         <f t="shared" si="18"/>
         <v>66</v>
       </c>
-      <c r="R181" s="34" t="str">
+      <c r="R181" s="24" t="str">
         <f t="shared" si="18"/>
         <v>67</v>
       </c>
-      <c r="S181" s="34" t="str">
+      <c r="S181" s="24" t="str">
         <f t="shared" si="18"/>
         <v>68</v>
       </c>
-      <c r="T181" s="34" t="str">
+      <c r="T181" s="24" t="str">
         <f t="shared" si="18"/>
         <v>69</v>
       </c>
-      <c r="U181" s="34" t="str">
+      <c r="U181" s="24" t="str">
         <f t="shared" si="18"/>
         <v>6A</v>
       </c>
-      <c r="V181" s="34" t="str">
+      <c r="V181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>6B</v>
       </c>
-      <c r="W181" s="34" t="str">
+      <c r="W181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>6C</v>
       </c>
-      <c r="X181" s="34" t="str">
+      <c r="X181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>6D</v>
       </c>
-      <c r="Y181" s="34" t="str">
+      <c r="Y181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>6E</v>
       </c>
-      <c r="Z181" s="34" t="str">
+      <c r="Z181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>6F</v>
       </c>
-      <c r="AA181" s="34" t="str">
+      <c r="AA181" s="23" t="str">
         <f t="shared" si="18"/>
         <v>70</v>
       </c>
-      <c r="AB181" s="34" t="str">
+      <c r="AB181" s="35" t="str">
         <f t="shared" si="18"/>
         <v>71</v>
       </c>
-      <c r="AC181" s="34" t="str">
+      <c r="AC181" s="35" t="str">
         <f t="shared" si="18"/>
         <v>72</v>
       </c>
@@ -27644,95 +27653,95 @@
         <v>39</v>
       </c>
       <c r="F182" s="4"/>
-      <c r="G182" s="34" t="str">
+      <c r="G182" s="35" t="str">
         <f t="shared" ref="G182:AC182" si="19">DEC2HEX(G228)</f>
         <v>73</v>
       </c>
-      <c r="H182" s="34" t="str">
+      <c r="H182" s="35" t="str">
         <f t="shared" si="19"/>
         <v>74</v>
       </c>
-      <c r="I182" s="34" t="str">
+      <c r="I182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>75</v>
       </c>
-      <c r="J182" s="34" t="str">
+      <c r="J182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>76</v>
       </c>
-      <c r="K182" s="34" t="str">
+      <c r="K182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>77</v>
       </c>
-      <c r="L182" s="34" t="str">
+      <c r="L182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>78</v>
       </c>
-      <c r="M182" s="34" t="str">
+      <c r="M182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>79</v>
       </c>
-      <c r="N182" s="34" t="str">
+      <c r="N182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>7A</v>
       </c>
-      <c r="O182" s="34" t="str">
+      <c r="O182" s="29" t="str">
         <f t="shared" si="19"/>
         <v>7B</v>
       </c>
-      <c r="P182" s="34" t="str">
+      <c r="P182" s="24" t="str">
         <f t="shared" si="19"/>
         <v>7C</v>
       </c>
-      <c r="Q182" s="34" t="str">
+      <c r="Q182" s="25" t="str">
         <f t="shared" si="19"/>
         <v>7D</v>
       </c>
-      <c r="R182" s="34" t="str">
+      <c r="R182" s="24" t="str">
         <f t="shared" si="19"/>
         <v>7E</v>
       </c>
-      <c r="S182" s="34" t="str">
+      <c r="S182" s="25" t="str">
         <f t="shared" si="19"/>
         <v>7F</v>
       </c>
-      <c r="T182" s="34" t="str">
+      <c r="T182" s="24" t="str">
         <f t="shared" si="19"/>
         <v>80</v>
       </c>
-      <c r="U182" s="34" t="str">
+      <c r="U182" s="29" t="str">
         <f t="shared" si="19"/>
         <v>81</v>
       </c>
-      <c r="V182" s="34" t="str">
+      <c r="V182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>82</v>
       </c>
-      <c r="W182" s="34" t="str">
+      <c r="W182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>83</v>
       </c>
-      <c r="X182" s="34" t="str">
+      <c r="X182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>84</v>
       </c>
-      <c r="Y182" s="34" t="str">
+      <c r="Y182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>85</v>
       </c>
-      <c r="Z182" s="34" t="str">
+      <c r="Z182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>86</v>
       </c>
-      <c r="AA182" s="34" t="str">
+      <c r="AA182" s="23" t="str">
         <f t="shared" si="19"/>
         <v>87</v>
       </c>
-      <c r="AB182" s="34" t="str">
+      <c r="AB182" s="35" t="str">
         <f t="shared" si="19"/>
         <v>88</v>
       </c>
-      <c r="AC182" s="34" t="str">
+      <c r="AC182" s="35" t="str">
         <f t="shared" si="19"/>
         <v>89</v>
       </c>
@@ -27748,95 +27757,95 @@
         <v>40</v>
       </c>
       <c r="F183" s="4"/>
-      <c r="G183" s="34" t="str">
+      <c r="G183" s="35" t="str">
         <f t="shared" ref="G183:AC183" si="20">DEC2HEX(G229)</f>
         <v>8A</v>
       </c>
-      <c r="H183" s="34" t="str">
+      <c r="H183" s="35" t="str">
         <f t="shared" si="20"/>
         <v>8B</v>
       </c>
-      <c r="I183" s="34" t="str">
+      <c r="I183" s="23" t="str">
         <f t="shared" si="20"/>
         <v>8C</v>
       </c>
-      <c r="J183" s="34" t="str">
+      <c r="J183" s="24" t="str">
         <f t="shared" si="20"/>
         <v>8D</v>
       </c>
-      <c r="K183" s="34" t="str">
+      <c r="K183" s="29" t="str">
         <f t="shared" si="20"/>
         <v>8E</v>
       </c>
-      <c r="L183" s="34" t="str">
+      <c r="L183" s="29" t="str">
         <f t="shared" si="20"/>
         <v>8F</v>
       </c>
-      <c r="M183" s="34" t="str">
+      <c r="M183" s="23" t="str">
         <f t="shared" si="20"/>
         <v>90</v>
       </c>
-      <c r="N183" s="34" t="str">
+      <c r="N183" s="23" t="str">
         <f t="shared" si="20"/>
         <v>91</v>
       </c>
-      <c r="O183" s="34" t="str">
+      <c r="O183" s="29" t="str">
         <f t="shared" si="20"/>
         <v>92</v>
       </c>
-      <c r="P183" s="34" t="str">
+      <c r="P183" s="29" t="str">
         <f t="shared" si="20"/>
         <v>93</v>
       </c>
-      <c r="Q183" s="34" t="str">
+      <c r="Q183" s="24" t="str">
         <f t="shared" si="20"/>
         <v>94</v>
       </c>
-      <c r="R183" s="34" t="str">
+      <c r="R183" s="24" t="str">
         <f t="shared" si="20"/>
         <v>95</v>
       </c>
-      <c r="S183" s="34" t="str">
+      <c r="S183" s="24" t="str">
         <f t="shared" si="20"/>
         <v>96</v>
       </c>
-      <c r="T183" s="34" t="str">
+      <c r="T183" s="29" t="str">
         <f t="shared" si="20"/>
         <v>97</v>
       </c>
-      <c r="U183" s="34" t="str">
+      <c r="U183" s="29" t="str">
         <f t="shared" si="20"/>
         <v>98</v>
       </c>
-      <c r="V183" s="34" t="str">
+      <c r="V183" s="23" t="str">
         <f t="shared" si="20"/>
         <v>99</v>
       </c>
-      <c r="W183" s="34" t="str">
+      <c r="W183" s="23" t="str">
         <f t="shared" si="20"/>
         <v>9A</v>
       </c>
-      <c r="X183" s="34" t="str">
+      <c r="X183" s="23" t="str">
         <f t="shared" si="20"/>
         <v>9B</v>
       </c>
-      <c r="Y183" s="34" t="str">
+      <c r="Y183" s="23" t="str">
         <f t="shared" si="20"/>
         <v>9C</v>
       </c>
-      <c r="Z183" s="34" t="str">
+      <c r="Z183" s="24" t="str">
         <f t="shared" si="20"/>
         <v>9D</v>
       </c>
-      <c r="AA183" s="34" t="str">
+      <c r="AA183" s="23" t="str">
         <f t="shared" si="20"/>
         <v>9E</v>
       </c>
-      <c r="AB183" s="34" t="str">
+      <c r="AB183" s="35" t="str">
         <f t="shared" si="20"/>
         <v>9F</v>
       </c>
-      <c r="AC183" s="34" t="str">
+      <c r="AC183" s="35" t="str">
         <f t="shared" si="20"/>
         <v>A0</v>
       </c>
@@ -27852,95 +27861,95 @@
         <v>41</v>
       </c>
       <c r="F184" s="4"/>
-      <c r="G184" s="34" t="str">
+      <c r="G184" s="35" t="str">
         <f t="shared" ref="G184:AC184" si="21">DEC2HEX(G230)</f>
         <v>A1</v>
       </c>
-      <c r="H184" s="34" t="str">
+      <c r="H184" s="35" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="I184" s="34" t="str">
+      <c r="I184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>A3</v>
       </c>
-      <c r="J184" s="34" t="str">
+      <c r="J184" s="25" t="str">
         <f t="shared" si="21"/>
         <v>A4</v>
       </c>
-      <c r="K184" s="34" t="str">
+      <c r="K184" s="24" t="str">
         <f t="shared" si="21"/>
         <v>A5</v>
       </c>
-      <c r="L184" s="34" t="str">
+      <c r="L184" s="29" t="str">
         <f t="shared" si="21"/>
         <v>A6</v>
       </c>
-      <c r="M184" s="34" t="str">
+      <c r="M184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>A7</v>
       </c>
-      <c r="N184" s="34" t="str">
+      <c r="N184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>A8</v>
       </c>
-      <c r="O184" s="34" t="str">
+      <c r="O184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>A9</v>
       </c>
-      <c r="P184" s="34" t="str">
+      <c r="P184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>AA</v>
       </c>
-      <c r="Q184" s="34" t="str">
+      <c r="Q184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>AB</v>
       </c>
-      <c r="R184" s="34" t="str">
+      <c r="R184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>AC</v>
       </c>
-      <c r="S184" s="34" t="str">
+      <c r="S184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>AD</v>
       </c>
-      <c r="T184" s="34" t="str">
+      <c r="T184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>AE</v>
       </c>
-      <c r="U184" s="34" t="str">
+      <c r="U184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>AF</v>
       </c>
-      <c r="V184" s="34" t="str">
+      <c r="V184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>B0</v>
       </c>
-      <c r="W184" s="34" t="str">
+      <c r="W184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>B1</v>
       </c>
-      <c r="X184" s="34" t="str">
+      <c r="X184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>B2</v>
       </c>
-      <c r="Y184" s="34" t="str">
+      <c r="Y184" s="24" t="str">
         <f t="shared" si="21"/>
         <v>B3</v>
       </c>
-      <c r="Z184" s="34" t="str">
+      <c r="Z184" s="25" t="str">
         <f t="shared" si="21"/>
         <v>B4</v>
       </c>
-      <c r="AA184" s="34" t="str">
+      <c r="AA184" s="23" t="str">
         <f t="shared" si="21"/>
         <v>B5</v>
       </c>
-      <c r="AB184" s="34" t="str">
+      <c r="AB184" s="35" t="str">
         <f t="shared" si="21"/>
         <v>B6</v>
       </c>
-      <c r="AC184" s="34" t="str">
+      <c r="AC184" s="35" t="str">
         <f t="shared" si="21"/>
         <v>B7</v>
       </c>
@@ -27956,95 +27965,95 @@
         <v>42</v>
       </c>
       <c r="F185" s="4"/>
-      <c r="G185" s="34" t="str">
+      <c r="G185" s="35" t="str">
         <f t="shared" ref="G185:AC185" si="22">DEC2HEX(G231)</f>
         <v>B8</v>
       </c>
-      <c r="H185" s="34" t="str">
+      <c r="H185" s="35" t="str">
         <f t="shared" si="22"/>
         <v>B9</v>
       </c>
-      <c r="I185" s="34" t="str">
+      <c r="I185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>BA</v>
       </c>
-      <c r="J185" s="34" t="str">
+      <c r="J185" s="24" t="str">
         <f t="shared" si="22"/>
         <v>BB</v>
       </c>
-      <c r="K185" s="34" t="str">
+      <c r="K185" s="24" t="str">
         <f t="shared" si="22"/>
         <v>BC</v>
       </c>
-      <c r="L185" s="34" t="str">
+      <c r="L185" s="24" t="str">
         <f t="shared" si="22"/>
         <v>BD</v>
       </c>
-      <c r="M185" s="34" t="str">
+      <c r="M185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>BE</v>
       </c>
-      <c r="N185" s="34" t="str">
+      <c r="N185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>BF</v>
       </c>
-      <c r="O185" s="34" t="str">
+      <c r="O185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>C0</v>
       </c>
-      <c r="P185" s="34" t="str">
+      <c r="P185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>C1</v>
       </c>
-      <c r="Q185" s="34" t="str">
+      <c r="Q185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="R185" s="34" t="str">
+      <c r="R185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>C3</v>
       </c>
-      <c r="S185" s="34" t="str">
+      <c r="S185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>C4</v>
       </c>
-      <c r="T185" s="34" t="str">
+      <c r="T185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>C5</v>
       </c>
-      <c r="U185" s="34" t="str">
+      <c r="U185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>C6</v>
       </c>
-      <c r="V185" s="34" t="str">
+      <c r="V185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>C7</v>
       </c>
-      <c r="W185" s="34" t="str">
+      <c r="W185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>C8</v>
       </c>
-      <c r="X185" s="34" t="str">
+      <c r="X185" s="24" t="str">
         <f t="shared" si="22"/>
         <v>C9</v>
       </c>
-      <c r="Y185" s="34" t="str">
+      <c r="Y185" s="24" t="str">
         <f t="shared" si="22"/>
         <v>CA</v>
       </c>
-      <c r="Z185" s="34" t="str">
+      <c r="Z185" s="24" t="str">
         <f t="shared" si="22"/>
         <v>CB</v>
       </c>
-      <c r="AA185" s="34" t="str">
+      <c r="AA185" s="23" t="str">
         <f t="shared" si="22"/>
         <v>CC</v>
       </c>
-      <c r="AB185" s="34" t="str">
+      <c r="AB185" s="35" t="str">
         <f t="shared" si="22"/>
         <v>CD</v>
       </c>
-      <c r="AC185" s="34" t="str">
+      <c r="AC185" s="35" t="str">
         <f t="shared" si="22"/>
         <v>CE</v>
       </c>
@@ -28060,95 +28069,95 @@
         <v>183</v>
       </c>
       <c r="F186" s="4"/>
-      <c r="G186" s="34" t="str">
+      <c r="G186" s="35" t="str">
         <f t="shared" ref="G186:AC186" si="23">DEC2HEX(G232)</f>
         <v>CF</v>
       </c>
-      <c r="H186" s="34" t="str">
+      <c r="H186" s="35" t="str">
         <f t="shared" si="23"/>
         <v>D0</v>
       </c>
-      <c r="I186" s="34" t="str">
+      <c r="I186" s="28" t="str">
         <f t="shared" si="23"/>
         <v>D1</v>
       </c>
-      <c r="J186" s="34" t="str">
+      <c r="J186" s="24" t="str">
         <f t="shared" si="23"/>
         <v>D2</v>
       </c>
-      <c r="K186" s="34" t="str">
+      <c r="K186" s="24" t="str">
         <f t="shared" si="23"/>
         <v>D3</v>
       </c>
-      <c r="L186" s="34" t="str">
+      <c r="L186" s="24" t="str">
         <f t="shared" si="23"/>
         <v>D4</v>
       </c>
-      <c r="M186" s="34" t="str">
+      <c r="M186" s="23" t="str">
         <f t="shared" si="23"/>
         <v>D5</v>
       </c>
-      <c r="N186" s="34" t="str">
+      <c r="N186" s="23" t="str">
         <f t="shared" si="23"/>
         <v>D6</v>
       </c>
-      <c r="O186" s="34" t="str">
+      <c r="O186" s="23" t="str">
         <f t="shared" si="23"/>
         <v>D7</v>
       </c>
-      <c r="P186" s="34" t="str">
+      <c r="P186" s="23" t="str">
         <f t="shared" si="23"/>
         <v>D8</v>
       </c>
-      <c r="Q186" s="34" t="str">
+      <c r="Q186" s="23" t="str">
         <f t="shared" si="23"/>
         <v>D9</v>
       </c>
-      <c r="R186" s="34" t="str">
+      <c r="R186" s="30" t="str">
         <f t="shared" si="23"/>
         <v>DA</v>
       </c>
-      <c r="S186" s="34" t="str">
+      <c r="S186" s="23" t="str">
         <f t="shared" si="23"/>
         <v>DB</v>
       </c>
-      <c r="T186" s="34" t="str">
+      <c r="T186" s="23" t="str">
         <f t="shared" si="23"/>
         <v>DC</v>
       </c>
-      <c r="U186" s="34" t="str">
+      <c r="U186" s="23" t="str">
         <f t="shared" si="23"/>
         <v>DD</v>
       </c>
-      <c r="V186" s="34" t="str">
+      <c r="V186" s="23" t="str">
         <f t="shared" si="23"/>
         <v>DE</v>
       </c>
-      <c r="W186" s="34" t="str">
+      <c r="W186" s="23" t="str">
         <f t="shared" si="23"/>
         <v>DF</v>
       </c>
-      <c r="X186" s="34" t="str">
+      <c r="X186" s="24" t="str">
         <f t="shared" si="23"/>
         <v>E0</v>
       </c>
-      <c r="Y186" s="34" t="str">
+      <c r="Y186" s="24" t="str">
         <f t="shared" si="23"/>
         <v>E1</v>
       </c>
-      <c r="Z186" s="34" t="str">
+      <c r="Z186" s="24" t="str">
         <f t="shared" si="23"/>
         <v>E2</v>
       </c>
-      <c r="AA186" s="34" t="str">
+      <c r="AA186" s="28" t="str">
         <f t="shared" si="23"/>
         <v>E3</v>
       </c>
-      <c r="AB186" s="34" t="str">
+      <c r="AB186" s="35" t="str">
         <f t="shared" si="23"/>
         <v>E4</v>
       </c>
-      <c r="AC186" s="34" t="str">
+      <c r="AC186" s="35" t="str">
         <f t="shared" si="23"/>
         <v>E5</v>
       </c>
@@ -28164,95 +28173,95 @@
         <v>184</v>
       </c>
       <c r="F187" s="4"/>
-      <c r="G187" s="34" t="str">
+      <c r="G187" s="35" t="str">
         <f t="shared" ref="G187:AC187" si="24">DEC2HEX(G233)</f>
         <v>E6</v>
       </c>
-      <c r="H187" s="34" t="str">
+      <c r="H187" s="35" t="str">
         <f t="shared" si="24"/>
         <v>E7</v>
       </c>
-      <c r="I187" s="34" t="str">
+      <c r="I187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>E8</v>
       </c>
-      <c r="J187" s="34" t="str">
+      <c r="J187" s="24" t="str">
         <f t="shared" si="24"/>
         <v>E9</v>
       </c>
-      <c r="K187" s="34" t="str">
+      <c r="K187" s="24" t="str">
         <f t="shared" si="24"/>
         <v>EA</v>
       </c>
-      <c r="L187" s="34" t="str">
+      <c r="L187" s="24" t="str">
         <f t="shared" si="24"/>
         <v>EB</v>
       </c>
-      <c r="M187" s="34" t="str">
+      <c r="M187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>EC</v>
       </c>
-      <c r="N187" s="34" t="str">
+      <c r="N187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>ED</v>
       </c>
-      <c r="O187" s="34" t="str">
+      <c r="O187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>EE</v>
       </c>
-      <c r="P187" s="34" t="str">
+      <c r="P187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>EF</v>
       </c>
-      <c r="Q187" s="34" t="str">
+      <c r="Q187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>F0</v>
       </c>
-      <c r="R187" s="34" t="str">
+      <c r="R187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>F1</v>
       </c>
-      <c r="S187" s="34" t="str">
+      <c r="S187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>F2</v>
       </c>
-      <c r="T187" s="34" t="str">
+      <c r="T187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>F3</v>
       </c>
-      <c r="U187" s="34" t="str">
+      <c r="U187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>F4</v>
       </c>
-      <c r="V187" s="34" t="str">
+      <c r="V187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>F5</v>
       </c>
-      <c r="W187" s="34" t="str">
+      <c r="W187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>F6</v>
       </c>
-      <c r="X187" s="34" t="str">
+      <c r="X187" s="24" t="str">
         <f t="shared" si="24"/>
         <v>F7</v>
       </c>
-      <c r="Y187" s="34" t="str">
+      <c r="Y187" s="24" t="str">
         <f t="shared" si="24"/>
         <v>F8</v>
       </c>
-      <c r="Z187" s="34" t="str">
+      <c r="Z187" s="24" t="str">
         <f t="shared" si="24"/>
         <v>F9</v>
       </c>
-      <c r="AA187" s="34" t="str">
+      <c r="AA187" s="23" t="str">
         <f t="shared" si="24"/>
         <v>FA</v>
       </c>
-      <c r="AB187" s="34" t="str">
+      <c r="AB187" s="35" t="str">
         <f t="shared" si="24"/>
         <v>FB</v>
       </c>
-      <c r="AC187" s="34" t="str">
+      <c r="AC187" s="35" t="str">
         <f t="shared" si="24"/>
         <v>FC</v>
       </c>
@@ -28268,95 +28277,95 @@
         <v>185</v>
       </c>
       <c r="F188" s="4"/>
-      <c r="G188" s="34" t="str">
+      <c r="G188" s="35" t="str">
         <f t="shared" ref="G188:AC188" si="25">DEC2HEX(G234)</f>
         <v>FD</v>
       </c>
-      <c r="H188" s="34" t="str">
+      <c r="H188" s="35" t="str">
         <f t="shared" si="25"/>
         <v>FE</v>
       </c>
-      <c r="I188" s="34" t="str">
+      <c r="I188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>FF</v>
       </c>
-      <c r="J188" s="34" t="str">
+      <c r="J188" s="25" t="str">
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="K188" s="34" t="str">
+      <c r="K188" s="24" t="str">
         <f t="shared" si="25"/>
         <v>101</v>
       </c>
-      <c r="L188" s="34" t="str">
+      <c r="L188" s="29" t="str">
         <f t="shared" si="25"/>
         <v>102</v>
       </c>
-      <c r="M188" s="34" t="str">
+      <c r="M188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>103</v>
       </c>
-      <c r="N188" s="34" t="str">
+      <c r="N188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>104</v>
       </c>
-      <c r="O188" s="34" t="str">
+      <c r="O188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>105</v>
       </c>
-      <c r="P188" s="34" t="str">
+      <c r="P188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>106</v>
       </c>
-      <c r="Q188" s="34" t="str">
+      <c r="Q188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>107</v>
       </c>
-      <c r="R188" s="34" t="str">
+      <c r="R188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>108</v>
       </c>
-      <c r="S188" s="34" t="str">
+      <c r="S188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>109</v>
       </c>
-      <c r="T188" s="34" t="str">
+      <c r="T188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>10A</v>
       </c>
-      <c r="U188" s="34" t="str">
+      <c r="U188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>10B</v>
       </c>
-      <c r="V188" s="34" t="str">
+      <c r="V188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>10C</v>
       </c>
-      <c r="W188" s="34" t="str">
+      <c r="W188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>10D</v>
       </c>
-      <c r="X188" s="34" t="str">
+      <c r="X188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>10E</v>
       </c>
-      <c r="Y188" s="34" t="str">
+      <c r="Y188" s="24" t="str">
         <f t="shared" si="25"/>
         <v>10F</v>
       </c>
-      <c r="Z188" s="34" t="str">
+      <c r="Z188" s="25" t="str">
         <f t="shared" si="25"/>
         <v>110</v>
       </c>
-      <c r="AA188" s="34" t="str">
+      <c r="AA188" s="23" t="str">
         <f t="shared" si="25"/>
         <v>111</v>
       </c>
-      <c r="AB188" s="34" t="str">
+      <c r="AB188" s="35" t="str">
         <f t="shared" si="25"/>
         <v>112</v>
       </c>
-      <c r="AC188" s="34" t="str">
+      <c r="AC188" s="35" t="str">
         <f t="shared" si="25"/>
         <v>113</v>
       </c>
@@ -28372,95 +28381,95 @@
         <v>186</v>
       </c>
       <c r="F189" s="4"/>
-      <c r="G189" s="34" t="str">
+      <c r="G189" s="35" t="str">
         <f t="shared" ref="G189:AC189" si="26">DEC2HEX(G235)</f>
         <v>114</v>
       </c>
-      <c r="H189" s="34" t="str">
+      <c r="H189" s="35" t="str">
         <f t="shared" si="26"/>
         <v>115</v>
       </c>
-      <c r="I189" s="34" t="str">
+      <c r="I189" s="23" t="str">
         <f t="shared" si="26"/>
         <v>116</v>
       </c>
-      <c r="J189" s="34" t="str">
+      <c r="J189" s="24" t="str">
         <f t="shared" si="26"/>
         <v>117</v>
       </c>
-      <c r="K189" s="34" t="str">
+      <c r="K189" s="29" t="str">
         <f t="shared" si="26"/>
         <v>118</v>
       </c>
-      <c r="L189" s="34" t="str">
+      <c r="L189" s="29" t="str">
         <f t="shared" si="26"/>
         <v>119</v>
       </c>
-      <c r="M189" s="34" t="str">
+      <c r="M189" s="23" t="str">
         <f t="shared" si="26"/>
         <v>11A</v>
       </c>
-      <c r="N189" s="34" t="str">
+      <c r="N189" s="23" t="str">
         <f t="shared" si="26"/>
         <v>11B</v>
       </c>
-      <c r="O189" s="34" t="str">
+      <c r="O189" s="29" t="str">
         <f t="shared" si="26"/>
         <v>11C</v>
       </c>
-      <c r="P189" s="34" t="str">
+      <c r="P189" s="29" t="str">
         <f t="shared" si="26"/>
         <v>11D</v>
       </c>
-      <c r="Q189" s="34" t="str">
+      <c r="Q189" s="24" t="str">
         <f t="shared" si="26"/>
         <v>11E</v>
       </c>
-      <c r="R189" s="34" t="str">
+      <c r="R189" s="24" t="str">
         <f t="shared" si="26"/>
         <v>11F</v>
       </c>
-      <c r="S189" s="34" t="str">
+      <c r="S189" s="24" t="str">
         <f t="shared" si="26"/>
         <v>120</v>
       </c>
-      <c r="T189" s="34" t="str">
+      <c r="T189" s="29" t="str">
         <f t="shared" si="26"/>
         <v>121</v>
       </c>
-      <c r="U189" s="34" t="str">
+      <c r="U189" s="29" t="str">
         <f t="shared" si="26"/>
         <v>122</v>
       </c>
-      <c r="V189" s="34" t="str">
+      <c r="V189" s="23" t="str">
         <f t="shared" si="26"/>
         <v>123</v>
       </c>
-      <c r="W189" s="34" t="str">
+      <c r="W189" s="23" t="str">
         <f t="shared" si="26"/>
         <v>124</v>
       </c>
-      <c r="X189" s="34" t="str">
+      <c r="X189" s="23" t="str">
         <f t="shared" si="26"/>
         <v>125</v>
       </c>
-      <c r="Y189" s="34" t="str">
+      <c r="Y189" s="23" t="str">
         <f t="shared" si="26"/>
         <v>126</v>
       </c>
-      <c r="Z189" s="34" t="str">
+      <c r="Z189" s="24" t="str">
         <f t="shared" si="26"/>
         <v>127</v>
       </c>
-      <c r="AA189" s="34" t="str">
+      <c r="AA189" s="23" t="str">
         <f t="shared" si="26"/>
         <v>128</v>
       </c>
-      <c r="AB189" s="34" t="str">
+      <c r="AB189" s="35" t="str">
         <f t="shared" si="26"/>
         <v>129</v>
       </c>
-      <c r="AC189" s="34" t="str">
+      <c r="AC189" s="35" t="str">
         <f t="shared" si="26"/>
         <v>12A</v>
       </c>
@@ -28476,95 +28485,95 @@
         <v>187</v>
       </c>
       <c r="F190" s="4"/>
-      <c r="G190" s="34" t="str">
+      <c r="G190" s="35" t="str">
         <f t="shared" ref="G190:AC190" si="27">DEC2HEX(G236)</f>
         <v>12B</v>
       </c>
-      <c r="H190" s="34" t="str">
+      <c r="H190" s="35" t="str">
         <f t="shared" si="27"/>
         <v>12C</v>
       </c>
-      <c r="I190" s="34" t="str">
+      <c r="I190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>12D</v>
       </c>
-      <c r="J190" s="34" t="str">
+      <c r="J190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>12E</v>
       </c>
-      <c r="K190" s="34" t="str">
+      <c r="K190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>12F</v>
       </c>
-      <c r="L190" s="34" t="str">
+      <c r="L190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>130</v>
       </c>
-      <c r="M190" s="34" t="str">
+      <c r="M190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>131</v>
       </c>
-      <c r="N190" s="34" t="str">
+      <c r="N190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>132</v>
       </c>
-      <c r="O190" s="34" t="str">
+      <c r="O190" s="29" t="str">
         <f t="shared" si="27"/>
         <v>133</v>
       </c>
-      <c r="P190" s="34" t="str">
+      <c r="P190" s="24" t="str">
         <f t="shared" si="27"/>
         <v>134</v>
       </c>
-      <c r="Q190" s="34" t="str">
+      <c r="Q190" s="25" t="str">
         <f t="shared" si="27"/>
         <v>135</v>
       </c>
-      <c r="R190" s="34" t="str">
+      <c r="R190" s="24" t="str">
         <f t="shared" si="27"/>
         <v>136</v>
       </c>
-      <c r="S190" s="34" t="str">
+      <c r="S190" s="25" t="str">
         <f t="shared" si="27"/>
         <v>137</v>
       </c>
-      <c r="T190" s="34" t="str">
+      <c r="T190" s="24" t="str">
         <f t="shared" si="27"/>
         <v>138</v>
       </c>
-      <c r="U190" s="34" t="str">
+      <c r="U190" s="29" t="str">
         <f t="shared" si="27"/>
         <v>139</v>
       </c>
-      <c r="V190" s="34" t="str">
+      <c r="V190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>13A</v>
       </c>
-      <c r="W190" s="34" t="str">
+      <c r="W190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>13B</v>
       </c>
-      <c r="X190" s="34" t="str">
+      <c r="X190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>13C</v>
       </c>
-      <c r="Y190" s="34" t="str">
+      <c r="Y190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>13D</v>
       </c>
-      <c r="Z190" s="34" t="str">
+      <c r="Z190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>13E</v>
       </c>
-      <c r="AA190" s="34" t="str">
+      <c r="AA190" s="23" t="str">
         <f t="shared" si="27"/>
         <v>13F</v>
       </c>
-      <c r="AB190" s="34" t="str">
+      <c r="AB190" s="35" t="str">
         <f t="shared" si="27"/>
         <v>140</v>
       </c>
-      <c r="AC190" s="34" t="str">
+      <c r="AC190" s="35" t="str">
         <f t="shared" si="27"/>
         <v>141</v>
       </c>
@@ -28580,95 +28589,95 @@
         <v>188</v>
       </c>
       <c r="F191" s="4"/>
-      <c r="G191" s="34" t="str">
+      <c r="G191" s="35" t="str">
         <f t="shared" ref="G191:AC191" si="28">DEC2HEX(G237)</f>
         <v>142</v>
       </c>
-      <c r="H191" s="34" t="str">
+      <c r="H191" s="35" t="str">
         <f t="shared" si="28"/>
         <v>143</v>
       </c>
-      <c r="I191" s="34" t="str">
+      <c r="I191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>144</v>
       </c>
-      <c r="J191" s="34" t="str">
+      <c r="J191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>145</v>
       </c>
-      <c r="K191" s="34" t="str">
+      <c r="K191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>146</v>
       </c>
-      <c r="L191" s="34" t="str">
+      <c r="L191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>147</v>
       </c>
-      <c r="M191" s="34" t="str">
+      <c r="M191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>148</v>
       </c>
-      <c r="N191" s="34" t="str">
+      <c r="N191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>149</v>
       </c>
-      <c r="O191" s="34" t="str">
+      <c r="O191" s="24" t="str">
         <f t="shared" si="28"/>
         <v>14A</v>
       </c>
-      <c r="P191" s="34" t="str">
+      <c r="P191" s="24" t="str">
         <f t="shared" si="28"/>
         <v>14B</v>
       </c>
-      <c r="Q191" s="34" t="str">
+      <c r="Q191" s="24" t="str">
         <f t="shared" si="28"/>
         <v>14C</v>
       </c>
-      <c r="R191" s="34" t="str">
+      <c r="R191" s="24" t="str">
         <f t="shared" si="28"/>
         <v>14D</v>
       </c>
-      <c r="S191" s="34" t="str">
+      <c r="S191" s="24" t="str">
         <f t="shared" si="28"/>
         <v>14E</v>
       </c>
-      <c r="T191" s="34" t="str">
+      <c r="T191" s="24" t="str">
         <f t="shared" si="28"/>
         <v>14F</v>
       </c>
-      <c r="U191" s="34" t="str">
+      <c r="U191" s="24" t="str">
         <f t="shared" si="28"/>
         <v>150</v>
       </c>
-      <c r="V191" s="34" t="str">
+      <c r="V191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>151</v>
       </c>
-      <c r="W191" s="34" t="str">
+      <c r="W191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>152</v>
       </c>
-      <c r="X191" s="34" t="str">
+      <c r="X191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>153</v>
       </c>
-      <c r="Y191" s="34" t="str">
+      <c r="Y191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>154</v>
       </c>
-      <c r="Z191" s="34" t="str">
+      <c r="Z191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>155</v>
       </c>
-      <c r="AA191" s="34" t="str">
+      <c r="AA191" s="23" t="str">
         <f t="shared" si="28"/>
         <v>156</v>
       </c>
-      <c r="AB191" s="34" t="str">
+      <c r="AB191" s="35" t="str">
         <f t="shared" si="28"/>
         <v>157</v>
       </c>
-      <c r="AC191" s="34" t="str">
+      <c r="AC191" s="35" t="str">
         <f t="shared" si="28"/>
         <v>158</v>
       </c>
@@ -28680,95 +28689,95 @@
       </c>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
-      <c r="G192" s="34" t="str">
+      <c r="G192" s="35" t="str">
         <f t="shared" ref="G192:AC192" si="29">DEC2HEX(G238)</f>
         <v>159</v>
       </c>
-      <c r="H192" s="34" t="str">
+      <c r="H192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>15A</v>
       </c>
-      <c r="I192" s="34" t="str">
+      <c r="I192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>15B</v>
       </c>
-      <c r="J192" s="34" t="str">
+      <c r="J192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>15C</v>
       </c>
-      <c r="K192" s="34" t="str">
+      <c r="K192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>15D</v>
       </c>
-      <c r="L192" s="34" t="str">
+      <c r="L192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>15E</v>
       </c>
-      <c r="M192" s="34" t="str">
+      <c r="M192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>15F</v>
       </c>
-      <c r="N192" s="34" t="str">
+      <c r="N192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>160</v>
       </c>
-      <c r="O192" s="34" t="str">
+      <c r="O192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>161</v>
       </c>
-      <c r="P192" s="34" t="str">
+      <c r="P192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>162</v>
       </c>
-      <c r="Q192" s="34" t="str">
+      <c r="Q192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>163</v>
       </c>
-      <c r="R192" s="34" t="str">
+      <c r="R192" s="28" t="str">
         <f t="shared" si="29"/>
         <v>164</v>
       </c>
-      <c r="S192" s="34" t="str">
+      <c r="S192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>165</v>
       </c>
-      <c r="T192" s="34" t="str">
+      <c r="T192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>166</v>
       </c>
-      <c r="U192" s="34" t="str">
+      <c r="U192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>167</v>
       </c>
-      <c r="V192" s="34" t="str">
+      <c r="V192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>168</v>
       </c>
-      <c r="W192" s="34" t="str">
+      <c r="W192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>169</v>
       </c>
-      <c r="X192" s="34" t="str">
+      <c r="X192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>16A</v>
       </c>
-      <c r="Y192" s="34" t="str">
+      <c r="Y192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>16B</v>
       </c>
-      <c r="Z192" s="34" t="str">
+      <c r="Z192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>16C</v>
       </c>
-      <c r="AA192" s="34" t="str">
+      <c r="AA192" s="23" t="str">
         <f t="shared" si="29"/>
         <v>16D</v>
       </c>
-      <c r="AB192" s="34" t="str">
+      <c r="AB192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>16E</v>
       </c>
-      <c r="AC192" s="34" t="str">
+      <c r="AC192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>16F</v>
       </c>
@@ -28780,95 +28789,95 @@
       </c>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
-      <c r="G193" s="34" t="str">
+      <c r="G193" s="35" t="str">
         <f t="shared" ref="G193:AC193" si="30">DEC2HEX(G239)</f>
         <v>170</v>
       </c>
-      <c r="H193" s="34" t="str">
+      <c r="H193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>171</v>
       </c>
-      <c r="I193" s="34" t="str">
+      <c r="I193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>172</v>
       </c>
-      <c r="J193" s="34" t="str">
+      <c r="J193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>173</v>
       </c>
-      <c r="K193" s="34" t="str">
+      <c r="K193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>174</v>
       </c>
-      <c r="L193" s="34" t="str">
+      <c r="L193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>175</v>
       </c>
-      <c r="M193" s="34" t="str">
+      <c r="M193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>176</v>
       </c>
-      <c r="N193" s="34" t="str">
+      <c r="N193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>177</v>
       </c>
-      <c r="O193" s="34" t="str">
+      <c r="O193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>178</v>
       </c>
-      <c r="P193" s="34" t="str">
+      <c r="P193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>179</v>
       </c>
-      <c r="Q193" s="34" t="str">
+      <c r="Q193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>17A</v>
       </c>
-      <c r="R193" s="34" t="str">
+      <c r="R193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>17B</v>
       </c>
-      <c r="S193" s="34" t="str">
+      <c r="S193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>17C</v>
       </c>
-      <c r="T193" s="34" t="str">
+      <c r="T193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>17D</v>
       </c>
-      <c r="U193" s="34" t="str">
+      <c r="U193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>17E</v>
       </c>
-      <c r="V193" s="34" t="str">
+      <c r="V193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>17F</v>
       </c>
-      <c r="W193" s="34" t="str">
+      <c r="W193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>180</v>
       </c>
-      <c r="X193" s="34" t="str">
+      <c r="X193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>181</v>
       </c>
-      <c r="Y193" s="34" t="str">
+      <c r="Y193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>182</v>
       </c>
-      <c r="Z193" s="34" t="str">
+      <c r="Z193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>183</v>
       </c>
-      <c r="AA193" s="34" t="str">
+      <c r="AA193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>184</v>
       </c>
-      <c r="AB193" s="34" t="str">
+      <c r="AB193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>185</v>
       </c>
-      <c r="AC193" s="34" t="str">
+      <c r="AC193" s="35" t="str">
         <f t="shared" si="30"/>
         <v>186</v>
       </c>
@@ -28880,95 +28889,95 @@
       </c>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
-      <c r="G194" s="34" t="str">
+      <c r="G194" s="35" t="str">
         <f t="shared" ref="G194:AC194" si="31">DEC2HEX(G240)</f>
         <v>187</v>
       </c>
-      <c r="H194" s="34" t="str">
+      <c r="H194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>188</v>
       </c>
-      <c r="I194" s="34" t="str">
+      <c r="I194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>189</v>
       </c>
-      <c r="J194" s="34" t="str">
+      <c r="J194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>18A</v>
       </c>
-      <c r="K194" s="34" t="str">
+      <c r="K194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>18B</v>
       </c>
-      <c r="L194" s="34" t="str">
+      <c r="L194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>18C</v>
       </c>
-      <c r="M194" s="34" t="str">
+      <c r="M194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>18D</v>
       </c>
-      <c r="N194" s="34" t="str">
+      <c r="N194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>18E</v>
       </c>
-      <c r="O194" s="34" t="str">
+      <c r="O194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>18F</v>
       </c>
-      <c r="P194" s="34" t="str">
+      <c r="P194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>190</v>
       </c>
-      <c r="Q194" s="34" t="str">
+      <c r="Q194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>191</v>
       </c>
-      <c r="R194" s="34" t="str">
+      <c r="R194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>192</v>
       </c>
-      <c r="S194" s="34" t="str">
+      <c r="S194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>193</v>
       </c>
-      <c r="T194" s="34" t="str">
+      <c r="T194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>194</v>
       </c>
-      <c r="U194" s="34" t="str">
+      <c r="U194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>195</v>
       </c>
-      <c r="V194" s="34" t="str">
+      <c r="V194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>196</v>
       </c>
-      <c r="W194" s="34" t="str">
+      <c r="W194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>197</v>
       </c>
-      <c r="X194" s="34" t="str">
+      <c r="X194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>198</v>
       </c>
-      <c r="Y194" s="34" t="str">
+      <c r="Y194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>199</v>
       </c>
-      <c r="Z194" s="34" t="str">
+      <c r="Z194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>19A</v>
       </c>
-      <c r="AA194" s="34" t="str">
+      <c r="AA194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>19B</v>
       </c>
-      <c r="AB194" s="34" t="str">
+      <c r="AB194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>19C</v>
       </c>
-      <c r="AC194" s="34" t="str">
+      <c r="AC194" s="35" t="str">
         <f t="shared" si="31"/>
         <v>19D</v>
       </c>

--- a/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
+++ b/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
@@ -1471,7 +1471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F198" authorId="0">
+    <comment ref="F242" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F199" authorId="0">
+    <comment ref="F243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1519,7 +1519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D200" authorId="0">
+    <comment ref="D244" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1543,7 +1543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E200" authorId="0">
+    <comment ref="E244" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1774,7 +1774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="232">
   <si>
     <t>Y</t>
   </si>
@@ -2453,6 +2453,24 @@
   <si>
     <t>DEC</t>
   </si>
+  <si>
+    <t>(original size)</t>
+  </si>
+  <si>
+    <t>(enlarged)</t>
+  </si>
+  <si>
+    <t>!25 columns X !19 rows</t>
+  </si>
+  <si>
+    <t>needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!32 columns X !19 rows </t>
+  </si>
+  <si>
+    <t>expandd so that the number of columns is divisible by 8</t>
+  </si>
 </sst>
 </file>
 
@@ -2542,7 +2560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2616,11 +2634,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2679,6 +2788,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -19786,10 +19924,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BS240"/>
+  <dimension ref="A1:BS288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView tabSelected="1" topLeftCell="C225" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G262" sqref="G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26966,6 +27104,11 @@
       <c r="C152" s="27"/>
       <c r="D152" s="27"/>
     </row>
+    <row r="165" spans="1:29" ht="23.25">
+      <c r="A165" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
     <row r="167" spans="1:29" ht="23.25">
       <c r="A167" s="13" t="s">
         <v>223</v>
@@ -26990,7 +27133,7 @@
         <v>207</v>
       </c>
       <c r="E170">
-        <f>Z239</f>
+        <f>Z218</f>
         <v>387</v>
       </c>
       <c r="L170" s="18"/>
@@ -27149,11 +27292,11 @@
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="35" t="str">
-        <f>DEC2HEX(G223)</f>
+        <f>DEC2HEX(G202)</f>
         <v>0</v>
       </c>
       <c r="H177" s="35" t="str">
-        <f t="shared" ref="H177:AC177" si="14">DEC2HEX(H223)</f>
+        <f t="shared" ref="H177:AC177" si="14">DEC2HEX(H202)</f>
         <v>1</v>
       </c>
       <c r="I177" s="35" t="str">
@@ -27248,7 +27391,7 @@
       <c r="E178" s="33"/>
       <c r="F178" s="33"/>
       <c r="G178" s="35" t="str">
-        <f t="shared" ref="G178:AC178" si="15">DEC2HEX(G224)</f>
+        <f t="shared" ref="G178:AC178" si="15">DEC2HEX(G203)</f>
         <v>17</v>
       </c>
       <c r="H178" s="35" t="str">
@@ -27347,7 +27490,7 @@
       <c r="E179" s="33"/>
       <c r="F179" s="33"/>
       <c r="G179" s="35" t="str">
-        <f t="shared" ref="G179:AC179" si="16">DEC2HEX(G225)</f>
+        <f t="shared" ref="G179:AC179" si="16">DEC2HEX(G204)</f>
         <v>2E</v>
       </c>
       <c r="H179" s="35" t="str">
@@ -27446,86 +27589,86 @@
       <c r="E180" s="33"/>
       <c r="F180" s="33"/>
       <c r="G180" s="35" t="str">
-        <f t="shared" ref="G180:AC180" si="17">DEC2HEX(G226)</f>
+        <f t="shared" ref="G180:AC180" si="17">DEC2HEX(G205)</f>
         <v>45</v>
       </c>
       <c r="H180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>46</v>
       </c>
-      <c r="I180" s="23" t="str">
+      <c r="I180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>47</v>
       </c>
-      <c r="J180" s="23" t="str">
+      <c r="J180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>48</v>
       </c>
-      <c r="K180" s="23" t="str">
+      <c r="K180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>49</v>
       </c>
-      <c r="L180" s="23" t="str">
+      <c r="L180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>4A</v>
       </c>
-      <c r="M180" s="23" t="str">
+      <c r="M180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>4B</v>
       </c>
-      <c r="N180" s="23" t="str">
+      <c r="N180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>4C</v>
       </c>
-      <c r="O180" s="23" t="str">
+      <c r="O180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>4D</v>
       </c>
-      <c r="P180" s="23" t="str">
+      <c r="P180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>4E</v>
       </c>
-      <c r="Q180" s="23" t="str">
+      <c r="Q180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>4F</v>
       </c>
-      <c r="R180" s="28" t="str">
+      <c r="R180" s="36" t="str">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="S180" s="23" t="str">
+      <c r="S180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>51</v>
       </c>
-      <c r="T180" s="23" t="str">
+      <c r="T180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>52</v>
       </c>
-      <c r="U180" s="23" t="str">
+      <c r="U180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>53</v>
       </c>
-      <c r="V180" s="23" t="str">
+      <c r="V180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>54</v>
       </c>
-      <c r="W180" s="23" t="str">
+      <c r="W180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
-      <c r="X180" s="23" t="str">
+      <c r="X180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="Y180" s="23" t="str">
+      <c r="Y180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>57</v>
       </c>
-      <c r="Z180" s="23" t="str">
+      <c r="Z180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>58</v>
       </c>
-      <c r="AA180" s="23" t="str">
+      <c r="AA180" s="35" t="str">
         <f t="shared" si="17"/>
         <v>59</v>
       </c>
@@ -27550,14 +27693,14 @@
       </c>
       <c r="F181" s="4"/>
       <c r="G181" s="35" t="str">
-        <f t="shared" ref="G181:AC181" si="18">DEC2HEX(G227)</f>
+        <f t="shared" ref="G181:AC181" si="18">DEC2HEX(G206)</f>
         <v>5C</v>
       </c>
       <c r="H181" s="35" t="str">
         <f t="shared" si="18"/>
         <v>5D</v>
       </c>
-      <c r="I181" s="23" t="str">
+      <c r="I181" s="35" t="str">
         <f t="shared" si="18"/>
         <v>5E</v>
       </c>
@@ -27629,7 +27772,7 @@
         <f t="shared" si="18"/>
         <v>6F</v>
       </c>
-      <c r="AA181" s="23" t="str">
+      <c r="AA181" s="35" t="str">
         <f t="shared" si="18"/>
         <v>70</v>
       </c>
@@ -27654,14 +27797,14 @@
       </c>
       <c r="F182" s="4"/>
       <c r="G182" s="35" t="str">
-        <f t="shared" ref="G182:AC182" si="19">DEC2HEX(G228)</f>
+        <f t="shared" ref="G182:AC182" si="19">DEC2HEX(G207)</f>
         <v>73</v>
       </c>
       <c r="H182" s="35" t="str">
         <f t="shared" si="19"/>
         <v>74</v>
       </c>
-      <c r="I182" s="23" t="str">
+      <c r="I182" s="35" t="str">
         <f t="shared" si="19"/>
         <v>75</v>
       </c>
@@ -27733,7 +27876,7 @@
         <f t="shared" si="19"/>
         <v>86</v>
       </c>
-      <c r="AA182" s="23" t="str">
+      <c r="AA182" s="35" t="str">
         <f t="shared" si="19"/>
         <v>87</v>
       </c>
@@ -27758,14 +27901,14 @@
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="35" t="str">
-        <f t="shared" ref="G183:AC183" si="20">DEC2HEX(G229)</f>
+        <f t="shared" ref="G183:AC183" si="20">DEC2HEX(G208)</f>
         <v>8A</v>
       </c>
       <c r="H183" s="35" t="str">
         <f t="shared" si="20"/>
         <v>8B</v>
       </c>
-      <c r="I183" s="23" t="str">
+      <c r="I183" s="35" t="str">
         <f t="shared" si="20"/>
         <v>8C</v>
       </c>
@@ -27837,7 +27980,7 @@
         <f t="shared" si="20"/>
         <v>9D</v>
       </c>
-      <c r="AA183" s="23" t="str">
+      <c r="AA183" s="35" t="str">
         <f t="shared" si="20"/>
         <v>9E</v>
       </c>
@@ -27862,14 +28005,14 @@
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="35" t="str">
-        <f t="shared" ref="G184:AC184" si="21">DEC2HEX(G230)</f>
+        <f t="shared" ref="G184:AC184" si="21">DEC2HEX(G209)</f>
         <v>A1</v>
       </c>
       <c r="H184" s="35" t="str">
         <f t="shared" si="21"/>
         <v>A2</v>
       </c>
-      <c r="I184" s="23" t="str">
+      <c r="I184" s="35" t="str">
         <f t="shared" si="21"/>
         <v>A3</v>
       </c>
@@ -27941,7 +28084,7 @@
         <f t="shared" si="21"/>
         <v>B4</v>
       </c>
-      <c r="AA184" s="23" t="str">
+      <c r="AA184" s="35" t="str">
         <f t="shared" si="21"/>
         <v>B5</v>
       </c>
@@ -27966,14 +28109,14 @@
       </c>
       <c r="F185" s="4"/>
       <c r="G185" s="35" t="str">
-        <f t="shared" ref="G185:AC185" si="22">DEC2HEX(G231)</f>
+        <f t="shared" ref="G185:AC185" si="22">DEC2HEX(G210)</f>
         <v>B8</v>
       </c>
       <c r="H185" s="35" t="str">
         <f t="shared" si="22"/>
         <v>B9</v>
       </c>
-      <c r="I185" s="23" t="str">
+      <c r="I185" s="35" t="str">
         <f t="shared" si="22"/>
         <v>BA</v>
       </c>
@@ -28045,7 +28188,7 @@
         <f t="shared" si="22"/>
         <v>CB</v>
       </c>
-      <c r="AA185" s="23" t="str">
+      <c r="AA185" s="35" t="str">
         <f t="shared" si="22"/>
         <v>CC</v>
       </c>
@@ -28070,14 +28213,14 @@
       </c>
       <c r="F186" s="4"/>
       <c r="G186" s="35" t="str">
-        <f t="shared" ref="G186:AC186" si="23">DEC2HEX(G232)</f>
+        <f t="shared" ref="G186:AC186" si="23">DEC2HEX(G211)</f>
         <v>CF</v>
       </c>
       <c r="H186" s="35" t="str">
         <f t="shared" si="23"/>
         <v>D0</v>
       </c>
-      <c r="I186" s="28" t="str">
+      <c r="I186" s="36" t="str">
         <f t="shared" si="23"/>
         <v>D1</v>
       </c>
@@ -28149,7 +28292,7 @@
         <f t="shared" si="23"/>
         <v>E2</v>
       </c>
-      <c r="AA186" s="28" t="str">
+      <c r="AA186" s="36" t="str">
         <f t="shared" si="23"/>
         <v>E3</v>
       </c>
@@ -28174,14 +28317,14 @@
       </c>
       <c r="F187" s="4"/>
       <c r="G187" s="35" t="str">
-        <f t="shared" ref="G187:AC187" si="24">DEC2HEX(G233)</f>
+        <f t="shared" ref="G187:AC187" si="24">DEC2HEX(G212)</f>
         <v>E6</v>
       </c>
       <c r="H187" s="35" t="str">
         <f t="shared" si="24"/>
         <v>E7</v>
       </c>
-      <c r="I187" s="23" t="str">
+      <c r="I187" s="35" t="str">
         <f t="shared" si="24"/>
         <v>E8</v>
       </c>
@@ -28253,7 +28396,7 @@
         <f t="shared" si="24"/>
         <v>F9</v>
       </c>
-      <c r="AA187" s="23" t="str">
+      <c r="AA187" s="35" t="str">
         <f t="shared" si="24"/>
         <v>FA</v>
       </c>
@@ -28278,14 +28421,14 @@
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="35" t="str">
-        <f t="shared" ref="G188:AC188" si="25">DEC2HEX(G234)</f>
+        <f t="shared" ref="G188:AC188" si="25">DEC2HEX(G213)</f>
         <v>FD</v>
       </c>
       <c r="H188" s="35" t="str">
         <f t="shared" si="25"/>
         <v>FE</v>
       </c>
-      <c r="I188" s="23" t="str">
+      <c r="I188" s="35" t="str">
         <f t="shared" si="25"/>
         <v>FF</v>
       </c>
@@ -28357,7 +28500,7 @@
         <f t="shared" si="25"/>
         <v>110</v>
       </c>
-      <c r="AA188" s="23" t="str">
+      <c r="AA188" s="35" t="str">
         <f t="shared" si="25"/>
         <v>111</v>
       </c>
@@ -28382,14 +28525,14 @@
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="35" t="str">
-        <f t="shared" ref="G189:AC189" si="26">DEC2HEX(G235)</f>
+        <f t="shared" ref="G189:AC189" si="26">DEC2HEX(G214)</f>
         <v>114</v>
       </c>
       <c r="H189" s="35" t="str">
         <f t="shared" si="26"/>
         <v>115</v>
       </c>
-      <c r="I189" s="23" t="str">
+      <c r="I189" s="35" t="str">
         <f t="shared" si="26"/>
         <v>116</v>
       </c>
@@ -28461,7 +28604,7 @@
         <f t="shared" si="26"/>
         <v>127</v>
       </c>
-      <c r="AA189" s="23" t="str">
+      <c r="AA189" s="35" t="str">
         <f t="shared" si="26"/>
         <v>128</v>
       </c>
@@ -28486,14 +28629,14 @@
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="35" t="str">
-        <f t="shared" ref="G190:AC190" si="27">DEC2HEX(G236)</f>
+        <f t="shared" ref="G190:AC190" si="27">DEC2HEX(G215)</f>
         <v>12B</v>
       </c>
       <c r="H190" s="35" t="str">
         <f t="shared" si="27"/>
         <v>12C</v>
       </c>
-      <c r="I190" s="23" t="str">
+      <c r="I190" s="35" t="str">
         <f t="shared" si="27"/>
         <v>12D</v>
       </c>
@@ -28565,7 +28708,7 @@
         <f t="shared" si="27"/>
         <v>13E</v>
       </c>
-      <c r="AA190" s="23" t="str">
+      <c r="AA190" s="35" t="str">
         <f t="shared" si="27"/>
         <v>13F</v>
       </c>
@@ -28590,14 +28733,14 @@
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="35" t="str">
-        <f t="shared" ref="G191:AC191" si="28">DEC2HEX(G237)</f>
+        <f t="shared" ref="G191:AC191" si="28">DEC2HEX(G216)</f>
         <v>142</v>
       </c>
       <c r="H191" s="35" t="str">
         <f t="shared" si="28"/>
         <v>143</v>
       </c>
-      <c r="I191" s="23" t="str">
+      <c r="I191" s="35" t="str">
         <f t="shared" si="28"/>
         <v>144</v>
       </c>
@@ -28669,7 +28812,7 @@
         <f t="shared" si="28"/>
         <v>155</v>
       </c>
-      <c r="AA191" s="23" t="str">
+      <c r="AA191" s="35" t="str">
         <f t="shared" si="28"/>
         <v>156</v>
       </c>
@@ -28690,86 +28833,86 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="35" t="str">
-        <f t="shared" ref="G192:AC192" si="29">DEC2HEX(G238)</f>
+        <f t="shared" ref="G192:AC192" si="29">DEC2HEX(G217)</f>
         <v>159</v>
       </c>
       <c r="H192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>15A</v>
       </c>
-      <c r="I192" s="23" t="str">
+      <c r="I192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>15B</v>
       </c>
-      <c r="J192" s="23" t="str">
+      <c r="J192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>15C</v>
       </c>
-      <c r="K192" s="23" t="str">
+      <c r="K192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>15D</v>
       </c>
-      <c r="L192" s="23" t="str">
+      <c r="L192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>15E</v>
       </c>
-      <c r="M192" s="23" t="str">
+      <c r="M192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>15F</v>
       </c>
-      <c r="N192" s="23" t="str">
+      <c r="N192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>160</v>
       </c>
-      <c r="O192" s="23" t="str">
+      <c r="O192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>161</v>
       </c>
-      <c r="P192" s="23" t="str">
+      <c r="P192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>162</v>
       </c>
-      <c r="Q192" s="23" t="str">
+      <c r="Q192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>163</v>
       </c>
-      <c r="R192" s="28" t="str">
+      <c r="R192" s="36" t="str">
         <f t="shared" si="29"/>
         <v>164</v>
       </c>
-      <c r="S192" s="23" t="str">
+      <c r="S192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>165</v>
       </c>
-      <c r="T192" s="23" t="str">
+      <c r="T192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>166</v>
       </c>
-      <c r="U192" s="23" t="str">
+      <c r="U192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>167</v>
       </c>
-      <c r="V192" s="23" t="str">
+      <c r="V192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>168</v>
       </c>
-      <c r="W192" s="23" t="str">
+      <c r="W192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>169</v>
       </c>
-      <c r="X192" s="23" t="str">
+      <c r="X192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>16A</v>
       </c>
-      <c r="Y192" s="23" t="str">
+      <c r="Y192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>16B</v>
       </c>
-      <c r="Z192" s="23" t="str">
+      <c r="Z192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>16C</v>
       </c>
-      <c r="AA192" s="23" t="str">
+      <c r="AA192" s="35" t="str">
         <f t="shared" si="29"/>
         <v>16D</v>
       </c>
@@ -28790,7 +28933,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="35" t="str">
-        <f t="shared" ref="G193:AC193" si="30">DEC2HEX(G239)</f>
+        <f t="shared" ref="G193:AC193" si="30">DEC2HEX(G218)</f>
         <v>170</v>
       </c>
       <c r="H193" s="35" t="str">
@@ -28890,7 +29033,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="35" t="str">
-        <f t="shared" ref="G194:AC194" si="31">DEC2HEX(G240)</f>
+        <f t="shared" ref="G194:AC194" si="31">DEC2HEX(G219)</f>
         <v>187</v>
       </c>
       <c r="H194" s="35" t="str">
@@ -29036,2807 +29179,7000 @@
     <row r="197" spans="1:29">
       <c r="I197" s="5"/>
     </row>
-    <row r="198" spans="1:29">
-      <c r="F198" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K198" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L198" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M198" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O198" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P198" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q198" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R198" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="S198" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="T198" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="U198" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="V198" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="W198" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="X198" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y198" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z198" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="199" spans="1:29">
-      <c r="A199" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G199">
-        <v>-3</v>
-      </c>
-      <c r="H199">
-        <v>-2</v>
-      </c>
-      <c r="I199">
-        <v>-1</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K199" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L199" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M199" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O199" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P199" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q199" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R199" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="S199" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T199" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U199" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V199" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W199" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="X199" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y199" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z199" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA199">
-        <v>11</v>
-      </c>
-      <c r="AB199">
-        <v>12</v>
-      </c>
-      <c r="AC199">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:29">
-      <c r="D200" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F200" s="33"/>
-      <c r="G200" s="34"/>
-      <c r="H200" s="34"/>
-      <c r="I200" s="23"/>
-      <c r="J200" s="23"/>
-      <c r="K200" s="23"/>
-      <c r="L200" s="23"/>
-      <c r="M200" s="23"/>
-      <c r="N200" s="23"/>
-      <c r="O200" s="23"/>
-      <c r="P200" s="23"/>
-      <c r="Q200" s="23"/>
-      <c r="R200" s="23"/>
-      <c r="S200" s="23"/>
-      <c r="T200" s="23"/>
-      <c r="U200" s="23"/>
-      <c r="V200" s="23"/>
-      <c r="W200" s="23"/>
-      <c r="X200" s="23"/>
-      <c r="Y200" s="23"/>
-      <c r="Z200" s="23"/>
-      <c r="AA200" s="23"/>
-      <c r="AB200" s="34"/>
-      <c r="AC200" s="34"/>
-    </row>
     <row r="201" spans="1:29">
-      <c r="D201" s="32">
-        <v>-3</v>
-      </c>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33"/>
-      <c r="G201" s="34"/>
-      <c r="H201" s="34"/>
-      <c r="I201" s="23"/>
-      <c r="J201" s="23"/>
-      <c r="K201" s="23"/>
-      <c r="L201" s="23"/>
-      <c r="M201" s="23"/>
-      <c r="N201" s="23"/>
-      <c r="O201" s="23"/>
-      <c r="P201" s="23"/>
-      <c r="Q201" s="23"/>
-      <c r="R201" s="23"/>
-      <c r="S201" s="23"/>
-      <c r="T201" s="23"/>
-      <c r="U201" s="23"/>
-      <c r="V201" s="23"/>
-      <c r="W201" s="23"/>
-      <c r="X201" s="23"/>
-      <c r="Y201" s="23"/>
-      <c r="Z201" s="23"/>
-      <c r="AA201" s="23"/>
-      <c r="AB201" s="34"/>
-      <c r="AC201" s="34"/>
+      <c r="A201" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="202" spans="1:29">
-      <c r="D202" s="32">
-        <v>-2</v>
-      </c>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33"/>
-      <c r="G202" s="34"/>
-      <c r="H202" s="34"/>
-      <c r="I202" s="23"/>
-      <c r="J202" s="23"/>
-      <c r="K202" s="23"/>
-      <c r="L202" s="23"/>
-      <c r="M202" s="23"/>
-      <c r="N202" s="23"/>
-      <c r="O202" s="23"/>
-      <c r="P202" s="23"/>
-      <c r="Q202" s="23"/>
-      <c r="R202" s="23"/>
-      <c r="S202" s="23"/>
-      <c r="T202" s="23"/>
-      <c r="U202" s="23"/>
-      <c r="V202" s="23"/>
-      <c r="W202" s="23"/>
-      <c r="X202" s="23"/>
-      <c r="Y202" s="23"/>
-      <c r="Z202" s="23"/>
-      <c r="AA202" s="23"/>
-      <c r="AB202" s="34"/>
-      <c r="AC202" s="34"/>
-    </row>
-    <row r="203" spans="1:29">
-      <c r="D203" s="32">
-        <v>-1</v>
-      </c>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33"/>
-      <c r="G203" s="34"/>
-      <c r="H203" s="34"/>
-      <c r="I203" s="23"/>
-      <c r="J203" s="23"/>
-      <c r="K203" s="23"/>
-      <c r="L203" s="23"/>
-      <c r="M203" s="23"/>
-      <c r="N203" s="23"/>
-      <c r="O203" s="23"/>
-      <c r="P203" s="23"/>
-      <c r="Q203" s="23"/>
-      <c r="R203" s="28"/>
-      <c r="S203" s="23"/>
-      <c r="T203" s="23"/>
-      <c r="U203" s="23"/>
-      <c r="V203" s="23"/>
-      <c r="W203" s="23"/>
-      <c r="X203" s="23"/>
-      <c r="Y203" s="23"/>
-      <c r="Z203" s="23"/>
-      <c r="AA203" s="23"/>
-      <c r="AB203" s="34"/>
-      <c r="AC203" s="34"/>
-    </row>
-    <row r="204" spans="1:29">
-      <c r="A204" t="s">
-        <v>93</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F204" s="4"/>
-      <c r="G204" s="34"/>
-      <c r="H204" s="34"/>
-      <c r="I204" s="23"/>
-      <c r="J204" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="K204" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L204" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="M204" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="N204" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="O204" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="P204" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q204" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="R204" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="S204" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="T204" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="U204" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="V204" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="W204" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="X204" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y204" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z204" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA204" s="23"/>
-      <c r="AB204" s="34"/>
-      <c r="AC204" s="34"/>
-    </row>
-    <row r="205" spans="1:29">
-      <c r="A205" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F205" s="4"/>
-      <c r="G205" s="34"/>
-      <c r="H205" s="34"/>
-      <c r="I205" s="23"/>
-      <c r="J205" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="K205" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="L205" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="M205" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="N205" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="O205" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="P205" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q205" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="R205" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="S205" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="T205" s="24" t="s">
+      <c r="G202" s="34">
+        <v>0</v>
+      </c>
+      <c r="H202" s="34">
+        <f>G202+1</f>
+        <v>1</v>
+      </c>
+      <c r="I202" s="34">
+        <f t="shared" ref="I202:AC202" si="32">H202+1</f>
         <v>2</v>
       </c>
-      <c r="U205" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="V205" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="W205" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="X205" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y205" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z205" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA205" s="23"/>
-      <c r="AB205" s="34"/>
-      <c r="AC205" s="34"/>
-    </row>
-    <row r="206" spans="1:29">
-      <c r="A206" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F206" s="4"/>
-      <c r="G206" s="34"/>
-      <c r="H206" s="34"/>
-      <c r="I206" s="23"/>
-      <c r="J206" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K206" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L206" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="M206" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N206" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="O206" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="P206" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q206" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="R206" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="S206" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="T206" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="U206" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="V206" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="W206" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X206" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y206" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z206" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA206" s="23"/>
-      <c r="AB206" s="34"/>
-      <c r="AC206" s="34"/>
-    </row>
-    <row r="207" spans="1:29">
-      <c r="A207" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F207" s="4"/>
-      <c r="G207" s="34"/>
-      <c r="H207" s="34"/>
-      <c r="I207" s="23"/>
-      <c r="J207" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K207" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L207" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M207" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N207" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="O207" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="P207" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q207" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="R207" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="S207" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="T207" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="U207" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="V207" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="W207" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="X207" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y207" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z207" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA207" s="23"/>
-      <c r="AB207" s="34"/>
-      <c r="AC207" s="34"/>
-    </row>
-    <row r="208" spans="1:29">
-      <c r="A208" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F208" s="4"/>
-      <c r="G208" s="34"/>
-      <c r="H208" s="34"/>
-      <c r="I208" s="23"/>
-      <c r="J208" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K208" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L208" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M208" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="N208" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="O208" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="P208" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q208" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="R208" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="S208" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="T208" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="U208" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="V208" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="W208" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="X208" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y208" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z208" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA208" s="23"/>
-      <c r="AB208" s="34"/>
-      <c r="AC208" s="34"/>
-    </row>
-    <row r="209" spans="1:29">
-      <c r="A209" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D209" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F209" s="4"/>
-      <c r="G209" s="34"/>
-      <c r="H209" s="34"/>
-      <c r="I209" s="28"/>
-      <c r="J209" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K209" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L209" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="M209" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="N209" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="O209" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P209" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q209" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="R209" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S209" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="T209" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="U209" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="V209" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="W209" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="X209" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y209" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z209" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA209" s="28"/>
-      <c r="AB209" s="34"/>
-      <c r="AC209" s="34"/>
-    </row>
-    <row r="210" spans="1:29">
-      <c r="A210" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F210" s="4"/>
-      <c r="G210" s="34"/>
-      <c r="H210" s="34"/>
-      <c r="I210" s="23"/>
-      <c r="J210" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K210" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="L210" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="M210" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="N210" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="O210" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="P210" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q210" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R210" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S210" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="T210" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="U210" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="V210" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="W210" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="X210" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y210" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z210" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA210" s="23"/>
-      <c r="AB210" s="34"/>
-      <c r="AC210" s="34"/>
-    </row>
-    <row r="211" spans="1:29">
-      <c r="A211" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F211" s="4"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="34"/>
-      <c r="I211" s="23"/>
-      <c r="J211" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="K211" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="L211" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="M211" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N211" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O211" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P211" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q211" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="R211" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="S211" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="T211" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="U211" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="V211" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="W211" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="X211" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y211" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z211" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA211" s="23"/>
-      <c r="AB211" s="34"/>
-      <c r="AC211" s="34"/>
-    </row>
-    <row r="212" spans="1:29">
-      <c r="A212" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F212" s="4"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="34"/>
-      <c r="I212" s="23"/>
-      <c r="J212" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="K212" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="L212" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M212" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N212" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="O212" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="P212" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q212" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="R212" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="S212" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="T212" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="U212" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="V212" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="W212" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="X212" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y212" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z212" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA212" s="23"/>
-      <c r="AB212" s="34"/>
-      <c r="AC212" s="34"/>
-    </row>
-    <row r="213" spans="1:29">
-      <c r="A213" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F213" s="4"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="34"/>
-      <c r="I213" s="23"/>
-      <c r="J213" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="K213" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L213" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="M213" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N213" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="O213" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P213" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q213" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="R213" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="S213" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="T213" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="U213" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="V213" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="W213" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="X213" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y213" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z213" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA213" s="23"/>
-      <c r="AB213" s="34"/>
-      <c r="AC213" s="34"/>
-    </row>
-    <row r="214" spans="1:29">
-      <c r="A214" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F214" s="4"/>
-      <c r="G214" s="34"/>
-      <c r="H214" s="34"/>
-      <c r="I214" s="23"/>
-      <c r="J214" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K214" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L214" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M214" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N214" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="O214" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="P214" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q214" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="R214" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="S214" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="T214" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="U214" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="V214" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="W214" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="X214" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y214" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z214" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA214" s="23"/>
-      <c r="AB214" s="34"/>
-      <c r="AC214" s="34"/>
-    </row>
-    <row r="215" spans="1:29">
-      <c r="A215" s="14"/>
-      <c r="D215" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E215" s="4"/>
-      <c r="F215" s="4"/>
-      <c r="G215" s="34"/>
-      <c r="H215" s="34"/>
-      <c r="I215" s="23"/>
-      <c r="J215" s="23"/>
-      <c r="K215" s="23"/>
-      <c r="L215" s="23"/>
-      <c r="M215" s="23"/>
-      <c r="N215" s="23"/>
-      <c r="O215" s="23"/>
-      <c r="P215" s="23"/>
-      <c r="Q215" s="23"/>
-      <c r="R215" s="28"/>
-      <c r="S215" s="23"/>
-      <c r="T215" s="23"/>
-      <c r="U215" s="23"/>
-      <c r="V215" s="23"/>
-      <c r="W215" s="23"/>
-      <c r="X215" s="23"/>
-      <c r="Y215" s="23"/>
-      <c r="Z215" s="23"/>
-      <c r="AA215" s="23"/>
-      <c r="AB215" s="34"/>
-      <c r="AC215" s="34"/>
-    </row>
-    <row r="216" spans="1:29">
-      <c r="A216" s="14"/>
-      <c r="D216" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="34"/>
-      <c r="H216" s="34"/>
-      <c r="I216" s="23"/>
-      <c r="J216" s="23"/>
-      <c r="K216" s="23"/>
-      <c r="L216" s="23"/>
-      <c r="M216" s="23"/>
-      <c r="N216" s="23"/>
-      <c r="O216" s="23"/>
-      <c r="P216" s="23"/>
-      <c r="Q216" s="23"/>
-      <c r="R216" s="23"/>
-      <c r="S216" s="23"/>
-      <c r="T216" s="23"/>
-      <c r="U216" s="23"/>
-      <c r="V216" s="23"/>
-      <c r="W216" s="23"/>
-      <c r="X216" s="23"/>
-      <c r="Y216" s="23"/>
-      <c r="Z216" s="23"/>
-      <c r="AA216" s="23"/>
-      <c r="AB216" s="34"/>
-      <c r="AC216" s="34"/>
-    </row>
-    <row r="217" spans="1:29">
-      <c r="A217" s="14"/>
-      <c r="D217" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="34"/>
-      <c r="I217" s="23"/>
-      <c r="J217" s="23"/>
-      <c r="K217" s="23"/>
-      <c r="L217" s="23"/>
-      <c r="M217" s="23"/>
-      <c r="N217" s="23"/>
-      <c r="O217" s="23"/>
-      <c r="P217" s="23"/>
-      <c r="Q217" s="23"/>
-      <c r="R217" s="23"/>
-      <c r="S217" s="23"/>
-      <c r="T217" s="23"/>
-      <c r="U217" s="23"/>
-      <c r="V217" s="23"/>
-      <c r="W217" s="23"/>
-      <c r="X217" s="23"/>
-      <c r="Y217" s="23"/>
-      <c r="Z217" s="23"/>
-      <c r="AA217" s="23"/>
-      <c r="AB217" s="34"/>
-      <c r="AC217" s="34"/>
-    </row>
-    <row r="222" spans="1:29">
-      <c r="A222" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="223" spans="1:29">
-      <c r="G223" s="34">
-        <v>0</v>
-      </c>
-      <c r="H223" s="34">
-        <f>G223+1</f>
-        <v>1</v>
-      </c>
-      <c r="I223" s="34">
-        <f t="shared" ref="I223:AC223" si="32">H223+1</f>
-        <v>2</v>
-      </c>
-      <c r="J223" s="34">
+      <c r="J202" s="34">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="K223" s="34">
+      <c r="K202" s="34">
         <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="L223" s="34">
+      <c r="L202" s="34">
         <f t="shared" si="32"/>
         <v>5</v>
       </c>
-      <c r="M223" s="34">
+      <c r="M202" s="34">
         <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="N223" s="34">
+      <c r="N202" s="34">
         <f t="shared" si="32"/>
         <v>7</v>
       </c>
-      <c r="O223" s="34">
+      <c r="O202" s="34">
         <f t="shared" si="32"/>
         <v>8</v>
       </c>
-      <c r="P223" s="34">
+      <c r="P202" s="34">
         <f t="shared" si="32"/>
         <v>9</v>
       </c>
-      <c r="Q223" s="34">
+      <c r="Q202" s="34">
         <f t="shared" si="32"/>
         <v>10</v>
       </c>
-      <c r="R223" s="34">
+      <c r="R202" s="34">
         <f t="shared" si="32"/>
         <v>11</v>
       </c>
-      <c r="S223" s="34">
+      <c r="S202" s="34">
         <f t="shared" si="32"/>
         <v>12</v>
       </c>
-      <c r="T223" s="34">
+      <c r="T202" s="34">
         <f t="shared" si="32"/>
         <v>13</v>
       </c>
-      <c r="U223" s="34">
+      <c r="U202" s="34">
         <f t="shared" si="32"/>
         <v>14</v>
       </c>
-      <c r="V223" s="34">
+      <c r="V202" s="34">
         <f t="shared" si="32"/>
         <v>15</v>
       </c>
-      <c r="W223" s="34">
+      <c r="W202" s="34">
         <f t="shared" si="32"/>
         <v>16</v>
       </c>
-      <c r="X223" s="34">
+      <c r="X202" s="34">
         <f t="shared" si="32"/>
         <v>17</v>
       </c>
-      <c r="Y223" s="34">
+      <c r="Y202" s="34">
         <f t="shared" si="32"/>
         <v>18</v>
       </c>
-      <c r="Z223" s="34">
+      <c r="Z202" s="34">
         <f t="shared" si="32"/>
         <v>19</v>
       </c>
-      <c r="AA223" s="34">
+      <c r="AA202" s="34">
         <f t="shared" si="32"/>
         <v>20</v>
       </c>
-      <c r="AB223" s="34">
+      <c r="AB202" s="34">
         <f t="shared" si="32"/>
         <v>21</v>
       </c>
-      <c r="AC223" s="34">
+      <c r="AC202" s="34">
         <f t="shared" si="32"/>
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:29">
-      <c r="G224" s="34">
-        <f>AC223+1</f>
+    <row r="203" spans="1:29">
+      <c r="G203" s="34">
+        <f>AC202+1</f>
         <v>23</v>
       </c>
-      <c r="H224" s="34">
-        <f>G224+1</f>
+      <c r="H203" s="34">
+        <f>G203+1</f>
         <v>24</v>
       </c>
-      <c r="I224" s="34">
-        <f t="shared" ref="I224:AC224" si="33">H224+1</f>
+      <c r="I203" s="34">
+        <f t="shared" ref="I203:AC203" si="33">H203+1</f>
         <v>25</v>
       </c>
-      <c r="J224" s="34">
+      <c r="J203" s="34">
         <f t="shared" si="33"/>
         <v>26</v>
       </c>
-      <c r="K224" s="34">
+      <c r="K203" s="34">
         <f t="shared" si="33"/>
         <v>27</v>
       </c>
-      <c r="L224" s="34">
+      <c r="L203" s="34">
         <f t="shared" si="33"/>
         <v>28</v>
       </c>
-      <c r="M224" s="34">
+      <c r="M203" s="34">
         <f t="shared" si="33"/>
         <v>29</v>
       </c>
-      <c r="N224" s="34">
+      <c r="N203" s="34">
         <f t="shared" si="33"/>
         <v>30</v>
       </c>
-      <c r="O224" s="34">
+      <c r="O203" s="34">
         <f t="shared" si="33"/>
         <v>31</v>
       </c>
-      <c r="P224" s="34">
+      <c r="P203" s="34">
         <f t="shared" si="33"/>
         <v>32</v>
       </c>
-      <c r="Q224" s="34">
+      <c r="Q203" s="34">
         <f t="shared" si="33"/>
         <v>33</v>
       </c>
-      <c r="R224" s="34">
+      <c r="R203" s="34">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="S224" s="34">
+      <c r="S203" s="34">
         <f t="shared" si="33"/>
         <v>35</v>
       </c>
-      <c r="T224" s="34">
+      <c r="T203" s="34">
         <f t="shared" si="33"/>
         <v>36</v>
       </c>
-      <c r="U224" s="34">
+      <c r="U203" s="34">
         <f t="shared" si="33"/>
         <v>37</v>
       </c>
-      <c r="V224" s="34">
+      <c r="V203" s="34">
         <f t="shared" si="33"/>
         <v>38</v>
       </c>
-      <c r="W224" s="34">
+      <c r="W203" s="34">
         <f t="shared" si="33"/>
         <v>39</v>
       </c>
-      <c r="X224" s="34">
+      <c r="X203" s="34">
         <f t="shared" si="33"/>
         <v>40</v>
       </c>
-      <c r="Y224" s="34">
+      <c r="Y203" s="34">
         <f t="shared" si="33"/>
         <v>41</v>
       </c>
-      <c r="Z224" s="34">
+      <c r="Z203" s="34">
         <f t="shared" si="33"/>
         <v>42</v>
       </c>
-      <c r="AA224" s="34">
+      <c r="AA203" s="34">
         <f t="shared" si="33"/>
         <v>43</v>
       </c>
-      <c r="AB224" s="34">
+      <c r="AB203" s="34">
         <f t="shared" si="33"/>
         <v>44</v>
       </c>
-      <c r="AC224" s="34">
+      <c r="AC203" s="34">
         <f t="shared" si="33"/>
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="7:29">
-      <c r="G225" s="34">
-        <f t="shared" ref="G225:G240" si="34">AC224+1</f>
+    <row r="204" spans="1:29">
+      <c r="G204" s="34">
+        <f t="shared" ref="G204:G219" si="34">AC203+1</f>
         <v>46</v>
       </c>
-      <c r="H225" s="34">
-        <f t="shared" ref="H225:AC225" si="35">G225+1</f>
+      <c r="H204" s="34">
+        <f t="shared" ref="H204:AC204" si="35">G204+1</f>
         <v>47</v>
       </c>
-      <c r="I225" s="34">
+      <c r="I204" s="34">
         <f t="shared" si="35"/>
         <v>48</v>
       </c>
-      <c r="J225" s="34">
+      <c r="J204" s="34">
         <f t="shared" si="35"/>
         <v>49</v>
       </c>
-      <c r="K225" s="34">
+      <c r="K204" s="34">
         <f t="shared" si="35"/>
         <v>50</v>
       </c>
-      <c r="L225" s="34">
+      <c r="L204" s="34">
         <f t="shared" si="35"/>
         <v>51</v>
       </c>
-      <c r="M225" s="34">
+      <c r="M204" s="34">
         <f t="shared" si="35"/>
         <v>52</v>
       </c>
-      <c r="N225" s="34">
+      <c r="N204" s="34">
         <f t="shared" si="35"/>
         <v>53</v>
       </c>
-      <c r="O225" s="34">
+      <c r="O204" s="34">
         <f t="shared" si="35"/>
         <v>54</v>
       </c>
-      <c r="P225" s="34">
+      <c r="P204" s="34">
         <f t="shared" si="35"/>
         <v>55</v>
       </c>
-      <c r="Q225" s="34">
+      <c r="Q204" s="34">
         <f t="shared" si="35"/>
         <v>56</v>
       </c>
-      <c r="R225" s="34">
+      <c r="R204" s="34">
         <f t="shared" si="35"/>
         <v>57</v>
       </c>
-      <c r="S225" s="34">
+      <c r="S204" s="34">
         <f t="shared" si="35"/>
         <v>58</v>
       </c>
-      <c r="T225" s="34">
+      <c r="T204" s="34">
         <f t="shared" si="35"/>
         <v>59</v>
       </c>
-      <c r="U225" s="34">
+      <c r="U204" s="34">
         <f t="shared" si="35"/>
         <v>60</v>
       </c>
-      <c r="V225" s="34">
+      <c r="V204" s="34">
         <f t="shared" si="35"/>
         <v>61</v>
       </c>
-      <c r="W225" s="34">
+      <c r="W204" s="34">
         <f t="shared" si="35"/>
         <v>62</v>
       </c>
-      <c r="X225" s="34">
+      <c r="X204" s="34">
         <f t="shared" si="35"/>
         <v>63</v>
       </c>
-      <c r="Y225" s="34">
+      <c r="Y204" s="34">
         <f t="shared" si="35"/>
         <v>64</v>
       </c>
-      <c r="Z225" s="34">
+      <c r="Z204" s="34">
         <f t="shared" si="35"/>
         <v>65</v>
       </c>
-      <c r="AA225" s="34">
+      <c r="AA204" s="34">
         <f t="shared" si="35"/>
         <v>66</v>
       </c>
-      <c r="AB225" s="34">
+      <c r="AB204" s="34">
         <f t="shared" si="35"/>
         <v>67</v>
       </c>
-      <c r="AC225" s="34">
+      <c r="AC204" s="34">
         <f t="shared" si="35"/>
         <v>68</v>
       </c>
     </row>
-    <row r="226" spans="7:29">
-      <c r="G226" s="34">
+    <row r="205" spans="1:29">
+      <c r="G205" s="34">
         <f t="shared" si="34"/>
         <v>69</v>
       </c>
-      <c r="H226" s="34">
-        <f t="shared" ref="H226:AC226" si="36">G226+1</f>
+      <c r="H205" s="34">
+        <f t="shared" ref="H205:AC205" si="36">G205+1</f>
         <v>70</v>
       </c>
-      <c r="I226" s="34">
+      <c r="I205" s="34">
         <f t="shared" si="36"/>
         <v>71</v>
       </c>
-      <c r="J226" s="34">
+      <c r="J205" s="34">
         <f t="shared" si="36"/>
         <v>72</v>
       </c>
-      <c r="K226" s="34">
+      <c r="K205" s="34">
         <f t="shared" si="36"/>
         <v>73</v>
       </c>
-      <c r="L226" s="34">
+      <c r="L205" s="34">
         <f t="shared" si="36"/>
         <v>74</v>
       </c>
-      <c r="M226" s="34">
+      <c r="M205" s="34">
         <f t="shared" si="36"/>
         <v>75</v>
       </c>
-      <c r="N226" s="34">
+      <c r="N205" s="34">
         <f t="shared" si="36"/>
         <v>76</v>
       </c>
-      <c r="O226" s="34">
+      <c r="O205" s="34">
         <f t="shared" si="36"/>
         <v>77</v>
       </c>
-      <c r="P226" s="34">
+      <c r="P205" s="34">
         <f t="shared" si="36"/>
         <v>78</v>
       </c>
-      <c r="Q226" s="34">
+      <c r="Q205" s="34">
         <f t="shared" si="36"/>
         <v>79</v>
       </c>
-      <c r="R226" s="34">
+      <c r="R205" s="34">
         <f t="shared" si="36"/>
         <v>80</v>
       </c>
-      <c r="S226" s="34">
+      <c r="S205" s="34">
         <f t="shared" si="36"/>
         <v>81</v>
       </c>
-      <c r="T226" s="34">
+      <c r="T205" s="34">
         <f t="shared" si="36"/>
         <v>82</v>
       </c>
-      <c r="U226" s="34">
+      <c r="U205" s="34">
         <f t="shared" si="36"/>
         <v>83</v>
       </c>
-      <c r="V226" s="34">
+      <c r="V205" s="34">
         <f t="shared" si="36"/>
         <v>84</v>
       </c>
-      <c r="W226" s="34">
+      <c r="W205" s="34">
         <f t="shared" si="36"/>
         <v>85</v>
       </c>
-      <c r="X226" s="34">
+      <c r="X205" s="34">
         <f t="shared" si="36"/>
         <v>86</v>
       </c>
-      <c r="Y226" s="34">
+      <c r="Y205" s="34">
         <f t="shared" si="36"/>
         <v>87</v>
       </c>
-      <c r="Z226" s="34">
+      <c r="Z205" s="34">
         <f t="shared" si="36"/>
         <v>88</v>
       </c>
-      <c r="AA226" s="34">
+      <c r="AA205" s="34">
         <f t="shared" si="36"/>
         <v>89</v>
       </c>
-      <c r="AB226" s="34">
+      <c r="AB205" s="34">
         <f t="shared" si="36"/>
         <v>90</v>
       </c>
-      <c r="AC226" s="34">
+      <c r="AC205" s="34">
         <f t="shared" si="36"/>
         <v>91</v>
       </c>
     </row>
-    <row r="227" spans="7:29">
-      <c r="G227" s="34">
+    <row r="206" spans="1:29">
+      <c r="G206" s="34">
         <f t="shared" si="34"/>
         <v>92</v>
       </c>
-      <c r="H227" s="34">
-        <f t="shared" ref="H227:AC227" si="37">G227+1</f>
+      <c r="H206" s="34">
+        <f t="shared" ref="H206:AC206" si="37">G206+1</f>
         <v>93</v>
       </c>
-      <c r="I227" s="34">
+      <c r="I206" s="34">
         <f t="shared" si="37"/>
         <v>94</v>
       </c>
-      <c r="J227" s="34">
+      <c r="J206" s="34">
         <f t="shared" si="37"/>
         <v>95</v>
       </c>
-      <c r="K227" s="34">
+      <c r="K206" s="34">
         <f t="shared" si="37"/>
         <v>96</v>
       </c>
-      <c r="L227" s="34">
+      <c r="L206" s="34">
         <f t="shared" si="37"/>
         <v>97</v>
       </c>
-      <c r="M227" s="34">
+      <c r="M206" s="34">
         <f t="shared" si="37"/>
         <v>98</v>
       </c>
-      <c r="N227" s="34">
+      <c r="N206" s="34">
         <f t="shared" si="37"/>
         <v>99</v>
       </c>
-      <c r="O227" s="34">
+      <c r="O206" s="34">
         <f t="shared" si="37"/>
         <v>100</v>
       </c>
-      <c r="P227" s="34">
+      <c r="P206" s="34">
         <f t="shared" si="37"/>
         <v>101</v>
       </c>
-      <c r="Q227" s="34">
+      <c r="Q206" s="34">
         <f t="shared" si="37"/>
         <v>102</v>
       </c>
-      <c r="R227" s="34">
+      <c r="R206" s="34">
         <f t="shared" si="37"/>
         <v>103</v>
       </c>
-      <c r="S227" s="34">
+      <c r="S206" s="34">
         <f t="shared" si="37"/>
         <v>104</v>
       </c>
-      <c r="T227" s="34">
+      <c r="T206" s="34">
         <f t="shared" si="37"/>
         <v>105</v>
       </c>
-      <c r="U227" s="34">
+      <c r="U206" s="34">
         <f t="shared" si="37"/>
         <v>106</v>
       </c>
-      <c r="V227" s="34">
+      <c r="V206" s="34">
         <f t="shared" si="37"/>
         <v>107</v>
       </c>
-      <c r="W227" s="34">
+      <c r="W206" s="34">
         <f t="shared" si="37"/>
         <v>108</v>
       </c>
-      <c r="X227" s="34">
+      <c r="X206" s="34">
         <f t="shared" si="37"/>
         <v>109</v>
       </c>
-      <c r="Y227" s="34">
+      <c r="Y206" s="34">
         <f t="shared" si="37"/>
         <v>110</v>
       </c>
-      <c r="Z227" s="34">
+      <c r="Z206" s="34">
         <f t="shared" si="37"/>
         <v>111</v>
       </c>
-      <c r="AA227" s="34">
+      <c r="AA206" s="34">
         <f t="shared" si="37"/>
         <v>112</v>
       </c>
-      <c r="AB227" s="34">
+      <c r="AB206" s="34">
         <f t="shared" si="37"/>
         <v>113</v>
       </c>
-      <c r="AC227" s="34">
+      <c r="AC206" s="34">
         <f t="shared" si="37"/>
         <v>114</v>
       </c>
     </row>
-    <row r="228" spans="7:29">
-      <c r="G228" s="34">
+    <row r="207" spans="1:29">
+      <c r="G207" s="34">
         <f t="shared" si="34"/>
         <v>115</v>
       </c>
-      <c r="H228" s="34">
-        <f t="shared" ref="H228:AC228" si="38">G228+1</f>
+      <c r="H207" s="34">
+        <f t="shared" ref="H207:AC207" si="38">G207+1</f>
         <v>116</v>
       </c>
-      <c r="I228" s="34">
+      <c r="I207" s="34">
         <f t="shared" si="38"/>
         <v>117</v>
       </c>
-      <c r="J228" s="34">
+      <c r="J207" s="34">
         <f t="shared" si="38"/>
         <v>118</v>
       </c>
-      <c r="K228" s="34">
+      <c r="K207" s="34">
         <f t="shared" si="38"/>
         <v>119</v>
       </c>
-      <c r="L228" s="34">
+      <c r="L207" s="34">
         <f t="shared" si="38"/>
         <v>120</v>
       </c>
-      <c r="M228" s="34">
+      <c r="M207" s="34">
         <f t="shared" si="38"/>
         <v>121</v>
       </c>
-      <c r="N228" s="34">
+      <c r="N207" s="34">
         <f t="shared" si="38"/>
         <v>122</v>
       </c>
-      <c r="O228" s="34">
+      <c r="O207" s="34">
         <f t="shared" si="38"/>
         <v>123</v>
       </c>
-      <c r="P228" s="34">
+      <c r="P207" s="34">
         <f t="shared" si="38"/>
         <v>124</v>
       </c>
-      <c r="Q228" s="34">
+      <c r="Q207" s="34">
         <f t="shared" si="38"/>
         <v>125</v>
       </c>
-      <c r="R228" s="34">
+      <c r="R207" s="34">
         <f t="shared" si="38"/>
         <v>126</v>
       </c>
-      <c r="S228" s="34">
+      <c r="S207" s="34">
         <f t="shared" si="38"/>
         <v>127</v>
       </c>
-      <c r="T228" s="34">
+      <c r="T207" s="34">
         <f t="shared" si="38"/>
         <v>128</v>
       </c>
-      <c r="U228" s="34">
+      <c r="U207" s="34">
         <f t="shared" si="38"/>
         <v>129</v>
       </c>
-      <c r="V228" s="34">
+      <c r="V207" s="34">
         <f t="shared" si="38"/>
         <v>130</v>
       </c>
-      <c r="W228" s="34">
+      <c r="W207" s="34">
         <f t="shared" si="38"/>
         <v>131</v>
       </c>
-      <c r="X228" s="34">
+      <c r="X207" s="34">
         <f t="shared" si="38"/>
         <v>132</v>
       </c>
-      <c r="Y228" s="34">
+      <c r="Y207" s="34">
         <f t="shared" si="38"/>
         <v>133</v>
       </c>
-      <c r="Z228" s="34">
+      <c r="Z207" s="34">
         <f t="shared" si="38"/>
         <v>134</v>
       </c>
-      <c r="AA228" s="34">
+      <c r="AA207" s="34">
         <f t="shared" si="38"/>
         <v>135</v>
       </c>
-      <c r="AB228" s="34">
+      <c r="AB207" s="34">
         <f t="shared" si="38"/>
         <v>136</v>
       </c>
-      <c r="AC228" s="34">
+      <c r="AC207" s="34">
         <f t="shared" si="38"/>
         <v>137</v>
       </c>
     </row>
-    <row r="229" spans="7:29">
-      <c r="G229" s="34">
+    <row r="208" spans="1:29">
+      <c r="G208" s="34">
         <f t="shared" si="34"/>
         <v>138</v>
       </c>
-      <c r="H229" s="34">
-        <f t="shared" ref="H229:AC229" si="39">G229+1</f>
+      <c r="H208" s="34">
+        <f t="shared" ref="H208:AC208" si="39">G208+1</f>
         <v>139</v>
       </c>
-      <c r="I229" s="34">
+      <c r="I208" s="34">
         <f t="shared" si="39"/>
         <v>140</v>
       </c>
-      <c r="J229" s="34">
+      <c r="J208" s="34">
         <f t="shared" si="39"/>
         <v>141</v>
       </c>
-      <c r="K229" s="34">
+      <c r="K208" s="34">
         <f t="shared" si="39"/>
         <v>142</v>
       </c>
-      <c r="L229" s="34">
+      <c r="L208" s="34">
         <f t="shared" si="39"/>
         <v>143</v>
       </c>
-      <c r="M229" s="34">
+      <c r="M208" s="34">
         <f t="shared" si="39"/>
         <v>144</v>
       </c>
-      <c r="N229" s="34">
+      <c r="N208" s="34">
         <f t="shared" si="39"/>
         <v>145</v>
       </c>
-      <c r="O229" s="34">
+      <c r="O208" s="34">
         <f t="shared" si="39"/>
         <v>146</v>
       </c>
-      <c r="P229" s="34">
+      <c r="P208" s="34">
         <f t="shared" si="39"/>
         <v>147</v>
       </c>
-      <c r="Q229" s="34">
+      <c r="Q208" s="34">
         <f t="shared" si="39"/>
         <v>148</v>
       </c>
-      <c r="R229" s="34">
+      <c r="R208" s="34">
         <f t="shared" si="39"/>
         <v>149</v>
       </c>
-      <c r="S229" s="34">
+      <c r="S208" s="34">
         <f t="shared" si="39"/>
         <v>150</v>
       </c>
-      <c r="T229" s="34">
+      <c r="T208" s="34">
         <f t="shared" si="39"/>
         <v>151</v>
       </c>
-      <c r="U229" s="34">
+      <c r="U208" s="34">
         <f t="shared" si="39"/>
         <v>152</v>
       </c>
-      <c r="V229" s="34">
+      <c r="V208" s="34">
         <f t="shared" si="39"/>
         <v>153</v>
       </c>
-      <c r="W229" s="34">
+      <c r="W208" s="34">
         <f t="shared" si="39"/>
         <v>154</v>
       </c>
-      <c r="X229" s="34">
+      <c r="X208" s="34">
         <f t="shared" si="39"/>
         <v>155</v>
       </c>
-      <c r="Y229" s="34">
+      <c r="Y208" s="34">
         <f t="shared" si="39"/>
         <v>156</v>
       </c>
-      <c r="Z229" s="34">
+      <c r="Z208" s="34">
         <f t="shared" si="39"/>
         <v>157</v>
       </c>
-      <c r="AA229" s="34">
+      <c r="AA208" s="34">
         <f t="shared" si="39"/>
         <v>158</v>
       </c>
-      <c r="AB229" s="34">
+      <c r="AB208" s="34">
         <f t="shared" si="39"/>
         <v>159</v>
       </c>
-      <c r="AC229" s="34">
+      <c r="AC208" s="34">
         <f t="shared" si="39"/>
         <v>160</v>
       </c>
     </row>
-    <row r="230" spans="7:29">
-      <c r="G230" s="34">
+    <row r="209" spans="7:29">
+      <c r="G209" s="34">
         <f t="shared" si="34"/>
         <v>161</v>
       </c>
-      <c r="H230" s="34">
-        <f t="shared" ref="H230:AC230" si="40">G230+1</f>
+      <c r="H209" s="34">
+        <f t="shared" ref="H209:AC209" si="40">G209+1</f>
         <v>162</v>
       </c>
-      <c r="I230" s="34">
+      <c r="I209" s="34">
         <f t="shared" si="40"/>
         <v>163</v>
       </c>
-      <c r="J230" s="34">
+      <c r="J209" s="34">
         <f t="shared" si="40"/>
         <v>164</v>
       </c>
-      <c r="K230" s="34">
+      <c r="K209" s="34">
         <f t="shared" si="40"/>
         <v>165</v>
       </c>
-      <c r="L230" s="34">
+      <c r="L209" s="34">
         <f t="shared" si="40"/>
         <v>166</v>
       </c>
-      <c r="M230" s="34">
+      <c r="M209" s="34">
         <f t="shared" si="40"/>
         <v>167</v>
       </c>
-      <c r="N230" s="34">
+      <c r="N209" s="34">
         <f t="shared" si="40"/>
         <v>168</v>
       </c>
-      <c r="O230" s="34">
+      <c r="O209" s="34">
         <f t="shared" si="40"/>
         <v>169</v>
       </c>
-      <c r="P230" s="34">
+      <c r="P209" s="34">
         <f t="shared" si="40"/>
         <v>170</v>
       </c>
-      <c r="Q230" s="34">
+      <c r="Q209" s="34">
         <f t="shared" si="40"/>
         <v>171</v>
       </c>
-      <c r="R230" s="34">
+      <c r="R209" s="34">
         <f t="shared" si="40"/>
         <v>172</v>
       </c>
-      <c r="S230" s="34">
+      <c r="S209" s="34">
         <f t="shared" si="40"/>
         <v>173</v>
       </c>
-      <c r="T230" s="34">
+      <c r="T209" s="34">
         <f t="shared" si="40"/>
         <v>174</v>
       </c>
-      <c r="U230" s="34">
+      <c r="U209" s="34">
         <f t="shared" si="40"/>
         <v>175</v>
       </c>
-      <c r="V230" s="34">
+      <c r="V209" s="34">
         <f t="shared" si="40"/>
         <v>176</v>
       </c>
-      <c r="W230" s="34">
+      <c r="W209" s="34">
         <f t="shared" si="40"/>
         <v>177</v>
       </c>
-      <c r="X230" s="34">
+      <c r="X209" s="34">
         <f t="shared" si="40"/>
         <v>178</v>
       </c>
-      <c r="Y230" s="34">
+      <c r="Y209" s="34">
         <f t="shared" si="40"/>
         <v>179</v>
       </c>
-      <c r="Z230" s="34">
+      <c r="Z209" s="34">
         <f t="shared" si="40"/>
         <v>180</v>
       </c>
-      <c r="AA230" s="34">
+      <c r="AA209" s="34">
         <f t="shared" si="40"/>
         <v>181</v>
       </c>
-      <c r="AB230" s="34">
+      <c r="AB209" s="34">
         <f t="shared" si="40"/>
         <v>182</v>
       </c>
-      <c r="AC230" s="34">
+      <c r="AC209" s="34">
         <f t="shared" si="40"/>
         <v>183</v>
       </c>
     </row>
-    <row r="231" spans="7:29">
-      <c r="G231" s="34">
+    <row r="210" spans="7:29">
+      <c r="G210" s="34">
         <f t="shared" si="34"/>
         <v>184</v>
       </c>
-      <c r="H231" s="34">
-        <f t="shared" ref="H231:AC231" si="41">G231+1</f>
+      <c r="H210" s="34">
+        <f t="shared" ref="H210:AC210" si="41">G210+1</f>
         <v>185</v>
       </c>
-      <c r="I231" s="34">
+      <c r="I210" s="34">
         <f t="shared" si="41"/>
         <v>186</v>
       </c>
-      <c r="J231" s="34">
+      <c r="J210" s="34">
         <f t="shared" si="41"/>
         <v>187</v>
       </c>
-      <c r="K231" s="34">
+      <c r="K210" s="34">
         <f t="shared" si="41"/>
         <v>188</v>
       </c>
-      <c r="L231" s="34">
+      <c r="L210" s="34">
         <f t="shared" si="41"/>
         <v>189</v>
       </c>
-      <c r="M231" s="34">
+      <c r="M210" s="34">
         <f t="shared" si="41"/>
         <v>190</v>
       </c>
-      <c r="N231" s="34">
+      <c r="N210" s="34">
         <f t="shared" si="41"/>
         <v>191</v>
       </c>
-      <c r="O231" s="34">
+      <c r="O210" s="34">
         <f t="shared" si="41"/>
         <v>192</v>
       </c>
-      <c r="P231" s="34">
+      <c r="P210" s="34">
         <f t="shared" si="41"/>
         <v>193</v>
       </c>
-      <c r="Q231" s="34">
+      <c r="Q210" s="34">
         <f t="shared" si="41"/>
         <v>194</v>
       </c>
-      <c r="R231" s="34">
+      <c r="R210" s="34">
         <f t="shared" si="41"/>
         <v>195</v>
       </c>
-      <c r="S231" s="34">
+      <c r="S210" s="34">
         <f t="shared" si="41"/>
         <v>196</v>
       </c>
-      <c r="T231" s="34">
+      <c r="T210" s="34">
         <f t="shared" si="41"/>
         <v>197</v>
       </c>
-      <c r="U231" s="34">
+      <c r="U210" s="34">
         <f t="shared" si="41"/>
         <v>198</v>
       </c>
-      <c r="V231" s="34">
+      <c r="V210" s="34">
         <f t="shared" si="41"/>
         <v>199</v>
       </c>
-      <c r="W231" s="34">
+      <c r="W210" s="34">
         <f t="shared" si="41"/>
         <v>200</v>
       </c>
-      <c r="X231" s="34">
+      <c r="X210" s="34">
         <f t="shared" si="41"/>
         <v>201</v>
       </c>
-      <c r="Y231" s="34">
+      <c r="Y210" s="34">
         <f t="shared" si="41"/>
         <v>202</v>
       </c>
-      <c r="Z231" s="34">
+      <c r="Z210" s="34">
         <f t="shared" si="41"/>
         <v>203</v>
       </c>
-      <c r="AA231" s="34">
+      <c r="AA210" s="34">
         <f t="shared" si="41"/>
         <v>204</v>
       </c>
-      <c r="AB231" s="34">
+      <c r="AB210" s="34">
         <f t="shared" si="41"/>
         <v>205</v>
       </c>
-      <c r="AC231" s="34">
+      <c r="AC210" s="34">
         <f t="shared" si="41"/>
         <v>206</v>
       </c>
     </row>
-    <row r="232" spans="7:29">
-      <c r="G232" s="34">
+    <row r="211" spans="7:29">
+      <c r="G211" s="34">
         <f t="shared" si="34"/>
         <v>207</v>
       </c>
-      <c r="H232" s="34">
-        <f t="shared" ref="H232:AC232" si="42">G232+1</f>
+      <c r="H211" s="34">
+        <f t="shared" ref="H211:AC211" si="42">G211+1</f>
         <v>208</v>
       </c>
-      <c r="I232" s="34">
+      <c r="I211" s="34">
         <f t="shared" si="42"/>
         <v>209</v>
       </c>
-      <c r="J232" s="34">
+      <c r="J211" s="34">
         <f t="shared" si="42"/>
         <v>210</v>
       </c>
-      <c r="K232" s="34">
+      <c r="K211" s="34">
         <f t="shared" si="42"/>
         <v>211</v>
       </c>
-      <c r="L232" s="34">
+      <c r="L211" s="34">
         <f t="shared" si="42"/>
         <v>212</v>
       </c>
-      <c r="M232" s="34">
+      <c r="M211" s="34">
         <f t="shared" si="42"/>
         <v>213</v>
       </c>
-      <c r="N232" s="34">
+      <c r="N211" s="34">
         <f t="shared" si="42"/>
         <v>214</v>
       </c>
-      <c r="O232" s="34">
+      <c r="O211" s="34">
         <f t="shared" si="42"/>
         <v>215</v>
       </c>
-      <c r="P232" s="34">
+      <c r="P211" s="34">
         <f t="shared" si="42"/>
         <v>216</v>
       </c>
-      <c r="Q232" s="34">
+      <c r="Q211" s="34">
         <f t="shared" si="42"/>
         <v>217</v>
       </c>
-      <c r="R232" s="34">
+      <c r="R211" s="34">
         <f t="shared" si="42"/>
         <v>218</v>
       </c>
-      <c r="S232" s="34">
+      <c r="S211" s="34">
         <f t="shared" si="42"/>
         <v>219</v>
       </c>
-      <c r="T232" s="34">
+      <c r="T211" s="34">
         <f t="shared" si="42"/>
         <v>220</v>
       </c>
-      <c r="U232" s="34">
+      <c r="U211" s="34">
         <f t="shared" si="42"/>
         <v>221</v>
       </c>
-      <c r="V232" s="34">
+      <c r="V211" s="34">
         <f t="shared" si="42"/>
         <v>222</v>
       </c>
-      <c r="W232" s="34">
+      <c r="W211" s="34">
         <f t="shared" si="42"/>
         <v>223</v>
       </c>
-      <c r="X232" s="34">
+      <c r="X211" s="34">
         <f t="shared" si="42"/>
         <v>224</v>
       </c>
-      <c r="Y232" s="34">
+      <c r="Y211" s="34">
         <f t="shared" si="42"/>
         <v>225</v>
       </c>
-      <c r="Z232" s="34">
+      <c r="Z211" s="34">
         <f t="shared" si="42"/>
         <v>226</v>
       </c>
-      <c r="AA232" s="34">
+      <c r="AA211" s="34">
         <f t="shared" si="42"/>
         <v>227</v>
       </c>
-      <c r="AB232" s="34">
+      <c r="AB211" s="34">
         <f t="shared" si="42"/>
         <v>228</v>
       </c>
-      <c r="AC232" s="34">
+      <c r="AC211" s="34">
         <f t="shared" si="42"/>
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="7:29">
-      <c r="G233" s="34">
+    <row r="212" spans="7:29">
+      <c r="G212" s="34">
         <f t="shared" si="34"/>
         <v>230</v>
       </c>
-      <c r="H233" s="34">
-        <f t="shared" ref="H233:AC233" si="43">G233+1</f>
+      <c r="H212" s="34">
+        <f t="shared" ref="H212:AC212" si="43">G212+1</f>
         <v>231</v>
       </c>
-      <c r="I233" s="34">
+      <c r="I212" s="34">
         <f t="shared" si="43"/>
         <v>232</v>
       </c>
-      <c r="J233" s="34">
+      <c r="J212" s="34">
         <f t="shared" si="43"/>
         <v>233</v>
       </c>
-      <c r="K233" s="34">
+      <c r="K212" s="34">
         <f t="shared" si="43"/>
         <v>234</v>
       </c>
-      <c r="L233" s="34">
+      <c r="L212" s="34">
         <f t="shared" si="43"/>
         <v>235</v>
       </c>
-      <c r="M233" s="34">
+      <c r="M212" s="34">
         <f t="shared" si="43"/>
         <v>236</v>
       </c>
-      <c r="N233" s="34">
+      <c r="N212" s="34">
         <f t="shared" si="43"/>
         <v>237</v>
       </c>
-      <c r="O233" s="34">
+      <c r="O212" s="34">
         <f t="shared" si="43"/>
         <v>238</v>
       </c>
-      <c r="P233" s="34">
+      <c r="P212" s="34">
         <f t="shared" si="43"/>
         <v>239</v>
       </c>
-      <c r="Q233" s="34">
+      <c r="Q212" s="34">
         <f t="shared" si="43"/>
         <v>240</v>
       </c>
-      <c r="R233" s="34">
+      <c r="R212" s="34">
         <f t="shared" si="43"/>
         <v>241</v>
       </c>
-      <c r="S233" s="34">
+      <c r="S212" s="34">
         <f t="shared" si="43"/>
         <v>242</v>
       </c>
-      <c r="T233" s="34">
+      <c r="T212" s="34">
         <f t="shared" si="43"/>
         <v>243</v>
       </c>
-      <c r="U233" s="34">
+      <c r="U212" s="34">
         <f t="shared" si="43"/>
         <v>244</v>
       </c>
-      <c r="V233" s="34">
+      <c r="V212" s="34">
         <f t="shared" si="43"/>
         <v>245</v>
       </c>
-      <c r="W233" s="34">
+      <c r="W212" s="34">
         <f t="shared" si="43"/>
         <v>246</v>
       </c>
-      <c r="X233" s="34">
+      <c r="X212" s="34">
         <f t="shared" si="43"/>
         <v>247</v>
       </c>
-      <c r="Y233" s="34">
+      <c r="Y212" s="34">
         <f t="shared" si="43"/>
         <v>248</v>
       </c>
-      <c r="Z233" s="34">
+      <c r="Z212" s="34">
         <f t="shared" si="43"/>
         <v>249</v>
       </c>
-      <c r="AA233" s="34">
+      <c r="AA212" s="34">
         <f t="shared" si="43"/>
         <v>250</v>
       </c>
-      <c r="AB233" s="34">
+      <c r="AB212" s="34">
         <f t="shared" si="43"/>
         <v>251</v>
       </c>
-      <c r="AC233" s="34">
+      <c r="AC212" s="34">
         <f t="shared" si="43"/>
         <v>252</v>
       </c>
     </row>
-    <row r="234" spans="7:29">
-      <c r="G234" s="34">
+    <row r="213" spans="7:29">
+      <c r="G213" s="34">
         <f t="shared" si="34"/>
         <v>253</v>
       </c>
-      <c r="H234" s="34">
-        <f t="shared" ref="H234:AC234" si="44">G234+1</f>
+      <c r="H213" s="34">
+        <f t="shared" ref="H213:AC213" si="44">G213+1</f>
         <v>254</v>
       </c>
-      <c r="I234" s="34">
+      <c r="I213" s="34">
         <f t="shared" si="44"/>
         <v>255</v>
       </c>
-      <c r="J234" s="34">
+      <c r="J213" s="34">
         <f t="shared" si="44"/>
         <v>256</v>
       </c>
-      <c r="K234" s="34">
+      <c r="K213" s="34">
         <f t="shared" si="44"/>
         <v>257</v>
       </c>
-      <c r="L234" s="34">
+      <c r="L213" s="34">
         <f t="shared" si="44"/>
         <v>258</v>
       </c>
-      <c r="M234" s="34">
+      <c r="M213" s="34">
         <f t="shared" si="44"/>
         <v>259</v>
       </c>
-      <c r="N234" s="34">
+      <c r="N213" s="34">
         <f t="shared" si="44"/>
         <v>260</v>
       </c>
-      <c r="O234" s="34">
+      <c r="O213" s="34">
         <f t="shared" si="44"/>
         <v>261</v>
       </c>
-      <c r="P234" s="34">
+      <c r="P213" s="34">
         <f t="shared" si="44"/>
         <v>262</v>
       </c>
-      <c r="Q234" s="34">
+      <c r="Q213" s="34">
         <f t="shared" si="44"/>
         <v>263</v>
       </c>
-      <c r="R234" s="34">
+      <c r="R213" s="34">
         <f t="shared" si="44"/>
         <v>264</v>
       </c>
-      <c r="S234" s="34">
+      <c r="S213" s="34">
         <f t="shared" si="44"/>
         <v>265</v>
       </c>
-      <c r="T234" s="34">
+      <c r="T213" s="34">
         <f t="shared" si="44"/>
         <v>266</v>
       </c>
-      <c r="U234" s="34">
+      <c r="U213" s="34">
         <f t="shared" si="44"/>
         <v>267</v>
       </c>
-      <c r="V234" s="34">
+      <c r="V213" s="34">
         <f t="shared" si="44"/>
         <v>268</v>
       </c>
-      <c r="W234" s="34">
+      <c r="W213" s="34">
         <f t="shared" si="44"/>
         <v>269</v>
       </c>
-      <c r="X234" s="34">
+      <c r="X213" s="34">
         <f t="shared" si="44"/>
         <v>270</v>
       </c>
-      <c r="Y234" s="34">
+      <c r="Y213" s="34">
         <f t="shared" si="44"/>
         <v>271</v>
       </c>
-      <c r="Z234" s="34">
+      <c r="Z213" s="34">
         <f t="shared" si="44"/>
         <v>272</v>
       </c>
-      <c r="AA234" s="34">
+      <c r="AA213" s="34">
         <f t="shared" si="44"/>
         <v>273</v>
       </c>
-      <c r="AB234" s="34">
+      <c r="AB213" s="34">
         <f t="shared" si="44"/>
         <v>274</v>
       </c>
-      <c r="AC234" s="34">
+      <c r="AC213" s="34">
         <f t="shared" si="44"/>
         <v>275</v>
       </c>
     </row>
-    <row r="235" spans="7:29">
-      <c r="G235" s="34">
+    <row r="214" spans="7:29">
+      <c r="G214" s="34">
         <f t="shared" si="34"/>
         <v>276</v>
       </c>
-      <c r="H235" s="34">
-        <f t="shared" ref="H235:AC235" si="45">G235+1</f>
+      <c r="H214" s="34">
+        <f t="shared" ref="H214:AC214" si="45">G214+1</f>
         <v>277</v>
       </c>
-      <c r="I235" s="34">
+      <c r="I214" s="34">
         <f t="shared" si="45"/>
         <v>278</v>
       </c>
-      <c r="J235" s="34">
+      <c r="J214" s="34">
         <f t="shared" si="45"/>
         <v>279</v>
       </c>
-      <c r="K235" s="34">
+      <c r="K214" s="34">
         <f t="shared" si="45"/>
         <v>280</v>
       </c>
-      <c r="L235" s="34">
+      <c r="L214" s="34">
         <f t="shared" si="45"/>
         <v>281</v>
       </c>
-      <c r="M235" s="34">
+      <c r="M214" s="34">
         <f t="shared" si="45"/>
         <v>282</v>
       </c>
-      <c r="N235" s="34">
+      <c r="N214" s="34">
         <f t="shared" si="45"/>
         <v>283</v>
       </c>
-      <c r="O235" s="34">
+      <c r="O214" s="34">
         <f t="shared" si="45"/>
         <v>284</v>
       </c>
-      <c r="P235" s="34">
+      <c r="P214" s="34">
         <f t="shared" si="45"/>
         <v>285</v>
       </c>
-      <c r="Q235" s="34">
+      <c r="Q214" s="34">
         <f t="shared" si="45"/>
         <v>286</v>
       </c>
-      <c r="R235" s="34">
+      <c r="R214" s="34">
         <f t="shared" si="45"/>
         <v>287</v>
       </c>
-      <c r="S235" s="34">
+      <c r="S214" s="34">
         <f t="shared" si="45"/>
         <v>288</v>
       </c>
-      <c r="T235" s="34">
+      <c r="T214" s="34">
         <f t="shared" si="45"/>
         <v>289</v>
       </c>
-      <c r="U235" s="34">
+      <c r="U214" s="34">
         <f t="shared" si="45"/>
         <v>290</v>
       </c>
-      <c r="V235" s="34">
+      <c r="V214" s="34">
         <f t="shared" si="45"/>
         <v>291</v>
       </c>
-      <c r="W235" s="34">
+      <c r="W214" s="34">
         <f t="shared" si="45"/>
         <v>292</v>
       </c>
-      <c r="X235" s="34">
+      <c r="X214" s="34">
         <f t="shared" si="45"/>
         <v>293</v>
       </c>
-      <c r="Y235" s="34">
+      <c r="Y214" s="34">
         <f t="shared" si="45"/>
         <v>294</v>
       </c>
-      <c r="Z235" s="34">
+      <c r="Z214" s="34">
         <f t="shared" si="45"/>
         <v>295</v>
       </c>
-      <c r="AA235" s="34">
+      <c r="AA214" s="34">
         <f t="shared" si="45"/>
         <v>296</v>
       </c>
-      <c r="AB235" s="34">
+      <c r="AB214" s="34">
         <f t="shared" si="45"/>
         <v>297</v>
       </c>
-      <c r="AC235" s="34">
+      <c r="AC214" s="34">
         <f t="shared" si="45"/>
         <v>298</v>
       </c>
     </row>
-    <row r="236" spans="7:29">
-      <c r="G236" s="34">
+    <row r="215" spans="7:29">
+      <c r="G215" s="34">
         <f t="shared" si="34"/>
         <v>299</v>
       </c>
-      <c r="H236" s="34">
-        <f t="shared" ref="H236:AC236" si="46">G236+1</f>
+      <c r="H215" s="34">
+        <f t="shared" ref="H215:AC215" si="46">G215+1</f>
         <v>300</v>
       </c>
-      <c r="I236" s="34">
+      <c r="I215" s="34">
         <f t="shared" si="46"/>
         <v>301</v>
       </c>
-      <c r="J236" s="34">
+      <c r="J215" s="34">
         <f t="shared" si="46"/>
         <v>302</v>
       </c>
-      <c r="K236" s="34">
+      <c r="K215" s="34">
         <f t="shared" si="46"/>
         <v>303</v>
       </c>
-      <c r="L236" s="34">
+      <c r="L215" s="34">
         <f t="shared" si="46"/>
         <v>304</v>
       </c>
-      <c r="M236" s="34">
+      <c r="M215" s="34">
         <f t="shared" si="46"/>
         <v>305</v>
       </c>
-      <c r="N236" s="34">
+      <c r="N215" s="34">
         <f t="shared" si="46"/>
         <v>306</v>
       </c>
-      <c r="O236" s="34">
+      <c r="O215" s="34">
         <f t="shared" si="46"/>
         <v>307</v>
       </c>
-      <c r="P236" s="34">
+      <c r="P215" s="34">
         <f t="shared" si="46"/>
         <v>308</v>
       </c>
-      <c r="Q236" s="34">
+      <c r="Q215" s="34">
         <f t="shared" si="46"/>
         <v>309</v>
       </c>
-      <c r="R236" s="34">
+      <c r="R215" s="34">
         <f t="shared" si="46"/>
         <v>310</v>
       </c>
-      <c r="S236" s="34">
+      <c r="S215" s="34">
         <f t="shared" si="46"/>
         <v>311</v>
       </c>
-      <c r="T236" s="34">
+      <c r="T215" s="34">
         <f t="shared" si="46"/>
         <v>312</v>
       </c>
-      <c r="U236" s="34">
+      <c r="U215" s="34">
         <f t="shared" si="46"/>
         <v>313</v>
       </c>
-      <c r="V236" s="34">
+      <c r="V215" s="34">
         <f t="shared" si="46"/>
         <v>314</v>
       </c>
-      <c r="W236" s="34">
+      <c r="W215" s="34">
         <f t="shared" si="46"/>
         <v>315</v>
       </c>
-      <c r="X236" s="34">
+      <c r="X215" s="34">
         <f t="shared" si="46"/>
         <v>316</v>
       </c>
-      <c r="Y236" s="34">
+      <c r="Y215" s="34">
         <f t="shared" si="46"/>
         <v>317</v>
       </c>
-      <c r="Z236" s="34">
+      <c r="Z215" s="34">
         <f t="shared" si="46"/>
         <v>318</v>
       </c>
-      <c r="AA236" s="34">
+      <c r="AA215" s="34">
         <f t="shared" si="46"/>
         <v>319</v>
       </c>
-      <c r="AB236" s="34">
+      <c r="AB215" s="34">
         <f t="shared" si="46"/>
         <v>320</v>
       </c>
-      <c r="AC236" s="34">
+      <c r="AC215" s="34">
         <f t="shared" si="46"/>
         <v>321</v>
       </c>
     </row>
-    <row r="237" spans="7:29">
-      <c r="G237" s="34">
+    <row r="216" spans="7:29">
+      <c r="G216" s="34">
         <f t="shared" si="34"/>
         <v>322</v>
       </c>
-      <c r="H237" s="34">
-        <f t="shared" ref="H237:AC237" si="47">G237+1</f>
+      <c r="H216" s="34">
+        <f t="shared" ref="H216:AC216" si="47">G216+1</f>
         <v>323</v>
       </c>
-      <c r="I237" s="34">
+      <c r="I216" s="34">
         <f t="shared" si="47"/>
         <v>324</v>
       </c>
-      <c r="J237" s="34">
+      <c r="J216" s="34">
         <f t="shared" si="47"/>
         <v>325</v>
       </c>
-      <c r="K237" s="34">
+      <c r="K216" s="34">
         <f t="shared" si="47"/>
         <v>326</v>
       </c>
-      <c r="L237" s="34">
+      <c r="L216" s="34">
         <f t="shared" si="47"/>
         <v>327</v>
       </c>
-      <c r="M237" s="34">
+      <c r="M216" s="34">
         <f t="shared" si="47"/>
         <v>328</v>
       </c>
-      <c r="N237" s="34">
+      <c r="N216" s="34">
         <f t="shared" si="47"/>
         <v>329</v>
       </c>
-      <c r="O237" s="34">
+      <c r="O216" s="34">
         <f t="shared" si="47"/>
         <v>330</v>
       </c>
-      <c r="P237" s="34">
+      <c r="P216" s="34">
         <f t="shared" si="47"/>
         <v>331</v>
       </c>
-      <c r="Q237" s="34">
+      <c r="Q216" s="34">
         <f t="shared" si="47"/>
         <v>332</v>
       </c>
-      <c r="R237" s="34">
+      <c r="R216" s="34">
         <f t="shared" si="47"/>
         <v>333</v>
       </c>
-      <c r="S237" s="34">
+      <c r="S216" s="34">
         <f t="shared" si="47"/>
         <v>334</v>
       </c>
-      <c r="T237" s="34">
+      <c r="T216" s="34">
         <f t="shared" si="47"/>
         <v>335</v>
       </c>
-      <c r="U237" s="34">
+      <c r="U216" s="34">
         <f t="shared" si="47"/>
         <v>336</v>
       </c>
-      <c r="V237" s="34">
+      <c r="V216" s="34">
         <f t="shared" si="47"/>
         <v>337</v>
       </c>
-      <c r="W237" s="34">
+      <c r="W216" s="34">
         <f t="shared" si="47"/>
         <v>338</v>
       </c>
-      <c r="X237" s="34">
+      <c r="X216" s="34">
         <f t="shared" si="47"/>
         <v>339</v>
       </c>
-      <c r="Y237" s="34">
+      <c r="Y216" s="34">
         <f t="shared" si="47"/>
         <v>340</v>
       </c>
-      <c r="Z237" s="34">
+      <c r="Z216" s="34">
         <f t="shared" si="47"/>
         <v>341</v>
       </c>
-      <c r="AA237" s="34">
+      <c r="AA216" s="34">
         <f t="shared" si="47"/>
         <v>342</v>
       </c>
-      <c r="AB237" s="34">
+      <c r="AB216" s="34">
         <f t="shared" si="47"/>
         <v>343</v>
       </c>
-      <c r="AC237" s="34">
+      <c r="AC216" s="34">
         <f t="shared" si="47"/>
         <v>344</v>
       </c>
     </row>
-    <row r="238" spans="7:29">
-      <c r="G238" s="34">
+    <row r="217" spans="7:29">
+      <c r="G217" s="34">
         <f t="shared" si="34"/>
         <v>345</v>
       </c>
-      <c r="H238" s="34">
-        <f t="shared" ref="H238:AC238" si="48">G238+1</f>
+      <c r="H217" s="34">
+        <f t="shared" ref="H217:AC217" si="48">G217+1</f>
         <v>346</v>
       </c>
-      <c r="I238" s="34">
+      <c r="I217" s="34">
         <f t="shared" si="48"/>
         <v>347</v>
       </c>
-      <c r="J238" s="34">
+      <c r="J217" s="34">
         <f t="shared" si="48"/>
         <v>348</v>
       </c>
-      <c r="K238" s="34">
+      <c r="K217" s="34">
         <f t="shared" si="48"/>
         <v>349</v>
       </c>
-      <c r="L238" s="34">
+      <c r="L217" s="34">
         <f t="shared" si="48"/>
         <v>350</v>
       </c>
-      <c r="M238" s="34">
+      <c r="M217" s="34">
         <f t="shared" si="48"/>
         <v>351</v>
       </c>
-      <c r="N238" s="34">
+      <c r="N217" s="34">
         <f t="shared" si="48"/>
         <v>352</v>
       </c>
-      <c r="O238" s="34">
+      <c r="O217" s="34">
         <f t="shared" si="48"/>
         <v>353</v>
       </c>
-      <c r="P238" s="34">
+      <c r="P217" s="34">
         <f t="shared" si="48"/>
         <v>354</v>
       </c>
-      <c r="Q238" s="34">
+      <c r="Q217" s="34">
         <f t="shared" si="48"/>
         <v>355</v>
       </c>
-      <c r="R238" s="34">
+      <c r="R217" s="34">
         <f t="shared" si="48"/>
         <v>356</v>
       </c>
-      <c r="S238" s="34">
+      <c r="S217" s="34">
         <f t="shared" si="48"/>
         <v>357</v>
       </c>
-      <c r="T238" s="34">
+      <c r="T217" s="34">
         <f t="shared" si="48"/>
         <v>358</v>
       </c>
-      <c r="U238" s="34">
+      <c r="U217" s="34">
         <f t="shared" si="48"/>
         <v>359</v>
       </c>
-      <c r="V238" s="34">
+      <c r="V217" s="34">
         <f t="shared" si="48"/>
         <v>360</v>
       </c>
-      <c r="W238" s="34">
+      <c r="W217" s="34">
         <f t="shared" si="48"/>
         <v>361</v>
       </c>
-      <c r="X238" s="34">
+      <c r="X217" s="34">
         <f t="shared" si="48"/>
         <v>362</v>
       </c>
-      <c r="Y238" s="34">
+      <c r="Y217" s="34">
         <f t="shared" si="48"/>
         <v>363</v>
       </c>
-      <c r="Z238" s="34">
+      <c r="Z217" s="34">
         <f t="shared" si="48"/>
         <v>364</v>
       </c>
-      <c r="AA238" s="34">
+      <c r="AA217" s="34">
         <f t="shared" si="48"/>
         <v>365</v>
       </c>
-      <c r="AB238" s="34">
+      <c r="AB217" s="34">
         <f t="shared" si="48"/>
         <v>366</v>
       </c>
-      <c r="AC238" s="34">
+      <c r="AC217" s="34">
         <f t="shared" si="48"/>
         <v>367</v>
       </c>
     </row>
-    <row r="239" spans="7:29">
-      <c r="G239" s="34">
+    <row r="218" spans="7:29">
+      <c r="G218" s="34">
         <f t="shared" si="34"/>
         <v>368</v>
       </c>
-      <c r="H239" s="34">
-        <f t="shared" ref="H239:AC239" si="49">G239+1</f>
+      <c r="H218" s="34">
+        <f t="shared" ref="H218:AC218" si="49">G218+1</f>
         <v>369</v>
       </c>
-      <c r="I239" s="34">
+      <c r="I218" s="34">
         <f t="shared" si="49"/>
         <v>370</v>
       </c>
-      <c r="J239" s="34">
+      <c r="J218" s="34">
         <f t="shared" si="49"/>
         <v>371</v>
       </c>
-      <c r="K239" s="34">
+      <c r="K218" s="34">
         <f t="shared" si="49"/>
         <v>372</v>
       </c>
-      <c r="L239" s="34">
+      <c r="L218" s="34">
         <f t="shared" si="49"/>
         <v>373</v>
       </c>
-      <c r="M239" s="34">
+      <c r="M218" s="34">
         <f t="shared" si="49"/>
         <v>374</v>
       </c>
-      <c r="N239" s="34">
+      <c r="N218" s="34">
         <f t="shared" si="49"/>
         <v>375</v>
       </c>
-      <c r="O239" s="34">
+      <c r="O218" s="34">
         <f t="shared" si="49"/>
         <v>376</v>
       </c>
-      <c r="P239" s="34">
+      <c r="P218" s="34">
         <f t="shared" si="49"/>
         <v>377</v>
       </c>
-      <c r="Q239" s="34">
+      <c r="Q218" s="34">
         <f t="shared" si="49"/>
         <v>378</v>
       </c>
-      <c r="R239" s="34">
+      <c r="R218" s="34">
         <f t="shared" si="49"/>
         <v>379</v>
       </c>
-      <c r="S239" s="34">
+      <c r="S218" s="34">
         <f t="shared" si="49"/>
         <v>380</v>
       </c>
-      <c r="T239" s="34">
+      <c r="T218" s="34">
         <f t="shared" si="49"/>
         <v>381</v>
       </c>
-      <c r="U239" s="34">
+      <c r="U218" s="34">
         <f t="shared" si="49"/>
         <v>382</v>
       </c>
-      <c r="V239" s="34">
+      <c r="V218" s="34">
         <f t="shared" si="49"/>
         <v>383</v>
       </c>
-      <c r="W239" s="34">
+      <c r="W218" s="34">
         <f t="shared" si="49"/>
         <v>384</v>
       </c>
-      <c r="X239" s="34">
+      <c r="X218" s="34">
         <f t="shared" si="49"/>
         <v>385</v>
       </c>
-      <c r="Y239" s="34">
+      <c r="Y218" s="34">
         <f t="shared" si="49"/>
         <v>386</v>
       </c>
-      <c r="Z239" s="34">
+      <c r="Z218" s="34">
         <f t="shared" si="49"/>
         <v>387</v>
       </c>
-      <c r="AA239" s="34">
+      <c r="AA218" s="34">
         <f t="shared" si="49"/>
         <v>388</v>
       </c>
-      <c r="AB239" s="34">
+      <c r="AB218" s="34">
         <f t="shared" si="49"/>
         <v>389</v>
       </c>
-      <c r="AC239" s="34">
+      <c r="AC218" s="34">
         <f t="shared" si="49"/>
         <v>390</v>
       </c>
     </row>
-    <row r="240" spans="7:29">
-      <c r="G240" s="34">
+    <row r="219" spans="7:29">
+      <c r="G219" s="34">
         <f t="shared" si="34"/>
         <v>391</v>
       </c>
-      <c r="H240" s="34">
-        <f t="shared" ref="H240:AC240" si="50">G240+1</f>
+      <c r="H219" s="34">
+        <f t="shared" ref="H219:AC219" si="50">G219+1</f>
         <v>392</v>
       </c>
-      <c r="I240" s="34">
+      <c r="I219" s="34">
         <f t="shared" si="50"/>
         <v>393</v>
       </c>
-      <c r="J240" s="34">
+      <c r="J219" s="34">
         <f t="shared" si="50"/>
         <v>394</v>
       </c>
-      <c r="K240" s="34">
+      <c r="K219" s="34">
         <f t="shared" si="50"/>
         <v>395</v>
       </c>
-      <c r="L240" s="34">
+      <c r="L219" s="34">
         <f t="shared" si="50"/>
         <v>396</v>
       </c>
-      <c r="M240" s="34">
+      <c r="M219" s="34">
         <f t="shared" si="50"/>
         <v>397</v>
       </c>
-      <c r="N240" s="34">
+      <c r="N219" s="34">
         <f t="shared" si="50"/>
         <v>398</v>
       </c>
-      <c r="O240" s="34">
+      <c r="O219" s="34">
         <f t="shared" si="50"/>
         <v>399</v>
       </c>
-      <c r="P240" s="34">
+      <c r="P219" s="34">
         <f t="shared" si="50"/>
         <v>400</v>
       </c>
-      <c r="Q240" s="34">
+      <c r="Q219" s="34">
         <f t="shared" si="50"/>
         <v>401</v>
       </c>
-      <c r="R240" s="34">
+      <c r="R219" s="34">
         <f t="shared" si="50"/>
         <v>402</v>
       </c>
-      <c r="S240" s="34">
+      <c r="S219" s="34">
         <f t="shared" si="50"/>
         <v>403</v>
       </c>
-      <c r="T240" s="34">
+      <c r="T219" s="34">
         <f t="shared" si="50"/>
         <v>404</v>
       </c>
-      <c r="U240" s="34">
+      <c r="U219" s="34">
         <f t="shared" si="50"/>
         <v>405</v>
       </c>
-      <c r="V240" s="34">
+      <c r="V219" s="34">
         <f t="shared" si="50"/>
         <v>406</v>
       </c>
-      <c r="W240" s="34">
+      <c r="W219" s="34">
         <f t="shared" si="50"/>
         <v>407</v>
       </c>
-      <c r="X240" s="34">
+      <c r="X219" s="34">
         <f t="shared" si="50"/>
         <v>408</v>
       </c>
-      <c r="Y240" s="34">
+      <c r="Y219" s="34">
         <f t="shared" si="50"/>
         <v>409</v>
       </c>
-      <c r="Z240" s="34">
+      <c r="Z219" s="34">
         <f t="shared" si="50"/>
         <v>410</v>
       </c>
-      <c r="AA240" s="34">
+      <c r="AA219" s="34">
         <f t="shared" si="50"/>
         <v>411</v>
       </c>
-      <c r="AB240" s="34">
+      <c r="AB219" s="34">
         <f t="shared" si="50"/>
         <v>412</v>
       </c>
-      <c r="AC240" s="34">
+      <c r="AC219" s="34">
         <f t="shared" si="50"/>
         <v>413</v>
+      </c>
+    </row>
+    <row r="232" spans="1:34" ht="23.25">
+      <c r="A232" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="234" spans="1:34" ht="23.25">
+      <c r="A234" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:34" ht="18.75">
+      <c r="A235" t="s">
+        <v>206</v>
+      </c>
+      <c r="L235" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="236" spans="1:34" ht="18.75">
+      <c r="L236" s="18"/>
+    </row>
+    <row r="237" spans="1:34" ht="18.75">
+      <c r="A237" t="s">
+        <v>221</v>
+      </c>
+      <c r="D237" t="s">
+        <v>207</v>
+      </c>
+      <c r="E237">
+        <f>AA286</f>
+        <v>532</v>
+      </c>
+      <c r="L237" s="18"/>
+    </row>
+    <row r="238" spans="1:34" ht="18.75">
+      <c r="L238" s="18"/>
+    </row>
+    <row r="239" spans="1:34" ht="18.75">
+      <c r="L239" s="18"/>
+    </row>
+    <row r="240" spans="1:34" ht="18.75">
+      <c r="E240" t="s">
+        <v>228</v>
+      </c>
+      <c r="H240" t="s">
+        <v>229</v>
+      </c>
+      <c r="L240" s="18"/>
+      <c r="AH240">
+        <f>8*4</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="241" spans="1:38" ht="18.75">
+      <c r="E241" t="s">
+        <v>230</v>
+      </c>
+      <c r="H241" t="s">
+        <v>231</v>
+      </c>
+      <c r="L241" s="18"/>
+    </row>
+    <row r="242" spans="1:38" ht="18.75">
+      <c r="F242" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L242" s="18"/>
+    </row>
+    <row r="243" spans="1:38" ht="15.75" thickBot="1">
+      <c r="A243" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G243">
+        <v>-4</v>
+      </c>
+      <c r="H243">
+        <v>-3</v>
+      </c>
+      <c r="I243">
+        <v>-2</v>
+      </c>
+      <c r="J243">
+        <v>-1</v>
+      </c>
+      <c r="K243" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="L243" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="M243" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="N243" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="O243" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="P243" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q243" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="R243" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="S243" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="T243" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="U243" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="V243" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="W243" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="X243" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y243" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z243" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA243" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB243">
+        <v>11</v>
+      </c>
+      <c r="AC243">
+        <v>12</v>
+      </c>
+      <c r="AD243">
+        <v>13</v>
+      </c>
+      <c r="AE243">
+        <v>14</v>
+      </c>
+      <c r="AF243">
+        <v>15</v>
+      </c>
+      <c r="AG243">
+        <v>16</v>
+      </c>
+      <c r="AH243">
+        <v>17</v>
+      </c>
+      <c r="AI243">
+        <v>18</v>
+      </c>
+      <c r="AJ243">
+        <v>19</v>
+      </c>
+      <c r="AK243" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL243" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
+      <c r="D244" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F244" s="33"/>
+      <c r="G244" s="40" t="str">
+        <f>DEC2HEX(G270)</f>
+        <v>0</v>
+      </c>
+      <c r="H244" s="41" t="str">
+        <f t="shared" ref="H244:AC244" si="51">DEC2HEX(H270)</f>
+        <v>1</v>
+      </c>
+      <c r="I244" s="41" t="str">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="J244" s="41" t="str">
+        <f t="shared" ref="J244" si="52">DEC2HEX(J270)</f>
+        <v>3</v>
+      </c>
+      <c r="K244" s="41" t="str">
+        <f>DEC2HEX(K270)</f>
+        <v>4</v>
+      </c>
+      <c r="L244" s="41" t="str">
+        <f>DEC2HEX(L270)</f>
+        <v>5</v>
+      </c>
+      <c r="M244" s="41" t="str">
+        <f>DEC2HEX(M270)</f>
+        <v>6</v>
+      </c>
+      <c r="N244" s="41" t="str">
+        <f>DEC2HEX(N270)</f>
+        <v>7</v>
+      </c>
+      <c r="O244" s="40" t="str">
+        <f>DEC2HEX(O270)</f>
+        <v>8</v>
+      </c>
+      <c r="P244" s="41" t="str">
+        <f>DEC2HEX(P270)</f>
+        <v>9</v>
+      </c>
+      <c r="Q244" s="41" t="str">
+        <f>DEC2HEX(Q270)</f>
+        <v>A</v>
+      </c>
+      <c r="R244" s="45" t="str">
+        <f>DEC2HEX(R270)</f>
+        <v>B</v>
+      </c>
+      <c r="S244" s="45" t="str">
+        <f>DEC2HEX(S270)</f>
+        <v>C</v>
+      </c>
+      <c r="T244" s="45" t="str">
+        <f>DEC2HEX(T270)</f>
+        <v>D</v>
+      </c>
+      <c r="U244" s="41" t="str">
+        <f>DEC2HEX(U270)</f>
+        <v>E</v>
+      </c>
+      <c r="V244" s="42" t="str">
+        <f>DEC2HEX(V270)</f>
+        <v>F</v>
+      </c>
+      <c r="W244" s="43" t="str">
+        <f>DEC2HEX(W270)</f>
+        <v>10</v>
+      </c>
+      <c r="X244" s="43" t="str">
+        <f>DEC2HEX(X270)</f>
+        <v>11</v>
+      </c>
+      <c r="Y244" s="35" t="str">
+        <f>DEC2HEX(Y270)</f>
+        <v>12</v>
+      </c>
+      <c r="Z244" s="35" t="str">
+        <f>DEC2HEX(Z270)</f>
+        <v>13</v>
+      </c>
+      <c r="AA244" s="35" t="str">
+        <f>DEC2HEX(AA270)</f>
+        <v>14</v>
+      </c>
+      <c r="AB244" s="35" t="str">
+        <f>DEC2HEX(AB270)</f>
+        <v>15</v>
+      </c>
+      <c r="AC244" s="35" t="str">
+        <f>DEC2HEX(AC270)</f>
+        <v>16</v>
+      </c>
+      <c r="AD244" s="35" t="str">
+        <f>DEC2HEX(AD270)</f>
+        <v>17</v>
+      </c>
+      <c r="AE244" s="40" t="str">
+        <f>DEC2HEX(AE270)</f>
+        <v>18</v>
+      </c>
+      <c r="AF244" s="46" t="str">
+        <f t="shared" ref="AF244:AL244" si="53">DEC2HEX(AF270)</f>
+        <v>19</v>
+      </c>
+      <c r="AG244" s="46" t="str">
+        <f t="shared" si="53"/>
+        <v>1A</v>
+      </c>
+      <c r="AH244" s="46" t="str">
+        <f t="shared" si="53"/>
+        <v>1B</v>
+      </c>
+      <c r="AI244" s="46" t="str">
+        <f t="shared" si="53"/>
+        <v>1C</v>
+      </c>
+      <c r="AJ244" s="46" t="str">
+        <f t="shared" si="53"/>
+        <v>1D</v>
+      </c>
+      <c r="AK244" s="46" t="str">
+        <f t="shared" si="53"/>
+        <v>1E</v>
+      </c>
+      <c r="AL244" s="46" t="str">
+        <f t="shared" si="53"/>
+        <v>1F</v>
+      </c>
+    </row>
+    <row r="245" spans="1:38" ht="15.75" thickTop="1">
+      <c r="D245" s="32">
+        <v>-3</v>
+      </c>
+      <c r="E245" s="33"/>
+      <c r="F245" s="33"/>
+      <c r="G245" s="39" t="str">
+        <f t="shared" ref="G245:AC245" si="54">DEC2HEX(G271)</f>
+        <v>20</v>
+      </c>
+      <c r="H245" s="39" t="str">
+        <f t="shared" si="54"/>
+        <v>21</v>
+      </c>
+      <c r="I245" s="39" t="str">
+        <f t="shared" si="54"/>
+        <v>22</v>
+      </c>
+      <c r="J245" s="39" t="str">
+        <f t="shared" ref="J245" si="55">DEC2HEX(J271)</f>
+        <v>23</v>
+      </c>
+      <c r="K245" s="39" t="str">
+        <f>DEC2HEX(K271)</f>
+        <v>24</v>
+      </c>
+      <c r="L245" s="39" t="str">
+        <f>DEC2HEX(L271)</f>
+        <v>25</v>
+      </c>
+      <c r="M245" s="39" t="str">
+        <f>DEC2HEX(M271)</f>
+        <v>26</v>
+      </c>
+      <c r="N245" s="39" t="str">
+        <f>DEC2HEX(N271)</f>
+        <v>27</v>
+      </c>
+      <c r="O245" s="39" t="str">
+        <f>DEC2HEX(O271)</f>
+        <v>28</v>
+      </c>
+      <c r="P245" s="39" t="str">
+        <f>DEC2HEX(P271)</f>
+        <v>29</v>
+      </c>
+      <c r="Q245" s="24" t="str">
+        <f>DEC2HEX(Q271)</f>
+        <v>2A</v>
+      </c>
+      <c r="R245" s="25" t="str">
+        <f>DEC2HEX(R271)</f>
+        <v>2B</v>
+      </c>
+      <c r="S245" s="24" t="str">
+        <f>DEC2HEX(S271)</f>
+        <v>2C</v>
+      </c>
+      <c r="T245" s="25" t="str">
+        <f>DEC2HEX(T271)</f>
+        <v>2D</v>
+      </c>
+      <c r="U245" s="24" t="str">
+        <f>DEC2HEX(U271)</f>
+        <v>2E</v>
+      </c>
+      <c r="V245" s="39" t="str">
+        <f>DEC2HEX(V271)</f>
+        <v>2F</v>
+      </c>
+      <c r="W245" s="39" t="str">
+        <f>DEC2HEX(W271)</f>
+        <v>30</v>
+      </c>
+      <c r="X245" s="35" t="str">
+        <f>DEC2HEX(X271)</f>
+        <v>31</v>
+      </c>
+      <c r="Y245" s="35" t="str">
+        <f>DEC2HEX(Y271)</f>
+        <v>32</v>
+      </c>
+      <c r="Z245" s="35" t="str">
+        <f>DEC2HEX(Z271)</f>
+        <v>33</v>
+      </c>
+      <c r="AA245" s="35" t="str">
+        <f>DEC2HEX(AA271)</f>
+        <v>34</v>
+      </c>
+      <c r="AB245" s="35" t="str">
+        <f>DEC2HEX(AB271)</f>
+        <v>35</v>
+      </c>
+      <c r="AC245" s="35" t="str">
+        <f>DEC2HEX(AC271)</f>
+        <v>36</v>
+      </c>
+      <c r="AD245" s="35" t="str">
+        <f>DEC2HEX(AD271)</f>
+        <v>37</v>
+      </c>
+      <c r="AE245" s="39" t="str">
+        <f>DEC2HEX(AE271)</f>
+        <v>38</v>
+      </c>
+      <c r="AF245" s="46" t="str">
+        <f t="shared" ref="AF245:AL245" si="56">DEC2HEX(AF271)</f>
+        <v>39</v>
+      </c>
+      <c r="AG245" s="46" t="str">
+        <f t="shared" si="56"/>
+        <v>3A</v>
+      </c>
+      <c r="AH245" s="46" t="str">
+        <f t="shared" si="56"/>
+        <v>3B</v>
+      </c>
+      <c r="AI245" s="46" t="str">
+        <f t="shared" si="56"/>
+        <v>3C</v>
+      </c>
+      <c r="AJ245" s="46" t="str">
+        <f t="shared" si="56"/>
+        <v>3D</v>
+      </c>
+      <c r="AK245" s="46" t="str">
+        <f t="shared" si="56"/>
+        <v>3E</v>
+      </c>
+      <c r="AL245" s="46" t="str">
+        <f t="shared" si="56"/>
+        <v>3F</v>
+      </c>
+    </row>
+    <row r="246" spans="1:38">
+      <c r="D246" s="32">
+        <v>-2</v>
+      </c>
+      <c r="E246" s="33"/>
+      <c r="F246" s="33"/>
+      <c r="G246" s="35" t="str">
+        <f t="shared" ref="G246:AC246" si="57">DEC2HEX(G272)</f>
+        <v>40</v>
+      </c>
+      <c r="H246" s="35" t="str">
+        <f t="shared" si="57"/>
+        <v>41</v>
+      </c>
+      <c r="I246" s="35" t="str">
+        <f t="shared" si="57"/>
+        <v>42</v>
+      </c>
+      <c r="J246" s="35" t="str">
+        <f t="shared" ref="J246" si="58">DEC2HEX(J272)</f>
+        <v>43</v>
+      </c>
+      <c r="K246" s="35" t="str">
+        <f>DEC2HEX(K272)</f>
+        <v>44</v>
+      </c>
+      <c r="L246" s="35" t="str">
+        <f>DEC2HEX(L272)</f>
+        <v>45</v>
+      </c>
+      <c r="M246" s="35" t="str">
+        <f>DEC2HEX(M272)</f>
+        <v>46</v>
+      </c>
+      <c r="N246" s="35" t="str">
+        <f>DEC2HEX(N272)</f>
+        <v>47</v>
+      </c>
+      <c r="O246" s="35" t="str">
+        <f>DEC2HEX(O272)</f>
+        <v>48</v>
+      </c>
+      <c r="P246" s="24" t="str">
+        <f>DEC2HEX(P272)</f>
+        <v>49</v>
+      </c>
+      <c r="Q246" s="24" t="str">
+        <f>DEC2HEX(Q272)</f>
+        <v>4A</v>
+      </c>
+      <c r="R246" s="24" t="str">
+        <f>DEC2HEX(R272)</f>
+        <v>4B</v>
+      </c>
+      <c r="S246" s="24" t="str">
+        <f>DEC2HEX(S272)</f>
+        <v>4C</v>
+      </c>
+      <c r="T246" s="24" t="str">
+        <f>DEC2HEX(T272)</f>
+        <v>4D</v>
+      </c>
+      <c r="U246" s="24" t="str">
+        <f>DEC2HEX(U272)</f>
+        <v>4E</v>
+      </c>
+      <c r="V246" s="24" t="str">
+        <f>DEC2HEX(V272)</f>
+        <v>4F</v>
+      </c>
+      <c r="W246" s="35" t="str">
+        <f>DEC2HEX(W272)</f>
+        <v>50</v>
+      </c>
+      <c r="X246" s="35" t="str">
+        <f>DEC2HEX(X272)</f>
+        <v>51</v>
+      </c>
+      <c r="Y246" s="35" t="str">
+        <f>DEC2HEX(Y272)</f>
+        <v>52</v>
+      </c>
+      <c r="Z246" s="35" t="str">
+        <f>DEC2HEX(Z272)</f>
+        <v>53</v>
+      </c>
+      <c r="AA246" s="35" t="str">
+        <f>DEC2HEX(AA272)</f>
+        <v>54</v>
+      </c>
+      <c r="AB246" s="35" t="str">
+        <f>DEC2HEX(AB272)</f>
+        <v>55</v>
+      </c>
+      <c r="AC246" s="35" t="str">
+        <f>DEC2HEX(AC272)</f>
+        <v>56</v>
+      </c>
+      <c r="AD246" s="35" t="str">
+        <f>DEC2HEX(AD272)</f>
+        <v>57</v>
+      </c>
+      <c r="AE246" s="35" t="str">
+        <f>DEC2HEX(AE272)</f>
+        <v>58</v>
+      </c>
+      <c r="AF246" s="46" t="str">
+        <f t="shared" ref="AF246:AL246" si="59">DEC2HEX(AF272)</f>
+        <v>59</v>
+      </c>
+      <c r="AG246" s="46" t="str">
+        <f t="shared" si="59"/>
+        <v>5A</v>
+      </c>
+      <c r="AH246" s="46" t="str">
+        <f t="shared" si="59"/>
+        <v>5B</v>
+      </c>
+      <c r="AI246" s="46" t="str">
+        <f t="shared" si="59"/>
+        <v>5C</v>
+      </c>
+      <c r="AJ246" s="46" t="str">
+        <f t="shared" si="59"/>
+        <v>5D</v>
+      </c>
+      <c r="AK246" s="46" t="str">
+        <f t="shared" si="59"/>
+        <v>5E</v>
+      </c>
+      <c r="AL246" s="46" t="str">
+        <f t="shared" si="59"/>
+        <v>5F</v>
+      </c>
+    </row>
+    <row r="247" spans="1:38">
+      <c r="D247" s="32">
+        <v>-1</v>
+      </c>
+      <c r="E247" s="33"/>
+      <c r="F247" s="33"/>
+      <c r="G247" s="35" t="str">
+        <f t="shared" ref="G247:AC247" si="60">DEC2HEX(G273)</f>
+        <v>60</v>
+      </c>
+      <c r="H247" s="35" t="str">
+        <f t="shared" si="60"/>
+        <v>61</v>
+      </c>
+      <c r="I247" s="35" t="str">
+        <f t="shared" si="60"/>
+        <v>62</v>
+      </c>
+      <c r="J247" s="35" t="str">
+        <f t="shared" ref="J247" si="61">DEC2HEX(J273)</f>
+        <v>63</v>
+      </c>
+      <c r="K247" s="35" t="str">
+        <f>DEC2HEX(K273)</f>
+        <v>64</v>
+      </c>
+      <c r="L247" s="35" t="str">
+        <f>DEC2HEX(L273)</f>
+        <v>65</v>
+      </c>
+      <c r="M247" s="35" t="str">
+        <f>DEC2HEX(M273)</f>
+        <v>66</v>
+      </c>
+      <c r="N247" s="35" t="str">
+        <f>DEC2HEX(N273)</f>
+        <v>67</v>
+      </c>
+      <c r="O247" s="35" t="str">
+        <f>DEC2HEX(O273)</f>
+        <v>68</v>
+      </c>
+      <c r="P247" s="24" t="str">
+        <f>DEC2HEX(P273)</f>
+        <v>69</v>
+      </c>
+      <c r="Q247" s="24" t="str">
+        <f>DEC2HEX(Q273)</f>
+        <v>6A</v>
+      </c>
+      <c r="R247" s="24" t="str">
+        <f>DEC2HEX(R273)</f>
+        <v>6B</v>
+      </c>
+      <c r="S247" s="37" t="str">
+        <f>DEC2HEX(S273)</f>
+        <v>6C</v>
+      </c>
+      <c r="T247" s="24" t="str">
+        <f>DEC2HEX(T273)</f>
+        <v>6D</v>
+      </c>
+      <c r="U247" s="24" t="str">
+        <f>DEC2HEX(U273)</f>
+        <v>6E</v>
+      </c>
+      <c r="V247" s="24" t="str">
+        <f>DEC2HEX(V273)</f>
+        <v>6F</v>
+      </c>
+      <c r="W247" s="35" t="str">
+        <f>DEC2HEX(W273)</f>
+        <v>70</v>
+      </c>
+      <c r="X247" s="35" t="str">
+        <f>DEC2HEX(X273)</f>
+        <v>71</v>
+      </c>
+      <c r="Y247" s="35" t="str">
+        <f>DEC2HEX(Y273)</f>
+        <v>72</v>
+      </c>
+      <c r="Z247" s="35" t="str">
+        <f>DEC2HEX(Z273)</f>
+        <v>73</v>
+      </c>
+      <c r="AA247" s="35" t="str">
+        <f>DEC2HEX(AA273)</f>
+        <v>74</v>
+      </c>
+      <c r="AB247" s="35" t="str">
+        <f>DEC2HEX(AB273)</f>
+        <v>75</v>
+      </c>
+      <c r="AC247" s="35" t="str">
+        <f>DEC2HEX(AC273)</f>
+        <v>76</v>
+      </c>
+      <c r="AD247" s="35" t="str">
+        <f>DEC2HEX(AD273)</f>
+        <v>77</v>
+      </c>
+      <c r="AE247" s="35" t="str">
+        <f>DEC2HEX(AE273)</f>
+        <v>78</v>
+      </c>
+      <c r="AF247" s="46" t="str">
+        <f t="shared" ref="AF247:AL247" si="62">DEC2HEX(AF273)</f>
+        <v>79</v>
+      </c>
+      <c r="AG247" s="46" t="str">
+        <f t="shared" si="62"/>
+        <v>7A</v>
+      </c>
+      <c r="AH247" s="46" t="str">
+        <f t="shared" si="62"/>
+        <v>7B</v>
+      </c>
+      <c r="AI247" s="46" t="str">
+        <f t="shared" si="62"/>
+        <v>7C</v>
+      </c>
+      <c r="AJ247" s="46" t="str">
+        <f t="shared" si="62"/>
+        <v>7D</v>
+      </c>
+      <c r="AK247" s="46" t="str">
+        <f t="shared" si="62"/>
+        <v>7E</v>
+      </c>
+      <c r="AL247" s="46" t="str">
+        <f t="shared" si="62"/>
+        <v>7F</v>
+      </c>
+    </row>
+    <row r="248" spans="1:38">
+      <c r="A248" t="s">
+        <v>93</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F248" s="4"/>
+      <c r="G248" s="35" t="str">
+        <f t="shared" ref="G248:AC248" si="63">DEC2HEX(G274)</f>
+        <v>80</v>
+      </c>
+      <c r="H248" s="35" t="str">
+        <f t="shared" si="63"/>
+        <v>81</v>
+      </c>
+      <c r="I248" s="35" t="str">
+        <f t="shared" si="63"/>
+        <v>82</v>
+      </c>
+      <c r="J248" s="35" t="str">
+        <f t="shared" ref="J248" si="64">DEC2HEX(J274)</f>
+        <v>83</v>
+      </c>
+      <c r="K248" s="23" t="str">
+        <f>DEC2HEX(K274)</f>
+        <v>84</v>
+      </c>
+      <c r="L248" s="23" t="str">
+        <f>DEC2HEX(L274)</f>
+        <v>85</v>
+      </c>
+      <c r="M248" s="23" t="str">
+        <f>DEC2HEX(M274)</f>
+        <v>86</v>
+      </c>
+      <c r="N248" s="23" t="str">
+        <f>DEC2HEX(N274)</f>
+        <v>87</v>
+      </c>
+      <c r="O248" s="23" t="str">
+        <f>DEC2HEX(O274)</f>
+        <v>88</v>
+      </c>
+      <c r="P248" s="24" t="str">
+        <f>DEC2HEX(P274)</f>
+        <v>89</v>
+      </c>
+      <c r="Q248" s="24" t="str">
+        <f>DEC2HEX(Q274)</f>
+        <v>8A</v>
+      </c>
+      <c r="R248" s="24" t="str">
+        <f>DEC2HEX(R274)</f>
+        <v>8B</v>
+      </c>
+      <c r="S248" s="24" t="str">
+        <f>DEC2HEX(S274)</f>
+        <v>8C</v>
+      </c>
+      <c r="T248" s="24" t="str">
+        <f>DEC2HEX(T274)</f>
+        <v>8D</v>
+      </c>
+      <c r="U248" s="24" t="str">
+        <f>DEC2HEX(U274)</f>
+        <v>8E</v>
+      </c>
+      <c r="V248" s="24" t="str">
+        <f>DEC2HEX(V274)</f>
+        <v>8F</v>
+      </c>
+      <c r="W248" s="23" t="str">
+        <f>DEC2HEX(W274)</f>
+        <v>90</v>
+      </c>
+      <c r="X248" s="23" t="str">
+        <f>DEC2HEX(X274)</f>
+        <v>91</v>
+      </c>
+      <c r="Y248" s="23" t="str">
+        <f>DEC2HEX(Y274)</f>
+        <v>92</v>
+      </c>
+      <c r="Z248" s="23" t="str">
+        <f>DEC2HEX(Z274)</f>
+        <v>93</v>
+      </c>
+      <c r="AA248" s="23" t="str">
+        <f>DEC2HEX(AA274)</f>
+        <v>94</v>
+      </c>
+      <c r="AB248" s="35" t="str">
+        <f>DEC2HEX(AB274)</f>
+        <v>95</v>
+      </c>
+      <c r="AC248" s="35" t="str">
+        <f>DEC2HEX(AC274)</f>
+        <v>96</v>
+      </c>
+      <c r="AD248" s="35" t="str">
+        <f>DEC2HEX(AD274)</f>
+        <v>97</v>
+      </c>
+      <c r="AE248" s="35" t="str">
+        <f>DEC2HEX(AE274)</f>
+        <v>98</v>
+      </c>
+      <c r="AF248" s="46" t="str">
+        <f t="shared" ref="AF248:AL248" si="65">DEC2HEX(AF274)</f>
+        <v>99</v>
+      </c>
+      <c r="AG248" s="46" t="str">
+        <f t="shared" si="65"/>
+        <v>9A</v>
+      </c>
+      <c r="AH248" s="46" t="str">
+        <f t="shared" si="65"/>
+        <v>9B</v>
+      </c>
+      <c r="AI248" s="46" t="str">
+        <f t="shared" si="65"/>
+        <v>9C</v>
+      </c>
+      <c r="AJ248" s="46" t="str">
+        <f t="shared" si="65"/>
+        <v>9D</v>
+      </c>
+      <c r="AK248" s="46" t="str">
+        <f t="shared" si="65"/>
+        <v>9E</v>
+      </c>
+      <c r="AL248" s="46" t="str">
+        <f t="shared" si="65"/>
+        <v>9F</v>
+      </c>
+    </row>
+    <row r="249" spans="1:38">
+      <c r="A249" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F249" s="4"/>
+      <c r="G249" s="35" t="str">
+        <f t="shared" ref="G249:AC249" si="66">DEC2HEX(G275)</f>
+        <v>A0</v>
+      </c>
+      <c r="H249" s="35" t="str">
+        <f t="shared" si="66"/>
+        <v>A1</v>
+      </c>
+      <c r="I249" s="35" t="str">
+        <f t="shared" si="66"/>
+        <v>A2</v>
+      </c>
+      <c r="J249" s="35" t="str">
+        <f t="shared" ref="J249" si="67">DEC2HEX(J275)</f>
+        <v>A3</v>
+      </c>
+      <c r="K249" s="23" t="str">
+        <f>DEC2HEX(K275)</f>
+        <v>A4</v>
+      </c>
+      <c r="L249" s="23" t="str">
+        <f>DEC2HEX(L275)</f>
+        <v>A5</v>
+      </c>
+      <c r="M249" s="23" t="str">
+        <f>DEC2HEX(M275)</f>
+        <v>A6</v>
+      </c>
+      <c r="N249" s="23" t="str">
+        <f>DEC2HEX(N275)</f>
+        <v>A7</v>
+      </c>
+      <c r="O249" s="23" t="str">
+        <f>DEC2HEX(O275)</f>
+        <v>A8</v>
+      </c>
+      <c r="P249" s="29" t="str">
+        <f>DEC2HEX(P275)</f>
+        <v>A9</v>
+      </c>
+      <c r="Q249" s="24" t="str">
+        <f>DEC2HEX(Q275)</f>
+        <v>AA</v>
+      </c>
+      <c r="R249" s="25" t="str">
+        <f>DEC2HEX(R275)</f>
+        <v>AB</v>
+      </c>
+      <c r="S249" s="24" t="str">
+        <f>DEC2HEX(S275)</f>
+        <v>AC</v>
+      </c>
+      <c r="T249" s="25" t="str">
+        <f>DEC2HEX(T275)</f>
+        <v>AD</v>
+      </c>
+      <c r="U249" s="24" t="str">
+        <f>DEC2HEX(U275)</f>
+        <v>AE</v>
+      </c>
+      <c r="V249" s="29" t="str">
+        <f>DEC2HEX(V275)</f>
+        <v>AF</v>
+      </c>
+      <c r="W249" s="23" t="str">
+        <f>DEC2HEX(W275)</f>
+        <v>B0</v>
+      </c>
+      <c r="X249" s="23" t="str">
+        <f>DEC2HEX(X275)</f>
+        <v>B1</v>
+      </c>
+      <c r="Y249" s="23" t="str">
+        <f>DEC2HEX(Y275)</f>
+        <v>B2</v>
+      </c>
+      <c r="Z249" s="23" t="str">
+        <f>DEC2HEX(Z275)</f>
+        <v>B3</v>
+      </c>
+      <c r="AA249" s="23" t="str">
+        <f>DEC2HEX(AA275)</f>
+        <v>B4</v>
+      </c>
+      <c r="AB249" s="35" t="str">
+        <f>DEC2HEX(AB275)</f>
+        <v>B5</v>
+      </c>
+      <c r="AC249" s="35" t="str">
+        <f>DEC2HEX(AC275)</f>
+        <v>B6</v>
+      </c>
+      <c r="AD249" s="35" t="str">
+        <f>DEC2HEX(AD275)</f>
+        <v>B7</v>
+      </c>
+      <c r="AE249" s="35" t="str">
+        <f>DEC2HEX(AE275)</f>
+        <v>B8</v>
+      </c>
+      <c r="AF249" s="46" t="str">
+        <f t="shared" ref="AF249:AL249" si="68">DEC2HEX(AF275)</f>
+        <v>B9</v>
+      </c>
+      <c r="AG249" s="46" t="str">
+        <f t="shared" si="68"/>
+        <v>BA</v>
+      </c>
+      <c r="AH249" s="46" t="str">
+        <f t="shared" si="68"/>
+        <v>BB</v>
+      </c>
+      <c r="AI249" s="46" t="str">
+        <f t="shared" si="68"/>
+        <v>BC</v>
+      </c>
+      <c r="AJ249" s="46" t="str">
+        <f t="shared" si="68"/>
+        <v>BD</v>
+      </c>
+      <c r="AK249" s="46" t="str">
+        <f t="shared" si="68"/>
+        <v>BE</v>
+      </c>
+      <c r="AL249" s="46" t="str">
+        <f t="shared" si="68"/>
+        <v>BF</v>
+      </c>
+    </row>
+    <row r="250" spans="1:38">
+      <c r="A250" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F250" s="4"/>
+      <c r="G250" s="35" t="str">
+        <f t="shared" ref="G250:AC250" si="69">DEC2HEX(G276)</f>
+        <v>C0</v>
+      </c>
+      <c r="H250" s="35" t="str">
+        <f t="shared" si="69"/>
+        <v>C1</v>
+      </c>
+      <c r="I250" s="24" t="str">
+        <f t="shared" si="69"/>
+        <v>C2</v>
+      </c>
+      <c r="J250" s="24" t="str">
+        <f t="shared" ref="J250" si="70">DEC2HEX(J276)</f>
+        <v>C3</v>
+      </c>
+      <c r="K250" s="24" t="str">
+        <f>DEC2HEX(K276)</f>
+        <v>C4</v>
+      </c>
+      <c r="L250" s="29" t="str">
+        <f>DEC2HEX(L276)</f>
+        <v>C5</v>
+      </c>
+      <c r="M250" s="29" t="str">
+        <f>DEC2HEX(M276)</f>
+        <v>C6</v>
+      </c>
+      <c r="N250" s="23" t="str">
+        <f>DEC2HEX(N276)</f>
+        <v>C7</v>
+      </c>
+      <c r="O250" s="23" t="str">
+        <f>DEC2HEX(O276)</f>
+        <v>C8</v>
+      </c>
+      <c r="P250" s="29" t="str">
+        <f>DEC2HEX(P276)</f>
+        <v>C9</v>
+      </c>
+      <c r="Q250" s="29" t="str">
+        <f>DEC2HEX(Q276)</f>
+        <v>CA</v>
+      </c>
+      <c r="R250" s="24" t="str">
+        <f>DEC2HEX(R276)</f>
+        <v>CB</v>
+      </c>
+      <c r="S250" s="24" t="str">
+        <f>DEC2HEX(S276)</f>
+        <v>CC</v>
+      </c>
+      <c r="T250" s="24" t="str">
+        <f>DEC2HEX(T276)</f>
+        <v>CD</v>
+      </c>
+      <c r="U250" s="29" t="str">
+        <f>DEC2HEX(U276)</f>
+        <v>CE</v>
+      </c>
+      <c r="V250" s="29" t="str">
+        <f>DEC2HEX(V276)</f>
+        <v>CF</v>
+      </c>
+      <c r="W250" s="23" t="str">
+        <f>DEC2HEX(W276)</f>
+        <v>D0</v>
+      </c>
+      <c r="X250" s="23" t="str">
+        <f>DEC2HEX(X276)</f>
+        <v>D1</v>
+      </c>
+      <c r="Y250" s="23" t="str">
+        <f>DEC2HEX(Y276)</f>
+        <v>D2</v>
+      </c>
+      <c r="Z250" s="23" t="str">
+        <f>DEC2HEX(Z276)</f>
+        <v>D3</v>
+      </c>
+      <c r="AA250" s="24" t="str">
+        <f>DEC2HEX(AA276)</f>
+        <v>D4</v>
+      </c>
+      <c r="AB250" s="24" t="str">
+        <f>DEC2HEX(AB276)</f>
+        <v>D5</v>
+      </c>
+      <c r="AC250" s="24" t="str">
+        <f>DEC2HEX(AC276)</f>
+        <v>D6</v>
+      </c>
+      <c r="AD250" s="35" t="str">
+        <f>DEC2HEX(AD276)</f>
+        <v>D7</v>
+      </c>
+      <c r="AE250" s="35" t="str">
+        <f>DEC2HEX(AE276)</f>
+        <v>D8</v>
+      </c>
+      <c r="AF250" s="46" t="str">
+        <f t="shared" ref="AF250:AL250" si="71">DEC2HEX(AF276)</f>
+        <v>D9</v>
+      </c>
+      <c r="AG250" s="46" t="str">
+        <f t="shared" si="71"/>
+        <v>DA</v>
+      </c>
+      <c r="AH250" s="46" t="str">
+        <f t="shared" si="71"/>
+        <v>DB</v>
+      </c>
+      <c r="AI250" s="46" t="str">
+        <f t="shared" si="71"/>
+        <v>DC</v>
+      </c>
+      <c r="AJ250" s="46" t="str">
+        <f t="shared" si="71"/>
+        <v>DD</v>
+      </c>
+      <c r="AK250" s="46" t="str">
+        <f t="shared" si="71"/>
+        <v>DE</v>
+      </c>
+      <c r="AL250" s="46" t="str">
+        <f t="shared" si="71"/>
+        <v>DF</v>
+      </c>
+    </row>
+    <row r="251" spans="1:38">
+      <c r="A251" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F251" s="4"/>
+      <c r="G251" s="35" t="str">
+        <f t="shared" ref="G251:AC251" si="72">DEC2HEX(G277)</f>
+        <v>E0</v>
+      </c>
+      <c r="H251" s="24" t="str">
+        <f t="shared" si="72"/>
+        <v>E1</v>
+      </c>
+      <c r="I251" s="25" t="str">
+        <f t="shared" si="72"/>
+        <v>E2</v>
+      </c>
+      <c r="J251" s="25" t="str">
+        <f t="shared" ref="J251" si="73">DEC2HEX(J277)</f>
+        <v>E3</v>
+      </c>
+      <c r="K251" s="25" t="str">
+        <f>DEC2HEX(K277)</f>
+        <v>E4</v>
+      </c>
+      <c r="L251" s="24" t="str">
+        <f>DEC2HEX(L277)</f>
+        <v>E5</v>
+      </c>
+      <c r="M251" s="29" t="str">
+        <f>DEC2HEX(M277)</f>
+        <v>E6</v>
+      </c>
+      <c r="N251" s="23" t="str">
+        <f>DEC2HEX(N277)</f>
+        <v>E7</v>
+      </c>
+      <c r="O251" s="23" t="str">
+        <f>DEC2HEX(O277)</f>
+        <v>E8</v>
+      </c>
+      <c r="P251" s="23" t="str">
+        <f>DEC2HEX(P277)</f>
+        <v>E9</v>
+      </c>
+      <c r="Q251" s="23" t="str">
+        <f>DEC2HEX(Q277)</f>
+        <v>EA</v>
+      </c>
+      <c r="R251" s="23" t="str">
+        <f>DEC2HEX(R277)</f>
+        <v>EB</v>
+      </c>
+      <c r="S251" s="23" t="str">
+        <f>DEC2HEX(S277)</f>
+        <v>EC</v>
+      </c>
+      <c r="T251" s="23" t="str">
+        <f>DEC2HEX(T277)</f>
+        <v>ED</v>
+      </c>
+      <c r="U251" s="23" t="str">
+        <f>DEC2HEX(U277)</f>
+        <v>EE</v>
+      </c>
+      <c r="V251" s="23" t="str">
+        <f>DEC2HEX(V277)</f>
+        <v>EF</v>
+      </c>
+      <c r="W251" s="23" t="str">
+        <f>DEC2HEX(W277)</f>
+        <v>F0</v>
+      </c>
+      <c r="X251" s="23" t="str">
+        <f>DEC2HEX(X277)</f>
+        <v>F1</v>
+      </c>
+      <c r="Y251" s="23" t="str">
+        <f>DEC2HEX(Y277)</f>
+        <v>F2</v>
+      </c>
+      <c r="Z251" s="24" t="str">
+        <f>DEC2HEX(Z277)</f>
+        <v>F3</v>
+      </c>
+      <c r="AA251" s="25" t="str">
+        <f>DEC2HEX(AA277)</f>
+        <v>F4</v>
+      </c>
+      <c r="AB251" s="25" t="str">
+        <f>DEC2HEX(AB277)</f>
+        <v>F5</v>
+      </c>
+      <c r="AC251" s="25" t="str">
+        <f>DEC2HEX(AC277)</f>
+        <v>F6</v>
+      </c>
+      <c r="AD251" s="24" t="str">
+        <f>DEC2HEX(AD277)</f>
+        <v>F7</v>
+      </c>
+      <c r="AE251" s="35" t="str">
+        <f>DEC2HEX(AE277)</f>
+        <v>F8</v>
+      </c>
+      <c r="AF251" s="46" t="str">
+        <f t="shared" ref="AF251:AL251" si="74">DEC2HEX(AF277)</f>
+        <v>F9</v>
+      </c>
+      <c r="AG251" s="46" t="str">
+        <f t="shared" si="74"/>
+        <v>FA</v>
+      </c>
+      <c r="AH251" s="46" t="str">
+        <f t="shared" si="74"/>
+        <v>FB</v>
+      </c>
+      <c r="AI251" s="46" t="str">
+        <f t="shared" si="74"/>
+        <v>FC</v>
+      </c>
+      <c r="AJ251" s="46" t="str">
+        <f t="shared" si="74"/>
+        <v>FD</v>
+      </c>
+      <c r="AK251" s="46" t="str">
+        <f t="shared" si="74"/>
+        <v>FE</v>
+      </c>
+      <c r="AL251" s="46" t="str">
+        <f t="shared" si="74"/>
+        <v>FF</v>
+      </c>
+    </row>
+    <row r="252" spans="1:38">
+      <c r="A252" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F252" s="4"/>
+      <c r="G252" s="24" t="str">
+        <f t="shared" ref="G252:AC252" si="75">DEC2HEX(G278)</f>
+        <v>100</v>
+      </c>
+      <c r="H252" s="24" t="str">
+        <f t="shared" si="75"/>
+        <v>101</v>
+      </c>
+      <c r="I252" s="24" t="str">
+        <f t="shared" si="75"/>
+        <v>102</v>
+      </c>
+      <c r="J252" s="24" t="str">
+        <f t="shared" ref="J252" si="76">DEC2HEX(J278)</f>
+        <v>103</v>
+      </c>
+      <c r="K252" s="24" t="str">
+        <f>DEC2HEX(K278)</f>
+        <v>104</v>
+      </c>
+      <c r="L252" s="24" t="str">
+        <f>DEC2HEX(L278)</f>
+        <v>105</v>
+      </c>
+      <c r="M252" s="24" t="str">
+        <f>DEC2HEX(M278)</f>
+        <v>106</v>
+      </c>
+      <c r="N252" s="23" t="str">
+        <f>DEC2HEX(N278)</f>
+        <v>107</v>
+      </c>
+      <c r="O252" s="23" t="str">
+        <f>DEC2HEX(O278)</f>
+        <v>108</v>
+      </c>
+      <c r="P252" s="23" t="str">
+        <f>DEC2HEX(P278)</f>
+        <v>109</v>
+      </c>
+      <c r="Q252" s="23" t="str">
+        <f>DEC2HEX(Q278)</f>
+        <v>10A</v>
+      </c>
+      <c r="R252" s="23" t="str">
+        <f>DEC2HEX(R278)</f>
+        <v>10B</v>
+      </c>
+      <c r="S252" s="23" t="str">
+        <f>DEC2HEX(S278)</f>
+        <v>10C</v>
+      </c>
+      <c r="T252" s="23" t="str">
+        <f>DEC2HEX(T278)</f>
+        <v>10D</v>
+      </c>
+      <c r="U252" s="23" t="str">
+        <f>DEC2HEX(U278)</f>
+        <v>10E</v>
+      </c>
+      <c r="V252" s="23" t="str">
+        <f>DEC2HEX(V278)</f>
+        <v>10F</v>
+      </c>
+      <c r="W252" s="23" t="str">
+        <f>DEC2HEX(W278)</f>
+        <v>110</v>
+      </c>
+      <c r="X252" s="23" t="str">
+        <f>DEC2HEX(X278)</f>
+        <v>111</v>
+      </c>
+      <c r="Y252" s="24" t="str">
+        <f>DEC2HEX(Y278)</f>
+        <v>112</v>
+      </c>
+      <c r="Z252" s="24" t="str">
+        <f>DEC2HEX(Z278)</f>
+        <v>113</v>
+      </c>
+      <c r="AA252" s="24" t="str">
+        <f>DEC2HEX(AA278)</f>
+        <v>114</v>
+      </c>
+      <c r="AB252" s="24" t="str">
+        <f>DEC2HEX(AB278)</f>
+        <v>115</v>
+      </c>
+      <c r="AC252" s="24" t="str">
+        <f>DEC2HEX(AC278)</f>
+        <v>116</v>
+      </c>
+      <c r="AD252" s="24" t="str">
+        <f>DEC2HEX(AD278)</f>
+        <v>117</v>
+      </c>
+      <c r="AE252" s="24" t="str">
+        <f>DEC2HEX(AE278)</f>
+        <v>118</v>
+      </c>
+      <c r="AF252" s="46" t="str">
+        <f t="shared" ref="AF252:AL252" si="77">DEC2HEX(AF278)</f>
+        <v>119</v>
+      </c>
+      <c r="AG252" s="46" t="str">
+        <f t="shared" si="77"/>
+        <v>11A</v>
+      </c>
+      <c r="AH252" s="46" t="str">
+        <f t="shared" si="77"/>
+        <v>11B</v>
+      </c>
+      <c r="AI252" s="46" t="str">
+        <f t="shared" si="77"/>
+        <v>11C</v>
+      </c>
+      <c r="AJ252" s="46" t="str">
+        <f t="shared" si="77"/>
+        <v>11D</v>
+      </c>
+      <c r="AK252" s="46" t="str">
+        <f t="shared" si="77"/>
+        <v>11E</v>
+      </c>
+      <c r="AL252" s="46" t="str">
+        <f t="shared" si="77"/>
+        <v>11F</v>
+      </c>
+    </row>
+    <row r="253" spans="1:38">
+      <c r="A253" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F253" s="4"/>
+      <c r="G253" s="24" t="str">
+        <f t="shared" ref="G253:AC253" si="78">DEC2HEX(G279)</f>
+        <v>120</v>
+      </c>
+      <c r="H253" s="24" t="str">
+        <f t="shared" si="78"/>
+        <v>121</v>
+      </c>
+      <c r="I253" s="24" t="str">
+        <f t="shared" si="78"/>
+        <v>122</v>
+      </c>
+      <c r="J253" s="37" t="str">
+        <f t="shared" ref="J253" si="79">DEC2HEX(J279)</f>
+        <v>123</v>
+      </c>
+      <c r="K253" s="24" t="str">
+        <f>DEC2HEX(K279)</f>
+        <v>124</v>
+      </c>
+      <c r="L253" s="24" t="str">
+        <f>DEC2HEX(L279)</f>
+        <v>125</v>
+      </c>
+      <c r="M253" s="24" t="str">
+        <f>DEC2HEX(M279)</f>
+        <v>126</v>
+      </c>
+      <c r="N253" s="23" t="str">
+        <f>DEC2HEX(N279)</f>
+        <v>127</v>
+      </c>
+      <c r="O253" s="23" t="str">
+        <f>DEC2HEX(O279)</f>
+        <v>128</v>
+      </c>
+      <c r="P253" s="23" t="str">
+        <f>DEC2HEX(P279)</f>
+        <v>129</v>
+      </c>
+      <c r="Q253" s="23" t="str">
+        <f>DEC2HEX(Q279)</f>
+        <v>12A</v>
+      </c>
+      <c r="R253" s="23" t="str">
+        <f>DEC2HEX(R279)</f>
+        <v>12B</v>
+      </c>
+      <c r="S253" s="30" t="str">
+        <f>DEC2HEX(S279)</f>
+        <v>12C</v>
+      </c>
+      <c r="T253" s="23" t="str">
+        <f>DEC2HEX(T279)</f>
+        <v>12D</v>
+      </c>
+      <c r="U253" s="23" t="str">
+        <f>DEC2HEX(U279)</f>
+        <v>12E</v>
+      </c>
+      <c r="V253" s="23" t="str">
+        <f>DEC2HEX(V279)</f>
+        <v>12F</v>
+      </c>
+      <c r="W253" s="23" t="str">
+        <f>DEC2HEX(W279)</f>
+        <v>130</v>
+      </c>
+      <c r="X253" s="23" t="str">
+        <f>DEC2HEX(X279)</f>
+        <v>131</v>
+      </c>
+      <c r="Y253" s="24" t="str">
+        <f>DEC2HEX(Y279)</f>
+        <v>132</v>
+      </c>
+      <c r="Z253" s="24" t="str">
+        <f>DEC2HEX(Z279)</f>
+        <v>133</v>
+      </c>
+      <c r="AA253" s="24" t="str">
+        <f>DEC2HEX(AA279)</f>
+        <v>134</v>
+      </c>
+      <c r="AB253" s="37" t="str">
+        <f>DEC2HEX(AB279)</f>
+        <v>135</v>
+      </c>
+      <c r="AC253" s="24" t="str">
+        <f>DEC2HEX(AC279)</f>
+        <v>136</v>
+      </c>
+      <c r="AD253" s="24" t="str">
+        <f>DEC2HEX(AD279)</f>
+        <v>137</v>
+      </c>
+      <c r="AE253" s="24" t="str">
+        <f>DEC2HEX(AE279)</f>
+        <v>138</v>
+      </c>
+      <c r="AF253" s="46" t="str">
+        <f t="shared" ref="AF253:AL253" si="80">DEC2HEX(AF279)</f>
+        <v>139</v>
+      </c>
+      <c r="AG253" s="46" t="str">
+        <f t="shared" si="80"/>
+        <v>13A</v>
+      </c>
+      <c r="AH253" s="46" t="str">
+        <f t="shared" si="80"/>
+        <v>13B</v>
+      </c>
+      <c r="AI253" s="46" t="str">
+        <f t="shared" si="80"/>
+        <v>13C</v>
+      </c>
+      <c r="AJ253" s="46" t="str">
+        <f t="shared" si="80"/>
+        <v>13D</v>
+      </c>
+      <c r="AK253" s="46" t="str">
+        <f t="shared" si="80"/>
+        <v>13E</v>
+      </c>
+      <c r="AL253" s="46" t="str">
+        <f t="shared" si="80"/>
+        <v>13F</v>
+      </c>
+    </row>
+    <row r="254" spans="1:38">
+      <c r="A254" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F254" s="4"/>
+      <c r="G254" s="24" t="str">
+        <f t="shared" ref="G254:AC254" si="81">DEC2HEX(G280)</f>
+        <v>140</v>
+      </c>
+      <c r="H254" s="24" t="str">
+        <f t="shared" si="81"/>
+        <v>141</v>
+      </c>
+      <c r="I254" s="24" t="str">
+        <f t="shared" si="81"/>
+        <v>142</v>
+      </c>
+      <c r="J254" s="24" t="str">
+        <f t="shared" ref="J254" si="82">DEC2HEX(J280)</f>
+        <v>143</v>
+      </c>
+      <c r="K254" s="24" t="str">
+        <f>DEC2HEX(K280)</f>
+        <v>144</v>
+      </c>
+      <c r="L254" s="24" t="str">
+        <f>DEC2HEX(L280)</f>
+        <v>145</v>
+      </c>
+      <c r="M254" s="24" t="str">
+        <f>DEC2HEX(M280)</f>
+        <v>146</v>
+      </c>
+      <c r="N254" s="23" t="str">
+        <f>DEC2HEX(N280)</f>
+        <v>147</v>
+      </c>
+      <c r="O254" s="23" t="str">
+        <f>DEC2HEX(O280)</f>
+        <v>148</v>
+      </c>
+      <c r="P254" s="23" t="str">
+        <f>DEC2HEX(P280)</f>
+        <v>149</v>
+      </c>
+      <c r="Q254" s="23" t="str">
+        <f>DEC2HEX(Q280)</f>
+        <v>14A</v>
+      </c>
+      <c r="R254" s="23" t="str">
+        <f>DEC2HEX(R280)</f>
+        <v>14B</v>
+      </c>
+      <c r="S254" s="23" t="str">
+        <f>DEC2HEX(S280)</f>
+        <v>14C</v>
+      </c>
+      <c r="T254" s="23" t="str">
+        <f>DEC2HEX(T280)</f>
+        <v>14D</v>
+      </c>
+      <c r="U254" s="23" t="str">
+        <f>DEC2HEX(U280)</f>
+        <v>14E</v>
+      </c>
+      <c r="V254" s="23" t="str">
+        <f>DEC2HEX(V280)</f>
+        <v>14F</v>
+      </c>
+      <c r="W254" s="23" t="str">
+        <f>DEC2HEX(W280)</f>
+        <v>150</v>
+      </c>
+      <c r="X254" s="23" t="str">
+        <f>DEC2HEX(X280)</f>
+        <v>151</v>
+      </c>
+      <c r="Y254" s="24" t="str">
+        <f>DEC2HEX(Y280)</f>
+        <v>152</v>
+      </c>
+      <c r="Z254" s="24" t="str">
+        <f>DEC2HEX(Z280)</f>
+        <v>153</v>
+      </c>
+      <c r="AA254" s="24" t="str">
+        <f>DEC2HEX(AA280)</f>
+        <v>154</v>
+      </c>
+      <c r="AB254" s="24" t="str">
+        <f>DEC2HEX(AB280)</f>
+        <v>155</v>
+      </c>
+      <c r="AC254" s="24" t="str">
+        <f>DEC2HEX(AC280)</f>
+        <v>156</v>
+      </c>
+      <c r="AD254" s="24" t="str">
+        <f>DEC2HEX(AD280)</f>
+        <v>157</v>
+      </c>
+      <c r="AE254" s="24" t="str">
+        <f>DEC2HEX(AE280)</f>
+        <v>158</v>
+      </c>
+      <c r="AF254" s="46" t="str">
+        <f t="shared" ref="AF254:AL254" si="83">DEC2HEX(AF280)</f>
+        <v>159</v>
+      </c>
+      <c r="AG254" s="46" t="str">
+        <f t="shared" si="83"/>
+        <v>15A</v>
+      </c>
+      <c r="AH254" s="46" t="str">
+        <f t="shared" si="83"/>
+        <v>15B</v>
+      </c>
+      <c r="AI254" s="46" t="str">
+        <f t="shared" si="83"/>
+        <v>15C</v>
+      </c>
+      <c r="AJ254" s="46" t="str">
+        <f t="shared" si="83"/>
+        <v>15D</v>
+      </c>
+      <c r="AK254" s="46" t="str">
+        <f t="shared" si="83"/>
+        <v>15E</v>
+      </c>
+      <c r="AL254" s="46" t="str">
+        <f t="shared" si="83"/>
+        <v>15F</v>
+      </c>
+    </row>
+    <row r="255" spans="1:38">
+      <c r="A255" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F255" s="4"/>
+      <c r="G255" s="35" t="str">
+        <f t="shared" ref="G255:AC255" si="84">DEC2HEX(G281)</f>
+        <v>160</v>
+      </c>
+      <c r="H255" s="24" t="str">
+        <f t="shared" si="84"/>
+        <v>161</v>
+      </c>
+      <c r="I255" s="25" t="str">
+        <f t="shared" si="84"/>
+        <v>162</v>
+      </c>
+      <c r="J255" s="25" t="str">
+        <f t="shared" ref="J255" si="85">DEC2HEX(J281)</f>
+        <v>163</v>
+      </c>
+      <c r="K255" s="25" t="str">
+        <f>DEC2HEX(K281)</f>
+        <v>164</v>
+      </c>
+      <c r="L255" s="24" t="str">
+        <f>DEC2HEX(L281)</f>
+        <v>165</v>
+      </c>
+      <c r="M255" s="29" t="str">
+        <f>DEC2HEX(M281)</f>
+        <v>166</v>
+      </c>
+      <c r="N255" s="23" t="str">
+        <f>DEC2HEX(N281)</f>
+        <v>167</v>
+      </c>
+      <c r="O255" s="23" t="str">
+        <f>DEC2HEX(O281)</f>
+        <v>168</v>
+      </c>
+      <c r="P255" s="23" t="str">
+        <f>DEC2HEX(P281)</f>
+        <v>169</v>
+      </c>
+      <c r="Q255" s="23" t="str">
+        <f>DEC2HEX(Q281)</f>
+        <v>16A</v>
+      </c>
+      <c r="R255" s="23" t="str">
+        <f>DEC2HEX(R281)</f>
+        <v>16B</v>
+      </c>
+      <c r="S255" s="23" t="str">
+        <f>DEC2HEX(S281)</f>
+        <v>16C</v>
+      </c>
+      <c r="T255" s="23" t="str">
+        <f>DEC2HEX(T281)</f>
+        <v>16D</v>
+      </c>
+      <c r="U255" s="23" t="str">
+        <f>DEC2HEX(U281)</f>
+        <v>16E</v>
+      </c>
+      <c r="V255" s="23" t="str">
+        <f>DEC2HEX(V281)</f>
+        <v>16F</v>
+      </c>
+      <c r="W255" s="23" t="str">
+        <f>DEC2HEX(W281)</f>
+        <v>170</v>
+      </c>
+      <c r="X255" s="23" t="str">
+        <f>DEC2HEX(X281)</f>
+        <v>171</v>
+      </c>
+      <c r="Y255" s="23" t="str">
+        <f>DEC2HEX(Y281)</f>
+        <v>172</v>
+      </c>
+      <c r="Z255" s="24" t="str">
+        <f>DEC2HEX(Z281)</f>
+        <v>173</v>
+      </c>
+      <c r="AA255" s="25" t="str">
+        <f>DEC2HEX(AA281)</f>
+        <v>174</v>
+      </c>
+      <c r="AB255" s="25" t="str">
+        <f>DEC2HEX(AB281)</f>
+        <v>175</v>
+      </c>
+      <c r="AC255" s="25" t="str">
+        <f>DEC2HEX(AC281)</f>
+        <v>176</v>
+      </c>
+      <c r="AD255" s="24" t="str">
+        <f>DEC2HEX(AD281)</f>
+        <v>177</v>
+      </c>
+      <c r="AE255" s="35" t="str">
+        <f>DEC2HEX(AE281)</f>
+        <v>178</v>
+      </c>
+      <c r="AF255" s="46" t="str">
+        <f t="shared" ref="AF255:AL255" si="86">DEC2HEX(AF281)</f>
+        <v>179</v>
+      </c>
+      <c r="AG255" s="46" t="str">
+        <f t="shared" si="86"/>
+        <v>17A</v>
+      </c>
+      <c r="AH255" s="46" t="str">
+        <f t="shared" si="86"/>
+        <v>17B</v>
+      </c>
+      <c r="AI255" s="46" t="str">
+        <f t="shared" si="86"/>
+        <v>17C</v>
+      </c>
+      <c r="AJ255" s="46" t="str">
+        <f t="shared" si="86"/>
+        <v>17D</v>
+      </c>
+      <c r="AK255" s="46" t="str">
+        <f t="shared" si="86"/>
+        <v>17E</v>
+      </c>
+      <c r="AL255" s="46" t="str">
+        <f t="shared" si="86"/>
+        <v>17F</v>
+      </c>
+    </row>
+    <row r="256" spans="1:38">
+      <c r="A256" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F256" s="4"/>
+      <c r="G256" s="35" t="str">
+        <f t="shared" ref="G256:AC256" si="87">DEC2HEX(G282)</f>
+        <v>180</v>
+      </c>
+      <c r="H256" s="35" t="str">
+        <f t="shared" si="87"/>
+        <v>181</v>
+      </c>
+      <c r="I256" s="24" t="str">
+        <f t="shared" si="87"/>
+        <v>182</v>
+      </c>
+      <c r="J256" s="24" t="str">
+        <f t="shared" ref="J256" si="88">DEC2HEX(J282)</f>
+        <v>183</v>
+      </c>
+      <c r="K256" s="24" t="str">
+        <f>DEC2HEX(K282)</f>
+        <v>184</v>
+      </c>
+      <c r="L256" s="29" t="str">
+        <f>DEC2HEX(L282)</f>
+        <v>185</v>
+      </c>
+      <c r="M256" s="29" t="str">
+        <f>DEC2HEX(M282)</f>
+        <v>186</v>
+      </c>
+      <c r="N256" s="23" t="str">
+        <f>DEC2HEX(N282)</f>
+        <v>187</v>
+      </c>
+      <c r="O256" s="23" t="str">
+        <f>DEC2HEX(O282)</f>
+        <v>188</v>
+      </c>
+      <c r="P256" s="29" t="str">
+        <f>DEC2HEX(P282)</f>
+        <v>189</v>
+      </c>
+      <c r="Q256" s="29" t="str">
+        <f>DEC2HEX(Q282)</f>
+        <v>18A</v>
+      </c>
+      <c r="R256" s="24" t="str">
+        <f>DEC2HEX(R282)</f>
+        <v>18B</v>
+      </c>
+      <c r="S256" s="24" t="str">
+        <f>DEC2HEX(S282)</f>
+        <v>18C</v>
+      </c>
+      <c r="T256" s="24" t="str">
+        <f>DEC2HEX(T282)</f>
+        <v>18D</v>
+      </c>
+      <c r="U256" s="29" t="str">
+        <f>DEC2HEX(U282)</f>
+        <v>18E</v>
+      </c>
+      <c r="V256" s="29" t="str">
+        <f>DEC2HEX(V282)</f>
+        <v>18F</v>
+      </c>
+      <c r="W256" s="23" t="str">
+        <f>DEC2HEX(W282)</f>
+        <v>190</v>
+      </c>
+      <c r="X256" s="23" t="str">
+        <f>DEC2HEX(X282)</f>
+        <v>191</v>
+      </c>
+      <c r="Y256" s="23" t="str">
+        <f>DEC2HEX(Y282)</f>
+        <v>192</v>
+      </c>
+      <c r="Z256" s="23" t="str">
+        <f>DEC2HEX(Z282)</f>
+        <v>193</v>
+      </c>
+      <c r="AA256" s="24" t="str">
+        <f>DEC2HEX(AA282)</f>
+        <v>194</v>
+      </c>
+      <c r="AB256" s="24" t="str">
+        <f>DEC2HEX(AB282)</f>
+        <v>195</v>
+      </c>
+      <c r="AC256" s="24" t="str">
+        <f>DEC2HEX(AC282)</f>
+        <v>196</v>
+      </c>
+      <c r="AD256" s="35" t="str">
+        <f>DEC2HEX(AD282)</f>
+        <v>197</v>
+      </c>
+      <c r="AE256" s="35" t="str">
+        <f>DEC2HEX(AE282)</f>
+        <v>198</v>
+      </c>
+      <c r="AF256" s="46" t="str">
+        <f t="shared" ref="AF256:AL256" si="89">DEC2HEX(AF282)</f>
+        <v>199</v>
+      </c>
+      <c r="AG256" s="46" t="str">
+        <f t="shared" si="89"/>
+        <v>19A</v>
+      </c>
+      <c r="AH256" s="46" t="str">
+        <f t="shared" si="89"/>
+        <v>19B</v>
+      </c>
+      <c r="AI256" s="46" t="str">
+        <f t="shared" si="89"/>
+        <v>19C</v>
+      </c>
+      <c r="AJ256" s="46" t="str">
+        <f t="shared" si="89"/>
+        <v>19D</v>
+      </c>
+      <c r="AK256" s="46" t="str">
+        <f t="shared" si="89"/>
+        <v>19E</v>
+      </c>
+      <c r="AL256" s="46" t="str">
+        <f t="shared" si="89"/>
+        <v>19F</v>
+      </c>
+    </row>
+    <row r="257" spans="1:38">
+      <c r="A257" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F257" s="4"/>
+      <c r="G257" s="35" t="str">
+        <f t="shared" ref="G257:AC257" si="90">DEC2HEX(G283)</f>
+        <v>1A0</v>
+      </c>
+      <c r="H257" s="35" t="str">
+        <f t="shared" si="90"/>
+        <v>1A1</v>
+      </c>
+      <c r="I257" s="35" t="str">
+        <f t="shared" si="90"/>
+        <v>1A2</v>
+      </c>
+      <c r="J257" s="35" t="str">
+        <f t="shared" ref="J257" si="91">DEC2HEX(J283)</f>
+        <v>1A3</v>
+      </c>
+      <c r="K257" s="23" t="str">
+        <f>DEC2HEX(K283)</f>
+        <v>1A4</v>
+      </c>
+      <c r="L257" s="23" t="str">
+        <f>DEC2HEX(L283)</f>
+        <v>1A5</v>
+      </c>
+      <c r="M257" s="23" t="str">
+        <f>DEC2HEX(M283)</f>
+        <v>1A6</v>
+      </c>
+      <c r="N257" s="23" t="str">
+        <f>DEC2HEX(N283)</f>
+        <v>1A7</v>
+      </c>
+      <c r="O257" s="23" t="str">
+        <f>DEC2HEX(O283)</f>
+        <v>1A8</v>
+      </c>
+      <c r="P257" s="29" t="str">
+        <f>DEC2HEX(P283)</f>
+        <v>1A9</v>
+      </c>
+      <c r="Q257" s="24" t="str">
+        <f>DEC2HEX(Q283)</f>
+        <v>1AA</v>
+      </c>
+      <c r="R257" s="25" t="str">
+        <f>DEC2HEX(R283)</f>
+        <v>1AB</v>
+      </c>
+      <c r="S257" s="24" t="str">
+        <f>DEC2HEX(S283)</f>
+        <v>1AC</v>
+      </c>
+      <c r="T257" s="25" t="str">
+        <f>DEC2HEX(T283)</f>
+        <v>1AD</v>
+      </c>
+      <c r="U257" s="24" t="str">
+        <f>DEC2HEX(U283)</f>
+        <v>1AE</v>
+      </c>
+      <c r="V257" s="29" t="str">
+        <f>DEC2HEX(V283)</f>
+        <v>1AF</v>
+      </c>
+      <c r="W257" s="23" t="str">
+        <f>DEC2HEX(W283)</f>
+        <v>1B0</v>
+      </c>
+      <c r="X257" s="23" t="str">
+        <f>DEC2HEX(X283)</f>
+        <v>1B1</v>
+      </c>
+      <c r="Y257" s="23" t="str">
+        <f>DEC2HEX(Y283)</f>
+        <v>1B2</v>
+      </c>
+      <c r="Z257" s="23" t="str">
+        <f>DEC2HEX(Z283)</f>
+        <v>1B3</v>
+      </c>
+      <c r="AA257" s="23" t="str">
+        <f>DEC2HEX(AA283)</f>
+        <v>1B4</v>
+      </c>
+      <c r="AB257" s="35" t="str">
+        <f>DEC2HEX(AB283)</f>
+        <v>1B5</v>
+      </c>
+      <c r="AC257" s="35" t="str">
+        <f>DEC2HEX(AC283)</f>
+        <v>1B6</v>
+      </c>
+      <c r="AD257" s="35" t="str">
+        <f>DEC2HEX(AD283)</f>
+        <v>1B7</v>
+      </c>
+      <c r="AE257" s="35" t="str">
+        <f>DEC2HEX(AE283)</f>
+        <v>1B8</v>
+      </c>
+      <c r="AF257" s="46" t="str">
+        <f t="shared" ref="AF257:AL257" si="92">DEC2HEX(AF283)</f>
+        <v>1B9</v>
+      </c>
+      <c r="AG257" s="46" t="str">
+        <f t="shared" si="92"/>
+        <v>1BA</v>
+      </c>
+      <c r="AH257" s="46" t="str">
+        <f t="shared" si="92"/>
+        <v>1BB</v>
+      </c>
+      <c r="AI257" s="46" t="str">
+        <f t="shared" si="92"/>
+        <v>1BC</v>
+      </c>
+      <c r="AJ257" s="46" t="str">
+        <f t="shared" si="92"/>
+        <v>1BD</v>
+      </c>
+      <c r="AK257" s="46" t="str">
+        <f t="shared" si="92"/>
+        <v>1BE</v>
+      </c>
+      <c r="AL257" s="46" t="str">
+        <f t="shared" si="92"/>
+        <v>1BF</v>
+      </c>
+    </row>
+    <row r="258" spans="1:38">
+      <c r="A258" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F258" s="4"/>
+      <c r="G258" s="35" t="str">
+        <f t="shared" ref="G258:AC258" si="93">DEC2HEX(G284)</f>
+        <v>1C0</v>
+      </c>
+      <c r="H258" s="35" t="str">
+        <f t="shared" si="93"/>
+        <v>1C1</v>
+      </c>
+      <c r="I258" s="35" t="str">
+        <f t="shared" si="93"/>
+        <v>1C2</v>
+      </c>
+      <c r="J258" s="35" t="str">
+        <f t="shared" ref="J258" si="94">DEC2HEX(J284)</f>
+        <v>1C3</v>
+      </c>
+      <c r="K258" s="23" t="str">
+        <f>DEC2HEX(K284)</f>
+        <v>1C4</v>
+      </c>
+      <c r="L258" s="23" t="str">
+        <f>DEC2HEX(L284)</f>
+        <v>1C5</v>
+      </c>
+      <c r="M258" s="23" t="str">
+        <f>DEC2HEX(M284)</f>
+        <v>1C6</v>
+      </c>
+      <c r="N258" s="23" t="str">
+        <f>DEC2HEX(N284)</f>
+        <v>1C7</v>
+      </c>
+      <c r="O258" s="23" t="str">
+        <f>DEC2HEX(O284)</f>
+        <v>1C8</v>
+      </c>
+      <c r="P258" s="24" t="str">
+        <f>DEC2HEX(P284)</f>
+        <v>1C9</v>
+      </c>
+      <c r="Q258" s="24" t="str">
+        <f>DEC2HEX(Q284)</f>
+        <v>1CA</v>
+      </c>
+      <c r="R258" s="24" t="str">
+        <f>DEC2HEX(R284)</f>
+        <v>1CB</v>
+      </c>
+      <c r="S258" s="24" t="str">
+        <f>DEC2HEX(S284)</f>
+        <v>1CC</v>
+      </c>
+      <c r="T258" s="24" t="str">
+        <f>DEC2HEX(T284)</f>
+        <v>1CD</v>
+      </c>
+      <c r="U258" s="24" t="str">
+        <f>DEC2HEX(U284)</f>
+        <v>1CE</v>
+      </c>
+      <c r="V258" s="24" t="str">
+        <f>DEC2HEX(V284)</f>
+        <v>1CF</v>
+      </c>
+      <c r="W258" s="23" t="str">
+        <f>DEC2HEX(W284)</f>
+        <v>1D0</v>
+      </c>
+      <c r="X258" s="23" t="str">
+        <f>DEC2HEX(X284)</f>
+        <v>1D1</v>
+      </c>
+      <c r="Y258" s="23" t="str">
+        <f>DEC2HEX(Y284)</f>
+        <v>1D2</v>
+      </c>
+      <c r="Z258" s="23" t="str">
+        <f>DEC2HEX(Z284)</f>
+        <v>1D3</v>
+      </c>
+      <c r="AA258" s="23" t="str">
+        <f>DEC2HEX(AA284)</f>
+        <v>1D4</v>
+      </c>
+      <c r="AB258" s="35" t="str">
+        <f>DEC2HEX(AB284)</f>
+        <v>1D5</v>
+      </c>
+      <c r="AC258" s="35" t="str">
+        <f>DEC2HEX(AC284)</f>
+        <v>1D6</v>
+      </c>
+      <c r="AD258" s="35" t="str">
+        <f>DEC2HEX(AD284)</f>
+        <v>1D7</v>
+      </c>
+      <c r="AE258" s="35" t="str">
+        <f>DEC2HEX(AE284)</f>
+        <v>1D8</v>
+      </c>
+      <c r="AF258" s="46" t="str">
+        <f t="shared" ref="AF258:AL258" si="95">DEC2HEX(AF284)</f>
+        <v>1D9</v>
+      </c>
+      <c r="AG258" s="46" t="str">
+        <f t="shared" si="95"/>
+        <v>1DA</v>
+      </c>
+      <c r="AH258" s="46" t="str">
+        <f t="shared" si="95"/>
+        <v>1DB</v>
+      </c>
+      <c r="AI258" s="46" t="str">
+        <f t="shared" si="95"/>
+        <v>1DC</v>
+      </c>
+      <c r="AJ258" s="46" t="str">
+        <f t="shared" si="95"/>
+        <v>1DD</v>
+      </c>
+      <c r="AK258" s="46" t="str">
+        <f t="shared" si="95"/>
+        <v>1DE</v>
+      </c>
+      <c r="AL258" s="46" t="str">
+        <f t="shared" si="95"/>
+        <v>1DF</v>
+      </c>
+    </row>
+    <row r="259" spans="1:38">
+      <c r="A259" s="14"/>
+      <c r="D259" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E259" s="4"/>
+      <c r="F259" s="4"/>
+      <c r="G259" s="35" t="str">
+        <f t="shared" ref="G259:AC259" si="96">DEC2HEX(G285)</f>
+        <v>1E0</v>
+      </c>
+      <c r="H259" s="35" t="str">
+        <f t="shared" si="96"/>
+        <v>1E1</v>
+      </c>
+      <c r="I259" s="35" t="str">
+        <f t="shared" si="96"/>
+        <v>1E2</v>
+      </c>
+      <c r="J259" s="35" t="str">
+        <f t="shared" ref="J259" si="97">DEC2HEX(J285)</f>
+        <v>1E3</v>
+      </c>
+      <c r="K259" s="35" t="str">
+        <f>DEC2HEX(K285)</f>
+        <v>1E4</v>
+      </c>
+      <c r="L259" s="35" t="str">
+        <f>DEC2HEX(L285)</f>
+        <v>1E5</v>
+      </c>
+      <c r="M259" s="35" t="str">
+        <f>DEC2HEX(M285)</f>
+        <v>1E6</v>
+      </c>
+      <c r="N259" s="35" t="str">
+        <f>DEC2HEX(N285)</f>
+        <v>1E7</v>
+      </c>
+      <c r="O259" s="35" t="str">
+        <f>DEC2HEX(O285)</f>
+        <v>1E8</v>
+      </c>
+      <c r="P259" s="24" t="str">
+        <f>DEC2HEX(P285)</f>
+        <v>1E9</v>
+      </c>
+      <c r="Q259" s="24" t="str">
+        <f>DEC2HEX(Q285)</f>
+        <v>1EA</v>
+      </c>
+      <c r="R259" s="24" t="str">
+        <f>DEC2HEX(R285)</f>
+        <v>1EB</v>
+      </c>
+      <c r="S259" s="37" t="str">
+        <f>DEC2HEX(S285)</f>
+        <v>1EC</v>
+      </c>
+      <c r="T259" s="24" t="str">
+        <f>DEC2HEX(T285)</f>
+        <v>1ED</v>
+      </c>
+      <c r="U259" s="24" t="str">
+        <f>DEC2HEX(U285)</f>
+        <v>1EE</v>
+      </c>
+      <c r="V259" s="24" t="str">
+        <f>DEC2HEX(V285)</f>
+        <v>1EF</v>
+      </c>
+      <c r="W259" s="35" t="str">
+        <f>DEC2HEX(W285)</f>
+        <v>1F0</v>
+      </c>
+      <c r="X259" s="35" t="str">
+        <f>DEC2HEX(X285)</f>
+        <v>1F1</v>
+      </c>
+      <c r="Y259" s="35" t="str">
+        <f>DEC2HEX(Y285)</f>
+        <v>1F2</v>
+      </c>
+      <c r="Z259" s="35" t="str">
+        <f>DEC2HEX(Z285)</f>
+        <v>1F3</v>
+      </c>
+      <c r="AA259" s="35" t="str">
+        <f>DEC2HEX(AA285)</f>
+        <v>1F4</v>
+      </c>
+      <c r="AB259" s="35" t="str">
+        <f>DEC2HEX(AB285)</f>
+        <v>1F5</v>
+      </c>
+      <c r="AC259" s="35" t="str">
+        <f>DEC2HEX(AC285)</f>
+        <v>1F6</v>
+      </c>
+      <c r="AD259" s="35" t="str">
+        <f>DEC2HEX(AD285)</f>
+        <v>1F7</v>
+      </c>
+      <c r="AE259" s="35" t="str">
+        <f>DEC2HEX(AE285)</f>
+        <v>1F8</v>
+      </c>
+      <c r="AF259" s="46" t="str">
+        <f t="shared" ref="AF259:AL259" si="98">DEC2HEX(AF285)</f>
+        <v>1F9</v>
+      </c>
+      <c r="AG259" s="46" t="str">
+        <f t="shared" si="98"/>
+        <v>1FA</v>
+      </c>
+      <c r="AH259" s="46" t="str">
+        <f t="shared" si="98"/>
+        <v>1FB</v>
+      </c>
+      <c r="AI259" s="46" t="str">
+        <f t="shared" si="98"/>
+        <v>1FC</v>
+      </c>
+      <c r="AJ259" s="46" t="str">
+        <f t="shared" si="98"/>
+        <v>1FD</v>
+      </c>
+      <c r="AK259" s="46" t="str">
+        <f t="shared" si="98"/>
+        <v>1FE</v>
+      </c>
+      <c r="AL259" s="46" t="str">
+        <f t="shared" si="98"/>
+        <v>1FF</v>
+      </c>
+    </row>
+    <row r="260" spans="1:38">
+      <c r="A260" s="14"/>
+      <c r="D260" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E260" s="4"/>
+      <c r="F260" s="4"/>
+      <c r="G260" s="35" t="str">
+        <f t="shared" ref="G260:AC260" si="99">DEC2HEX(G286)</f>
+        <v>200</v>
+      </c>
+      <c r="H260" s="35" t="str">
+        <f t="shared" si="99"/>
+        <v>201</v>
+      </c>
+      <c r="I260" s="35" t="str">
+        <f t="shared" si="99"/>
+        <v>202</v>
+      </c>
+      <c r="J260" s="35" t="str">
+        <f t="shared" ref="J260" si="100">DEC2HEX(J286)</f>
+        <v>203</v>
+      </c>
+      <c r="K260" s="35" t="str">
+        <f>DEC2HEX(K286)</f>
+        <v>204</v>
+      </c>
+      <c r="L260" s="35" t="str">
+        <f>DEC2HEX(L286)</f>
+        <v>205</v>
+      </c>
+      <c r="M260" s="35" t="str">
+        <f>DEC2HEX(M286)</f>
+        <v>206</v>
+      </c>
+      <c r="N260" s="35" t="str">
+        <f>DEC2HEX(N286)</f>
+        <v>207</v>
+      </c>
+      <c r="O260" s="35" t="str">
+        <f>DEC2HEX(O286)</f>
+        <v>208</v>
+      </c>
+      <c r="P260" s="24" t="str">
+        <f>DEC2HEX(P286)</f>
+        <v>209</v>
+      </c>
+      <c r="Q260" s="24" t="str">
+        <f>DEC2HEX(Q286)</f>
+        <v>20A</v>
+      </c>
+      <c r="R260" s="24" t="str">
+        <f>DEC2HEX(R286)</f>
+        <v>20B</v>
+      </c>
+      <c r="S260" s="24" t="str">
+        <f>DEC2HEX(S286)</f>
+        <v>20C</v>
+      </c>
+      <c r="T260" s="24" t="str">
+        <f>DEC2HEX(T286)</f>
+        <v>20D</v>
+      </c>
+      <c r="U260" s="24" t="str">
+        <f>DEC2HEX(U286)</f>
+        <v>20E</v>
+      </c>
+      <c r="V260" s="24" t="str">
+        <f>DEC2HEX(V286)</f>
+        <v>20F</v>
+      </c>
+      <c r="W260" s="35" t="str">
+        <f>DEC2HEX(W286)</f>
+        <v>210</v>
+      </c>
+      <c r="X260" s="35" t="str">
+        <f>DEC2HEX(X286)</f>
+        <v>211</v>
+      </c>
+      <c r="Y260" s="35" t="str">
+        <f>DEC2HEX(Y286)</f>
+        <v>212</v>
+      </c>
+      <c r="Z260" s="35" t="str">
+        <f>DEC2HEX(Z286)</f>
+        <v>213</v>
+      </c>
+      <c r="AA260" s="35" t="str">
+        <f>DEC2HEX(AA286)</f>
+        <v>214</v>
+      </c>
+      <c r="AB260" s="35" t="str">
+        <f>DEC2HEX(AB286)</f>
+        <v>215</v>
+      </c>
+      <c r="AC260" s="35" t="str">
+        <f>DEC2HEX(AC286)</f>
+        <v>216</v>
+      </c>
+      <c r="AD260" s="35" t="str">
+        <f>DEC2HEX(AD286)</f>
+        <v>217</v>
+      </c>
+      <c r="AE260" s="35" t="str">
+        <f>DEC2HEX(AE286)</f>
+        <v>218</v>
+      </c>
+      <c r="AF260" s="46" t="str">
+        <f t="shared" ref="AF260:AL260" si="101">DEC2HEX(AF286)</f>
+        <v>219</v>
+      </c>
+      <c r="AG260" s="46" t="str">
+        <f t="shared" si="101"/>
+        <v>21A</v>
+      </c>
+      <c r="AH260" s="46" t="str">
+        <f t="shared" si="101"/>
+        <v>21B</v>
+      </c>
+      <c r="AI260" s="46" t="str">
+        <f t="shared" si="101"/>
+        <v>21C</v>
+      </c>
+      <c r="AJ260" s="46" t="str">
+        <f t="shared" si="101"/>
+        <v>21D</v>
+      </c>
+      <c r="AK260" s="46" t="str">
+        <f t="shared" si="101"/>
+        <v>21E</v>
+      </c>
+      <c r="AL260" s="46" t="str">
+        <f t="shared" si="101"/>
+        <v>21F</v>
+      </c>
+    </row>
+    <row r="261" spans="1:38">
+      <c r="A261" s="14"/>
+      <c r="D261" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E261" s="4"/>
+      <c r="F261" s="4"/>
+      <c r="G261" s="35" t="str">
+        <f>DEC2HEX(G287)</f>
+        <v>220</v>
+      </c>
+      <c r="H261" s="35" t="str">
+        <f>DEC2HEX(H287)</f>
+        <v>221</v>
+      </c>
+      <c r="I261" s="35" t="str">
+        <f>DEC2HEX(I287)</f>
+        <v>222</v>
+      </c>
+      <c r="J261" s="35" t="str">
+        <f t="shared" ref="J261" si="102">DEC2HEX(J287)</f>
+        <v>223</v>
+      </c>
+      <c r="K261" s="35" t="str">
+        <f>DEC2HEX(K287)</f>
+        <v>224</v>
+      </c>
+      <c r="L261" s="35" t="str">
+        <f>DEC2HEX(L287)</f>
+        <v>225</v>
+      </c>
+      <c r="M261" s="35" t="str">
+        <f>DEC2HEX(M287)</f>
+        <v>226</v>
+      </c>
+      <c r="N261" s="35" t="str">
+        <f>DEC2HEX(N287)</f>
+        <v>227</v>
+      </c>
+      <c r="O261" s="35" t="str">
+        <f>DEC2HEX(O287)</f>
+        <v>228</v>
+      </c>
+      <c r="P261" s="35" t="str">
+        <f>DEC2HEX(P287)</f>
+        <v>229</v>
+      </c>
+      <c r="Q261" s="24" t="str">
+        <f>DEC2HEX(Q287)</f>
+        <v>22A</v>
+      </c>
+      <c r="R261" s="25" t="str">
+        <f>DEC2HEX(R287)</f>
+        <v>22B</v>
+      </c>
+      <c r="S261" s="24" t="str">
+        <f>DEC2HEX(S287)</f>
+        <v>22C</v>
+      </c>
+      <c r="T261" s="25" t="str">
+        <f>DEC2HEX(T287)</f>
+        <v>22D</v>
+      </c>
+      <c r="U261" s="24" t="str">
+        <f>DEC2HEX(U287)</f>
+        <v>22E</v>
+      </c>
+      <c r="V261" s="35" t="str">
+        <f>DEC2HEX(V287)</f>
+        <v>22F</v>
+      </c>
+      <c r="W261" s="35" t="str">
+        <f>DEC2HEX(W287)</f>
+        <v>230</v>
+      </c>
+      <c r="X261" s="35" t="str">
+        <f>DEC2HEX(X287)</f>
+        <v>231</v>
+      </c>
+      <c r="Y261" s="35" t="str">
+        <f>DEC2HEX(Y287)</f>
+        <v>232</v>
+      </c>
+      <c r="Z261" s="35" t="str">
+        <f>DEC2HEX(Z287)</f>
+        <v>233</v>
+      </c>
+      <c r="AA261" s="35" t="str">
+        <f>DEC2HEX(AA287)</f>
+        <v>234</v>
+      </c>
+      <c r="AB261" s="35" t="str">
+        <f>DEC2HEX(AB287)</f>
+        <v>235</v>
+      </c>
+      <c r="AC261" s="35" t="str">
+        <f>DEC2HEX(AC287)</f>
+        <v>236</v>
+      </c>
+      <c r="AD261" s="35" t="str">
+        <f>DEC2HEX(AD287)</f>
+        <v>237</v>
+      </c>
+      <c r="AE261" s="35" t="str">
+        <f>DEC2HEX(AE287)</f>
+        <v>238</v>
+      </c>
+      <c r="AF261" s="46" t="str">
+        <f t="shared" ref="AF261:AL261" si="103">DEC2HEX(AF287)</f>
+        <v>239</v>
+      </c>
+      <c r="AG261" s="46" t="str">
+        <f t="shared" si="103"/>
+        <v>23A</v>
+      </c>
+      <c r="AH261" s="46" t="str">
+        <f t="shared" si="103"/>
+        <v>23B</v>
+      </c>
+      <c r="AI261" s="46" t="str">
+        <f t="shared" si="103"/>
+        <v>23C</v>
+      </c>
+      <c r="AJ261" s="46" t="str">
+        <f t="shared" si="103"/>
+        <v>23D</v>
+      </c>
+      <c r="AK261" s="46" t="str">
+        <f t="shared" si="103"/>
+        <v>23E</v>
+      </c>
+      <c r="AL261" s="46" t="str">
+        <f t="shared" si="103"/>
+        <v>23F</v>
+      </c>
+    </row>
+    <row r="262" spans="1:38">
+      <c r="A262" s="14"/>
+      <c r="D262" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4"/>
+      <c r="G262" s="35" t="str">
+        <f>DEC2HEX(G288)</f>
+        <v>240</v>
+      </c>
+      <c r="H262" s="35" t="str">
+        <f>DEC2HEX(H288)</f>
+        <v>241</v>
+      </c>
+      <c r="I262" s="35" t="str">
+        <f>DEC2HEX(I288)</f>
+        <v>242</v>
+      </c>
+      <c r="J262" s="35" t="str">
+        <f t="shared" ref="J262" si="104">DEC2HEX(J288)</f>
+        <v>243</v>
+      </c>
+      <c r="K262" s="35" t="str">
+        <f>DEC2HEX(J288)</f>
+        <v>243</v>
+      </c>
+      <c r="L262" s="35" t="str">
+        <f>DEC2HEX(K288)</f>
+        <v>244</v>
+      </c>
+      <c r="M262" s="35" t="str">
+        <f>DEC2HEX(L288)</f>
+        <v>245</v>
+      </c>
+      <c r="N262" s="35" t="str">
+        <f>DEC2HEX(M288)</f>
+        <v>246</v>
+      </c>
+      <c r="O262" s="35" t="str">
+        <f>DEC2HEX(N288)</f>
+        <v>247</v>
+      </c>
+      <c r="P262" s="35" t="str">
+        <f>DEC2HEX(O288)</f>
+        <v>248</v>
+      </c>
+      <c r="Q262" s="35" t="str">
+        <f>DEC2HEX(P288)</f>
+        <v>249</v>
+      </c>
+      <c r="R262" s="24" t="str">
+        <f>DEC2HEX(Q288)</f>
+        <v>24A</v>
+      </c>
+      <c r="S262" s="24" t="str">
+        <f>DEC2HEX(R288)</f>
+        <v>24B</v>
+      </c>
+      <c r="T262" s="24" t="str">
+        <f>DEC2HEX(S288)</f>
+        <v>24C</v>
+      </c>
+      <c r="U262" s="35" t="str">
+        <f>DEC2HEX(T288)</f>
+        <v>24D</v>
+      </c>
+      <c r="V262" s="35" t="str">
+        <f>DEC2HEX(U288)</f>
+        <v>24E</v>
+      </c>
+      <c r="W262" s="35" t="str">
+        <f>DEC2HEX(V288)</f>
+        <v>24F</v>
+      </c>
+      <c r="X262" s="35" t="str">
+        <f>DEC2HEX(W288)</f>
+        <v>250</v>
+      </c>
+      <c r="Y262" s="35" t="str">
+        <f>DEC2HEX(X288)</f>
+        <v>251</v>
+      </c>
+      <c r="Z262" s="35" t="str">
+        <f>DEC2HEX(Y288)</f>
+        <v>252</v>
+      </c>
+      <c r="AA262" s="35" t="str">
+        <f>DEC2HEX(Z288)</f>
+        <v>253</v>
+      </c>
+      <c r="AB262" s="35" t="str">
+        <f>DEC2HEX(AA288)</f>
+        <v>254</v>
+      </c>
+      <c r="AC262" s="35" t="str">
+        <f>DEC2HEX(AB288)</f>
+        <v>255</v>
+      </c>
+      <c r="AD262" s="35" t="str">
+        <f>DEC2HEX(AC288)</f>
+        <v>256</v>
+      </c>
+      <c r="AE262" s="35" t="str">
+        <f>DEC2HEX(AD288)</f>
+        <v>257</v>
+      </c>
+      <c r="AF262" s="46" t="str">
+        <f t="shared" ref="AF262:AL262" si="105">DEC2HEX(AE288)</f>
+        <v>258</v>
+      </c>
+      <c r="AG262" s="46" t="str">
+        <f t="shared" si="105"/>
+        <v>259</v>
+      </c>
+      <c r="AH262" s="46" t="str">
+        <f t="shared" si="105"/>
+        <v>25A</v>
+      </c>
+      <c r="AI262" s="46" t="str">
+        <f t="shared" si="105"/>
+        <v>25B</v>
+      </c>
+      <c r="AJ262" s="46" t="str">
+        <f t="shared" si="105"/>
+        <v>25C</v>
+      </c>
+      <c r="AK262" s="46" t="str">
+        <f t="shared" si="105"/>
+        <v>25D</v>
+      </c>
+      <c r="AL262" s="46" t="str">
+        <f t="shared" si="105"/>
+        <v>25E</v>
+      </c>
+    </row>
+    <row r="263" spans="1:38">
+      <c r="D263" s="7"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="K263" s="2"/>
+      <c r="L263" s="2"/>
+      <c r="M263" s="2"/>
+      <c r="N263" s="2"/>
+      <c r="O263" s="2"/>
+      <c r="P263" s="2"/>
+      <c r="Q263" s="2"/>
+      <c r="R263" s="2"/>
+      <c r="S263" s="2"/>
+      <c r="T263" s="2"/>
+      <c r="U263" s="2"/>
+      <c r="V263" s="2"/>
+      <c r="W263" s="2"/>
+      <c r="X263" s="2"/>
+      <c r="Y263" s="2"/>
+      <c r="Z263" s="2"/>
+      <c r="AA263" s="2"/>
+    </row>
+    <row r="264" spans="1:38">
+      <c r="I264" s="5"/>
+    </row>
+    <row r="269" spans="1:38">
+      <c r="A269" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="270" spans="1:38">
+      <c r="G270" s="34">
+        <v>0</v>
+      </c>
+      <c r="H270" s="34">
+        <f>G270+1</f>
+        <v>1</v>
+      </c>
+      <c r="I270" s="34">
+        <f t="shared" ref="I270:J287" si="106">H270+1</f>
+        <v>2</v>
+      </c>
+      <c r="J270" s="34">
+        <f t="shared" si="106"/>
+        <v>3</v>
+      </c>
+      <c r="K270" s="34">
+        <f>J270+1</f>
+        <v>4</v>
+      </c>
+      <c r="L270" s="34">
+        <f t="shared" ref="L270:L287" si="107">K270+1</f>
+        <v>5</v>
+      </c>
+      <c r="M270" s="34">
+        <f t="shared" ref="M270:M287" si="108">L270+1</f>
+        <v>6</v>
+      </c>
+      <c r="N270" s="34">
+        <f t="shared" ref="N270:N287" si="109">M270+1</f>
+        <v>7</v>
+      </c>
+      <c r="O270" s="34">
+        <f t="shared" ref="O270:O287" si="110">N270+1</f>
+        <v>8</v>
+      </c>
+      <c r="P270" s="34">
+        <f t="shared" ref="P270:P287" si="111">O270+1</f>
+        <v>9</v>
+      </c>
+      <c r="Q270" s="34">
+        <f t="shared" ref="Q270:Q287" si="112">P270+1</f>
+        <v>10</v>
+      </c>
+      <c r="R270" s="34">
+        <f t="shared" ref="R270:R287" si="113">Q270+1</f>
+        <v>11</v>
+      </c>
+      <c r="S270" s="34">
+        <f t="shared" ref="S270:S287" si="114">R270+1</f>
+        <v>12</v>
+      </c>
+      <c r="T270" s="34">
+        <f t="shared" ref="T270:T287" si="115">S270+1</f>
+        <v>13</v>
+      </c>
+      <c r="U270" s="34">
+        <f t="shared" ref="U270:U287" si="116">T270+1</f>
+        <v>14</v>
+      </c>
+      <c r="V270" s="34">
+        <f t="shared" ref="V270:V287" si="117">U270+1</f>
+        <v>15</v>
+      </c>
+      <c r="W270" s="34">
+        <f t="shared" ref="W270:W287" si="118">V270+1</f>
+        <v>16</v>
+      </c>
+      <c r="X270" s="34">
+        <f t="shared" ref="X270:X287" si="119">W270+1</f>
+        <v>17</v>
+      </c>
+      <c r="Y270" s="34">
+        <f t="shared" ref="Y270:Y287" si="120">X270+1</f>
+        <v>18</v>
+      </c>
+      <c r="Z270" s="34">
+        <f t="shared" ref="Z270:Z287" si="121">Y270+1</f>
+        <v>19</v>
+      </c>
+      <c r="AA270" s="34">
+        <f t="shared" ref="AA270:AA287" si="122">Z270+1</f>
+        <v>20</v>
+      </c>
+      <c r="AB270" s="34">
+        <f t="shared" ref="AB270:AB287" si="123">AA270+1</f>
+        <v>21</v>
+      </c>
+      <c r="AC270" s="34">
+        <f t="shared" ref="AC270:AC287" si="124">AB270+1</f>
+        <v>22</v>
+      </c>
+      <c r="AD270" s="34">
+        <f t="shared" ref="AD270:AL287" si="125">AC270+1</f>
+        <v>23</v>
+      </c>
+      <c r="AE270" s="34">
+        <f t="shared" si="125"/>
+        <v>24</v>
+      </c>
+      <c r="AF270" s="34">
+        <f t="shared" si="125"/>
+        <v>25</v>
+      </c>
+      <c r="AG270" s="34">
+        <f t="shared" si="125"/>
+        <v>26</v>
+      </c>
+      <c r="AH270" s="34">
+        <f t="shared" si="125"/>
+        <v>27</v>
+      </c>
+      <c r="AI270" s="34">
+        <f t="shared" si="125"/>
+        <v>28</v>
+      </c>
+      <c r="AJ270" s="34">
+        <f t="shared" si="125"/>
+        <v>29</v>
+      </c>
+      <c r="AK270" s="34">
+        <f t="shared" si="125"/>
+        <v>30</v>
+      </c>
+      <c r="AL270" s="34">
+        <f t="shared" si="125"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="271" spans="1:38">
+      <c r="G271" s="34">
+        <f>AL270+1</f>
+        <v>32</v>
+      </c>
+      <c r="H271" s="34">
+        <f>G271+1</f>
+        <v>33</v>
+      </c>
+      <c r="I271" s="34">
+        <f t="shared" si="106"/>
+        <v>34</v>
+      </c>
+      <c r="J271" s="34">
+        <f t="shared" si="106"/>
+        <v>35</v>
+      </c>
+      <c r="K271" s="34">
+        <f t="shared" ref="K271:K288" si="126">J271+1</f>
+        <v>36</v>
+      </c>
+      <c r="L271" s="34">
+        <f t="shared" si="107"/>
+        <v>37</v>
+      </c>
+      <c r="M271" s="34">
+        <f t="shared" si="108"/>
+        <v>38</v>
+      </c>
+      <c r="N271" s="34">
+        <f t="shared" si="109"/>
+        <v>39</v>
+      </c>
+      <c r="O271" s="34">
+        <f t="shared" si="110"/>
+        <v>40</v>
+      </c>
+      <c r="P271" s="34">
+        <f t="shared" si="111"/>
+        <v>41</v>
+      </c>
+      <c r="Q271" s="34">
+        <f t="shared" si="112"/>
+        <v>42</v>
+      </c>
+      <c r="R271" s="34">
+        <f t="shared" si="113"/>
+        <v>43</v>
+      </c>
+      <c r="S271" s="34">
+        <f t="shared" si="114"/>
+        <v>44</v>
+      </c>
+      <c r="T271" s="34">
+        <f t="shared" si="115"/>
+        <v>45</v>
+      </c>
+      <c r="U271" s="34">
+        <f t="shared" si="116"/>
+        <v>46</v>
+      </c>
+      <c r="V271" s="34">
+        <f t="shared" si="117"/>
+        <v>47</v>
+      </c>
+      <c r="W271" s="34">
+        <f t="shared" si="118"/>
+        <v>48</v>
+      </c>
+      <c r="X271" s="34">
+        <f t="shared" si="119"/>
+        <v>49</v>
+      </c>
+      <c r="Y271" s="34">
+        <f t="shared" si="120"/>
+        <v>50</v>
+      </c>
+      <c r="Z271" s="34">
+        <f t="shared" si="121"/>
+        <v>51</v>
+      </c>
+      <c r="AA271" s="34">
+        <f t="shared" si="122"/>
+        <v>52</v>
+      </c>
+      <c r="AB271" s="34">
+        <f t="shared" si="123"/>
+        <v>53</v>
+      </c>
+      <c r="AC271" s="34">
+        <f t="shared" si="124"/>
+        <v>54</v>
+      </c>
+      <c r="AD271" s="34">
+        <f t="shared" si="125"/>
+        <v>55</v>
+      </c>
+      <c r="AE271" s="34">
+        <f t="shared" si="125"/>
+        <v>56</v>
+      </c>
+      <c r="AF271" s="34">
+        <f t="shared" si="125"/>
+        <v>57</v>
+      </c>
+      <c r="AG271" s="34">
+        <f t="shared" si="125"/>
+        <v>58</v>
+      </c>
+      <c r="AH271" s="34">
+        <f t="shared" si="125"/>
+        <v>59</v>
+      </c>
+      <c r="AI271" s="34">
+        <f t="shared" si="125"/>
+        <v>60</v>
+      </c>
+      <c r="AJ271" s="34">
+        <f t="shared" si="125"/>
+        <v>61</v>
+      </c>
+      <c r="AK271" s="34">
+        <f t="shared" si="125"/>
+        <v>62</v>
+      </c>
+      <c r="AL271" s="34">
+        <f t="shared" si="125"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="272" spans="1:38">
+      <c r="G272" s="34">
+        <f t="shared" ref="G272:G288" si="127">AL271+1</f>
+        <v>64</v>
+      </c>
+      <c r="H272" s="34">
+        <f t="shared" ref="H272:H287" si="128">G272+1</f>
+        <v>65</v>
+      </c>
+      <c r="I272" s="34">
+        <f t="shared" si="106"/>
+        <v>66</v>
+      </c>
+      <c r="J272" s="34">
+        <f t="shared" si="106"/>
+        <v>67</v>
+      </c>
+      <c r="K272" s="34">
+        <f t="shared" si="126"/>
+        <v>68</v>
+      </c>
+      <c r="L272" s="34">
+        <f t="shared" si="107"/>
+        <v>69</v>
+      </c>
+      <c r="M272" s="34">
+        <f t="shared" si="108"/>
+        <v>70</v>
+      </c>
+      <c r="N272" s="34">
+        <f t="shared" si="109"/>
+        <v>71</v>
+      </c>
+      <c r="O272" s="34">
+        <f t="shared" si="110"/>
+        <v>72</v>
+      </c>
+      <c r="P272" s="34">
+        <f t="shared" si="111"/>
+        <v>73</v>
+      </c>
+      <c r="Q272" s="34">
+        <f t="shared" si="112"/>
+        <v>74</v>
+      </c>
+      <c r="R272" s="34">
+        <f t="shared" si="113"/>
+        <v>75</v>
+      </c>
+      <c r="S272" s="34">
+        <f t="shared" si="114"/>
+        <v>76</v>
+      </c>
+      <c r="T272" s="34">
+        <f t="shared" si="115"/>
+        <v>77</v>
+      </c>
+      <c r="U272" s="34">
+        <f t="shared" si="116"/>
+        <v>78</v>
+      </c>
+      <c r="V272" s="34">
+        <f t="shared" si="117"/>
+        <v>79</v>
+      </c>
+      <c r="W272" s="34">
+        <f t="shared" si="118"/>
+        <v>80</v>
+      </c>
+      <c r="X272" s="34">
+        <f t="shared" si="119"/>
+        <v>81</v>
+      </c>
+      <c r="Y272" s="34">
+        <f t="shared" si="120"/>
+        <v>82</v>
+      </c>
+      <c r="Z272" s="34">
+        <f t="shared" si="121"/>
+        <v>83</v>
+      </c>
+      <c r="AA272" s="34">
+        <f t="shared" si="122"/>
+        <v>84</v>
+      </c>
+      <c r="AB272" s="34">
+        <f t="shared" si="123"/>
+        <v>85</v>
+      </c>
+      <c r="AC272" s="34">
+        <f t="shared" si="124"/>
+        <v>86</v>
+      </c>
+      <c r="AD272" s="34">
+        <f t="shared" si="125"/>
+        <v>87</v>
+      </c>
+      <c r="AE272" s="34">
+        <f t="shared" si="125"/>
+        <v>88</v>
+      </c>
+      <c r="AF272" s="34">
+        <f t="shared" si="125"/>
+        <v>89</v>
+      </c>
+      <c r="AG272" s="34">
+        <f t="shared" si="125"/>
+        <v>90</v>
+      </c>
+      <c r="AH272" s="34">
+        <f t="shared" si="125"/>
+        <v>91</v>
+      </c>
+      <c r="AI272" s="34">
+        <f t="shared" si="125"/>
+        <v>92</v>
+      </c>
+      <c r="AJ272" s="34">
+        <f t="shared" si="125"/>
+        <v>93</v>
+      </c>
+      <c r="AK272" s="34">
+        <f t="shared" si="125"/>
+        <v>94</v>
+      </c>
+      <c r="AL272" s="34">
+        <f t="shared" si="125"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="273" spans="7:38">
+      <c r="G273" s="34">
+        <f t="shared" si="127"/>
+        <v>96</v>
+      </c>
+      <c r="H273" s="34">
+        <f t="shared" si="128"/>
+        <v>97</v>
+      </c>
+      <c r="I273" s="34">
+        <f t="shared" si="106"/>
+        <v>98</v>
+      </c>
+      <c r="J273" s="34">
+        <f t="shared" si="106"/>
+        <v>99</v>
+      </c>
+      <c r="K273" s="34">
+        <f t="shared" si="126"/>
+        <v>100</v>
+      </c>
+      <c r="L273" s="34">
+        <f t="shared" si="107"/>
+        <v>101</v>
+      </c>
+      <c r="M273" s="34">
+        <f t="shared" si="108"/>
+        <v>102</v>
+      </c>
+      <c r="N273" s="34">
+        <f t="shared" si="109"/>
+        <v>103</v>
+      </c>
+      <c r="O273" s="34">
+        <f t="shared" si="110"/>
+        <v>104</v>
+      </c>
+      <c r="P273" s="34">
+        <f t="shared" si="111"/>
+        <v>105</v>
+      </c>
+      <c r="Q273" s="34">
+        <f t="shared" si="112"/>
+        <v>106</v>
+      </c>
+      <c r="R273" s="34">
+        <f t="shared" si="113"/>
+        <v>107</v>
+      </c>
+      <c r="S273" s="34">
+        <f t="shared" si="114"/>
+        <v>108</v>
+      </c>
+      <c r="T273" s="34">
+        <f t="shared" si="115"/>
+        <v>109</v>
+      </c>
+      <c r="U273" s="34">
+        <f t="shared" si="116"/>
+        <v>110</v>
+      </c>
+      <c r="V273" s="34">
+        <f t="shared" si="117"/>
+        <v>111</v>
+      </c>
+      <c r="W273" s="34">
+        <f t="shared" si="118"/>
+        <v>112</v>
+      </c>
+      <c r="X273" s="34">
+        <f t="shared" si="119"/>
+        <v>113</v>
+      </c>
+      <c r="Y273" s="34">
+        <f t="shared" si="120"/>
+        <v>114</v>
+      </c>
+      <c r="Z273" s="34">
+        <f t="shared" si="121"/>
+        <v>115</v>
+      </c>
+      <c r="AA273" s="34">
+        <f t="shared" si="122"/>
+        <v>116</v>
+      </c>
+      <c r="AB273" s="34">
+        <f t="shared" si="123"/>
+        <v>117</v>
+      </c>
+      <c r="AC273" s="34">
+        <f t="shared" si="124"/>
+        <v>118</v>
+      </c>
+      <c r="AD273" s="34">
+        <f t="shared" si="125"/>
+        <v>119</v>
+      </c>
+      <c r="AE273" s="34">
+        <f t="shared" si="125"/>
+        <v>120</v>
+      </c>
+      <c r="AF273" s="34">
+        <f t="shared" si="125"/>
+        <v>121</v>
+      </c>
+      <c r="AG273" s="34">
+        <f t="shared" si="125"/>
+        <v>122</v>
+      </c>
+      <c r="AH273" s="34">
+        <f t="shared" si="125"/>
+        <v>123</v>
+      </c>
+      <c r="AI273" s="34">
+        <f t="shared" si="125"/>
+        <v>124</v>
+      </c>
+      <c r="AJ273" s="34">
+        <f t="shared" si="125"/>
+        <v>125</v>
+      </c>
+      <c r="AK273" s="34">
+        <f t="shared" si="125"/>
+        <v>126</v>
+      </c>
+      <c r="AL273" s="34">
+        <f t="shared" si="125"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="274" spans="7:38">
+      <c r="G274" s="34">
+        <f t="shared" si="127"/>
+        <v>128</v>
+      </c>
+      <c r="H274" s="34">
+        <f t="shared" si="128"/>
+        <v>129</v>
+      </c>
+      <c r="I274" s="34">
+        <f t="shared" si="106"/>
+        <v>130</v>
+      </c>
+      <c r="J274" s="34">
+        <f t="shared" si="106"/>
+        <v>131</v>
+      </c>
+      <c r="K274" s="34">
+        <f t="shared" si="126"/>
+        <v>132</v>
+      </c>
+      <c r="L274" s="34">
+        <f t="shared" si="107"/>
+        <v>133</v>
+      </c>
+      <c r="M274" s="34">
+        <f t="shared" si="108"/>
+        <v>134</v>
+      </c>
+      <c r="N274" s="34">
+        <f t="shared" si="109"/>
+        <v>135</v>
+      </c>
+      <c r="O274" s="34">
+        <f t="shared" si="110"/>
+        <v>136</v>
+      </c>
+      <c r="P274" s="34">
+        <f t="shared" si="111"/>
+        <v>137</v>
+      </c>
+      <c r="Q274" s="34">
+        <f t="shared" si="112"/>
+        <v>138</v>
+      </c>
+      <c r="R274" s="34">
+        <f t="shared" si="113"/>
+        <v>139</v>
+      </c>
+      <c r="S274" s="34">
+        <f t="shared" si="114"/>
+        <v>140</v>
+      </c>
+      <c r="T274" s="34">
+        <f t="shared" si="115"/>
+        <v>141</v>
+      </c>
+      <c r="U274" s="34">
+        <f t="shared" si="116"/>
+        <v>142</v>
+      </c>
+      <c r="V274" s="34">
+        <f t="shared" si="117"/>
+        <v>143</v>
+      </c>
+      <c r="W274" s="34">
+        <f t="shared" si="118"/>
+        <v>144</v>
+      </c>
+      <c r="X274" s="34">
+        <f t="shared" si="119"/>
+        <v>145</v>
+      </c>
+      <c r="Y274" s="34">
+        <f t="shared" si="120"/>
+        <v>146</v>
+      </c>
+      <c r="Z274" s="34">
+        <f t="shared" si="121"/>
+        <v>147</v>
+      </c>
+      <c r="AA274" s="34">
+        <f t="shared" si="122"/>
+        <v>148</v>
+      </c>
+      <c r="AB274" s="34">
+        <f t="shared" si="123"/>
+        <v>149</v>
+      </c>
+      <c r="AC274" s="34">
+        <f t="shared" si="124"/>
+        <v>150</v>
+      </c>
+      <c r="AD274" s="34">
+        <f t="shared" si="125"/>
+        <v>151</v>
+      </c>
+      <c r="AE274" s="34">
+        <f t="shared" si="125"/>
+        <v>152</v>
+      </c>
+      <c r="AF274" s="34">
+        <f t="shared" si="125"/>
+        <v>153</v>
+      </c>
+      <c r="AG274" s="34">
+        <f t="shared" si="125"/>
+        <v>154</v>
+      </c>
+      <c r="AH274" s="34">
+        <f t="shared" si="125"/>
+        <v>155</v>
+      </c>
+      <c r="AI274" s="34">
+        <f t="shared" si="125"/>
+        <v>156</v>
+      </c>
+      <c r="AJ274" s="34">
+        <f t="shared" si="125"/>
+        <v>157</v>
+      </c>
+      <c r="AK274" s="34">
+        <f t="shared" si="125"/>
+        <v>158</v>
+      </c>
+      <c r="AL274" s="34">
+        <f t="shared" si="125"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="275" spans="7:38">
+      <c r="G275" s="34">
+        <f t="shared" si="127"/>
+        <v>160</v>
+      </c>
+      <c r="H275" s="34">
+        <f t="shared" si="128"/>
+        <v>161</v>
+      </c>
+      <c r="I275" s="34">
+        <f t="shared" si="106"/>
+        <v>162</v>
+      </c>
+      <c r="J275" s="34">
+        <f t="shared" si="106"/>
+        <v>163</v>
+      </c>
+      <c r="K275" s="34">
+        <f t="shared" si="126"/>
+        <v>164</v>
+      </c>
+      <c r="L275" s="34">
+        <f t="shared" si="107"/>
+        <v>165</v>
+      </c>
+      <c r="M275" s="34">
+        <f t="shared" si="108"/>
+        <v>166</v>
+      </c>
+      <c r="N275" s="34">
+        <f t="shared" si="109"/>
+        <v>167</v>
+      </c>
+      <c r="O275" s="34">
+        <f t="shared" si="110"/>
+        <v>168</v>
+      </c>
+      <c r="P275" s="34">
+        <f t="shared" si="111"/>
+        <v>169</v>
+      </c>
+      <c r="Q275" s="34">
+        <f t="shared" si="112"/>
+        <v>170</v>
+      </c>
+      <c r="R275" s="34">
+        <f t="shared" si="113"/>
+        <v>171</v>
+      </c>
+      <c r="S275" s="34">
+        <f t="shared" si="114"/>
+        <v>172</v>
+      </c>
+      <c r="T275" s="34">
+        <f t="shared" si="115"/>
+        <v>173</v>
+      </c>
+      <c r="U275" s="34">
+        <f t="shared" si="116"/>
+        <v>174</v>
+      </c>
+      <c r="V275" s="34">
+        <f t="shared" si="117"/>
+        <v>175</v>
+      </c>
+      <c r="W275" s="34">
+        <f t="shared" si="118"/>
+        <v>176</v>
+      </c>
+      <c r="X275" s="34">
+        <f t="shared" si="119"/>
+        <v>177</v>
+      </c>
+      <c r="Y275" s="34">
+        <f t="shared" si="120"/>
+        <v>178</v>
+      </c>
+      <c r="Z275" s="34">
+        <f t="shared" si="121"/>
+        <v>179</v>
+      </c>
+      <c r="AA275" s="34">
+        <f t="shared" si="122"/>
+        <v>180</v>
+      </c>
+      <c r="AB275" s="34">
+        <f t="shared" si="123"/>
+        <v>181</v>
+      </c>
+      <c r="AC275" s="34">
+        <f t="shared" si="124"/>
+        <v>182</v>
+      </c>
+      <c r="AD275" s="34">
+        <f t="shared" si="125"/>
+        <v>183</v>
+      </c>
+      <c r="AE275" s="34">
+        <f t="shared" si="125"/>
+        <v>184</v>
+      </c>
+      <c r="AF275" s="34">
+        <f t="shared" si="125"/>
+        <v>185</v>
+      </c>
+      <c r="AG275" s="34">
+        <f t="shared" si="125"/>
+        <v>186</v>
+      </c>
+      <c r="AH275" s="34">
+        <f t="shared" si="125"/>
+        <v>187</v>
+      </c>
+      <c r="AI275" s="34">
+        <f t="shared" si="125"/>
+        <v>188</v>
+      </c>
+      <c r="AJ275" s="34">
+        <f t="shared" si="125"/>
+        <v>189</v>
+      </c>
+      <c r="AK275" s="34">
+        <f t="shared" si="125"/>
+        <v>190</v>
+      </c>
+      <c r="AL275" s="34">
+        <f t="shared" si="125"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="276" spans="7:38">
+      <c r="G276" s="34">
+        <f t="shared" si="127"/>
+        <v>192</v>
+      </c>
+      <c r="H276" s="34">
+        <f t="shared" si="128"/>
+        <v>193</v>
+      </c>
+      <c r="I276" s="34">
+        <f t="shared" si="106"/>
+        <v>194</v>
+      </c>
+      <c r="J276" s="34">
+        <f t="shared" si="106"/>
+        <v>195</v>
+      </c>
+      <c r="K276" s="34">
+        <f t="shared" si="126"/>
+        <v>196</v>
+      </c>
+      <c r="L276" s="34">
+        <f t="shared" si="107"/>
+        <v>197</v>
+      </c>
+      <c r="M276" s="34">
+        <f t="shared" si="108"/>
+        <v>198</v>
+      </c>
+      <c r="N276" s="34">
+        <f t="shared" si="109"/>
+        <v>199</v>
+      </c>
+      <c r="O276" s="34">
+        <f t="shared" si="110"/>
+        <v>200</v>
+      </c>
+      <c r="P276" s="34">
+        <f t="shared" si="111"/>
+        <v>201</v>
+      </c>
+      <c r="Q276" s="34">
+        <f t="shared" si="112"/>
+        <v>202</v>
+      </c>
+      <c r="R276" s="34">
+        <f t="shared" si="113"/>
+        <v>203</v>
+      </c>
+      <c r="S276" s="34">
+        <f t="shared" si="114"/>
+        <v>204</v>
+      </c>
+      <c r="T276" s="34">
+        <f t="shared" si="115"/>
+        <v>205</v>
+      </c>
+      <c r="U276" s="34">
+        <f t="shared" si="116"/>
+        <v>206</v>
+      </c>
+      <c r="V276" s="34">
+        <f t="shared" si="117"/>
+        <v>207</v>
+      </c>
+      <c r="W276" s="34">
+        <f t="shared" si="118"/>
+        <v>208</v>
+      </c>
+      <c r="X276" s="34">
+        <f t="shared" si="119"/>
+        <v>209</v>
+      </c>
+      <c r="Y276" s="34">
+        <f t="shared" si="120"/>
+        <v>210</v>
+      </c>
+      <c r="Z276" s="34">
+        <f t="shared" si="121"/>
+        <v>211</v>
+      </c>
+      <c r="AA276" s="34">
+        <f t="shared" si="122"/>
+        <v>212</v>
+      </c>
+      <c r="AB276" s="34">
+        <f t="shared" si="123"/>
+        <v>213</v>
+      </c>
+      <c r="AC276" s="34">
+        <f t="shared" si="124"/>
+        <v>214</v>
+      </c>
+      <c r="AD276" s="34">
+        <f t="shared" si="125"/>
+        <v>215</v>
+      </c>
+      <c r="AE276" s="34">
+        <f t="shared" si="125"/>
+        <v>216</v>
+      </c>
+      <c r="AF276" s="34">
+        <f t="shared" si="125"/>
+        <v>217</v>
+      </c>
+      <c r="AG276" s="34">
+        <f t="shared" si="125"/>
+        <v>218</v>
+      </c>
+      <c r="AH276" s="34">
+        <f t="shared" si="125"/>
+        <v>219</v>
+      </c>
+      <c r="AI276" s="34">
+        <f t="shared" si="125"/>
+        <v>220</v>
+      </c>
+      <c r="AJ276" s="34">
+        <f t="shared" si="125"/>
+        <v>221</v>
+      </c>
+      <c r="AK276" s="34">
+        <f t="shared" si="125"/>
+        <v>222</v>
+      </c>
+      <c r="AL276" s="34">
+        <f t="shared" si="125"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="277" spans="7:38">
+      <c r="G277" s="34">
+        <f t="shared" si="127"/>
+        <v>224</v>
+      </c>
+      <c r="H277" s="34">
+        <f t="shared" si="128"/>
+        <v>225</v>
+      </c>
+      <c r="I277" s="34">
+        <f t="shared" si="106"/>
+        <v>226</v>
+      </c>
+      <c r="J277" s="34">
+        <f t="shared" si="106"/>
+        <v>227</v>
+      </c>
+      <c r="K277" s="34">
+        <f t="shared" si="126"/>
+        <v>228</v>
+      </c>
+      <c r="L277" s="34">
+        <f t="shared" si="107"/>
+        <v>229</v>
+      </c>
+      <c r="M277" s="34">
+        <f t="shared" si="108"/>
+        <v>230</v>
+      </c>
+      <c r="N277" s="34">
+        <f t="shared" si="109"/>
+        <v>231</v>
+      </c>
+      <c r="O277" s="34">
+        <f t="shared" si="110"/>
+        <v>232</v>
+      </c>
+      <c r="P277" s="34">
+        <f t="shared" si="111"/>
+        <v>233</v>
+      </c>
+      <c r="Q277" s="34">
+        <f t="shared" si="112"/>
+        <v>234</v>
+      </c>
+      <c r="R277" s="34">
+        <f t="shared" si="113"/>
+        <v>235</v>
+      </c>
+      <c r="S277" s="34">
+        <f t="shared" si="114"/>
+        <v>236</v>
+      </c>
+      <c r="T277" s="34">
+        <f t="shared" si="115"/>
+        <v>237</v>
+      </c>
+      <c r="U277" s="34">
+        <f t="shared" si="116"/>
+        <v>238</v>
+      </c>
+      <c r="V277" s="34">
+        <f t="shared" si="117"/>
+        <v>239</v>
+      </c>
+      <c r="W277" s="34">
+        <f t="shared" si="118"/>
+        <v>240</v>
+      </c>
+      <c r="X277" s="34">
+        <f t="shared" si="119"/>
+        <v>241</v>
+      </c>
+      <c r="Y277" s="34">
+        <f t="shared" si="120"/>
+        <v>242</v>
+      </c>
+      <c r="Z277" s="34">
+        <f t="shared" si="121"/>
+        <v>243</v>
+      </c>
+      <c r="AA277" s="34">
+        <f t="shared" si="122"/>
+        <v>244</v>
+      </c>
+      <c r="AB277" s="34">
+        <f t="shared" si="123"/>
+        <v>245</v>
+      </c>
+      <c r="AC277" s="34">
+        <f t="shared" si="124"/>
+        <v>246</v>
+      </c>
+      <c r="AD277" s="34">
+        <f t="shared" si="125"/>
+        <v>247</v>
+      </c>
+      <c r="AE277" s="34">
+        <f t="shared" si="125"/>
+        <v>248</v>
+      </c>
+      <c r="AF277" s="34">
+        <f t="shared" si="125"/>
+        <v>249</v>
+      </c>
+      <c r="AG277" s="34">
+        <f t="shared" si="125"/>
+        <v>250</v>
+      </c>
+      <c r="AH277" s="34">
+        <f t="shared" si="125"/>
+        <v>251</v>
+      </c>
+      <c r="AI277" s="34">
+        <f t="shared" si="125"/>
+        <v>252</v>
+      </c>
+      <c r="AJ277" s="34">
+        <f t="shared" si="125"/>
+        <v>253</v>
+      </c>
+      <c r="AK277" s="34">
+        <f t="shared" si="125"/>
+        <v>254</v>
+      </c>
+      <c r="AL277" s="34">
+        <f t="shared" si="125"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="278" spans="7:38">
+      <c r="G278" s="34">
+        <f t="shared" si="127"/>
+        <v>256</v>
+      </c>
+      <c r="H278" s="34">
+        <f t="shared" si="128"/>
+        <v>257</v>
+      </c>
+      <c r="I278" s="34">
+        <f t="shared" si="106"/>
+        <v>258</v>
+      </c>
+      <c r="J278" s="34">
+        <f t="shared" si="106"/>
+        <v>259</v>
+      </c>
+      <c r="K278" s="34">
+        <f t="shared" si="126"/>
+        <v>260</v>
+      </c>
+      <c r="L278" s="34">
+        <f t="shared" si="107"/>
+        <v>261</v>
+      </c>
+      <c r="M278" s="34">
+        <f t="shared" si="108"/>
+        <v>262</v>
+      </c>
+      <c r="N278" s="34">
+        <f t="shared" si="109"/>
+        <v>263</v>
+      </c>
+      <c r="O278" s="34">
+        <f t="shared" si="110"/>
+        <v>264</v>
+      </c>
+      <c r="P278" s="34">
+        <f t="shared" si="111"/>
+        <v>265</v>
+      </c>
+      <c r="Q278" s="34">
+        <f t="shared" si="112"/>
+        <v>266</v>
+      </c>
+      <c r="R278" s="34">
+        <f t="shared" si="113"/>
+        <v>267</v>
+      </c>
+      <c r="S278" s="34">
+        <f t="shared" si="114"/>
+        <v>268</v>
+      </c>
+      <c r="T278" s="34">
+        <f t="shared" si="115"/>
+        <v>269</v>
+      </c>
+      <c r="U278" s="34">
+        <f t="shared" si="116"/>
+        <v>270</v>
+      </c>
+      <c r="V278" s="34">
+        <f t="shared" si="117"/>
+        <v>271</v>
+      </c>
+      <c r="W278" s="34">
+        <f t="shared" si="118"/>
+        <v>272</v>
+      </c>
+      <c r="X278" s="34">
+        <f t="shared" si="119"/>
+        <v>273</v>
+      </c>
+      <c r="Y278" s="34">
+        <f t="shared" si="120"/>
+        <v>274</v>
+      </c>
+      <c r="Z278" s="34">
+        <f t="shared" si="121"/>
+        <v>275</v>
+      </c>
+      <c r="AA278" s="34">
+        <f t="shared" si="122"/>
+        <v>276</v>
+      </c>
+      <c r="AB278" s="34">
+        <f t="shared" si="123"/>
+        <v>277</v>
+      </c>
+      <c r="AC278" s="34">
+        <f t="shared" si="124"/>
+        <v>278</v>
+      </c>
+      <c r="AD278" s="34">
+        <f t="shared" si="125"/>
+        <v>279</v>
+      </c>
+      <c r="AE278" s="34">
+        <f t="shared" si="125"/>
+        <v>280</v>
+      </c>
+      <c r="AF278" s="34">
+        <f t="shared" si="125"/>
+        <v>281</v>
+      </c>
+      <c r="AG278" s="34">
+        <f t="shared" si="125"/>
+        <v>282</v>
+      </c>
+      <c r="AH278" s="34">
+        <f t="shared" si="125"/>
+        <v>283</v>
+      </c>
+      <c r="AI278" s="34">
+        <f t="shared" si="125"/>
+        <v>284</v>
+      </c>
+      <c r="AJ278" s="34">
+        <f t="shared" si="125"/>
+        <v>285</v>
+      </c>
+      <c r="AK278" s="34">
+        <f t="shared" si="125"/>
+        <v>286</v>
+      </c>
+      <c r="AL278" s="34">
+        <f t="shared" si="125"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="279" spans="7:38">
+      <c r="G279" s="34">
+        <f t="shared" si="127"/>
+        <v>288</v>
+      </c>
+      <c r="H279" s="34">
+        <f t="shared" si="128"/>
+        <v>289</v>
+      </c>
+      <c r="I279" s="34">
+        <f t="shared" si="106"/>
+        <v>290</v>
+      </c>
+      <c r="J279" s="34">
+        <f t="shared" si="106"/>
+        <v>291</v>
+      </c>
+      <c r="K279" s="34">
+        <f t="shared" si="126"/>
+        <v>292</v>
+      </c>
+      <c r="L279" s="34">
+        <f t="shared" si="107"/>
+        <v>293</v>
+      </c>
+      <c r="M279" s="34">
+        <f t="shared" si="108"/>
+        <v>294</v>
+      </c>
+      <c r="N279" s="34">
+        <f t="shared" si="109"/>
+        <v>295</v>
+      </c>
+      <c r="O279" s="34">
+        <f t="shared" si="110"/>
+        <v>296</v>
+      </c>
+      <c r="P279" s="34">
+        <f t="shared" si="111"/>
+        <v>297</v>
+      </c>
+      <c r="Q279" s="34">
+        <f t="shared" si="112"/>
+        <v>298</v>
+      </c>
+      <c r="R279" s="34">
+        <f t="shared" si="113"/>
+        <v>299</v>
+      </c>
+      <c r="S279" s="34">
+        <f t="shared" si="114"/>
+        <v>300</v>
+      </c>
+      <c r="T279" s="34">
+        <f t="shared" si="115"/>
+        <v>301</v>
+      </c>
+      <c r="U279" s="34">
+        <f t="shared" si="116"/>
+        <v>302</v>
+      </c>
+      <c r="V279" s="34">
+        <f t="shared" si="117"/>
+        <v>303</v>
+      </c>
+      <c r="W279" s="34">
+        <f t="shared" si="118"/>
+        <v>304</v>
+      </c>
+      <c r="X279" s="34">
+        <f t="shared" si="119"/>
+        <v>305</v>
+      </c>
+      <c r="Y279" s="34">
+        <f t="shared" si="120"/>
+        <v>306</v>
+      </c>
+      <c r="Z279" s="34">
+        <f t="shared" si="121"/>
+        <v>307</v>
+      </c>
+      <c r="AA279" s="34">
+        <f t="shared" si="122"/>
+        <v>308</v>
+      </c>
+      <c r="AB279" s="34">
+        <f t="shared" si="123"/>
+        <v>309</v>
+      </c>
+      <c r="AC279" s="34">
+        <f t="shared" si="124"/>
+        <v>310</v>
+      </c>
+      <c r="AD279" s="34">
+        <f t="shared" si="125"/>
+        <v>311</v>
+      </c>
+      <c r="AE279" s="34">
+        <f t="shared" si="125"/>
+        <v>312</v>
+      </c>
+      <c r="AF279" s="34">
+        <f t="shared" si="125"/>
+        <v>313</v>
+      </c>
+      <c r="AG279" s="34">
+        <f t="shared" si="125"/>
+        <v>314</v>
+      </c>
+      <c r="AH279" s="34">
+        <f t="shared" si="125"/>
+        <v>315</v>
+      </c>
+      <c r="AI279" s="34">
+        <f t="shared" si="125"/>
+        <v>316</v>
+      </c>
+      <c r="AJ279" s="34">
+        <f t="shared" si="125"/>
+        <v>317</v>
+      </c>
+      <c r="AK279" s="34">
+        <f t="shared" si="125"/>
+        <v>318</v>
+      </c>
+      <c r="AL279" s="34">
+        <f t="shared" si="125"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="280" spans="7:38">
+      <c r="G280" s="34">
+        <f t="shared" si="127"/>
+        <v>320</v>
+      </c>
+      <c r="H280" s="34">
+        <f t="shared" si="128"/>
+        <v>321</v>
+      </c>
+      <c r="I280" s="34">
+        <f t="shared" si="106"/>
+        <v>322</v>
+      </c>
+      <c r="J280" s="34">
+        <f t="shared" si="106"/>
+        <v>323</v>
+      </c>
+      <c r="K280" s="34">
+        <f t="shared" si="126"/>
+        <v>324</v>
+      </c>
+      <c r="L280" s="34">
+        <f t="shared" si="107"/>
+        <v>325</v>
+      </c>
+      <c r="M280" s="34">
+        <f t="shared" si="108"/>
+        <v>326</v>
+      </c>
+      <c r="N280" s="34">
+        <f t="shared" si="109"/>
+        <v>327</v>
+      </c>
+      <c r="O280" s="34">
+        <f t="shared" si="110"/>
+        <v>328</v>
+      </c>
+      <c r="P280" s="34">
+        <f t="shared" si="111"/>
+        <v>329</v>
+      </c>
+      <c r="Q280" s="34">
+        <f t="shared" si="112"/>
+        <v>330</v>
+      </c>
+      <c r="R280" s="34">
+        <f t="shared" si="113"/>
+        <v>331</v>
+      </c>
+      <c r="S280" s="34">
+        <f t="shared" si="114"/>
+        <v>332</v>
+      </c>
+      <c r="T280" s="34">
+        <f t="shared" si="115"/>
+        <v>333</v>
+      </c>
+      <c r="U280" s="34">
+        <f t="shared" si="116"/>
+        <v>334</v>
+      </c>
+      <c r="V280" s="34">
+        <f t="shared" si="117"/>
+        <v>335</v>
+      </c>
+      <c r="W280" s="34">
+        <f t="shared" si="118"/>
+        <v>336</v>
+      </c>
+      <c r="X280" s="34">
+        <f t="shared" si="119"/>
+        <v>337</v>
+      </c>
+      <c r="Y280" s="34">
+        <f t="shared" si="120"/>
+        <v>338</v>
+      </c>
+      <c r="Z280" s="34">
+        <f t="shared" si="121"/>
+        <v>339</v>
+      </c>
+      <c r="AA280" s="34">
+        <f t="shared" si="122"/>
+        <v>340</v>
+      </c>
+      <c r="AB280" s="34">
+        <f t="shared" si="123"/>
+        <v>341</v>
+      </c>
+      <c r="AC280" s="34">
+        <f t="shared" si="124"/>
+        <v>342</v>
+      </c>
+      <c r="AD280" s="34">
+        <f t="shared" si="125"/>
+        <v>343</v>
+      </c>
+      <c r="AE280" s="34">
+        <f t="shared" si="125"/>
+        <v>344</v>
+      </c>
+      <c r="AF280" s="34">
+        <f t="shared" si="125"/>
+        <v>345</v>
+      </c>
+      <c r="AG280" s="34">
+        <f t="shared" si="125"/>
+        <v>346</v>
+      </c>
+      <c r="AH280" s="34">
+        <f t="shared" si="125"/>
+        <v>347</v>
+      </c>
+      <c r="AI280" s="34">
+        <f t="shared" si="125"/>
+        <v>348</v>
+      </c>
+      <c r="AJ280" s="34">
+        <f t="shared" si="125"/>
+        <v>349</v>
+      </c>
+      <c r="AK280" s="34">
+        <f t="shared" si="125"/>
+        <v>350</v>
+      </c>
+      <c r="AL280" s="34">
+        <f t="shared" si="125"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="281" spans="7:38">
+      <c r="G281" s="34">
+        <f t="shared" si="127"/>
+        <v>352</v>
+      </c>
+      <c r="H281" s="34">
+        <f t="shared" si="128"/>
+        <v>353</v>
+      </c>
+      <c r="I281" s="34">
+        <f t="shared" si="106"/>
+        <v>354</v>
+      </c>
+      <c r="J281" s="34">
+        <f t="shared" si="106"/>
+        <v>355</v>
+      </c>
+      <c r="K281" s="34">
+        <f t="shared" si="126"/>
+        <v>356</v>
+      </c>
+      <c r="L281" s="34">
+        <f t="shared" si="107"/>
+        <v>357</v>
+      </c>
+      <c r="M281" s="34">
+        <f t="shared" si="108"/>
+        <v>358</v>
+      </c>
+      <c r="N281" s="34">
+        <f t="shared" si="109"/>
+        <v>359</v>
+      </c>
+      <c r="O281" s="34">
+        <f t="shared" si="110"/>
+        <v>360</v>
+      </c>
+      <c r="P281" s="34">
+        <f t="shared" si="111"/>
+        <v>361</v>
+      </c>
+      <c r="Q281" s="34">
+        <f t="shared" si="112"/>
+        <v>362</v>
+      </c>
+      <c r="R281" s="34">
+        <f t="shared" si="113"/>
+        <v>363</v>
+      </c>
+      <c r="S281" s="34">
+        <f t="shared" si="114"/>
+        <v>364</v>
+      </c>
+      <c r="T281" s="34">
+        <f t="shared" si="115"/>
+        <v>365</v>
+      </c>
+      <c r="U281" s="34">
+        <f t="shared" si="116"/>
+        <v>366</v>
+      </c>
+      <c r="V281" s="34">
+        <f t="shared" si="117"/>
+        <v>367</v>
+      </c>
+      <c r="W281" s="34">
+        <f t="shared" si="118"/>
+        <v>368</v>
+      </c>
+      <c r="X281" s="34">
+        <f t="shared" si="119"/>
+        <v>369</v>
+      </c>
+      <c r="Y281" s="34">
+        <f t="shared" si="120"/>
+        <v>370</v>
+      </c>
+      <c r="Z281" s="34">
+        <f t="shared" si="121"/>
+        <v>371</v>
+      </c>
+      <c r="AA281" s="34">
+        <f t="shared" si="122"/>
+        <v>372</v>
+      </c>
+      <c r="AB281" s="34">
+        <f t="shared" si="123"/>
+        <v>373</v>
+      </c>
+      <c r="AC281" s="34">
+        <f t="shared" si="124"/>
+        <v>374</v>
+      </c>
+      <c r="AD281" s="34">
+        <f t="shared" si="125"/>
+        <v>375</v>
+      </c>
+      <c r="AE281" s="34">
+        <f t="shared" si="125"/>
+        <v>376</v>
+      </c>
+      <c r="AF281" s="34">
+        <f t="shared" si="125"/>
+        <v>377</v>
+      </c>
+      <c r="AG281" s="34">
+        <f t="shared" si="125"/>
+        <v>378</v>
+      </c>
+      <c r="AH281" s="34">
+        <f t="shared" si="125"/>
+        <v>379</v>
+      </c>
+      <c r="AI281" s="34">
+        <f t="shared" si="125"/>
+        <v>380</v>
+      </c>
+      <c r="AJ281" s="34">
+        <f t="shared" si="125"/>
+        <v>381</v>
+      </c>
+      <c r="AK281" s="34">
+        <f t="shared" si="125"/>
+        <v>382</v>
+      </c>
+      <c r="AL281" s="34">
+        <f t="shared" si="125"/>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="282" spans="7:38">
+      <c r="G282" s="34">
+        <f t="shared" si="127"/>
+        <v>384</v>
+      </c>
+      <c r="H282" s="34">
+        <f t="shared" si="128"/>
+        <v>385</v>
+      </c>
+      <c r="I282" s="34">
+        <f t="shared" si="106"/>
+        <v>386</v>
+      </c>
+      <c r="J282" s="34">
+        <f t="shared" si="106"/>
+        <v>387</v>
+      </c>
+      <c r="K282" s="34">
+        <f t="shared" si="126"/>
+        <v>388</v>
+      </c>
+      <c r="L282" s="34">
+        <f t="shared" si="107"/>
+        <v>389</v>
+      </c>
+      <c r="M282" s="34">
+        <f t="shared" si="108"/>
+        <v>390</v>
+      </c>
+      <c r="N282" s="34">
+        <f t="shared" si="109"/>
+        <v>391</v>
+      </c>
+      <c r="O282" s="34">
+        <f t="shared" si="110"/>
+        <v>392</v>
+      </c>
+      <c r="P282" s="34">
+        <f t="shared" si="111"/>
+        <v>393</v>
+      </c>
+      <c r="Q282" s="34">
+        <f t="shared" si="112"/>
+        <v>394</v>
+      </c>
+      <c r="R282" s="34">
+        <f t="shared" si="113"/>
+        <v>395</v>
+      </c>
+      <c r="S282" s="34">
+        <f t="shared" si="114"/>
+        <v>396</v>
+      </c>
+      <c r="T282" s="34">
+        <f t="shared" si="115"/>
+        <v>397</v>
+      </c>
+      <c r="U282" s="34">
+        <f t="shared" si="116"/>
+        <v>398</v>
+      </c>
+      <c r="V282" s="34">
+        <f t="shared" si="117"/>
+        <v>399</v>
+      </c>
+      <c r="W282" s="34">
+        <f t="shared" si="118"/>
+        <v>400</v>
+      </c>
+      <c r="X282" s="34">
+        <f t="shared" si="119"/>
+        <v>401</v>
+      </c>
+      <c r="Y282" s="34">
+        <f t="shared" si="120"/>
+        <v>402</v>
+      </c>
+      <c r="Z282" s="34">
+        <f t="shared" si="121"/>
+        <v>403</v>
+      </c>
+      <c r="AA282" s="34">
+        <f t="shared" si="122"/>
+        <v>404</v>
+      </c>
+      <c r="AB282" s="34">
+        <f t="shared" si="123"/>
+        <v>405</v>
+      </c>
+      <c r="AC282" s="34">
+        <f t="shared" si="124"/>
+        <v>406</v>
+      </c>
+      <c r="AD282" s="34">
+        <f t="shared" si="125"/>
+        <v>407</v>
+      </c>
+      <c r="AE282" s="34">
+        <f t="shared" si="125"/>
+        <v>408</v>
+      </c>
+      <c r="AF282" s="34">
+        <f t="shared" si="125"/>
+        <v>409</v>
+      </c>
+      <c r="AG282" s="34">
+        <f t="shared" si="125"/>
+        <v>410</v>
+      </c>
+      <c r="AH282" s="34">
+        <f t="shared" si="125"/>
+        <v>411</v>
+      </c>
+      <c r="AI282" s="34">
+        <f t="shared" si="125"/>
+        <v>412</v>
+      </c>
+      <c r="AJ282" s="34">
+        <f t="shared" si="125"/>
+        <v>413</v>
+      </c>
+      <c r="AK282" s="34">
+        <f t="shared" si="125"/>
+        <v>414</v>
+      </c>
+      <c r="AL282" s="34">
+        <f t="shared" si="125"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="283" spans="7:38">
+      <c r="G283" s="34">
+        <f t="shared" si="127"/>
+        <v>416</v>
+      </c>
+      <c r="H283" s="34">
+        <f t="shared" si="128"/>
+        <v>417</v>
+      </c>
+      <c r="I283" s="34">
+        <f t="shared" si="106"/>
+        <v>418</v>
+      </c>
+      <c r="J283" s="34">
+        <f t="shared" si="106"/>
+        <v>419</v>
+      </c>
+      <c r="K283" s="34">
+        <f t="shared" si="126"/>
+        <v>420</v>
+      </c>
+      <c r="L283" s="34">
+        <f t="shared" si="107"/>
+        <v>421</v>
+      </c>
+      <c r="M283" s="34">
+        <f t="shared" si="108"/>
+        <v>422</v>
+      </c>
+      <c r="N283" s="34">
+        <f t="shared" si="109"/>
+        <v>423</v>
+      </c>
+      <c r="O283" s="34">
+        <f t="shared" si="110"/>
+        <v>424</v>
+      </c>
+      <c r="P283" s="34">
+        <f t="shared" si="111"/>
+        <v>425</v>
+      </c>
+      <c r="Q283" s="34">
+        <f t="shared" si="112"/>
+        <v>426</v>
+      </c>
+      <c r="R283" s="34">
+        <f t="shared" si="113"/>
+        <v>427</v>
+      </c>
+      <c r="S283" s="34">
+        <f t="shared" si="114"/>
+        <v>428</v>
+      </c>
+      <c r="T283" s="34">
+        <f t="shared" si="115"/>
+        <v>429</v>
+      </c>
+      <c r="U283" s="34">
+        <f t="shared" si="116"/>
+        <v>430</v>
+      </c>
+      <c r="V283" s="34">
+        <f t="shared" si="117"/>
+        <v>431</v>
+      </c>
+      <c r="W283" s="34">
+        <f t="shared" si="118"/>
+        <v>432</v>
+      </c>
+      <c r="X283" s="34">
+        <f t="shared" si="119"/>
+        <v>433</v>
+      </c>
+      <c r="Y283" s="34">
+        <f t="shared" si="120"/>
+        <v>434</v>
+      </c>
+      <c r="Z283" s="34">
+        <f t="shared" si="121"/>
+        <v>435</v>
+      </c>
+      <c r="AA283" s="34">
+        <f t="shared" si="122"/>
+        <v>436</v>
+      </c>
+      <c r="AB283" s="34">
+        <f t="shared" si="123"/>
+        <v>437</v>
+      </c>
+      <c r="AC283" s="34">
+        <f t="shared" si="124"/>
+        <v>438</v>
+      </c>
+      <c r="AD283" s="34">
+        <f t="shared" si="125"/>
+        <v>439</v>
+      </c>
+      <c r="AE283" s="34">
+        <f t="shared" si="125"/>
+        <v>440</v>
+      </c>
+      <c r="AF283" s="34">
+        <f t="shared" si="125"/>
+        <v>441</v>
+      </c>
+      <c r="AG283" s="34">
+        <f t="shared" si="125"/>
+        <v>442</v>
+      </c>
+      <c r="AH283" s="34">
+        <f t="shared" si="125"/>
+        <v>443</v>
+      </c>
+      <c r="AI283" s="34">
+        <f t="shared" si="125"/>
+        <v>444</v>
+      </c>
+      <c r="AJ283" s="34">
+        <f t="shared" si="125"/>
+        <v>445</v>
+      </c>
+      <c r="AK283" s="34">
+        <f t="shared" si="125"/>
+        <v>446</v>
+      </c>
+      <c r="AL283" s="34">
+        <f t="shared" si="125"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="284" spans="7:38">
+      <c r="G284" s="34">
+        <f t="shared" si="127"/>
+        <v>448</v>
+      </c>
+      <c r="H284" s="34">
+        <f t="shared" si="128"/>
+        <v>449</v>
+      </c>
+      <c r="I284" s="34">
+        <f t="shared" si="106"/>
+        <v>450</v>
+      </c>
+      <c r="J284" s="34">
+        <f t="shared" si="106"/>
+        <v>451</v>
+      </c>
+      <c r="K284" s="34">
+        <f t="shared" si="126"/>
+        <v>452</v>
+      </c>
+      <c r="L284" s="34">
+        <f t="shared" si="107"/>
+        <v>453</v>
+      </c>
+      <c r="M284" s="34">
+        <f t="shared" si="108"/>
+        <v>454</v>
+      </c>
+      <c r="N284" s="34">
+        <f t="shared" si="109"/>
+        <v>455</v>
+      </c>
+      <c r="O284" s="34">
+        <f t="shared" si="110"/>
+        <v>456</v>
+      </c>
+      <c r="P284" s="34">
+        <f t="shared" si="111"/>
+        <v>457</v>
+      </c>
+      <c r="Q284" s="34">
+        <f t="shared" si="112"/>
+        <v>458</v>
+      </c>
+      <c r="R284" s="34">
+        <f t="shared" si="113"/>
+        <v>459</v>
+      </c>
+      <c r="S284" s="34">
+        <f t="shared" si="114"/>
+        <v>460</v>
+      </c>
+      <c r="T284" s="34">
+        <f t="shared" si="115"/>
+        <v>461</v>
+      </c>
+      <c r="U284" s="34">
+        <f t="shared" si="116"/>
+        <v>462</v>
+      </c>
+      <c r="V284" s="34">
+        <f t="shared" si="117"/>
+        <v>463</v>
+      </c>
+      <c r="W284" s="34">
+        <f t="shared" si="118"/>
+        <v>464</v>
+      </c>
+      <c r="X284" s="34">
+        <f t="shared" si="119"/>
+        <v>465</v>
+      </c>
+      <c r="Y284" s="34">
+        <f t="shared" si="120"/>
+        <v>466</v>
+      </c>
+      <c r="Z284" s="34">
+        <f t="shared" si="121"/>
+        <v>467</v>
+      </c>
+      <c r="AA284" s="34">
+        <f t="shared" si="122"/>
+        <v>468</v>
+      </c>
+      <c r="AB284" s="34">
+        <f t="shared" si="123"/>
+        <v>469</v>
+      </c>
+      <c r="AC284" s="34">
+        <f t="shared" si="124"/>
+        <v>470</v>
+      </c>
+      <c r="AD284" s="34">
+        <f t="shared" si="125"/>
+        <v>471</v>
+      </c>
+      <c r="AE284" s="34">
+        <f t="shared" si="125"/>
+        <v>472</v>
+      </c>
+      <c r="AF284" s="34">
+        <f t="shared" si="125"/>
+        <v>473</v>
+      </c>
+      <c r="AG284" s="34">
+        <f t="shared" si="125"/>
+        <v>474</v>
+      </c>
+      <c r="AH284" s="34">
+        <f t="shared" si="125"/>
+        <v>475</v>
+      </c>
+      <c r="AI284" s="34">
+        <f t="shared" si="125"/>
+        <v>476</v>
+      </c>
+      <c r="AJ284" s="34">
+        <f t="shared" si="125"/>
+        <v>477</v>
+      </c>
+      <c r="AK284" s="34">
+        <f t="shared" si="125"/>
+        <v>478</v>
+      </c>
+      <c r="AL284" s="34">
+        <f t="shared" si="125"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="285" spans="7:38">
+      <c r="G285" s="34">
+        <f t="shared" si="127"/>
+        <v>480</v>
+      </c>
+      <c r="H285" s="34">
+        <f t="shared" si="128"/>
+        <v>481</v>
+      </c>
+      <c r="I285" s="34">
+        <f t="shared" si="106"/>
+        <v>482</v>
+      </c>
+      <c r="J285" s="34">
+        <f t="shared" si="106"/>
+        <v>483</v>
+      </c>
+      <c r="K285" s="34">
+        <f t="shared" si="126"/>
+        <v>484</v>
+      </c>
+      <c r="L285" s="34">
+        <f t="shared" si="107"/>
+        <v>485</v>
+      </c>
+      <c r="M285" s="34">
+        <f t="shared" si="108"/>
+        <v>486</v>
+      </c>
+      <c r="N285" s="34">
+        <f t="shared" si="109"/>
+        <v>487</v>
+      </c>
+      <c r="O285" s="34">
+        <f t="shared" si="110"/>
+        <v>488</v>
+      </c>
+      <c r="P285" s="34">
+        <f t="shared" si="111"/>
+        <v>489</v>
+      </c>
+      <c r="Q285" s="34">
+        <f t="shared" si="112"/>
+        <v>490</v>
+      </c>
+      <c r="R285" s="34">
+        <f t="shared" si="113"/>
+        <v>491</v>
+      </c>
+      <c r="S285" s="34">
+        <f t="shared" si="114"/>
+        <v>492</v>
+      </c>
+      <c r="T285" s="34">
+        <f t="shared" si="115"/>
+        <v>493</v>
+      </c>
+      <c r="U285" s="34">
+        <f t="shared" si="116"/>
+        <v>494</v>
+      </c>
+      <c r="V285" s="34">
+        <f t="shared" si="117"/>
+        <v>495</v>
+      </c>
+      <c r="W285" s="34">
+        <f t="shared" si="118"/>
+        <v>496</v>
+      </c>
+      <c r="X285" s="34">
+        <f t="shared" si="119"/>
+        <v>497</v>
+      </c>
+      <c r="Y285" s="34">
+        <f t="shared" si="120"/>
+        <v>498</v>
+      </c>
+      <c r="Z285" s="34">
+        <f t="shared" si="121"/>
+        <v>499</v>
+      </c>
+      <c r="AA285" s="34">
+        <f t="shared" si="122"/>
+        <v>500</v>
+      </c>
+      <c r="AB285" s="34">
+        <f t="shared" si="123"/>
+        <v>501</v>
+      </c>
+      <c r="AC285" s="34">
+        <f t="shared" si="124"/>
+        <v>502</v>
+      </c>
+      <c r="AD285" s="34">
+        <f t="shared" si="125"/>
+        <v>503</v>
+      </c>
+      <c r="AE285" s="34">
+        <f t="shared" si="125"/>
+        <v>504</v>
+      </c>
+      <c r="AF285" s="34">
+        <f t="shared" si="125"/>
+        <v>505</v>
+      </c>
+      <c r="AG285" s="34">
+        <f t="shared" si="125"/>
+        <v>506</v>
+      </c>
+      <c r="AH285" s="34">
+        <f t="shared" si="125"/>
+        <v>507</v>
+      </c>
+      <c r="AI285" s="34">
+        <f t="shared" si="125"/>
+        <v>508</v>
+      </c>
+      <c r="AJ285" s="34">
+        <f t="shared" si="125"/>
+        <v>509</v>
+      </c>
+      <c r="AK285" s="34">
+        <f t="shared" si="125"/>
+        <v>510</v>
+      </c>
+      <c r="AL285" s="34">
+        <f t="shared" si="125"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="286" spans="7:38">
+      <c r="G286" s="34">
+        <f t="shared" si="127"/>
+        <v>512</v>
+      </c>
+      <c r="H286" s="34">
+        <f t="shared" si="128"/>
+        <v>513</v>
+      </c>
+      <c r="I286" s="34">
+        <f t="shared" si="106"/>
+        <v>514</v>
+      </c>
+      <c r="J286" s="34">
+        <f t="shared" si="106"/>
+        <v>515</v>
+      </c>
+      <c r="K286" s="34">
+        <f t="shared" si="126"/>
+        <v>516</v>
+      </c>
+      <c r="L286" s="34">
+        <f t="shared" si="107"/>
+        <v>517</v>
+      </c>
+      <c r="M286" s="34">
+        <f t="shared" si="108"/>
+        <v>518</v>
+      </c>
+      <c r="N286" s="34">
+        <f t="shared" si="109"/>
+        <v>519</v>
+      </c>
+      <c r="O286" s="34">
+        <f t="shared" si="110"/>
+        <v>520</v>
+      </c>
+      <c r="P286" s="34">
+        <f t="shared" si="111"/>
+        <v>521</v>
+      </c>
+      <c r="Q286" s="34">
+        <f t="shared" si="112"/>
+        <v>522</v>
+      </c>
+      <c r="R286" s="34">
+        <f t="shared" si="113"/>
+        <v>523</v>
+      </c>
+      <c r="S286" s="34">
+        <f t="shared" si="114"/>
+        <v>524</v>
+      </c>
+      <c r="T286" s="34">
+        <f t="shared" si="115"/>
+        <v>525</v>
+      </c>
+      <c r="U286" s="34">
+        <f t="shared" si="116"/>
+        <v>526</v>
+      </c>
+      <c r="V286" s="34">
+        <f t="shared" si="117"/>
+        <v>527</v>
+      </c>
+      <c r="W286" s="34">
+        <f t="shared" si="118"/>
+        <v>528</v>
+      </c>
+      <c r="X286" s="34">
+        <f t="shared" si="119"/>
+        <v>529</v>
+      </c>
+      <c r="Y286" s="34">
+        <f t="shared" si="120"/>
+        <v>530</v>
+      </c>
+      <c r="Z286" s="34">
+        <f t="shared" si="121"/>
+        <v>531</v>
+      </c>
+      <c r="AA286" s="34">
+        <f t="shared" si="122"/>
+        <v>532</v>
+      </c>
+      <c r="AB286" s="34">
+        <f t="shared" si="123"/>
+        <v>533</v>
+      </c>
+      <c r="AC286" s="34">
+        <f t="shared" si="124"/>
+        <v>534</v>
+      </c>
+      <c r="AD286" s="34">
+        <f t="shared" si="125"/>
+        <v>535</v>
+      </c>
+      <c r="AE286" s="34">
+        <f t="shared" si="125"/>
+        <v>536</v>
+      </c>
+      <c r="AF286" s="34">
+        <f t="shared" si="125"/>
+        <v>537</v>
+      </c>
+      <c r="AG286" s="34">
+        <f t="shared" si="125"/>
+        <v>538</v>
+      </c>
+      <c r="AH286" s="34">
+        <f t="shared" si="125"/>
+        <v>539</v>
+      </c>
+      <c r="AI286" s="34">
+        <f t="shared" si="125"/>
+        <v>540</v>
+      </c>
+      <c r="AJ286" s="34">
+        <f t="shared" si="125"/>
+        <v>541</v>
+      </c>
+      <c r="AK286" s="34">
+        <f t="shared" si="125"/>
+        <v>542</v>
+      </c>
+      <c r="AL286" s="34">
+        <f t="shared" si="125"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="287" spans="7:38">
+      <c r="G287" s="34">
+        <f t="shared" si="127"/>
+        <v>544</v>
+      </c>
+      <c r="H287" s="34">
+        <f t="shared" si="128"/>
+        <v>545</v>
+      </c>
+      <c r="I287" s="34">
+        <f t="shared" si="106"/>
+        <v>546</v>
+      </c>
+      <c r="J287" s="34">
+        <f t="shared" si="106"/>
+        <v>547</v>
+      </c>
+      <c r="K287" s="34">
+        <f t="shared" si="126"/>
+        <v>548</v>
+      </c>
+      <c r="L287" s="34">
+        <f t="shared" si="107"/>
+        <v>549</v>
+      </c>
+      <c r="M287" s="34">
+        <f t="shared" si="108"/>
+        <v>550</v>
+      </c>
+      <c r="N287" s="34">
+        <f t="shared" si="109"/>
+        <v>551</v>
+      </c>
+      <c r="O287" s="34">
+        <f t="shared" si="110"/>
+        <v>552</v>
+      </c>
+      <c r="P287" s="34">
+        <f t="shared" si="111"/>
+        <v>553</v>
+      </c>
+      <c r="Q287" s="34">
+        <f t="shared" si="112"/>
+        <v>554</v>
+      </c>
+      <c r="R287" s="34">
+        <f t="shared" si="113"/>
+        <v>555</v>
+      </c>
+      <c r="S287" s="34">
+        <f t="shared" si="114"/>
+        <v>556</v>
+      </c>
+      <c r="T287" s="34">
+        <f t="shared" si="115"/>
+        <v>557</v>
+      </c>
+      <c r="U287" s="34">
+        <f t="shared" si="116"/>
+        <v>558</v>
+      </c>
+      <c r="V287" s="34">
+        <f t="shared" si="117"/>
+        <v>559</v>
+      </c>
+      <c r="W287" s="34">
+        <f t="shared" si="118"/>
+        <v>560</v>
+      </c>
+      <c r="X287" s="34">
+        <f t="shared" si="119"/>
+        <v>561</v>
+      </c>
+      <c r="Y287" s="34">
+        <f t="shared" si="120"/>
+        <v>562</v>
+      </c>
+      <c r="Z287" s="34">
+        <f t="shared" si="121"/>
+        <v>563</v>
+      </c>
+      <c r="AA287" s="34">
+        <f t="shared" si="122"/>
+        <v>564</v>
+      </c>
+      <c r="AB287" s="34">
+        <f t="shared" si="123"/>
+        <v>565</v>
+      </c>
+      <c r="AC287" s="34">
+        <f t="shared" si="124"/>
+        <v>566</v>
+      </c>
+      <c r="AD287" s="34">
+        <f t="shared" si="125"/>
+        <v>567</v>
+      </c>
+      <c r="AE287" s="34">
+        <f t="shared" si="125"/>
+        <v>568</v>
+      </c>
+      <c r="AF287" s="34">
+        <f t="shared" si="125"/>
+        <v>569</v>
+      </c>
+      <c r="AG287" s="34">
+        <f t="shared" si="125"/>
+        <v>570</v>
+      </c>
+      <c r="AH287" s="34">
+        <f t="shared" si="125"/>
+        <v>571</v>
+      </c>
+      <c r="AI287" s="34">
+        <f t="shared" si="125"/>
+        <v>572</v>
+      </c>
+      <c r="AJ287" s="34">
+        <f t="shared" si="125"/>
+        <v>573</v>
+      </c>
+      <c r="AK287" s="34">
+        <f t="shared" si="125"/>
+        <v>574</v>
+      </c>
+      <c r="AL287" s="34">
+        <f t="shared" si="125"/>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="288" spans="7:38">
+      <c r="G288" s="34">
+        <f t="shared" si="127"/>
+        <v>576</v>
+      </c>
+      <c r="H288" s="34">
+        <f t="shared" ref="H288" si="129">G288+1</f>
+        <v>577</v>
+      </c>
+      <c r="I288" s="34">
+        <f t="shared" ref="I288" si="130">H288+1</f>
+        <v>578</v>
+      </c>
+      <c r="J288" s="34">
+        <f t="shared" ref="J288" si="131">I288+1</f>
+        <v>579</v>
+      </c>
+      <c r="K288" s="34">
+        <f t="shared" si="126"/>
+        <v>580</v>
+      </c>
+      <c r="L288" s="34">
+        <f t="shared" ref="L288" si="132">K288+1</f>
+        <v>581</v>
+      </c>
+      <c r="M288" s="34">
+        <f t="shared" ref="M288" si="133">L288+1</f>
+        <v>582</v>
+      </c>
+      <c r="N288" s="34">
+        <f t="shared" ref="N288" si="134">M288+1</f>
+        <v>583</v>
+      </c>
+      <c r="O288" s="34">
+        <f t="shared" ref="O288" si="135">N288+1</f>
+        <v>584</v>
+      </c>
+      <c r="P288" s="34">
+        <f t="shared" ref="P288" si="136">O288+1</f>
+        <v>585</v>
+      </c>
+      <c r="Q288" s="34">
+        <f t="shared" ref="Q288" si="137">P288+1</f>
+        <v>586</v>
+      </c>
+      <c r="R288" s="34">
+        <f t="shared" ref="R288" si="138">Q288+1</f>
+        <v>587</v>
+      </c>
+      <c r="S288" s="34">
+        <f t="shared" ref="S288" si="139">R288+1</f>
+        <v>588</v>
+      </c>
+      <c r="T288" s="34">
+        <f t="shared" ref="T288" si="140">S288+1</f>
+        <v>589</v>
+      </c>
+      <c r="U288" s="34">
+        <f t="shared" ref="U288" si="141">T288+1</f>
+        <v>590</v>
+      </c>
+      <c r="V288" s="34">
+        <f t="shared" ref="V288" si="142">U288+1</f>
+        <v>591</v>
+      </c>
+      <c r="W288" s="34">
+        <f t="shared" ref="W288" si="143">V288+1</f>
+        <v>592</v>
+      </c>
+      <c r="X288" s="34">
+        <f t="shared" ref="X288" si="144">W288+1</f>
+        <v>593</v>
+      </c>
+      <c r="Y288" s="34">
+        <f t="shared" ref="Y288" si="145">X288+1</f>
+        <v>594</v>
+      </c>
+      <c r="Z288" s="34">
+        <f t="shared" ref="Z288" si="146">Y288+1</f>
+        <v>595</v>
+      </c>
+      <c r="AA288" s="34">
+        <f t="shared" ref="AA288" si="147">Z288+1</f>
+        <v>596</v>
+      </c>
+      <c r="AB288" s="34">
+        <f t="shared" ref="AB288" si="148">AA288+1</f>
+        <v>597</v>
+      </c>
+      <c r="AC288" s="34">
+        <f t="shared" ref="AC288" si="149">AB288+1</f>
+        <v>598</v>
+      </c>
+      <c r="AD288" s="34">
+        <f t="shared" ref="AD288" si="150">AC288+1</f>
+        <v>599</v>
+      </c>
+      <c r="AE288" s="34">
+        <f t="shared" ref="AE288:AL288" si="151">AD288+1</f>
+        <v>600</v>
+      </c>
+      <c r="AF288" s="34">
+        <f t="shared" si="151"/>
+        <v>601</v>
+      </c>
+      <c r="AG288" s="34">
+        <f t="shared" si="151"/>
+        <v>602</v>
+      </c>
+      <c r="AH288" s="34">
+        <f t="shared" si="151"/>
+        <v>603</v>
+      </c>
+      <c r="AI288" s="34">
+        <f t="shared" si="151"/>
+        <v>604</v>
+      </c>
+      <c r="AJ288" s="34">
+        <f t="shared" si="151"/>
+        <v>605</v>
+      </c>
+      <c r="AK288" s="34">
+        <f t="shared" si="151"/>
+        <v>606</v>
+      </c>
+      <c r="AL288" s="34">
+        <f t="shared" si="151"/>
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
+++ b/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
@@ -19927,7 +19927,7 @@
   <dimension ref="A1:BS288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C225" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G262" sqref="G262"/>
+      <selection activeCell="J248" sqref="J248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31151,7 +31151,7 @@
         <f>DEC2HEX(AD270)</f>
         <v>17</v>
       </c>
-      <c r="AE244" s="40" t="str">
+      <c r="AE244" s="35" t="str">
         <f>DEC2HEX(AE270)</f>
         <v>18</v>
       </c>

--- a/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
+++ b/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
@@ -19926,8 +19926,8 @@
   </sheetPr>
   <dimension ref="A1:BS288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C225" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J248" sqref="J248"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31060,7 +31060,7 @@
         <v>0</v>
       </c>
       <c r="H244" s="41" t="str">
-        <f t="shared" ref="H244:AC244" si="51">DEC2HEX(H270)</f>
+        <f t="shared" ref="H244:I244" si="51">DEC2HEX(H270)</f>
         <v>1</v>
       </c>
       <c r="I244" s="41" t="str">
@@ -31072,115 +31072,115 @@
         <v>3</v>
       </c>
       <c r="K244" s="41" t="str">
-        <f>DEC2HEX(K270)</f>
+        <f t="shared" ref="K244:AE244" si="53">DEC2HEX(K270)</f>
         <v>4</v>
       </c>
       <c r="L244" s="41" t="str">
-        <f>DEC2HEX(L270)</f>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="M244" s="41" t="str">
-        <f>DEC2HEX(M270)</f>
+        <f t="shared" si="53"/>
         <v>6</v>
       </c>
       <c r="N244" s="41" t="str">
-        <f>DEC2HEX(N270)</f>
+        <f t="shared" si="53"/>
         <v>7</v>
       </c>
       <c r="O244" s="40" t="str">
-        <f>DEC2HEX(O270)</f>
+        <f t="shared" si="53"/>
         <v>8</v>
       </c>
       <c r="P244" s="41" t="str">
-        <f>DEC2HEX(P270)</f>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="Q244" s="41" t="str">
-        <f>DEC2HEX(Q270)</f>
+        <f t="shared" si="53"/>
         <v>A</v>
       </c>
       <c r="R244" s="45" t="str">
-        <f>DEC2HEX(R270)</f>
+        <f t="shared" si="53"/>
         <v>B</v>
       </c>
       <c r="S244" s="45" t="str">
-        <f>DEC2HEX(S270)</f>
+        <f t="shared" si="53"/>
         <v>C</v>
       </c>
       <c r="T244" s="45" t="str">
-        <f>DEC2HEX(T270)</f>
+        <f t="shared" si="53"/>
         <v>D</v>
       </c>
       <c r="U244" s="41" t="str">
-        <f>DEC2HEX(U270)</f>
+        <f t="shared" si="53"/>
         <v>E</v>
       </c>
       <c r="V244" s="42" t="str">
-        <f>DEC2HEX(V270)</f>
+        <f t="shared" si="53"/>
         <v>F</v>
       </c>
       <c r="W244" s="43" t="str">
-        <f>DEC2HEX(W270)</f>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="X244" s="43" t="str">
-        <f>DEC2HEX(X270)</f>
+        <f t="shared" si="53"/>
         <v>11</v>
       </c>
       <c r="Y244" s="35" t="str">
-        <f>DEC2HEX(Y270)</f>
+        <f t="shared" si="53"/>
         <v>12</v>
       </c>
       <c r="Z244" s="35" t="str">
-        <f>DEC2HEX(Z270)</f>
+        <f t="shared" si="53"/>
         <v>13</v>
       </c>
       <c r="AA244" s="35" t="str">
-        <f>DEC2HEX(AA270)</f>
+        <f t="shared" si="53"/>
         <v>14</v>
       </c>
       <c r="AB244" s="35" t="str">
-        <f>DEC2HEX(AB270)</f>
+        <f t="shared" si="53"/>
         <v>15</v>
       </c>
       <c r="AC244" s="35" t="str">
-        <f>DEC2HEX(AC270)</f>
+        <f t="shared" si="53"/>
         <v>16</v>
       </c>
       <c r="AD244" s="35" t="str">
-        <f>DEC2HEX(AD270)</f>
+        <f t="shared" si="53"/>
         <v>17</v>
       </c>
       <c r="AE244" s="35" t="str">
-        <f>DEC2HEX(AE270)</f>
+        <f t="shared" si="53"/>
         <v>18</v>
       </c>
       <c r="AF244" s="46" t="str">
-        <f t="shared" ref="AF244:AL244" si="53">DEC2HEX(AF270)</f>
+        <f t="shared" ref="AF244:AL244" si="54">DEC2HEX(AF270)</f>
         <v>19</v>
       </c>
       <c r="AG244" s="46" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1A</v>
       </c>
       <c r="AH244" s="46" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1B</v>
       </c>
       <c r="AI244" s="46" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1C</v>
       </c>
       <c r="AJ244" s="46" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1D</v>
       </c>
       <c r="AK244" s="46" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1E</v>
       </c>
       <c r="AL244" s="46" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1F</v>
       </c>
     </row>
@@ -31191,131 +31191,131 @@
       <c r="E245" s="33"/>
       <c r="F245" s="33"/>
       <c r="G245" s="39" t="str">
-        <f t="shared" ref="G245:AC245" si="54">DEC2HEX(G271)</f>
+        <f t="shared" ref="G245:I245" si="55">DEC2HEX(G271)</f>
         <v>20</v>
       </c>
       <c r="H245" s="39" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>21</v>
       </c>
       <c r="I245" s="39" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>22</v>
       </c>
       <c r="J245" s="39" t="str">
-        <f t="shared" ref="J245" si="55">DEC2HEX(J271)</f>
+        <f t="shared" ref="J245" si="56">DEC2HEX(J271)</f>
         <v>23</v>
       </c>
       <c r="K245" s="39" t="str">
-        <f>DEC2HEX(K271)</f>
+        <f t="shared" ref="K245:AE245" si="57">DEC2HEX(K271)</f>
         <v>24</v>
       </c>
       <c r="L245" s="39" t="str">
-        <f>DEC2HEX(L271)</f>
+        <f t="shared" si="57"/>
         <v>25</v>
       </c>
       <c r="M245" s="39" t="str">
-        <f>DEC2HEX(M271)</f>
+        <f t="shared" si="57"/>
         <v>26</v>
       </c>
       <c r="N245" s="39" t="str">
-        <f>DEC2HEX(N271)</f>
+        <f t="shared" si="57"/>
         <v>27</v>
       </c>
       <c r="O245" s="39" t="str">
-        <f>DEC2HEX(O271)</f>
+        <f t="shared" si="57"/>
         <v>28</v>
       </c>
       <c r="P245" s="39" t="str">
-        <f>DEC2HEX(P271)</f>
+        <f t="shared" si="57"/>
         <v>29</v>
       </c>
       <c r="Q245" s="24" t="str">
-        <f>DEC2HEX(Q271)</f>
+        <f t="shared" si="57"/>
         <v>2A</v>
       </c>
       <c r="R245" s="25" t="str">
-        <f>DEC2HEX(R271)</f>
+        <f t="shared" si="57"/>
         <v>2B</v>
       </c>
       <c r="S245" s="24" t="str">
-        <f>DEC2HEX(S271)</f>
+        <f t="shared" si="57"/>
         <v>2C</v>
       </c>
       <c r="T245" s="25" t="str">
-        <f>DEC2HEX(T271)</f>
+        <f t="shared" si="57"/>
         <v>2D</v>
       </c>
       <c r="U245" s="24" t="str">
-        <f>DEC2HEX(U271)</f>
+        <f t="shared" si="57"/>
         <v>2E</v>
       </c>
       <c r="V245" s="39" t="str">
-        <f>DEC2HEX(V271)</f>
+        <f t="shared" si="57"/>
         <v>2F</v>
       </c>
       <c r="W245" s="39" t="str">
-        <f>DEC2HEX(W271)</f>
+        <f t="shared" si="57"/>
         <v>30</v>
       </c>
       <c r="X245" s="35" t="str">
-        <f>DEC2HEX(X271)</f>
+        <f t="shared" si="57"/>
         <v>31</v>
       </c>
       <c r="Y245" s="35" t="str">
-        <f>DEC2HEX(Y271)</f>
+        <f t="shared" si="57"/>
         <v>32</v>
       </c>
       <c r="Z245" s="35" t="str">
-        <f>DEC2HEX(Z271)</f>
+        <f t="shared" si="57"/>
         <v>33</v>
       </c>
       <c r="AA245" s="35" t="str">
-        <f>DEC2HEX(AA271)</f>
+        <f t="shared" si="57"/>
         <v>34</v>
       </c>
       <c r="AB245" s="35" t="str">
-        <f>DEC2HEX(AB271)</f>
+        <f t="shared" si="57"/>
         <v>35</v>
       </c>
       <c r="AC245" s="35" t="str">
-        <f>DEC2HEX(AC271)</f>
+        <f t="shared" si="57"/>
         <v>36</v>
       </c>
       <c r="AD245" s="35" t="str">
-        <f>DEC2HEX(AD271)</f>
+        <f t="shared" si="57"/>
         <v>37</v>
       </c>
       <c r="AE245" s="39" t="str">
-        <f>DEC2HEX(AE271)</f>
+        <f t="shared" si="57"/>
         <v>38</v>
       </c>
       <c r="AF245" s="46" t="str">
-        <f t="shared" ref="AF245:AL245" si="56">DEC2HEX(AF271)</f>
+        <f t="shared" ref="AF245:AL245" si="58">DEC2HEX(AF271)</f>
         <v>39</v>
       </c>
       <c r="AG245" s="46" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>3A</v>
       </c>
       <c r="AH245" s="46" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>3B</v>
       </c>
       <c r="AI245" s="46" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>3C</v>
       </c>
       <c r="AJ245" s="46" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>3D</v>
       </c>
       <c r="AK245" s="46" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>3E</v>
       </c>
       <c r="AL245" s="46" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>3F</v>
       </c>
     </row>
@@ -31326,131 +31326,131 @@
       <c r="E246" s="33"/>
       <c r="F246" s="33"/>
       <c r="G246" s="35" t="str">
-        <f t="shared" ref="G246:AC246" si="57">DEC2HEX(G272)</f>
+        <f t="shared" ref="G246:I246" si="59">DEC2HEX(G272)</f>
         <v>40</v>
       </c>
       <c r="H246" s="35" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>41</v>
       </c>
       <c r="I246" s="35" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>42</v>
       </c>
       <c r="J246" s="35" t="str">
-        <f t="shared" ref="J246" si="58">DEC2HEX(J272)</f>
+        <f t="shared" ref="J246" si="60">DEC2HEX(J272)</f>
         <v>43</v>
       </c>
       <c r="K246" s="35" t="str">
-        <f>DEC2HEX(K272)</f>
+        <f t="shared" ref="K246:AE246" si="61">DEC2HEX(K272)</f>
         <v>44</v>
       </c>
       <c r="L246" s="35" t="str">
-        <f>DEC2HEX(L272)</f>
+        <f t="shared" si="61"/>
         <v>45</v>
       </c>
       <c r="M246" s="35" t="str">
-        <f>DEC2HEX(M272)</f>
+        <f t="shared" si="61"/>
         <v>46</v>
       </c>
       <c r="N246" s="35" t="str">
-        <f>DEC2HEX(N272)</f>
+        <f t="shared" si="61"/>
         <v>47</v>
       </c>
       <c r="O246" s="35" t="str">
-        <f>DEC2HEX(O272)</f>
+        <f t="shared" si="61"/>
         <v>48</v>
       </c>
       <c r="P246" s="24" t="str">
-        <f>DEC2HEX(P272)</f>
+        <f t="shared" si="61"/>
         <v>49</v>
       </c>
       <c r="Q246" s="24" t="str">
-        <f>DEC2HEX(Q272)</f>
+        <f t="shared" si="61"/>
         <v>4A</v>
       </c>
       <c r="R246" s="24" t="str">
-        <f>DEC2HEX(R272)</f>
+        <f t="shared" si="61"/>
         <v>4B</v>
       </c>
       <c r="S246" s="24" t="str">
-        <f>DEC2HEX(S272)</f>
+        <f t="shared" si="61"/>
         <v>4C</v>
       </c>
       <c r="T246" s="24" t="str">
-        <f>DEC2HEX(T272)</f>
+        <f t="shared" si="61"/>
         <v>4D</v>
       </c>
       <c r="U246" s="24" t="str">
-        <f>DEC2HEX(U272)</f>
+        <f t="shared" si="61"/>
         <v>4E</v>
       </c>
       <c r="V246" s="24" t="str">
-        <f>DEC2HEX(V272)</f>
+        <f t="shared" si="61"/>
         <v>4F</v>
       </c>
       <c r="W246" s="35" t="str">
-        <f>DEC2HEX(W272)</f>
+        <f t="shared" si="61"/>
         <v>50</v>
       </c>
       <c r="X246" s="35" t="str">
-        <f>DEC2HEX(X272)</f>
+        <f t="shared" si="61"/>
         <v>51</v>
       </c>
       <c r="Y246" s="35" t="str">
-        <f>DEC2HEX(Y272)</f>
+        <f t="shared" si="61"/>
         <v>52</v>
       </c>
       <c r="Z246" s="35" t="str">
-        <f>DEC2HEX(Z272)</f>
+        <f t="shared" si="61"/>
         <v>53</v>
       </c>
       <c r="AA246" s="35" t="str">
-        <f>DEC2HEX(AA272)</f>
+        <f t="shared" si="61"/>
         <v>54</v>
       </c>
       <c r="AB246" s="35" t="str">
-        <f>DEC2HEX(AB272)</f>
+        <f t="shared" si="61"/>
         <v>55</v>
       </c>
       <c r="AC246" s="35" t="str">
-        <f>DEC2HEX(AC272)</f>
+        <f t="shared" si="61"/>
         <v>56</v>
       </c>
       <c r="AD246" s="35" t="str">
-        <f>DEC2HEX(AD272)</f>
+        <f t="shared" si="61"/>
         <v>57</v>
       </c>
       <c r="AE246" s="35" t="str">
-        <f>DEC2HEX(AE272)</f>
+        <f t="shared" si="61"/>
         <v>58</v>
       </c>
       <c r="AF246" s="46" t="str">
-        <f t="shared" ref="AF246:AL246" si="59">DEC2HEX(AF272)</f>
+        <f t="shared" ref="AF246:AL246" si="62">DEC2HEX(AF272)</f>
         <v>59</v>
       </c>
       <c r="AG246" s="46" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>5A</v>
       </c>
       <c r="AH246" s="46" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>5B</v>
       </c>
       <c r="AI246" s="46" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>5C</v>
       </c>
       <c r="AJ246" s="46" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>5D</v>
       </c>
       <c r="AK246" s="46" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>5E</v>
       </c>
       <c r="AL246" s="46" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>5F</v>
       </c>
     </row>
@@ -31461,131 +31461,131 @@
       <c r="E247" s="33"/>
       <c r="F247" s="33"/>
       <c r="G247" s="35" t="str">
-        <f t="shared" ref="G247:AC247" si="60">DEC2HEX(G273)</f>
+        <f t="shared" ref="G247:I247" si="63">DEC2HEX(G273)</f>
         <v>60</v>
       </c>
       <c r="H247" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>61</v>
       </c>
       <c r="I247" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>62</v>
       </c>
       <c r="J247" s="35" t="str">
-        <f t="shared" ref="J247" si="61">DEC2HEX(J273)</f>
+        <f t="shared" ref="J247" si="64">DEC2HEX(J273)</f>
         <v>63</v>
       </c>
       <c r="K247" s="35" t="str">
-        <f>DEC2HEX(K273)</f>
+        <f t="shared" ref="K247:AE247" si="65">DEC2HEX(K273)</f>
         <v>64</v>
       </c>
       <c r="L247" s="35" t="str">
-        <f>DEC2HEX(L273)</f>
+        <f t="shared" si="65"/>
         <v>65</v>
       </c>
       <c r="M247" s="35" t="str">
-        <f>DEC2HEX(M273)</f>
+        <f t="shared" si="65"/>
         <v>66</v>
       </c>
       <c r="N247" s="35" t="str">
-        <f>DEC2HEX(N273)</f>
+        <f t="shared" si="65"/>
         <v>67</v>
       </c>
       <c r="O247" s="35" t="str">
-        <f>DEC2HEX(O273)</f>
+        <f t="shared" si="65"/>
         <v>68</v>
       </c>
       <c r="P247" s="24" t="str">
-        <f>DEC2HEX(P273)</f>
+        <f t="shared" si="65"/>
         <v>69</v>
       </c>
       <c r="Q247" s="24" t="str">
-        <f>DEC2HEX(Q273)</f>
+        <f t="shared" si="65"/>
         <v>6A</v>
       </c>
       <c r="R247" s="24" t="str">
-        <f>DEC2HEX(R273)</f>
+        <f t="shared" si="65"/>
         <v>6B</v>
       </c>
       <c r="S247" s="37" t="str">
-        <f>DEC2HEX(S273)</f>
+        <f t="shared" si="65"/>
         <v>6C</v>
       </c>
       <c r="T247" s="24" t="str">
-        <f>DEC2HEX(T273)</f>
+        <f t="shared" si="65"/>
         <v>6D</v>
       </c>
       <c r="U247" s="24" t="str">
-        <f>DEC2HEX(U273)</f>
+        <f t="shared" si="65"/>
         <v>6E</v>
       </c>
       <c r="V247" s="24" t="str">
-        <f>DEC2HEX(V273)</f>
+        <f t="shared" si="65"/>
         <v>6F</v>
       </c>
       <c r="W247" s="35" t="str">
-        <f>DEC2HEX(W273)</f>
+        <f t="shared" si="65"/>
         <v>70</v>
       </c>
       <c r="X247" s="35" t="str">
-        <f>DEC2HEX(X273)</f>
+        <f t="shared" si="65"/>
         <v>71</v>
       </c>
       <c r="Y247" s="35" t="str">
-        <f>DEC2HEX(Y273)</f>
+        <f t="shared" si="65"/>
         <v>72</v>
       </c>
       <c r="Z247" s="35" t="str">
-        <f>DEC2HEX(Z273)</f>
+        <f t="shared" si="65"/>
         <v>73</v>
       </c>
       <c r="AA247" s="35" t="str">
-        <f>DEC2HEX(AA273)</f>
+        <f t="shared" si="65"/>
         <v>74</v>
       </c>
       <c r="AB247" s="35" t="str">
-        <f>DEC2HEX(AB273)</f>
+        <f t="shared" si="65"/>
         <v>75</v>
       </c>
       <c r="AC247" s="35" t="str">
-        <f>DEC2HEX(AC273)</f>
+        <f t="shared" si="65"/>
         <v>76</v>
       </c>
       <c r="AD247" s="35" t="str">
-        <f>DEC2HEX(AD273)</f>
+        <f t="shared" si="65"/>
         <v>77</v>
       </c>
       <c r="AE247" s="35" t="str">
-        <f>DEC2HEX(AE273)</f>
+        <f t="shared" si="65"/>
         <v>78</v>
       </c>
       <c r="AF247" s="46" t="str">
-        <f t="shared" ref="AF247:AL247" si="62">DEC2HEX(AF273)</f>
+        <f t="shared" ref="AF247:AL247" si="66">DEC2HEX(AF273)</f>
         <v>79</v>
       </c>
       <c r="AG247" s="46" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>7A</v>
       </c>
       <c r="AH247" s="46" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>7B</v>
       </c>
       <c r="AI247" s="46" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>7C</v>
       </c>
       <c r="AJ247" s="46" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>7D</v>
       </c>
       <c r="AK247" s="46" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>7E</v>
       </c>
       <c r="AL247" s="46" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>7F</v>
       </c>
     </row>
@@ -31601,131 +31601,131 @@
       </c>
       <c r="F248" s="4"/>
       <c r="G248" s="35" t="str">
-        <f t="shared" ref="G248:AC248" si="63">DEC2HEX(G274)</f>
+        <f t="shared" ref="G248:I248" si="67">DEC2HEX(G274)</f>
         <v>80</v>
       </c>
       <c r="H248" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>81</v>
       </c>
       <c r="I248" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>82</v>
       </c>
       <c r="J248" s="35" t="str">
-        <f t="shared" ref="J248" si="64">DEC2HEX(J274)</f>
+        <f t="shared" ref="J248" si="68">DEC2HEX(J274)</f>
         <v>83</v>
       </c>
       <c r="K248" s="23" t="str">
-        <f>DEC2HEX(K274)</f>
+        <f t="shared" ref="K248:AE248" si="69">DEC2HEX(K274)</f>
         <v>84</v>
       </c>
       <c r="L248" s="23" t="str">
-        <f>DEC2HEX(L274)</f>
+        <f t="shared" si="69"/>
         <v>85</v>
       </c>
       <c r="M248" s="23" t="str">
-        <f>DEC2HEX(M274)</f>
+        <f t="shared" si="69"/>
         <v>86</v>
       </c>
       <c r="N248" s="23" t="str">
-        <f>DEC2HEX(N274)</f>
+        <f t="shared" si="69"/>
         <v>87</v>
       </c>
       <c r="O248" s="23" t="str">
-        <f>DEC2HEX(O274)</f>
+        <f t="shared" si="69"/>
         <v>88</v>
       </c>
       <c r="P248" s="24" t="str">
-        <f>DEC2HEX(P274)</f>
+        <f t="shared" si="69"/>
         <v>89</v>
       </c>
       <c r="Q248" s="24" t="str">
-        <f>DEC2HEX(Q274)</f>
+        <f t="shared" si="69"/>
         <v>8A</v>
       </c>
       <c r="R248" s="24" t="str">
-        <f>DEC2HEX(R274)</f>
+        <f t="shared" si="69"/>
         <v>8B</v>
       </c>
       <c r="S248" s="24" t="str">
-        <f>DEC2HEX(S274)</f>
+        <f t="shared" si="69"/>
         <v>8C</v>
       </c>
       <c r="T248" s="24" t="str">
-        <f>DEC2HEX(T274)</f>
+        <f t="shared" si="69"/>
         <v>8D</v>
       </c>
       <c r="U248" s="24" t="str">
-        <f>DEC2HEX(U274)</f>
+        <f t="shared" si="69"/>
         <v>8E</v>
       </c>
       <c r="V248" s="24" t="str">
-        <f>DEC2HEX(V274)</f>
+        <f t="shared" si="69"/>
         <v>8F</v>
       </c>
       <c r="W248" s="23" t="str">
-        <f>DEC2HEX(W274)</f>
+        <f t="shared" si="69"/>
         <v>90</v>
       </c>
       <c r="X248" s="23" t="str">
-        <f>DEC2HEX(X274)</f>
+        <f t="shared" si="69"/>
         <v>91</v>
       </c>
       <c r="Y248" s="23" t="str">
-        <f>DEC2HEX(Y274)</f>
+        <f t="shared" si="69"/>
         <v>92</v>
       </c>
       <c r="Z248" s="23" t="str">
-        <f>DEC2HEX(Z274)</f>
+        <f t="shared" si="69"/>
         <v>93</v>
       </c>
       <c r="AA248" s="23" t="str">
-        <f>DEC2HEX(AA274)</f>
+        <f t="shared" si="69"/>
         <v>94</v>
       </c>
       <c r="AB248" s="35" t="str">
-        <f>DEC2HEX(AB274)</f>
+        <f t="shared" si="69"/>
         <v>95</v>
       </c>
       <c r="AC248" s="35" t="str">
-        <f>DEC2HEX(AC274)</f>
+        <f t="shared" si="69"/>
         <v>96</v>
       </c>
       <c r="AD248" s="35" t="str">
-        <f>DEC2HEX(AD274)</f>
+        <f t="shared" si="69"/>
         <v>97</v>
       </c>
       <c r="AE248" s="35" t="str">
-        <f>DEC2HEX(AE274)</f>
+        <f t="shared" si="69"/>
         <v>98</v>
       </c>
       <c r="AF248" s="46" t="str">
-        <f t="shared" ref="AF248:AL248" si="65">DEC2HEX(AF274)</f>
+        <f t="shared" ref="AF248:AL248" si="70">DEC2HEX(AF274)</f>
         <v>99</v>
       </c>
       <c r="AG248" s="46" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>9A</v>
       </c>
       <c r="AH248" s="46" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>9B</v>
       </c>
       <c r="AI248" s="46" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>9C</v>
       </c>
       <c r="AJ248" s="46" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>9D</v>
       </c>
       <c r="AK248" s="46" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>9E</v>
       </c>
       <c r="AL248" s="46" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>9F</v>
       </c>
     </row>
@@ -31741,131 +31741,131 @@
       </c>
       <c r="F249" s="4"/>
       <c r="G249" s="35" t="str">
-        <f t="shared" ref="G249:AC249" si="66">DEC2HEX(G275)</f>
+        <f t="shared" ref="G249:I249" si="71">DEC2HEX(G275)</f>
         <v>A0</v>
       </c>
       <c r="H249" s="35" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>A1</v>
       </c>
       <c r="I249" s="35" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>A2</v>
       </c>
       <c r="J249" s="35" t="str">
-        <f t="shared" ref="J249" si="67">DEC2HEX(J275)</f>
+        <f t="shared" ref="J249" si="72">DEC2HEX(J275)</f>
         <v>A3</v>
       </c>
       <c r="K249" s="23" t="str">
-        <f>DEC2HEX(K275)</f>
+        <f t="shared" ref="K249:AE249" si="73">DEC2HEX(K275)</f>
         <v>A4</v>
       </c>
       <c r="L249" s="23" t="str">
-        <f>DEC2HEX(L275)</f>
+        <f t="shared" si="73"/>
         <v>A5</v>
       </c>
       <c r="M249" s="23" t="str">
-        <f>DEC2HEX(M275)</f>
+        <f t="shared" si="73"/>
         <v>A6</v>
       </c>
       <c r="N249" s="23" t="str">
-        <f>DEC2HEX(N275)</f>
+        <f t="shared" si="73"/>
         <v>A7</v>
       </c>
       <c r="O249" s="23" t="str">
-        <f>DEC2HEX(O275)</f>
+        <f t="shared" si="73"/>
         <v>A8</v>
       </c>
       <c r="P249" s="29" t="str">
-        <f>DEC2HEX(P275)</f>
+        <f t="shared" si="73"/>
         <v>A9</v>
       </c>
       <c r="Q249" s="24" t="str">
-        <f>DEC2HEX(Q275)</f>
+        <f t="shared" si="73"/>
         <v>AA</v>
       </c>
       <c r="R249" s="25" t="str">
-        <f>DEC2HEX(R275)</f>
+        <f t="shared" si="73"/>
         <v>AB</v>
       </c>
       <c r="S249" s="24" t="str">
-        <f>DEC2HEX(S275)</f>
+        <f t="shared" si="73"/>
         <v>AC</v>
       </c>
       <c r="T249" s="25" t="str">
-        <f>DEC2HEX(T275)</f>
+        <f t="shared" si="73"/>
         <v>AD</v>
       </c>
       <c r="U249" s="24" t="str">
-        <f>DEC2HEX(U275)</f>
+        <f t="shared" si="73"/>
         <v>AE</v>
       </c>
       <c r="V249" s="29" t="str">
-        <f>DEC2HEX(V275)</f>
+        <f t="shared" si="73"/>
         <v>AF</v>
       </c>
       <c r="W249" s="23" t="str">
-        <f>DEC2HEX(W275)</f>
+        <f t="shared" si="73"/>
         <v>B0</v>
       </c>
       <c r="X249" s="23" t="str">
-        <f>DEC2HEX(X275)</f>
+        <f t="shared" si="73"/>
         <v>B1</v>
       </c>
       <c r="Y249" s="23" t="str">
-        <f>DEC2HEX(Y275)</f>
+        <f t="shared" si="73"/>
         <v>B2</v>
       </c>
       <c r="Z249" s="23" t="str">
-        <f>DEC2HEX(Z275)</f>
+        <f t="shared" si="73"/>
         <v>B3</v>
       </c>
       <c r="AA249" s="23" t="str">
-        <f>DEC2HEX(AA275)</f>
+        <f t="shared" si="73"/>
         <v>B4</v>
       </c>
       <c r="AB249" s="35" t="str">
-        <f>DEC2HEX(AB275)</f>
+        <f t="shared" si="73"/>
         <v>B5</v>
       </c>
       <c r="AC249" s="35" t="str">
-        <f>DEC2HEX(AC275)</f>
+        <f t="shared" si="73"/>
         <v>B6</v>
       </c>
       <c r="AD249" s="35" t="str">
-        <f>DEC2HEX(AD275)</f>
+        <f t="shared" si="73"/>
         <v>B7</v>
       </c>
       <c r="AE249" s="35" t="str">
-        <f>DEC2HEX(AE275)</f>
+        <f t="shared" si="73"/>
         <v>B8</v>
       </c>
       <c r="AF249" s="46" t="str">
-        <f t="shared" ref="AF249:AL249" si="68">DEC2HEX(AF275)</f>
+        <f t="shared" ref="AF249:AL249" si="74">DEC2HEX(AF275)</f>
         <v>B9</v>
       </c>
       <c r="AG249" s="46" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>BA</v>
       </c>
       <c r="AH249" s="46" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>BB</v>
       </c>
       <c r="AI249" s="46" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>BC</v>
       </c>
       <c r="AJ249" s="46" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>BD</v>
       </c>
       <c r="AK249" s="46" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>BE</v>
       </c>
       <c r="AL249" s="46" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>BF</v>
       </c>
     </row>
@@ -31881,131 +31881,131 @@
       </c>
       <c r="F250" s="4"/>
       <c r="G250" s="35" t="str">
-        <f t="shared" ref="G250:AC250" si="69">DEC2HEX(G276)</f>
+        <f t="shared" ref="G250:I250" si="75">DEC2HEX(G276)</f>
         <v>C0</v>
       </c>
       <c r="H250" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>C1</v>
       </c>
       <c r="I250" s="24" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>C2</v>
       </c>
       <c r="J250" s="24" t="str">
-        <f t="shared" ref="J250" si="70">DEC2HEX(J276)</f>
+        <f t="shared" ref="J250" si="76">DEC2HEX(J276)</f>
         <v>C3</v>
       </c>
       <c r="K250" s="24" t="str">
-        <f>DEC2HEX(K276)</f>
+        <f t="shared" ref="K250:AE250" si="77">DEC2HEX(K276)</f>
         <v>C4</v>
       </c>
       <c r="L250" s="29" t="str">
-        <f>DEC2HEX(L276)</f>
+        <f t="shared" si="77"/>
         <v>C5</v>
       </c>
       <c r="M250" s="29" t="str">
-        <f>DEC2HEX(M276)</f>
+        <f t="shared" si="77"/>
         <v>C6</v>
       </c>
       <c r="N250" s="23" t="str">
-        <f>DEC2HEX(N276)</f>
+        <f t="shared" si="77"/>
         <v>C7</v>
       </c>
       <c r="O250" s="23" t="str">
-        <f>DEC2HEX(O276)</f>
+        <f t="shared" si="77"/>
         <v>C8</v>
       </c>
       <c r="P250" s="29" t="str">
-        <f>DEC2HEX(P276)</f>
+        <f t="shared" si="77"/>
         <v>C9</v>
       </c>
       <c r="Q250" s="29" t="str">
-        <f>DEC2HEX(Q276)</f>
+        <f t="shared" si="77"/>
         <v>CA</v>
       </c>
       <c r="R250" s="24" t="str">
-        <f>DEC2HEX(R276)</f>
+        <f t="shared" si="77"/>
         <v>CB</v>
       </c>
       <c r="S250" s="24" t="str">
-        <f>DEC2HEX(S276)</f>
+        <f t="shared" si="77"/>
         <v>CC</v>
       </c>
       <c r="T250" s="24" t="str">
-        <f>DEC2HEX(T276)</f>
+        <f t="shared" si="77"/>
         <v>CD</v>
       </c>
       <c r="U250" s="29" t="str">
-        <f>DEC2HEX(U276)</f>
+        <f t="shared" si="77"/>
         <v>CE</v>
       </c>
       <c r="V250" s="29" t="str">
-        <f>DEC2HEX(V276)</f>
+        <f t="shared" si="77"/>
         <v>CF</v>
       </c>
       <c r="W250" s="23" t="str">
-        <f>DEC2HEX(W276)</f>
+        <f t="shared" si="77"/>
         <v>D0</v>
       </c>
       <c r="X250" s="23" t="str">
-        <f>DEC2HEX(X276)</f>
+        <f t="shared" si="77"/>
         <v>D1</v>
       </c>
       <c r="Y250" s="23" t="str">
-        <f>DEC2HEX(Y276)</f>
+        <f t="shared" si="77"/>
         <v>D2</v>
       </c>
       <c r="Z250" s="23" t="str">
-        <f>DEC2HEX(Z276)</f>
+        <f t="shared" si="77"/>
         <v>D3</v>
       </c>
       <c r="AA250" s="24" t="str">
-        <f>DEC2HEX(AA276)</f>
+        <f t="shared" si="77"/>
         <v>D4</v>
       </c>
       <c r="AB250" s="24" t="str">
-        <f>DEC2HEX(AB276)</f>
+        <f t="shared" si="77"/>
         <v>D5</v>
       </c>
       <c r="AC250" s="24" t="str">
-        <f>DEC2HEX(AC276)</f>
+        <f t="shared" si="77"/>
         <v>D6</v>
       </c>
       <c r="AD250" s="35" t="str">
-        <f>DEC2HEX(AD276)</f>
+        <f t="shared" si="77"/>
         <v>D7</v>
       </c>
       <c r="AE250" s="35" t="str">
-        <f>DEC2HEX(AE276)</f>
+        <f t="shared" si="77"/>
         <v>D8</v>
       </c>
       <c r="AF250" s="46" t="str">
-        <f t="shared" ref="AF250:AL250" si="71">DEC2HEX(AF276)</f>
+        <f t="shared" ref="AF250:AL250" si="78">DEC2HEX(AF276)</f>
         <v>D9</v>
       </c>
       <c r="AG250" s="46" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>DA</v>
       </c>
       <c r="AH250" s="46" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>DB</v>
       </c>
       <c r="AI250" s="46" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>DC</v>
       </c>
       <c r="AJ250" s="46" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>DD</v>
       </c>
       <c r="AK250" s="46" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>DE</v>
       </c>
       <c r="AL250" s="46" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>DF</v>
       </c>
     </row>
@@ -32021,131 +32021,131 @@
       </c>
       <c r="F251" s="4"/>
       <c r="G251" s="35" t="str">
-        <f t="shared" ref="G251:AC251" si="72">DEC2HEX(G277)</f>
+        <f t="shared" ref="G251:I251" si="79">DEC2HEX(G277)</f>
         <v>E0</v>
       </c>
       <c r="H251" s="24" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>E1</v>
       </c>
       <c r="I251" s="25" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>E2</v>
       </c>
       <c r="J251" s="25" t="str">
-        <f t="shared" ref="J251" si="73">DEC2HEX(J277)</f>
+        <f t="shared" ref="J251" si="80">DEC2HEX(J277)</f>
         <v>E3</v>
       </c>
       <c r="K251" s="25" t="str">
-        <f>DEC2HEX(K277)</f>
+        <f t="shared" ref="K251:AE251" si="81">DEC2HEX(K277)</f>
         <v>E4</v>
       </c>
       <c r="L251" s="24" t="str">
-        <f>DEC2HEX(L277)</f>
+        <f t="shared" si="81"/>
         <v>E5</v>
       </c>
       <c r="M251" s="29" t="str">
-        <f>DEC2HEX(M277)</f>
+        <f t="shared" si="81"/>
         <v>E6</v>
       </c>
       <c r="N251" s="23" t="str">
-        <f>DEC2HEX(N277)</f>
+        <f t="shared" si="81"/>
         <v>E7</v>
       </c>
       <c r="O251" s="23" t="str">
-        <f>DEC2HEX(O277)</f>
+        <f t="shared" si="81"/>
         <v>E8</v>
       </c>
       <c r="P251" s="23" t="str">
-        <f>DEC2HEX(P277)</f>
+        <f t="shared" si="81"/>
         <v>E9</v>
       </c>
       <c r="Q251" s="23" t="str">
-        <f>DEC2HEX(Q277)</f>
+        <f t="shared" si="81"/>
         <v>EA</v>
       </c>
       <c r="R251" s="23" t="str">
-        <f>DEC2HEX(R277)</f>
+        <f t="shared" si="81"/>
         <v>EB</v>
       </c>
       <c r="S251" s="23" t="str">
-        <f>DEC2HEX(S277)</f>
+        <f t="shared" si="81"/>
         <v>EC</v>
       </c>
       <c r="T251" s="23" t="str">
-        <f>DEC2HEX(T277)</f>
+        <f t="shared" si="81"/>
         <v>ED</v>
       </c>
       <c r="U251" s="23" t="str">
-        <f>DEC2HEX(U277)</f>
+        <f t="shared" si="81"/>
         <v>EE</v>
       </c>
       <c r="V251" s="23" t="str">
-        <f>DEC2HEX(V277)</f>
+        <f t="shared" si="81"/>
         <v>EF</v>
       </c>
       <c r="W251" s="23" t="str">
-        <f>DEC2HEX(W277)</f>
+        <f t="shared" si="81"/>
         <v>F0</v>
       </c>
       <c r="X251" s="23" t="str">
-        <f>DEC2HEX(X277)</f>
+        <f t="shared" si="81"/>
         <v>F1</v>
       </c>
       <c r="Y251" s="23" t="str">
-        <f>DEC2HEX(Y277)</f>
+        <f t="shared" si="81"/>
         <v>F2</v>
       </c>
       <c r="Z251" s="24" t="str">
-        <f>DEC2HEX(Z277)</f>
+        <f t="shared" si="81"/>
         <v>F3</v>
       </c>
       <c r="AA251" s="25" t="str">
-        <f>DEC2HEX(AA277)</f>
+        <f t="shared" si="81"/>
         <v>F4</v>
       </c>
       <c r="AB251" s="25" t="str">
-        <f>DEC2HEX(AB277)</f>
+        <f t="shared" si="81"/>
         <v>F5</v>
       </c>
       <c r="AC251" s="25" t="str">
-        <f>DEC2HEX(AC277)</f>
+        <f t="shared" si="81"/>
         <v>F6</v>
       </c>
       <c r="AD251" s="24" t="str">
-        <f>DEC2HEX(AD277)</f>
+        <f t="shared" si="81"/>
         <v>F7</v>
       </c>
       <c r="AE251" s="35" t="str">
-        <f>DEC2HEX(AE277)</f>
+        <f t="shared" si="81"/>
         <v>F8</v>
       </c>
       <c r="AF251" s="46" t="str">
-        <f t="shared" ref="AF251:AL251" si="74">DEC2HEX(AF277)</f>
+        <f t="shared" ref="AF251:AL251" si="82">DEC2HEX(AF277)</f>
         <v>F9</v>
       </c>
       <c r="AG251" s="46" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>FA</v>
       </c>
       <c r="AH251" s="46" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>FB</v>
       </c>
       <c r="AI251" s="46" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>FC</v>
       </c>
       <c r="AJ251" s="46" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>FD</v>
       </c>
       <c r="AK251" s="46" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>FE</v>
       </c>
       <c r="AL251" s="46" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>FF</v>
       </c>
     </row>
@@ -32161,131 +32161,131 @@
       </c>
       <c r="F252" s="4"/>
       <c r="G252" s="24" t="str">
-        <f t="shared" ref="G252:AC252" si="75">DEC2HEX(G278)</f>
+        <f t="shared" ref="G252:I252" si="83">DEC2HEX(G278)</f>
         <v>100</v>
       </c>
       <c r="H252" s="24" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>101</v>
       </c>
       <c r="I252" s="24" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>102</v>
       </c>
       <c r="J252" s="24" t="str">
-        <f t="shared" ref="J252" si="76">DEC2HEX(J278)</f>
+        <f t="shared" ref="J252" si="84">DEC2HEX(J278)</f>
         <v>103</v>
       </c>
       <c r="K252" s="24" t="str">
-        <f>DEC2HEX(K278)</f>
+        <f t="shared" ref="K252:AE252" si="85">DEC2HEX(K278)</f>
         <v>104</v>
       </c>
       <c r="L252" s="24" t="str">
-        <f>DEC2HEX(L278)</f>
+        <f t="shared" si="85"/>
         <v>105</v>
       </c>
       <c r="M252" s="24" t="str">
-        <f>DEC2HEX(M278)</f>
+        <f t="shared" si="85"/>
         <v>106</v>
       </c>
       <c r="N252" s="23" t="str">
-        <f>DEC2HEX(N278)</f>
+        <f t="shared" si="85"/>
         <v>107</v>
       </c>
       <c r="O252" s="23" t="str">
-        <f>DEC2HEX(O278)</f>
+        <f t="shared" si="85"/>
         <v>108</v>
       </c>
       <c r="P252" s="23" t="str">
-        <f>DEC2HEX(P278)</f>
+        <f t="shared" si="85"/>
         <v>109</v>
       </c>
       <c r="Q252" s="23" t="str">
-        <f>DEC2HEX(Q278)</f>
+        <f t="shared" si="85"/>
         <v>10A</v>
       </c>
       <c r="R252" s="23" t="str">
-        <f>DEC2HEX(R278)</f>
+        <f t="shared" si="85"/>
         <v>10B</v>
       </c>
       <c r="S252" s="23" t="str">
-        <f>DEC2HEX(S278)</f>
+        <f t="shared" si="85"/>
         <v>10C</v>
       </c>
       <c r="T252" s="23" t="str">
-        <f>DEC2HEX(T278)</f>
+        <f t="shared" si="85"/>
         <v>10D</v>
       </c>
       <c r="U252" s="23" t="str">
-        <f>DEC2HEX(U278)</f>
+        <f t="shared" si="85"/>
         <v>10E</v>
       </c>
       <c r="V252" s="23" t="str">
-        <f>DEC2HEX(V278)</f>
+        <f t="shared" si="85"/>
         <v>10F</v>
       </c>
       <c r="W252" s="23" t="str">
-        <f>DEC2HEX(W278)</f>
+        <f t="shared" si="85"/>
         <v>110</v>
       </c>
       <c r="X252" s="23" t="str">
-        <f>DEC2HEX(X278)</f>
+        <f t="shared" si="85"/>
         <v>111</v>
       </c>
       <c r="Y252" s="24" t="str">
-        <f>DEC2HEX(Y278)</f>
+        <f t="shared" si="85"/>
         <v>112</v>
       </c>
       <c r="Z252" s="24" t="str">
-        <f>DEC2HEX(Z278)</f>
+        <f t="shared" si="85"/>
         <v>113</v>
       </c>
       <c r="AA252" s="24" t="str">
-        <f>DEC2HEX(AA278)</f>
+        <f t="shared" si="85"/>
         <v>114</v>
       </c>
       <c r="AB252" s="24" t="str">
-        <f>DEC2HEX(AB278)</f>
+        <f t="shared" si="85"/>
         <v>115</v>
       </c>
       <c r="AC252" s="24" t="str">
-        <f>DEC2HEX(AC278)</f>
+        <f t="shared" si="85"/>
         <v>116</v>
       </c>
       <c r="AD252" s="24" t="str">
-        <f>DEC2HEX(AD278)</f>
+        <f t="shared" si="85"/>
         <v>117</v>
       </c>
       <c r="AE252" s="24" t="str">
-        <f>DEC2HEX(AE278)</f>
+        <f t="shared" si="85"/>
         <v>118</v>
       </c>
       <c r="AF252" s="46" t="str">
-        <f t="shared" ref="AF252:AL252" si="77">DEC2HEX(AF278)</f>
+        <f t="shared" ref="AF252:AL252" si="86">DEC2HEX(AF278)</f>
         <v>119</v>
       </c>
       <c r="AG252" s="46" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>11A</v>
       </c>
       <c r="AH252" s="46" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>11B</v>
       </c>
       <c r="AI252" s="46" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>11C</v>
       </c>
       <c r="AJ252" s="46" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>11D</v>
       </c>
       <c r="AK252" s="46" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>11E</v>
       </c>
       <c r="AL252" s="46" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>11F</v>
       </c>
     </row>
@@ -32301,131 +32301,131 @@
       </c>
       <c r="F253" s="4"/>
       <c r="G253" s="24" t="str">
-        <f t="shared" ref="G253:AC253" si="78">DEC2HEX(G279)</f>
+        <f t="shared" ref="G253:I253" si="87">DEC2HEX(G279)</f>
         <v>120</v>
       </c>
       <c r="H253" s="24" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>121</v>
       </c>
       <c r="I253" s="24" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>122</v>
       </c>
       <c r="J253" s="37" t="str">
-        <f t="shared" ref="J253" si="79">DEC2HEX(J279)</f>
+        <f t="shared" ref="J253" si="88">DEC2HEX(J279)</f>
         <v>123</v>
       </c>
       <c r="K253" s="24" t="str">
-        <f>DEC2HEX(K279)</f>
+        <f t="shared" ref="K253:AE253" si="89">DEC2HEX(K279)</f>
         <v>124</v>
       </c>
       <c r="L253" s="24" t="str">
-        <f>DEC2HEX(L279)</f>
+        <f t="shared" si="89"/>
         <v>125</v>
       </c>
       <c r="M253" s="24" t="str">
-        <f>DEC2HEX(M279)</f>
+        <f t="shared" si="89"/>
         <v>126</v>
       </c>
       <c r="N253" s="23" t="str">
-        <f>DEC2HEX(N279)</f>
+        <f t="shared" si="89"/>
         <v>127</v>
       </c>
       <c r="O253" s="23" t="str">
-        <f>DEC2HEX(O279)</f>
+        <f t="shared" si="89"/>
         <v>128</v>
       </c>
       <c r="P253" s="23" t="str">
-        <f>DEC2HEX(P279)</f>
+        <f t="shared" si="89"/>
         <v>129</v>
       </c>
       <c r="Q253" s="23" t="str">
-        <f>DEC2HEX(Q279)</f>
+        <f t="shared" si="89"/>
         <v>12A</v>
       </c>
       <c r="R253" s="23" t="str">
-        <f>DEC2HEX(R279)</f>
+        <f t="shared" si="89"/>
         <v>12B</v>
       </c>
       <c r="S253" s="30" t="str">
-        <f>DEC2HEX(S279)</f>
+        <f t="shared" si="89"/>
         <v>12C</v>
       </c>
       <c r="T253" s="23" t="str">
-        <f>DEC2HEX(T279)</f>
+        <f t="shared" si="89"/>
         <v>12D</v>
       </c>
       <c r="U253" s="23" t="str">
-        <f>DEC2HEX(U279)</f>
+        <f t="shared" si="89"/>
         <v>12E</v>
       </c>
       <c r="V253" s="23" t="str">
-        <f>DEC2HEX(V279)</f>
+        <f t="shared" si="89"/>
         <v>12F</v>
       </c>
       <c r="W253" s="23" t="str">
-        <f>DEC2HEX(W279)</f>
+        <f t="shared" si="89"/>
         <v>130</v>
       </c>
       <c r="X253" s="23" t="str">
-        <f>DEC2HEX(X279)</f>
+        <f t="shared" si="89"/>
         <v>131</v>
       </c>
       <c r="Y253" s="24" t="str">
-        <f>DEC2HEX(Y279)</f>
+        <f t="shared" si="89"/>
         <v>132</v>
       </c>
       <c r="Z253" s="24" t="str">
-        <f>DEC2HEX(Z279)</f>
+        <f t="shared" si="89"/>
         <v>133</v>
       </c>
       <c r="AA253" s="24" t="str">
-        <f>DEC2HEX(AA279)</f>
+        <f t="shared" si="89"/>
         <v>134</v>
       </c>
       <c r="AB253" s="37" t="str">
-        <f>DEC2HEX(AB279)</f>
+        <f t="shared" si="89"/>
         <v>135</v>
       </c>
       <c r="AC253" s="24" t="str">
-        <f>DEC2HEX(AC279)</f>
+        <f t="shared" si="89"/>
         <v>136</v>
       </c>
       <c r="AD253" s="24" t="str">
-        <f>DEC2HEX(AD279)</f>
+        <f t="shared" si="89"/>
         <v>137</v>
       </c>
       <c r="AE253" s="24" t="str">
-        <f>DEC2HEX(AE279)</f>
+        <f t="shared" si="89"/>
         <v>138</v>
       </c>
       <c r="AF253" s="46" t="str">
-        <f t="shared" ref="AF253:AL253" si="80">DEC2HEX(AF279)</f>
+        <f t="shared" ref="AF253:AL253" si="90">DEC2HEX(AF279)</f>
         <v>139</v>
       </c>
       <c r="AG253" s="46" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>13A</v>
       </c>
       <c r="AH253" s="46" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>13B</v>
       </c>
       <c r="AI253" s="46" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>13C</v>
       </c>
       <c r="AJ253" s="46" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>13D</v>
       </c>
       <c r="AK253" s="46" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>13E</v>
       </c>
       <c r="AL253" s="46" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>13F</v>
       </c>
     </row>
@@ -32441,131 +32441,131 @@
       </c>
       <c r="F254" s="4"/>
       <c r="G254" s="24" t="str">
-        <f t="shared" ref="G254:AC254" si="81">DEC2HEX(G280)</f>
+        <f t="shared" ref="G254:I254" si="91">DEC2HEX(G280)</f>
         <v>140</v>
       </c>
       <c r="H254" s="24" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>141</v>
       </c>
       <c r="I254" s="24" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>142</v>
       </c>
       <c r="J254" s="24" t="str">
-        <f t="shared" ref="J254" si="82">DEC2HEX(J280)</f>
+        <f t="shared" ref="J254" si="92">DEC2HEX(J280)</f>
         <v>143</v>
       </c>
       <c r="K254" s="24" t="str">
-        <f>DEC2HEX(K280)</f>
+        <f t="shared" ref="K254:AE254" si="93">DEC2HEX(K280)</f>
         <v>144</v>
       </c>
       <c r="L254" s="24" t="str">
-        <f>DEC2HEX(L280)</f>
+        <f t="shared" si="93"/>
         <v>145</v>
       </c>
       <c r="M254" s="24" t="str">
-        <f>DEC2HEX(M280)</f>
+        <f t="shared" si="93"/>
         <v>146</v>
       </c>
       <c r="N254" s="23" t="str">
-        <f>DEC2HEX(N280)</f>
+        <f t="shared" si="93"/>
         <v>147</v>
       </c>
       <c r="O254" s="23" t="str">
-        <f>DEC2HEX(O280)</f>
+        <f t="shared" si="93"/>
         <v>148</v>
       </c>
       <c r="P254" s="23" t="str">
-        <f>DEC2HEX(P280)</f>
+        <f t="shared" si="93"/>
         <v>149</v>
       </c>
       <c r="Q254" s="23" t="str">
-        <f>DEC2HEX(Q280)</f>
+        <f t="shared" si="93"/>
         <v>14A</v>
       </c>
       <c r="R254" s="23" t="str">
-        <f>DEC2HEX(R280)</f>
+        <f t="shared" si="93"/>
         <v>14B</v>
       </c>
       <c r="S254" s="23" t="str">
-        <f>DEC2HEX(S280)</f>
+        <f t="shared" si="93"/>
         <v>14C</v>
       </c>
       <c r="T254" s="23" t="str">
-        <f>DEC2HEX(T280)</f>
+        <f t="shared" si="93"/>
         <v>14D</v>
       </c>
       <c r="U254" s="23" t="str">
-        <f>DEC2HEX(U280)</f>
+        <f t="shared" si="93"/>
         <v>14E</v>
       </c>
       <c r="V254" s="23" t="str">
-        <f>DEC2HEX(V280)</f>
+        <f t="shared" si="93"/>
         <v>14F</v>
       </c>
       <c r="W254" s="23" t="str">
-        <f>DEC2HEX(W280)</f>
+        <f t="shared" si="93"/>
         <v>150</v>
       </c>
       <c r="X254" s="23" t="str">
-        <f>DEC2HEX(X280)</f>
+        <f t="shared" si="93"/>
         <v>151</v>
       </c>
       <c r="Y254" s="24" t="str">
-        <f>DEC2HEX(Y280)</f>
+        <f t="shared" si="93"/>
         <v>152</v>
       </c>
       <c r="Z254" s="24" t="str">
-        <f>DEC2HEX(Z280)</f>
+        <f t="shared" si="93"/>
         <v>153</v>
       </c>
       <c r="AA254" s="24" t="str">
-        <f>DEC2HEX(AA280)</f>
+        <f t="shared" si="93"/>
         <v>154</v>
       </c>
       <c r="AB254" s="24" t="str">
-        <f>DEC2HEX(AB280)</f>
+        <f t="shared" si="93"/>
         <v>155</v>
       </c>
       <c r="AC254" s="24" t="str">
-        <f>DEC2HEX(AC280)</f>
+        <f t="shared" si="93"/>
         <v>156</v>
       </c>
       <c r="AD254" s="24" t="str">
-        <f>DEC2HEX(AD280)</f>
+        <f t="shared" si="93"/>
         <v>157</v>
       </c>
       <c r="AE254" s="24" t="str">
-        <f>DEC2HEX(AE280)</f>
+        <f t="shared" si="93"/>
         <v>158</v>
       </c>
       <c r="AF254" s="46" t="str">
-        <f t="shared" ref="AF254:AL254" si="83">DEC2HEX(AF280)</f>
+        <f t="shared" ref="AF254:AL254" si="94">DEC2HEX(AF280)</f>
         <v>159</v>
       </c>
       <c r="AG254" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
         <v>15A</v>
       </c>
       <c r="AH254" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
         <v>15B</v>
       </c>
       <c r="AI254" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
         <v>15C</v>
       </c>
       <c r="AJ254" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
         <v>15D</v>
       </c>
       <c r="AK254" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
         <v>15E</v>
       </c>
       <c r="AL254" s="46" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
         <v>15F</v>
       </c>
     </row>
@@ -32581,131 +32581,131 @@
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="35" t="str">
-        <f t="shared" ref="G255:AC255" si="84">DEC2HEX(G281)</f>
+        <f t="shared" ref="G255:I255" si="95">DEC2HEX(G281)</f>
         <v>160</v>
       </c>
       <c r="H255" s="24" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="95"/>
         <v>161</v>
       </c>
       <c r="I255" s="25" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="95"/>
         <v>162</v>
       </c>
       <c r="J255" s="25" t="str">
-        <f t="shared" ref="J255" si="85">DEC2HEX(J281)</f>
+        <f t="shared" ref="J255" si="96">DEC2HEX(J281)</f>
         <v>163</v>
       </c>
       <c r="K255" s="25" t="str">
-        <f>DEC2HEX(K281)</f>
+        <f t="shared" ref="K255:AE255" si="97">DEC2HEX(K281)</f>
         <v>164</v>
       </c>
       <c r="L255" s="24" t="str">
-        <f>DEC2HEX(L281)</f>
+        <f t="shared" si="97"/>
         <v>165</v>
       </c>
       <c r="M255" s="29" t="str">
-        <f>DEC2HEX(M281)</f>
+        <f t="shared" si="97"/>
         <v>166</v>
       </c>
       <c r="N255" s="23" t="str">
-        <f>DEC2HEX(N281)</f>
+        <f t="shared" si="97"/>
         <v>167</v>
       </c>
       <c r="O255" s="23" t="str">
-        <f>DEC2HEX(O281)</f>
+        <f t="shared" si="97"/>
         <v>168</v>
       </c>
       <c r="P255" s="23" t="str">
-        <f>DEC2HEX(P281)</f>
+        <f t="shared" si="97"/>
         <v>169</v>
       </c>
       <c r="Q255" s="23" t="str">
-        <f>DEC2HEX(Q281)</f>
+        <f t="shared" si="97"/>
         <v>16A</v>
       </c>
       <c r="R255" s="23" t="str">
-        <f>DEC2HEX(R281)</f>
+        <f t="shared" si="97"/>
         <v>16B</v>
       </c>
       <c r="S255" s="23" t="str">
-        <f>DEC2HEX(S281)</f>
+        <f t="shared" si="97"/>
         <v>16C</v>
       </c>
       <c r="T255" s="23" t="str">
-        <f>DEC2HEX(T281)</f>
+        <f t="shared" si="97"/>
         <v>16D</v>
       </c>
       <c r="U255" s="23" t="str">
-        <f>DEC2HEX(U281)</f>
+        <f t="shared" si="97"/>
         <v>16E</v>
       </c>
       <c r="V255" s="23" t="str">
-        <f>DEC2HEX(V281)</f>
+        <f t="shared" si="97"/>
         <v>16F</v>
       </c>
       <c r="W255" s="23" t="str">
-        <f>DEC2HEX(W281)</f>
+        <f t="shared" si="97"/>
         <v>170</v>
       </c>
       <c r="X255" s="23" t="str">
-        <f>DEC2HEX(X281)</f>
+        <f t="shared" si="97"/>
         <v>171</v>
       </c>
       <c r="Y255" s="23" t="str">
-        <f>DEC2HEX(Y281)</f>
+        <f t="shared" si="97"/>
         <v>172</v>
       </c>
       <c r="Z255" s="24" t="str">
-        <f>DEC2HEX(Z281)</f>
+        <f t="shared" si="97"/>
         <v>173</v>
       </c>
       <c r="AA255" s="25" t="str">
-        <f>DEC2HEX(AA281)</f>
+        <f t="shared" si="97"/>
         <v>174</v>
       </c>
       <c r="AB255" s="25" t="str">
-        <f>DEC2HEX(AB281)</f>
+        <f t="shared" si="97"/>
         <v>175</v>
       </c>
       <c r="AC255" s="25" t="str">
-        <f>DEC2HEX(AC281)</f>
+        <f t="shared" si="97"/>
         <v>176</v>
       </c>
       <c r="AD255" s="24" t="str">
-        <f>DEC2HEX(AD281)</f>
+        <f t="shared" si="97"/>
         <v>177</v>
       </c>
       <c r="AE255" s="35" t="str">
-        <f>DEC2HEX(AE281)</f>
+        <f t="shared" si="97"/>
         <v>178</v>
       </c>
       <c r="AF255" s="46" t="str">
-        <f t="shared" ref="AF255:AL255" si="86">DEC2HEX(AF281)</f>
+        <f t="shared" ref="AF255:AL255" si="98">DEC2HEX(AF281)</f>
         <v>179</v>
       </c>
       <c r="AG255" s="46" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>17A</v>
       </c>
       <c r="AH255" s="46" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>17B</v>
       </c>
       <c r="AI255" s="46" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>17C</v>
       </c>
       <c r="AJ255" s="46" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>17D</v>
       </c>
       <c r="AK255" s="46" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>17E</v>
       </c>
       <c r="AL255" s="46" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>17F</v>
       </c>
     </row>
@@ -32721,131 +32721,131 @@
       </c>
       <c r="F256" s="4"/>
       <c r="G256" s="35" t="str">
-        <f t="shared" ref="G256:AC256" si="87">DEC2HEX(G282)</f>
+        <f t="shared" ref="G256:I256" si="99">DEC2HEX(G282)</f>
         <v>180</v>
       </c>
       <c r="H256" s="35" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>181</v>
       </c>
       <c r="I256" s="24" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>182</v>
       </c>
       <c r="J256" s="24" t="str">
-        <f t="shared" ref="J256" si="88">DEC2HEX(J282)</f>
+        <f t="shared" ref="J256" si="100">DEC2HEX(J282)</f>
         <v>183</v>
       </c>
       <c r="K256" s="24" t="str">
-        <f>DEC2HEX(K282)</f>
+        <f t="shared" ref="K256:AE256" si="101">DEC2HEX(K282)</f>
         <v>184</v>
       </c>
       <c r="L256" s="29" t="str">
-        <f>DEC2HEX(L282)</f>
+        <f t="shared" si="101"/>
         <v>185</v>
       </c>
       <c r="M256" s="29" t="str">
-        <f>DEC2HEX(M282)</f>
+        <f t="shared" si="101"/>
         <v>186</v>
       </c>
       <c r="N256" s="23" t="str">
-        <f>DEC2HEX(N282)</f>
+        <f t="shared" si="101"/>
         <v>187</v>
       </c>
       <c r="O256" s="23" t="str">
-        <f>DEC2HEX(O282)</f>
+        <f t="shared" si="101"/>
         <v>188</v>
       </c>
       <c r="P256" s="29" t="str">
-        <f>DEC2HEX(P282)</f>
+        <f t="shared" si="101"/>
         <v>189</v>
       </c>
       <c r="Q256" s="29" t="str">
-        <f>DEC2HEX(Q282)</f>
+        <f t="shared" si="101"/>
         <v>18A</v>
       </c>
       <c r="R256" s="24" t="str">
-        <f>DEC2HEX(R282)</f>
+        <f t="shared" si="101"/>
         <v>18B</v>
       </c>
       <c r="S256" s="24" t="str">
-        <f>DEC2HEX(S282)</f>
+        <f t="shared" si="101"/>
         <v>18C</v>
       </c>
       <c r="T256" s="24" t="str">
-        <f>DEC2HEX(T282)</f>
+        <f t="shared" si="101"/>
         <v>18D</v>
       </c>
       <c r="U256" s="29" t="str">
-        <f>DEC2HEX(U282)</f>
+        <f t="shared" si="101"/>
         <v>18E</v>
       </c>
       <c r="V256" s="29" t="str">
-        <f>DEC2HEX(V282)</f>
+        <f t="shared" si="101"/>
         <v>18F</v>
       </c>
       <c r="W256" s="23" t="str">
-        <f>DEC2HEX(W282)</f>
+        <f t="shared" si="101"/>
         <v>190</v>
       </c>
       <c r="X256" s="23" t="str">
-        <f>DEC2HEX(X282)</f>
+        <f t="shared" si="101"/>
         <v>191</v>
       </c>
       <c r="Y256" s="23" t="str">
-        <f>DEC2HEX(Y282)</f>
+        <f t="shared" si="101"/>
         <v>192</v>
       </c>
       <c r="Z256" s="23" t="str">
-        <f>DEC2HEX(Z282)</f>
+        <f t="shared" si="101"/>
         <v>193</v>
       </c>
       <c r="AA256" s="24" t="str">
-        <f>DEC2HEX(AA282)</f>
+        <f t="shared" si="101"/>
         <v>194</v>
       </c>
       <c r="AB256" s="24" t="str">
-        <f>DEC2HEX(AB282)</f>
+        <f t="shared" si="101"/>
         <v>195</v>
       </c>
       <c r="AC256" s="24" t="str">
-        <f>DEC2HEX(AC282)</f>
+        <f t="shared" si="101"/>
         <v>196</v>
       </c>
       <c r="AD256" s="35" t="str">
-        <f>DEC2HEX(AD282)</f>
+        <f t="shared" si="101"/>
         <v>197</v>
       </c>
       <c r="AE256" s="35" t="str">
-        <f>DEC2HEX(AE282)</f>
+        <f t="shared" si="101"/>
         <v>198</v>
       </c>
       <c r="AF256" s="46" t="str">
-        <f t="shared" ref="AF256:AL256" si="89">DEC2HEX(AF282)</f>
+        <f t="shared" ref="AF256:AL256" si="102">DEC2HEX(AF282)</f>
         <v>199</v>
       </c>
       <c r="AG256" s="46" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="102"/>
         <v>19A</v>
       </c>
       <c r="AH256" s="46" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="102"/>
         <v>19B</v>
       </c>
       <c r="AI256" s="46" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="102"/>
         <v>19C</v>
       </c>
       <c r="AJ256" s="46" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="102"/>
         <v>19D</v>
       </c>
       <c r="AK256" s="46" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="102"/>
         <v>19E</v>
       </c>
       <c r="AL256" s="46" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="102"/>
         <v>19F</v>
       </c>
     </row>
@@ -32861,131 +32861,131 @@
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="35" t="str">
-        <f t="shared" ref="G257:AC257" si="90">DEC2HEX(G283)</f>
+        <f t="shared" ref="G257:I257" si="103">DEC2HEX(G283)</f>
         <v>1A0</v>
       </c>
       <c r="H257" s="35" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="103"/>
         <v>1A1</v>
       </c>
       <c r="I257" s="35" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="103"/>
         <v>1A2</v>
       </c>
       <c r="J257" s="35" t="str">
-        <f t="shared" ref="J257" si="91">DEC2HEX(J283)</f>
+        <f t="shared" ref="J257" si="104">DEC2HEX(J283)</f>
         <v>1A3</v>
       </c>
       <c r="K257" s="23" t="str">
-        <f>DEC2HEX(K283)</f>
+        <f t="shared" ref="K257:AE257" si="105">DEC2HEX(K283)</f>
         <v>1A4</v>
       </c>
       <c r="L257" s="23" t="str">
-        <f>DEC2HEX(L283)</f>
+        <f t="shared" si="105"/>
         <v>1A5</v>
       </c>
       <c r="M257" s="23" t="str">
-        <f>DEC2HEX(M283)</f>
+        <f t="shared" si="105"/>
         <v>1A6</v>
       </c>
       <c r="N257" s="23" t="str">
-        <f>DEC2HEX(N283)</f>
+        <f t="shared" si="105"/>
         <v>1A7</v>
       </c>
       <c r="O257" s="23" t="str">
-        <f>DEC2HEX(O283)</f>
+        <f t="shared" si="105"/>
         <v>1A8</v>
       </c>
       <c r="P257" s="29" t="str">
-        <f>DEC2HEX(P283)</f>
+        <f t="shared" si="105"/>
         <v>1A9</v>
       </c>
       <c r="Q257" s="24" t="str">
-        <f>DEC2HEX(Q283)</f>
+        <f t="shared" si="105"/>
         <v>1AA</v>
       </c>
       <c r="R257" s="25" t="str">
-        <f>DEC2HEX(R283)</f>
+        <f t="shared" si="105"/>
         <v>1AB</v>
       </c>
       <c r="S257" s="24" t="str">
-        <f>DEC2HEX(S283)</f>
+        <f t="shared" si="105"/>
         <v>1AC</v>
       </c>
       <c r="T257" s="25" t="str">
-        <f>DEC2HEX(T283)</f>
+        <f t="shared" si="105"/>
         <v>1AD</v>
       </c>
       <c r="U257" s="24" t="str">
-        <f>DEC2HEX(U283)</f>
+        <f t="shared" si="105"/>
         <v>1AE</v>
       </c>
       <c r="V257" s="29" t="str">
-        <f>DEC2HEX(V283)</f>
+        <f t="shared" si="105"/>
         <v>1AF</v>
       </c>
       <c r="W257" s="23" t="str">
-        <f>DEC2HEX(W283)</f>
+        <f t="shared" si="105"/>
         <v>1B0</v>
       </c>
       <c r="X257" s="23" t="str">
-        <f>DEC2HEX(X283)</f>
+        <f t="shared" si="105"/>
         <v>1B1</v>
       </c>
       <c r="Y257" s="23" t="str">
-        <f>DEC2HEX(Y283)</f>
+        <f t="shared" si="105"/>
         <v>1B2</v>
       </c>
       <c r="Z257" s="23" t="str">
-        <f>DEC2HEX(Z283)</f>
+        <f t="shared" si="105"/>
         <v>1B3</v>
       </c>
       <c r="AA257" s="23" t="str">
-        <f>DEC2HEX(AA283)</f>
+        <f t="shared" si="105"/>
         <v>1B4</v>
       </c>
       <c r="AB257" s="35" t="str">
-        <f>DEC2HEX(AB283)</f>
+        <f t="shared" si="105"/>
         <v>1B5</v>
       </c>
       <c r="AC257" s="35" t="str">
-        <f>DEC2HEX(AC283)</f>
+        <f t="shared" si="105"/>
         <v>1B6</v>
       </c>
       <c r="AD257" s="35" t="str">
-        <f>DEC2HEX(AD283)</f>
+        <f t="shared" si="105"/>
         <v>1B7</v>
       </c>
       <c r="AE257" s="35" t="str">
-        <f>DEC2HEX(AE283)</f>
+        <f t="shared" si="105"/>
         <v>1B8</v>
       </c>
       <c r="AF257" s="46" t="str">
-        <f t="shared" ref="AF257:AL257" si="92">DEC2HEX(AF283)</f>
+        <f t="shared" ref="AF257:AL257" si="106">DEC2HEX(AF283)</f>
         <v>1B9</v>
       </c>
       <c r="AG257" s="46" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>1BA</v>
       </c>
       <c r="AH257" s="46" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>1BB</v>
       </c>
       <c r="AI257" s="46" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>1BC</v>
       </c>
       <c r="AJ257" s="46" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>1BD</v>
       </c>
       <c r="AK257" s="46" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>1BE</v>
       </c>
       <c r="AL257" s="46" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>1BF</v>
       </c>
     </row>
@@ -33001,131 +33001,131 @@
       </c>
       <c r="F258" s="4"/>
       <c r="G258" s="35" t="str">
-        <f t="shared" ref="G258:AC258" si="93">DEC2HEX(G284)</f>
+        <f t="shared" ref="G258:I258" si="107">DEC2HEX(G284)</f>
         <v>1C0</v>
       </c>
       <c r="H258" s="35" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>1C1</v>
       </c>
       <c r="I258" s="35" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>1C2</v>
       </c>
       <c r="J258" s="35" t="str">
-        <f t="shared" ref="J258" si="94">DEC2HEX(J284)</f>
+        <f t="shared" ref="J258" si="108">DEC2HEX(J284)</f>
         <v>1C3</v>
       </c>
       <c r="K258" s="23" t="str">
-        <f>DEC2HEX(K284)</f>
+        <f t="shared" ref="K258:AE258" si="109">DEC2HEX(K284)</f>
         <v>1C4</v>
       </c>
       <c r="L258" s="23" t="str">
-        <f>DEC2HEX(L284)</f>
+        <f t="shared" si="109"/>
         <v>1C5</v>
       </c>
       <c r="M258" s="23" t="str">
-        <f>DEC2HEX(M284)</f>
+        <f t="shared" si="109"/>
         <v>1C6</v>
       </c>
       <c r="N258" s="23" t="str">
-        <f>DEC2HEX(N284)</f>
+        <f t="shared" si="109"/>
         <v>1C7</v>
       </c>
       <c r="O258" s="23" t="str">
-        <f>DEC2HEX(O284)</f>
+        <f t="shared" si="109"/>
         <v>1C8</v>
       </c>
       <c r="P258" s="24" t="str">
-        <f>DEC2HEX(P284)</f>
+        <f t="shared" si="109"/>
         <v>1C9</v>
       </c>
       <c r="Q258" s="24" t="str">
-        <f>DEC2HEX(Q284)</f>
+        <f t="shared" si="109"/>
         <v>1CA</v>
       </c>
       <c r="R258" s="24" t="str">
-        <f>DEC2HEX(R284)</f>
+        <f t="shared" si="109"/>
         <v>1CB</v>
       </c>
       <c r="S258" s="24" t="str">
-        <f>DEC2HEX(S284)</f>
+        <f t="shared" si="109"/>
         <v>1CC</v>
       </c>
       <c r="T258" s="24" t="str">
-        <f>DEC2HEX(T284)</f>
+        <f t="shared" si="109"/>
         <v>1CD</v>
       </c>
       <c r="U258" s="24" t="str">
-        <f>DEC2HEX(U284)</f>
+        <f t="shared" si="109"/>
         <v>1CE</v>
       </c>
       <c r="V258" s="24" t="str">
-        <f>DEC2HEX(V284)</f>
+        <f t="shared" si="109"/>
         <v>1CF</v>
       </c>
       <c r="W258" s="23" t="str">
-        <f>DEC2HEX(W284)</f>
+        <f t="shared" si="109"/>
         <v>1D0</v>
       </c>
       <c r="X258" s="23" t="str">
-        <f>DEC2HEX(X284)</f>
+        <f t="shared" si="109"/>
         <v>1D1</v>
       </c>
       <c r="Y258" s="23" t="str">
-        <f>DEC2HEX(Y284)</f>
+        <f t="shared" si="109"/>
         <v>1D2</v>
       </c>
       <c r="Z258" s="23" t="str">
-        <f>DEC2HEX(Z284)</f>
+        <f t="shared" si="109"/>
         <v>1D3</v>
       </c>
       <c r="AA258" s="23" t="str">
-        <f>DEC2HEX(AA284)</f>
+        <f t="shared" si="109"/>
         <v>1D4</v>
       </c>
       <c r="AB258" s="35" t="str">
-        <f>DEC2HEX(AB284)</f>
+        <f t="shared" si="109"/>
         <v>1D5</v>
       </c>
       <c r="AC258" s="35" t="str">
-        <f>DEC2HEX(AC284)</f>
+        <f t="shared" si="109"/>
         <v>1D6</v>
       </c>
       <c r="AD258" s="35" t="str">
-        <f>DEC2HEX(AD284)</f>
+        <f t="shared" si="109"/>
         <v>1D7</v>
       </c>
       <c r="AE258" s="35" t="str">
-        <f>DEC2HEX(AE284)</f>
+        <f t="shared" si="109"/>
         <v>1D8</v>
       </c>
       <c r="AF258" s="46" t="str">
-        <f t="shared" ref="AF258:AL258" si="95">DEC2HEX(AF284)</f>
+        <f t="shared" ref="AF258:AL258" si="110">DEC2HEX(AF284)</f>
         <v>1D9</v>
       </c>
       <c r="AG258" s="46" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="110"/>
         <v>1DA</v>
       </c>
       <c r="AH258" s="46" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="110"/>
         <v>1DB</v>
       </c>
       <c r="AI258" s="46" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="110"/>
         <v>1DC</v>
       </c>
       <c r="AJ258" s="46" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="110"/>
         <v>1DD</v>
       </c>
       <c r="AK258" s="46" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="110"/>
         <v>1DE</v>
       </c>
       <c r="AL258" s="46" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="110"/>
         <v>1DF</v>
       </c>
     </row>
@@ -33137,131 +33137,131 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
       <c r="G259" s="35" t="str">
-        <f t="shared" ref="G259:AC259" si="96">DEC2HEX(G285)</f>
+        <f t="shared" ref="G259:I259" si="111">DEC2HEX(G285)</f>
         <v>1E0</v>
       </c>
       <c r="H259" s="35" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="111"/>
         <v>1E1</v>
       </c>
       <c r="I259" s="35" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="111"/>
         <v>1E2</v>
       </c>
       <c r="J259" s="35" t="str">
-        <f t="shared" ref="J259" si="97">DEC2HEX(J285)</f>
+        <f t="shared" ref="J259" si="112">DEC2HEX(J285)</f>
         <v>1E3</v>
       </c>
       <c r="K259" s="35" t="str">
-        <f>DEC2HEX(K285)</f>
+        <f t="shared" ref="K259:AE259" si="113">DEC2HEX(K285)</f>
         <v>1E4</v>
       </c>
       <c r="L259" s="35" t="str">
-        <f>DEC2HEX(L285)</f>
+        <f t="shared" si="113"/>
         <v>1E5</v>
       </c>
       <c r="M259" s="35" t="str">
-        <f>DEC2HEX(M285)</f>
+        <f t="shared" si="113"/>
         <v>1E6</v>
       </c>
       <c r="N259" s="35" t="str">
-        <f>DEC2HEX(N285)</f>
+        <f t="shared" si="113"/>
         <v>1E7</v>
       </c>
       <c r="O259" s="35" t="str">
-        <f>DEC2HEX(O285)</f>
+        <f t="shared" si="113"/>
         <v>1E8</v>
       </c>
       <c r="P259" s="24" t="str">
-        <f>DEC2HEX(P285)</f>
+        <f t="shared" si="113"/>
         <v>1E9</v>
       </c>
       <c r="Q259" s="24" t="str">
-        <f>DEC2HEX(Q285)</f>
+        <f t="shared" si="113"/>
         <v>1EA</v>
       </c>
       <c r="R259" s="24" t="str">
-        <f>DEC2HEX(R285)</f>
+        <f t="shared" si="113"/>
         <v>1EB</v>
       </c>
       <c r="S259" s="37" t="str">
-        <f>DEC2HEX(S285)</f>
+        <f t="shared" si="113"/>
         <v>1EC</v>
       </c>
       <c r="T259" s="24" t="str">
-        <f>DEC2HEX(T285)</f>
+        <f t="shared" si="113"/>
         <v>1ED</v>
       </c>
       <c r="U259" s="24" t="str">
-        <f>DEC2HEX(U285)</f>
+        <f t="shared" si="113"/>
         <v>1EE</v>
       </c>
       <c r="V259" s="24" t="str">
-        <f>DEC2HEX(V285)</f>
+        <f t="shared" si="113"/>
         <v>1EF</v>
       </c>
       <c r="W259" s="35" t="str">
-        <f>DEC2HEX(W285)</f>
+        <f t="shared" si="113"/>
         <v>1F0</v>
       </c>
       <c r="X259" s="35" t="str">
-        <f>DEC2HEX(X285)</f>
+        <f t="shared" si="113"/>
         <v>1F1</v>
       </c>
       <c r="Y259" s="35" t="str">
-        <f>DEC2HEX(Y285)</f>
+        <f t="shared" si="113"/>
         <v>1F2</v>
       </c>
       <c r="Z259" s="35" t="str">
-        <f>DEC2HEX(Z285)</f>
+        <f t="shared" si="113"/>
         <v>1F3</v>
       </c>
       <c r="AA259" s="35" t="str">
-        <f>DEC2HEX(AA285)</f>
+        <f t="shared" si="113"/>
         <v>1F4</v>
       </c>
       <c r="AB259" s="35" t="str">
-        <f>DEC2HEX(AB285)</f>
+        <f t="shared" si="113"/>
         <v>1F5</v>
       </c>
       <c r="AC259" s="35" t="str">
-        <f>DEC2HEX(AC285)</f>
+        <f t="shared" si="113"/>
         <v>1F6</v>
       </c>
       <c r="AD259" s="35" t="str">
-        <f>DEC2HEX(AD285)</f>
+        <f t="shared" si="113"/>
         <v>1F7</v>
       </c>
       <c r="AE259" s="35" t="str">
-        <f>DEC2HEX(AE285)</f>
+        <f t="shared" si="113"/>
         <v>1F8</v>
       </c>
       <c r="AF259" s="46" t="str">
-        <f t="shared" ref="AF259:AL259" si="98">DEC2HEX(AF285)</f>
+        <f t="shared" ref="AF259:AL259" si="114">DEC2HEX(AF285)</f>
         <v>1F9</v>
       </c>
       <c r="AG259" s="46" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>1FA</v>
       </c>
       <c r="AH259" s="46" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>1FB</v>
       </c>
       <c r="AI259" s="46" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>1FC</v>
       </c>
       <c r="AJ259" s="46" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>1FD</v>
       </c>
       <c r="AK259" s="46" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>1FE</v>
       </c>
       <c r="AL259" s="46" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>1FF</v>
       </c>
     </row>
@@ -33273,131 +33273,131 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
       <c r="G260" s="35" t="str">
-        <f t="shared" ref="G260:AC260" si="99">DEC2HEX(G286)</f>
+        <f t="shared" ref="G260:I260" si="115">DEC2HEX(G286)</f>
         <v>200</v>
       </c>
       <c r="H260" s="35" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="115"/>
         <v>201</v>
       </c>
       <c r="I260" s="35" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="115"/>
         <v>202</v>
       </c>
       <c r="J260" s="35" t="str">
-        <f t="shared" ref="J260" si="100">DEC2HEX(J286)</f>
+        <f t="shared" ref="J260" si="116">DEC2HEX(J286)</f>
         <v>203</v>
       </c>
       <c r="K260" s="35" t="str">
-        <f>DEC2HEX(K286)</f>
+        <f t="shared" ref="K260:AE260" si="117">DEC2HEX(K286)</f>
         <v>204</v>
       </c>
       <c r="L260" s="35" t="str">
-        <f>DEC2HEX(L286)</f>
+        <f t="shared" si="117"/>
         <v>205</v>
       </c>
       <c r="M260" s="35" t="str">
-        <f>DEC2HEX(M286)</f>
+        <f t="shared" si="117"/>
         <v>206</v>
       </c>
       <c r="N260" s="35" t="str">
-        <f>DEC2HEX(N286)</f>
+        <f t="shared" si="117"/>
         <v>207</v>
       </c>
       <c r="O260" s="35" t="str">
-        <f>DEC2HEX(O286)</f>
+        <f t="shared" si="117"/>
         <v>208</v>
       </c>
       <c r="P260" s="24" t="str">
-        <f>DEC2HEX(P286)</f>
+        <f t="shared" si="117"/>
         <v>209</v>
       </c>
       <c r="Q260" s="24" t="str">
-        <f>DEC2HEX(Q286)</f>
+        <f t="shared" si="117"/>
         <v>20A</v>
       </c>
       <c r="R260" s="24" t="str">
-        <f>DEC2HEX(R286)</f>
+        <f t="shared" si="117"/>
         <v>20B</v>
       </c>
       <c r="S260" s="24" t="str">
-        <f>DEC2HEX(S286)</f>
+        <f t="shared" si="117"/>
         <v>20C</v>
       </c>
       <c r="T260" s="24" t="str">
-        <f>DEC2HEX(T286)</f>
+        <f t="shared" si="117"/>
         <v>20D</v>
       </c>
       <c r="U260" s="24" t="str">
-        <f>DEC2HEX(U286)</f>
+        <f t="shared" si="117"/>
         <v>20E</v>
       </c>
       <c r="V260" s="24" t="str">
-        <f>DEC2HEX(V286)</f>
+        <f t="shared" si="117"/>
         <v>20F</v>
       </c>
       <c r="W260" s="35" t="str">
-        <f>DEC2HEX(W286)</f>
+        <f t="shared" si="117"/>
         <v>210</v>
       </c>
       <c r="X260" s="35" t="str">
-        <f>DEC2HEX(X286)</f>
+        <f t="shared" si="117"/>
         <v>211</v>
       </c>
       <c r="Y260" s="35" t="str">
-        <f>DEC2HEX(Y286)</f>
+        <f t="shared" si="117"/>
         <v>212</v>
       </c>
       <c r="Z260" s="35" t="str">
-        <f>DEC2HEX(Z286)</f>
+        <f t="shared" si="117"/>
         <v>213</v>
       </c>
       <c r="AA260" s="35" t="str">
-        <f>DEC2HEX(AA286)</f>
+        <f t="shared" si="117"/>
         <v>214</v>
       </c>
       <c r="AB260" s="35" t="str">
-        <f>DEC2HEX(AB286)</f>
+        <f t="shared" si="117"/>
         <v>215</v>
       </c>
       <c r="AC260" s="35" t="str">
-        <f>DEC2HEX(AC286)</f>
+        <f t="shared" si="117"/>
         <v>216</v>
       </c>
       <c r="AD260" s="35" t="str">
-        <f>DEC2HEX(AD286)</f>
+        <f t="shared" si="117"/>
         <v>217</v>
       </c>
       <c r="AE260" s="35" t="str">
-        <f>DEC2HEX(AE286)</f>
+        <f t="shared" si="117"/>
         <v>218</v>
       </c>
       <c r="AF260" s="46" t="str">
-        <f t="shared" ref="AF260:AL260" si="101">DEC2HEX(AF286)</f>
+        <f t="shared" ref="AF260:AL260" si="118">DEC2HEX(AF286)</f>
         <v>219</v>
       </c>
       <c r="AG260" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>21A</v>
       </c>
       <c r="AH260" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>21B</v>
       </c>
       <c r="AI260" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>21C</v>
       </c>
       <c r="AJ260" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>21D</v>
       </c>
       <c r="AK260" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>21E</v>
       </c>
       <c r="AL260" s="46" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>21F</v>
       </c>
     </row>
@@ -33409,131 +33409,131 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
       <c r="G261" s="35" t="str">
-        <f>DEC2HEX(G287)</f>
+        <f t="shared" ref="G261:I262" si="119">DEC2HEX(G287)</f>
         <v>220</v>
       </c>
       <c r="H261" s="35" t="str">
-        <f>DEC2HEX(H287)</f>
+        <f t="shared" si="119"/>
         <v>221</v>
       </c>
       <c r="I261" s="35" t="str">
-        <f>DEC2HEX(I287)</f>
+        <f t="shared" si="119"/>
         <v>222</v>
       </c>
       <c r="J261" s="35" t="str">
-        <f t="shared" ref="J261" si="102">DEC2HEX(J287)</f>
+        <f t="shared" ref="J261" si="120">DEC2HEX(J287)</f>
         <v>223</v>
       </c>
       <c r="K261" s="35" t="str">
-        <f>DEC2HEX(K287)</f>
+        <f t="shared" ref="K261:AE261" si="121">DEC2HEX(K287)</f>
         <v>224</v>
       </c>
       <c r="L261" s="35" t="str">
-        <f>DEC2HEX(L287)</f>
+        <f t="shared" si="121"/>
         <v>225</v>
       </c>
       <c r="M261" s="35" t="str">
-        <f>DEC2HEX(M287)</f>
+        <f t="shared" si="121"/>
         <v>226</v>
       </c>
       <c r="N261" s="35" t="str">
-        <f>DEC2HEX(N287)</f>
+        <f t="shared" si="121"/>
         <v>227</v>
       </c>
       <c r="O261" s="35" t="str">
-        <f>DEC2HEX(O287)</f>
+        <f t="shared" si="121"/>
         <v>228</v>
       </c>
       <c r="P261" s="35" t="str">
-        <f>DEC2HEX(P287)</f>
+        <f t="shared" si="121"/>
         <v>229</v>
       </c>
       <c r="Q261" s="24" t="str">
-        <f>DEC2HEX(Q287)</f>
+        <f t="shared" si="121"/>
         <v>22A</v>
       </c>
       <c r="R261" s="25" t="str">
-        <f>DEC2HEX(R287)</f>
+        <f t="shared" si="121"/>
         <v>22B</v>
       </c>
       <c r="S261" s="24" t="str">
-        <f>DEC2HEX(S287)</f>
+        <f t="shared" si="121"/>
         <v>22C</v>
       </c>
       <c r="T261" s="25" t="str">
-        <f>DEC2HEX(T287)</f>
+        <f t="shared" si="121"/>
         <v>22D</v>
       </c>
       <c r="U261" s="24" t="str">
-        <f>DEC2HEX(U287)</f>
+        <f t="shared" si="121"/>
         <v>22E</v>
       </c>
       <c r="V261" s="35" t="str">
-        <f>DEC2HEX(V287)</f>
+        <f t="shared" si="121"/>
         <v>22F</v>
       </c>
       <c r="W261" s="35" t="str">
-        <f>DEC2HEX(W287)</f>
+        <f t="shared" si="121"/>
         <v>230</v>
       </c>
       <c r="X261" s="35" t="str">
-        <f>DEC2HEX(X287)</f>
+        <f t="shared" si="121"/>
         <v>231</v>
       </c>
       <c r="Y261" s="35" t="str">
-        <f>DEC2HEX(Y287)</f>
+        <f t="shared" si="121"/>
         <v>232</v>
       </c>
       <c r="Z261" s="35" t="str">
-        <f>DEC2HEX(Z287)</f>
+        <f t="shared" si="121"/>
         <v>233</v>
       </c>
       <c r="AA261" s="35" t="str">
-        <f>DEC2HEX(AA287)</f>
+        <f t="shared" si="121"/>
         <v>234</v>
       </c>
       <c r="AB261" s="35" t="str">
-        <f>DEC2HEX(AB287)</f>
+        <f t="shared" si="121"/>
         <v>235</v>
       </c>
       <c r="AC261" s="35" t="str">
-        <f>DEC2HEX(AC287)</f>
+        <f t="shared" si="121"/>
         <v>236</v>
       </c>
       <c r="AD261" s="35" t="str">
-        <f>DEC2HEX(AD287)</f>
+        <f t="shared" si="121"/>
         <v>237</v>
       </c>
       <c r="AE261" s="35" t="str">
-        <f>DEC2HEX(AE287)</f>
+        <f t="shared" si="121"/>
         <v>238</v>
       </c>
       <c r="AF261" s="46" t="str">
-        <f t="shared" ref="AF261:AL261" si="103">DEC2HEX(AF287)</f>
+        <f t="shared" ref="AF261:AL261" si="122">DEC2HEX(AF287)</f>
         <v>239</v>
       </c>
       <c r="AG261" s="46" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="122"/>
         <v>23A</v>
       </c>
       <c r="AH261" s="46" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="122"/>
         <v>23B</v>
       </c>
       <c r="AI261" s="46" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="122"/>
         <v>23C</v>
       </c>
       <c r="AJ261" s="46" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="122"/>
         <v>23D</v>
       </c>
       <c r="AK261" s="46" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="122"/>
         <v>23E</v>
       </c>
       <c r="AL261" s="46" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="122"/>
         <v>23F</v>
       </c>
     </row>
@@ -33545,131 +33545,131 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
       <c r="G262" s="35" t="str">
-        <f>DEC2HEX(G288)</f>
+        <f t="shared" si="119"/>
         <v>240</v>
       </c>
       <c r="H262" s="35" t="str">
-        <f>DEC2HEX(H288)</f>
+        <f t="shared" si="119"/>
         <v>241</v>
       </c>
       <c r="I262" s="35" t="str">
-        <f>DEC2HEX(I288)</f>
+        <f t="shared" si="119"/>
         <v>242</v>
       </c>
       <c r="J262" s="35" t="str">
-        <f t="shared" ref="J262" si="104">DEC2HEX(J288)</f>
+        <f t="shared" ref="J262" si="123">DEC2HEX(J288)</f>
         <v>243</v>
       </c>
       <c r="K262" s="35" t="str">
-        <f>DEC2HEX(J288)</f>
+        <f t="shared" ref="K262:AE262" si="124">DEC2HEX(J288)</f>
         <v>243</v>
       </c>
       <c r="L262" s="35" t="str">
-        <f>DEC2HEX(K288)</f>
+        <f t="shared" si="124"/>
         <v>244</v>
       </c>
       <c r="M262" s="35" t="str">
-        <f>DEC2HEX(L288)</f>
+        <f t="shared" si="124"/>
         <v>245</v>
       </c>
       <c r="N262" s="35" t="str">
-        <f>DEC2HEX(M288)</f>
+        <f t="shared" si="124"/>
         <v>246</v>
       </c>
       <c r="O262" s="35" t="str">
-        <f>DEC2HEX(N288)</f>
+        <f t="shared" si="124"/>
         <v>247</v>
       </c>
       <c r="P262" s="35" t="str">
-        <f>DEC2HEX(O288)</f>
+        <f t="shared" si="124"/>
         <v>248</v>
       </c>
       <c r="Q262" s="35" t="str">
-        <f>DEC2HEX(P288)</f>
+        <f t="shared" si="124"/>
         <v>249</v>
       </c>
       <c r="R262" s="24" t="str">
-        <f>DEC2HEX(Q288)</f>
+        <f t="shared" si="124"/>
         <v>24A</v>
       </c>
       <c r="S262" s="24" t="str">
-        <f>DEC2HEX(R288)</f>
+        <f t="shared" si="124"/>
         <v>24B</v>
       </c>
       <c r="T262" s="24" t="str">
-        <f>DEC2HEX(S288)</f>
+        <f t="shared" si="124"/>
         <v>24C</v>
       </c>
       <c r="U262" s="35" t="str">
-        <f>DEC2HEX(T288)</f>
+        <f t="shared" si="124"/>
         <v>24D</v>
       </c>
       <c r="V262" s="35" t="str">
-        <f>DEC2HEX(U288)</f>
+        <f t="shared" si="124"/>
         <v>24E</v>
       </c>
       <c r="W262" s="35" t="str">
-        <f>DEC2HEX(V288)</f>
+        <f t="shared" si="124"/>
         <v>24F</v>
       </c>
       <c r="X262" s="35" t="str">
-        <f>DEC2HEX(W288)</f>
+        <f t="shared" si="124"/>
         <v>250</v>
       </c>
       <c r="Y262" s="35" t="str">
-        <f>DEC2HEX(X288)</f>
+        <f t="shared" si="124"/>
         <v>251</v>
       </c>
       <c r="Z262" s="35" t="str">
-        <f>DEC2HEX(Y288)</f>
+        <f t="shared" si="124"/>
         <v>252</v>
       </c>
       <c r="AA262" s="35" t="str">
-        <f>DEC2HEX(Z288)</f>
+        <f t="shared" si="124"/>
         <v>253</v>
       </c>
       <c r="AB262" s="35" t="str">
-        <f>DEC2HEX(AA288)</f>
+        <f t="shared" si="124"/>
         <v>254</v>
       </c>
       <c r="AC262" s="35" t="str">
-        <f>DEC2HEX(AB288)</f>
+        <f t="shared" si="124"/>
         <v>255</v>
       </c>
       <c r="AD262" s="35" t="str">
-        <f>DEC2HEX(AC288)</f>
+        <f t="shared" si="124"/>
         <v>256</v>
       </c>
       <c r="AE262" s="35" t="str">
-        <f>DEC2HEX(AD288)</f>
+        <f t="shared" si="124"/>
         <v>257</v>
       </c>
       <c r="AF262" s="46" t="str">
-        <f t="shared" ref="AF262:AL262" si="105">DEC2HEX(AE288)</f>
+        <f t="shared" ref="AF262:AL262" si="125">DEC2HEX(AE288)</f>
         <v>258</v>
       </c>
       <c r="AG262" s="46" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="125"/>
         <v>259</v>
       </c>
       <c r="AH262" s="46" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="125"/>
         <v>25A</v>
       </c>
       <c r="AI262" s="46" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="125"/>
         <v>25B</v>
       </c>
       <c r="AJ262" s="46" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="125"/>
         <v>25C</v>
       </c>
       <c r="AK262" s="46" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="125"/>
         <v>25D</v>
       </c>
       <c r="AL262" s="46" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="125"/>
         <v>25E</v>
       </c>
     </row>
@@ -33715,11 +33715,11 @@
         <v>1</v>
       </c>
       <c r="I270" s="34">
-        <f t="shared" ref="I270:J287" si="106">H270+1</f>
+        <f t="shared" ref="I270:J287" si="126">H270+1</f>
         <v>2</v>
       </c>
       <c r="J270" s="34">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>3</v>
       </c>
       <c r="K270" s="34">
@@ -33727,111 +33727,111 @@
         <v>4</v>
       </c>
       <c r="L270" s="34">
-        <f t="shared" ref="L270:L287" si="107">K270+1</f>
+        <f t="shared" ref="L270:L287" si="127">K270+1</f>
         <v>5</v>
       </c>
       <c r="M270" s="34">
-        <f t="shared" ref="M270:M287" si="108">L270+1</f>
+        <f t="shared" ref="M270:M287" si="128">L270+1</f>
         <v>6</v>
       </c>
       <c r="N270" s="34">
-        <f t="shared" ref="N270:N287" si="109">M270+1</f>
+        <f t="shared" ref="N270:N287" si="129">M270+1</f>
         <v>7</v>
       </c>
       <c r="O270" s="34">
-        <f t="shared" ref="O270:O287" si="110">N270+1</f>
+        <f t="shared" ref="O270:O287" si="130">N270+1</f>
         <v>8</v>
       </c>
       <c r="P270" s="34">
-        <f t="shared" ref="P270:P287" si="111">O270+1</f>
+        <f t="shared" ref="P270:P287" si="131">O270+1</f>
         <v>9</v>
       </c>
       <c r="Q270" s="34">
-        <f t="shared" ref="Q270:Q287" si="112">P270+1</f>
+        <f t="shared" ref="Q270:Q287" si="132">P270+1</f>
         <v>10</v>
       </c>
       <c r="R270" s="34">
-        <f t="shared" ref="R270:R287" si="113">Q270+1</f>
+        <f t="shared" ref="R270:R287" si="133">Q270+1</f>
         <v>11</v>
       </c>
       <c r="S270" s="34">
-        <f t="shared" ref="S270:S287" si="114">R270+1</f>
+        <f t="shared" ref="S270:S287" si="134">R270+1</f>
         <v>12</v>
       </c>
       <c r="T270" s="34">
-        <f t="shared" ref="T270:T287" si="115">S270+1</f>
+        <f t="shared" ref="T270:T287" si="135">S270+1</f>
         <v>13</v>
       </c>
       <c r="U270" s="34">
-        <f t="shared" ref="U270:U287" si="116">T270+1</f>
+        <f t="shared" ref="U270:U287" si="136">T270+1</f>
         <v>14</v>
       </c>
       <c r="V270" s="34">
-        <f t="shared" ref="V270:V287" si="117">U270+1</f>
+        <f t="shared" ref="V270:V287" si="137">U270+1</f>
         <v>15</v>
       </c>
       <c r="W270" s="34">
-        <f t="shared" ref="W270:W287" si="118">V270+1</f>
+        <f t="shared" ref="W270:W287" si="138">V270+1</f>
         <v>16</v>
       </c>
       <c r="X270" s="34">
-        <f t="shared" ref="X270:X287" si="119">W270+1</f>
+        <f t="shared" ref="X270:X287" si="139">W270+1</f>
         <v>17</v>
       </c>
       <c r="Y270" s="34">
-        <f t="shared" ref="Y270:Y287" si="120">X270+1</f>
+        <f t="shared" ref="Y270:Y287" si="140">X270+1</f>
         <v>18</v>
       </c>
       <c r="Z270" s="34">
-        <f t="shared" ref="Z270:Z287" si="121">Y270+1</f>
+        <f t="shared" ref="Z270:Z287" si="141">Y270+1</f>
         <v>19</v>
       </c>
       <c r="AA270" s="34">
-        <f t="shared" ref="AA270:AA287" si="122">Z270+1</f>
+        <f t="shared" ref="AA270:AA287" si="142">Z270+1</f>
         <v>20</v>
       </c>
       <c r="AB270" s="34">
-        <f t="shared" ref="AB270:AB287" si="123">AA270+1</f>
+        <f t="shared" ref="AB270:AB287" si="143">AA270+1</f>
         <v>21</v>
       </c>
       <c r="AC270" s="34">
-        <f t="shared" ref="AC270:AC287" si="124">AB270+1</f>
+        <f t="shared" ref="AC270:AC287" si="144">AB270+1</f>
         <v>22</v>
       </c>
       <c r="AD270" s="34">
-        <f t="shared" ref="AD270:AL287" si="125">AC270+1</f>
+        <f t="shared" ref="AD270:AL287" si="145">AC270+1</f>
         <v>23</v>
       </c>
       <c r="AE270" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>24</v>
       </c>
       <c r="AF270" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>25</v>
       </c>
       <c r="AG270" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>26</v>
       </c>
       <c r="AH270" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>27</v>
       </c>
       <c r="AI270" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>28</v>
       </c>
       <c r="AJ270" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>29</v>
       </c>
       <c r="AK270" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>30</v>
       </c>
       <c r="AL270" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>31</v>
       </c>
     </row>
@@ -33845,2333 +33845,2333 @@
         <v>33</v>
       </c>
       <c r="I271" s="34">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>34</v>
       </c>
       <c r="J271" s="34">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>35</v>
       </c>
       <c r="K271" s="34">
-        <f t="shared" ref="K271:K288" si="126">J271+1</f>
+        <f t="shared" ref="K271:K288" si="146">J271+1</f>
         <v>36</v>
       </c>
       <c r="L271" s="34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>37</v>
       </c>
       <c r="M271" s="34">
-        <f t="shared" si="108"/>
+        <f t="shared" si="128"/>
         <v>38</v>
       </c>
       <c r="N271" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>39</v>
       </c>
       <c r="O271" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>40</v>
       </c>
       <c r="P271" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>41</v>
       </c>
       <c r="Q271" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>42</v>
       </c>
       <c r="R271" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>43</v>
       </c>
       <c r="S271" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>44</v>
       </c>
       <c r="T271" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>45</v>
       </c>
       <c r="U271" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>46</v>
       </c>
       <c r="V271" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>47</v>
       </c>
       <c r="W271" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>48</v>
       </c>
       <c r="X271" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>49</v>
       </c>
       <c r="Y271" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>50</v>
       </c>
       <c r="Z271" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>51</v>
       </c>
       <c r="AA271" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>52</v>
       </c>
       <c r="AB271" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>53</v>
       </c>
       <c r="AC271" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>54</v>
       </c>
       <c r="AD271" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>55</v>
       </c>
       <c r="AE271" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>56</v>
       </c>
       <c r="AF271" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>57</v>
       </c>
       <c r="AG271" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>58</v>
       </c>
       <c r="AH271" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>59</v>
       </c>
       <c r="AI271" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>60</v>
       </c>
       <c r="AJ271" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>61</v>
       </c>
       <c r="AK271" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>62</v>
       </c>
       <c r="AL271" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>63</v>
       </c>
     </row>
     <row r="272" spans="1:38">
       <c r="G272" s="34">
-        <f t="shared" ref="G272:G288" si="127">AL271+1</f>
+        <f t="shared" ref="G272:G288" si="147">AL271+1</f>
         <v>64</v>
       </c>
       <c r="H272" s="34">
-        <f t="shared" ref="H272:H287" si="128">G272+1</f>
+        <f t="shared" ref="H272:H287" si="148">G272+1</f>
         <v>65</v>
       </c>
       <c r="I272" s="34">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>66</v>
       </c>
       <c r="J272" s="34">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>67</v>
       </c>
       <c r="K272" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="146"/>
         <v>68</v>
       </c>
       <c r="L272" s="34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>69</v>
       </c>
       <c r="M272" s="34">
-        <f t="shared" si="108"/>
+        <f t="shared" si="128"/>
         <v>70</v>
       </c>
       <c r="N272" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>71</v>
       </c>
       <c r="O272" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>72</v>
       </c>
       <c r="P272" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>73</v>
       </c>
       <c r="Q272" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>74</v>
       </c>
       <c r="R272" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>75</v>
       </c>
       <c r="S272" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>76</v>
       </c>
       <c r="T272" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>77</v>
       </c>
       <c r="U272" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>78</v>
       </c>
       <c r="V272" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>79</v>
       </c>
       <c r="W272" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>80</v>
       </c>
       <c r="X272" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>81</v>
       </c>
       <c r="Y272" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>82</v>
       </c>
       <c r="Z272" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>83</v>
       </c>
       <c r="AA272" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>84</v>
       </c>
       <c r="AB272" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>85</v>
       </c>
       <c r="AC272" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>86</v>
       </c>
       <c r="AD272" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>87</v>
       </c>
       <c r="AE272" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>88</v>
       </c>
       <c r="AF272" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>89</v>
       </c>
       <c r="AG272" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>90</v>
       </c>
       <c r="AH272" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>91</v>
       </c>
       <c r="AI272" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>92</v>
       </c>
       <c r="AJ272" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>93</v>
       </c>
       <c r="AK272" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>94</v>
       </c>
       <c r="AL272" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>95</v>
       </c>
     </row>
     <row r="273" spans="7:38">
       <c r="G273" s="34">
+        <f t="shared" si="147"/>
+        <v>96</v>
+      </c>
+      <c r="H273" s="34">
+        <f t="shared" si="148"/>
+        <v>97</v>
+      </c>
+      <c r="I273" s="34">
+        <f t="shared" si="126"/>
+        <v>98</v>
+      </c>
+      <c r="J273" s="34">
+        <f t="shared" si="126"/>
+        <v>99</v>
+      </c>
+      <c r="K273" s="34">
+        <f t="shared" si="146"/>
+        <v>100</v>
+      </c>
+      <c r="L273" s="34">
         <f t="shared" si="127"/>
-        <v>96</v>
-      </c>
-      <c r="H273" s="34">
+        <v>101</v>
+      </c>
+      <c r="M273" s="34">
         <f t="shared" si="128"/>
-        <v>97</v>
-      </c>
-      <c r="I273" s="34">
-        <f t="shared" si="106"/>
-        <v>98</v>
-      </c>
-      <c r="J273" s="34">
-        <f t="shared" si="106"/>
-        <v>99</v>
-      </c>
-      <c r="K273" s="34">
-        <f t="shared" si="126"/>
-        <v>100</v>
-      </c>
-      <c r="L273" s="34">
-        <f t="shared" si="107"/>
-        <v>101</v>
-      </c>
-      <c r="M273" s="34">
-        <f t="shared" si="108"/>
         <v>102</v>
       </c>
       <c r="N273" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>103</v>
       </c>
       <c r="O273" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>104</v>
       </c>
       <c r="P273" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>105</v>
       </c>
       <c r="Q273" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>106</v>
       </c>
       <c r="R273" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>107</v>
       </c>
       <c r="S273" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>108</v>
       </c>
       <c r="T273" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>109</v>
       </c>
       <c r="U273" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>110</v>
       </c>
       <c r="V273" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>111</v>
       </c>
       <c r="W273" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>112</v>
       </c>
       <c r="X273" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>113</v>
       </c>
       <c r="Y273" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>114</v>
       </c>
       <c r="Z273" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>115</v>
       </c>
       <c r="AA273" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>116</v>
       </c>
       <c r="AB273" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>117</v>
       </c>
       <c r="AC273" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>118</v>
       </c>
       <c r="AD273" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>119</v>
       </c>
       <c r="AE273" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>120</v>
       </c>
       <c r="AF273" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>121</v>
       </c>
       <c r="AG273" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>122</v>
       </c>
       <c r="AH273" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>123</v>
       </c>
       <c r="AI273" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>124</v>
       </c>
       <c r="AJ273" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>125</v>
       </c>
       <c r="AK273" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>126</v>
       </c>
       <c r="AL273" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>127</v>
       </c>
     </row>
     <row r="274" spans="7:38">
       <c r="G274" s="34">
+        <f t="shared" si="147"/>
+        <v>128</v>
+      </c>
+      <c r="H274" s="34">
+        <f t="shared" si="148"/>
+        <v>129</v>
+      </c>
+      <c r="I274" s="34">
+        <f t="shared" si="126"/>
+        <v>130</v>
+      </c>
+      <c r="J274" s="34">
+        <f t="shared" si="126"/>
+        <v>131</v>
+      </c>
+      <c r="K274" s="34">
+        <f t="shared" si="146"/>
+        <v>132</v>
+      </c>
+      <c r="L274" s="34">
         <f t="shared" si="127"/>
-        <v>128</v>
-      </c>
-      <c r="H274" s="34">
+        <v>133</v>
+      </c>
+      <c r="M274" s="34">
         <f t="shared" si="128"/>
-        <v>129</v>
-      </c>
-      <c r="I274" s="34">
-        <f t="shared" si="106"/>
-        <v>130</v>
-      </c>
-      <c r="J274" s="34">
-        <f t="shared" si="106"/>
-        <v>131</v>
-      </c>
-      <c r="K274" s="34">
-        <f t="shared" si="126"/>
-        <v>132</v>
-      </c>
-      <c r="L274" s="34">
-        <f t="shared" si="107"/>
-        <v>133</v>
-      </c>
-      <c r="M274" s="34">
-        <f t="shared" si="108"/>
         <v>134</v>
       </c>
       <c r="N274" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>135</v>
       </c>
       <c r="O274" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>136</v>
       </c>
       <c r="P274" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>137</v>
       </c>
       <c r="Q274" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>138</v>
       </c>
       <c r="R274" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>139</v>
       </c>
       <c r="S274" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>140</v>
       </c>
       <c r="T274" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>141</v>
       </c>
       <c r="U274" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>142</v>
       </c>
       <c r="V274" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>143</v>
       </c>
       <c r="W274" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>144</v>
       </c>
       <c r="X274" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>145</v>
       </c>
       <c r="Y274" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>146</v>
       </c>
       <c r="Z274" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>147</v>
       </c>
       <c r="AA274" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>148</v>
       </c>
       <c r="AB274" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>149</v>
       </c>
       <c r="AC274" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>150</v>
       </c>
       <c r="AD274" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>151</v>
       </c>
       <c r="AE274" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>152</v>
       </c>
       <c r="AF274" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>153</v>
       </c>
       <c r="AG274" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>154</v>
       </c>
       <c r="AH274" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>155</v>
       </c>
       <c r="AI274" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>156</v>
       </c>
       <c r="AJ274" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>157</v>
       </c>
       <c r="AK274" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>158</v>
       </c>
       <c r="AL274" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>159</v>
       </c>
     </row>
     <row r="275" spans="7:38">
       <c r="G275" s="34">
+        <f t="shared" si="147"/>
+        <v>160</v>
+      </c>
+      <c r="H275" s="34">
+        <f t="shared" si="148"/>
+        <v>161</v>
+      </c>
+      <c r="I275" s="34">
+        <f t="shared" si="126"/>
+        <v>162</v>
+      </c>
+      <c r="J275" s="34">
+        <f t="shared" si="126"/>
+        <v>163</v>
+      </c>
+      <c r="K275" s="34">
+        <f t="shared" si="146"/>
+        <v>164</v>
+      </c>
+      <c r="L275" s="34">
         <f t="shared" si="127"/>
-        <v>160</v>
-      </c>
-      <c r="H275" s="34">
+        <v>165</v>
+      </c>
+      <c r="M275" s="34">
         <f t="shared" si="128"/>
-        <v>161</v>
-      </c>
-      <c r="I275" s="34">
-        <f t="shared" si="106"/>
-        <v>162</v>
-      </c>
-      <c r="J275" s="34">
-        <f t="shared" si="106"/>
-        <v>163</v>
-      </c>
-      <c r="K275" s="34">
-        <f t="shared" si="126"/>
-        <v>164</v>
-      </c>
-      <c r="L275" s="34">
-        <f t="shared" si="107"/>
-        <v>165</v>
-      </c>
-      <c r="M275" s="34">
-        <f t="shared" si="108"/>
         <v>166</v>
       </c>
       <c r="N275" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>167</v>
       </c>
       <c r="O275" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>168</v>
       </c>
       <c r="P275" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>169</v>
       </c>
       <c r="Q275" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>170</v>
       </c>
       <c r="R275" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>171</v>
       </c>
       <c r="S275" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>172</v>
       </c>
       <c r="T275" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>173</v>
       </c>
       <c r="U275" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>174</v>
       </c>
       <c r="V275" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>175</v>
       </c>
       <c r="W275" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>176</v>
       </c>
       <c r="X275" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>177</v>
       </c>
       <c r="Y275" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>178</v>
       </c>
       <c r="Z275" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>179</v>
       </c>
       <c r="AA275" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>180</v>
       </c>
       <c r="AB275" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>181</v>
       </c>
       <c r="AC275" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>182</v>
       </c>
       <c r="AD275" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>183</v>
       </c>
       <c r="AE275" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>184</v>
       </c>
       <c r="AF275" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>185</v>
       </c>
       <c r="AG275" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>186</v>
       </c>
       <c r="AH275" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>187</v>
       </c>
       <c r="AI275" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>188</v>
       </c>
       <c r="AJ275" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>189</v>
       </c>
       <c r="AK275" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>190</v>
       </c>
       <c r="AL275" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>191</v>
       </c>
     </row>
     <row r="276" spans="7:38">
       <c r="G276" s="34">
+        <f t="shared" si="147"/>
+        <v>192</v>
+      </c>
+      <c r="H276" s="34">
+        <f t="shared" si="148"/>
+        <v>193</v>
+      </c>
+      <c r="I276" s="34">
+        <f t="shared" si="126"/>
+        <v>194</v>
+      </c>
+      <c r="J276" s="34">
+        <f t="shared" si="126"/>
+        <v>195</v>
+      </c>
+      <c r="K276" s="34">
+        <f t="shared" si="146"/>
+        <v>196</v>
+      </c>
+      <c r="L276" s="34">
         <f t="shared" si="127"/>
-        <v>192</v>
-      </c>
-      <c r="H276" s="34">
+        <v>197</v>
+      </c>
+      <c r="M276" s="34">
         <f t="shared" si="128"/>
-        <v>193</v>
-      </c>
-      <c r="I276" s="34">
-        <f t="shared" si="106"/>
-        <v>194</v>
-      </c>
-      <c r="J276" s="34">
-        <f t="shared" si="106"/>
-        <v>195</v>
-      </c>
-      <c r="K276" s="34">
-        <f t="shared" si="126"/>
-        <v>196</v>
-      </c>
-      <c r="L276" s="34">
-        <f t="shared" si="107"/>
-        <v>197</v>
-      </c>
-      <c r="M276" s="34">
-        <f t="shared" si="108"/>
         <v>198</v>
       </c>
       <c r="N276" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>199</v>
       </c>
       <c r="O276" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>200</v>
       </c>
       <c r="P276" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>201</v>
       </c>
       <c r="Q276" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>202</v>
       </c>
       <c r="R276" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>203</v>
       </c>
       <c r="S276" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>204</v>
       </c>
       <c r="T276" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>205</v>
       </c>
       <c r="U276" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>206</v>
       </c>
       <c r="V276" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>207</v>
       </c>
       <c r="W276" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>208</v>
       </c>
       <c r="X276" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>209</v>
       </c>
       <c r="Y276" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>210</v>
       </c>
       <c r="Z276" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>211</v>
       </c>
       <c r="AA276" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>212</v>
       </c>
       <c r="AB276" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>213</v>
       </c>
       <c r="AC276" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>214</v>
       </c>
       <c r="AD276" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>215</v>
       </c>
       <c r="AE276" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>216</v>
       </c>
       <c r="AF276" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>217</v>
       </c>
       <c r="AG276" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>218</v>
       </c>
       <c r="AH276" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>219</v>
       </c>
       <c r="AI276" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>220</v>
       </c>
       <c r="AJ276" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>221</v>
       </c>
       <c r="AK276" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>222</v>
       </c>
       <c r="AL276" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>223</v>
       </c>
     </row>
     <row r="277" spans="7:38">
       <c r="G277" s="34">
+        <f t="shared" si="147"/>
+        <v>224</v>
+      </c>
+      <c r="H277" s="34">
+        <f t="shared" si="148"/>
+        <v>225</v>
+      </c>
+      <c r="I277" s="34">
+        <f t="shared" si="126"/>
+        <v>226</v>
+      </c>
+      <c r="J277" s="34">
+        <f t="shared" si="126"/>
+        <v>227</v>
+      </c>
+      <c r="K277" s="34">
+        <f t="shared" si="146"/>
+        <v>228</v>
+      </c>
+      <c r="L277" s="34">
         <f t="shared" si="127"/>
-        <v>224</v>
-      </c>
-      <c r="H277" s="34">
+        <v>229</v>
+      </c>
+      <c r="M277" s="34">
         <f t="shared" si="128"/>
-        <v>225</v>
-      </c>
-      <c r="I277" s="34">
-        <f t="shared" si="106"/>
-        <v>226</v>
-      </c>
-      <c r="J277" s="34">
-        <f t="shared" si="106"/>
-        <v>227</v>
-      </c>
-      <c r="K277" s="34">
-        <f t="shared" si="126"/>
-        <v>228</v>
-      </c>
-      <c r="L277" s="34">
-        <f t="shared" si="107"/>
-        <v>229</v>
-      </c>
-      <c r="M277" s="34">
-        <f t="shared" si="108"/>
         <v>230</v>
       </c>
       <c r="N277" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>231</v>
       </c>
       <c r="O277" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>232</v>
       </c>
       <c r="P277" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>233</v>
       </c>
       <c r="Q277" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>234</v>
       </c>
       <c r="R277" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>235</v>
       </c>
       <c r="S277" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>236</v>
       </c>
       <c r="T277" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>237</v>
       </c>
       <c r="U277" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>238</v>
       </c>
       <c r="V277" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>239</v>
       </c>
       <c r="W277" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>240</v>
       </c>
       <c r="X277" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>241</v>
       </c>
       <c r="Y277" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>242</v>
       </c>
       <c r="Z277" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>243</v>
       </c>
       <c r="AA277" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>244</v>
       </c>
       <c r="AB277" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>245</v>
       </c>
       <c r="AC277" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>246</v>
       </c>
       <c r="AD277" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>247</v>
       </c>
       <c r="AE277" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>248</v>
       </c>
       <c r="AF277" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>249</v>
       </c>
       <c r="AG277" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>250</v>
       </c>
       <c r="AH277" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>251</v>
       </c>
       <c r="AI277" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>252</v>
       </c>
       <c r="AJ277" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>253</v>
       </c>
       <c r="AK277" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>254</v>
       </c>
       <c r="AL277" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>255</v>
       </c>
     </row>
     <row r="278" spans="7:38">
       <c r="G278" s="34">
+        <f t="shared" si="147"/>
+        <v>256</v>
+      </c>
+      <c r="H278" s="34">
+        <f t="shared" si="148"/>
+        <v>257</v>
+      </c>
+      <c r="I278" s="34">
+        <f t="shared" si="126"/>
+        <v>258</v>
+      </c>
+      <c r="J278" s="34">
+        <f t="shared" si="126"/>
+        <v>259</v>
+      </c>
+      <c r="K278" s="34">
+        <f t="shared" si="146"/>
+        <v>260</v>
+      </c>
+      <c r="L278" s="34">
         <f t="shared" si="127"/>
-        <v>256</v>
-      </c>
-      <c r="H278" s="34">
+        <v>261</v>
+      </c>
+      <c r="M278" s="34">
         <f t="shared" si="128"/>
-        <v>257</v>
-      </c>
-      <c r="I278" s="34">
-        <f t="shared" si="106"/>
-        <v>258</v>
-      </c>
-      <c r="J278" s="34">
-        <f t="shared" si="106"/>
-        <v>259</v>
-      </c>
-      <c r="K278" s="34">
-        <f t="shared" si="126"/>
-        <v>260</v>
-      </c>
-      <c r="L278" s="34">
-        <f t="shared" si="107"/>
-        <v>261</v>
-      </c>
-      <c r="M278" s="34">
-        <f t="shared" si="108"/>
         <v>262</v>
       </c>
       <c r="N278" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>263</v>
       </c>
       <c r="O278" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>264</v>
       </c>
       <c r="P278" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>265</v>
       </c>
       <c r="Q278" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>266</v>
       </c>
       <c r="R278" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>267</v>
       </c>
       <c r="S278" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>268</v>
       </c>
       <c r="T278" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>269</v>
       </c>
       <c r="U278" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>270</v>
       </c>
       <c r="V278" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>271</v>
       </c>
       <c r="W278" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>272</v>
       </c>
       <c r="X278" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>273</v>
       </c>
       <c r="Y278" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>274</v>
       </c>
       <c r="Z278" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>275</v>
       </c>
       <c r="AA278" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>276</v>
       </c>
       <c r="AB278" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>277</v>
       </c>
       <c r="AC278" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>278</v>
       </c>
       <c r="AD278" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>279</v>
       </c>
       <c r="AE278" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>280</v>
       </c>
       <c r="AF278" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>281</v>
       </c>
       <c r="AG278" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>282</v>
       </c>
       <c r="AH278" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>283</v>
       </c>
       <c r="AI278" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>284</v>
       </c>
       <c r="AJ278" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>285</v>
       </c>
       <c r="AK278" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>286</v>
       </c>
       <c r="AL278" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>287</v>
       </c>
     </row>
     <row r="279" spans="7:38">
       <c r="G279" s="34">
+        <f t="shared" si="147"/>
+        <v>288</v>
+      </c>
+      <c r="H279" s="34">
+        <f t="shared" si="148"/>
+        <v>289</v>
+      </c>
+      <c r="I279" s="34">
+        <f t="shared" si="126"/>
+        <v>290</v>
+      </c>
+      <c r="J279" s="34">
+        <f t="shared" si="126"/>
+        <v>291</v>
+      </c>
+      <c r="K279" s="34">
+        <f t="shared" si="146"/>
+        <v>292</v>
+      </c>
+      <c r="L279" s="34">
         <f t="shared" si="127"/>
-        <v>288</v>
-      </c>
-      <c r="H279" s="34">
+        <v>293</v>
+      </c>
+      <c r="M279" s="34">
         <f t="shared" si="128"/>
-        <v>289</v>
-      </c>
-      <c r="I279" s="34">
-        <f t="shared" si="106"/>
-        <v>290</v>
-      </c>
-      <c r="J279" s="34">
-        <f t="shared" si="106"/>
-        <v>291</v>
-      </c>
-      <c r="K279" s="34">
-        <f t="shared" si="126"/>
-        <v>292</v>
-      </c>
-      <c r="L279" s="34">
-        <f t="shared" si="107"/>
-        <v>293</v>
-      </c>
-      <c r="M279" s="34">
-        <f t="shared" si="108"/>
         <v>294</v>
       </c>
       <c r="N279" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>295</v>
       </c>
       <c r="O279" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>296</v>
       </c>
       <c r="P279" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>297</v>
       </c>
       <c r="Q279" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>298</v>
       </c>
       <c r="R279" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>299</v>
       </c>
       <c r="S279" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>300</v>
       </c>
       <c r="T279" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>301</v>
       </c>
       <c r="U279" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>302</v>
       </c>
       <c r="V279" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>303</v>
       </c>
       <c r="W279" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>304</v>
       </c>
       <c r="X279" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>305</v>
       </c>
       <c r="Y279" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>306</v>
       </c>
       <c r="Z279" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>307</v>
       </c>
       <c r="AA279" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>308</v>
       </c>
       <c r="AB279" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>309</v>
       </c>
       <c r="AC279" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>310</v>
       </c>
       <c r="AD279" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>311</v>
       </c>
       <c r="AE279" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>312</v>
       </c>
       <c r="AF279" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>313</v>
       </c>
       <c r="AG279" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>314</v>
       </c>
       <c r="AH279" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>315</v>
       </c>
       <c r="AI279" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>316</v>
       </c>
       <c r="AJ279" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>317</v>
       </c>
       <c r="AK279" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>318</v>
       </c>
       <c r="AL279" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>319</v>
       </c>
     </row>
     <row r="280" spans="7:38">
       <c r="G280" s="34">
+        <f t="shared" si="147"/>
+        <v>320</v>
+      </c>
+      <c r="H280" s="34">
+        <f t="shared" si="148"/>
+        <v>321</v>
+      </c>
+      <c r="I280" s="34">
+        <f t="shared" si="126"/>
+        <v>322</v>
+      </c>
+      <c r="J280" s="34">
+        <f t="shared" si="126"/>
+        <v>323</v>
+      </c>
+      <c r="K280" s="34">
+        <f t="shared" si="146"/>
+        <v>324</v>
+      </c>
+      <c r="L280" s="34">
         <f t="shared" si="127"/>
-        <v>320</v>
-      </c>
-      <c r="H280" s="34">
+        <v>325</v>
+      </c>
+      <c r="M280" s="34">
         <f t="shared" si="128"/>
-        <v>321</v>
-      </c>
-      <c r="I280" s="34">
-        <f t="shared" si="106"/>
-        <v>322</v>
-      </c>
-      <c r="J280" s="34">
-        <f t="shared" si="106"/>
-        <v>323</v>
-      </c>
-      <c r="K280" s="34">
-        <f t="shared" si="126"/>
-        <v>324</v>
-      </c>
-      <c r="L280" s="34">
-        <f t="shared" si="107"/>
-        <v>325</v>
-      </c>
-      <c r="M280" s="34">
-        <f t="shared" si="108"/>
         <v>326</v>
       </c>
       <c r="N280" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>327</v>
       </c>
       <c r="O280" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>328</v>
       </c>
       <c r="P280" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>329</v>
       </c>
       <c r="Q280" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>330</v>
       </c>
       <c r="R280" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>331</v>
       </c>
       <c r="S280" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>332</v>
       </c>
       <c r="T280" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>333</v>
       </c>
       <c r="U280" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>334</v>
       </c>
       <c r="V280" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>335</v>
       </c>
       <c r="W280" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>336</v>
       </c>
       <c r="X280" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>337</v>
       </c>
       <c r="Y280" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>338</v>
       </c>
       <c r="Z280" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>339</v>
       </c>
       <c r="AA280" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>340</v>
       </c>
       <c r="AB280" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>341</v>
       </c>
       <c r="AC280" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>342</v>
       </c>
       <c r="AD280" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>343</v>
       </c>
       <c r="AE280" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>344</v>
       </c>
       <c r="AF280" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>345</v>
       </c>
       <c r="AG280" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>346</v>
       </c>
       <c r="AH280" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>347</v>
       </c>
       <c r="AI280" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>348</v>
       </c>
       <c r="AJ280" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>349</v>
       </c>
       <c r="AK280" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>350</v>
       </c>
       <c r="AL280" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>351</v>
       </c>
     </row>
     <row r="281" spans="7:38">
       <c r="G281" s="34">
+        <f t="shared" si="147"/>
+        <v>352</v>
+      </c>
+      <c r="H281" s="34">
+        <f t="shared" si="148"/>
+        <v>353</v>
+      </c>
+      <c r="I281" s="34">
+        <f t="shared" si="126"/>
+        <v>354</v>
+      </c>
+      <c r="J281" s="34">
+        <f t="shared" si="126"/>
+        <v>355</v>
+      </c>
+      <c r="K281" s="34">
+        <f t="shared" si="146"/>
+        <v>356</v>
+      </c>
+      <c r="L281" s="34">
         <f t="shared" si="127"/>
-        <v>352</v>
-      </c>
-      <c r="H281" s="34">
+        <v>357</v>
+      </c>
+      <c r="M281" s="34">
         <f t="shared" si="128"/>
-        <v>353</v>
-      </c>
-      <c r="I281" s="34">
-        <f t="shared" si="106"/>
-        <v>354</v>
-      </c>
-      <c r="J281" s="34">
-        <f t="shared" si="106"/>
-        <v>355</v>
-      </c>
-      <c r="K281" s="34">
-        <f t="shared" si="126"/>
-        <v>356</v>
-      </c>
-      <c r="L281" s="34">
-        <f t="shared" si="107"/>
-        <v>357</v>
-      </c>
-      <c r="M281" s="34">
-        <f t="shared" si="108"/>
         <v>358</v>
       </c>
       <c r="N281" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>359</v>
       </c>
       <c r="O281" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>360</v>
       </c>
       <c r="P281" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>361</v>
       </c>
       <c r="Q281" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>362</v>
       </c>
       <c r="R281" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>363</v>
       </c>
       <c r="S281" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>364</v>
       </c>
       <c r="T281" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>365</v>
       </c>
       <c r="U281" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>366</v>
       </c>
       <c r="V281" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>367</v>
       </c>
       <c r="W281" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>368</v>
       </c>
       <c r="X281" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>369</v>
       </c>
       <c r="Y281" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>370</v>
       </c>
       <c r="Z281" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>371</v>
       </c>
       <c r="AA281" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>372</v>
       </c>
       <c r="AB281" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>373</v>
       </c>
       <c r="AC281" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>374</v>
       </c>
       <c r="AD281" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>375</v>
       </c>
       <c r="AE281" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>376</v>
       </c>
       <c r="AF281" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>377</v>
       </c>
       <c r="AG281" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>378</v>
       </c>
       <c r="AH281" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>379</v>
       </c>
       <c r="AI281" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>380</v>
       </c>
       <c r="AJ281" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>381</v>
       </c>
       <c r="AK281" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>382</v>
       </c>
       <c r="AL281" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>383</v>
       </c>
     </row>
     <row r="282" spans="7:38">
       <c r="G282" s="34">
+        <f t="shared" si="147"/>
+        <v>384</v>
+      </c>
+      <c r="H282" s="34">
+        <f t="shared" si="148"/>
+        <v>385</v>
+      </c>
+      <c r="I282" s="34">
+        <f t="shared" si="126"/>
+        <v>386</v>
+      </c>
+      <c r="J282" s="34">
+        <f t="shared" si="126"/>
+        <v>387</v>
+      </c>
+      <c r="K282" s="34">
+        <f t="shared" si="146"/>
+        <v>388</v>
+      </c>
+      <c r="L282" s="34">
         <f t="shared" si="127"/>
-        <v>384</v>
-      </c>
-      <c r="H282" s="34">
+        <v>389</v>
+      </c>
+      <c r="M282" s="34">
         <f t="shared" si="128"/>
-        <v>385</v>
-      </c>
-      <c r="I282" s="34">
-        <f t="shared" si="106"/>
-        <v>386</v>
-      </c>
-      <c r="J282" s="34">
-        <f t="shared" si="106"/>
-        <v>387</v>
-      </c>
-      <c r="K282" s="34">
-        <f t="shared" si="126"/>
-        <v>388</v>
-      </c>
-      <c r="L282" s="34">
-        <f t="shared" si="107"/>
-        <v>389</v>
-      </c>
-      <c r="M282" s="34">
-        <f t="shared" si="108"/>
         <v>390</v>
       </c>
       <c r="N282" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>391</v>
       </c>
       <c r="O282" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>392</v>
       </c>
       <c r="P282" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>393</v>
       </c>
       <c r="Q282" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>394</v>
       </c>
       <c r="R282" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>395</v>
       </c>
       <c r="S282" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>396</v>
       </c>
       <c r="T282" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>397</v>
       </c>
       <c r="U282" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>398</v>
       </c>
       <c r="V282" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>399</v>
       </c>
       <c r="W282" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>400</v>
       </c>
       <c r="X282" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>401</v>
       </c>
       <c r="Y282" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>402</v>
       </c>
       <c r="Z282" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>403</v>
       </c>
       <c r="AA282" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>404</v>
       </c>
       <c r="AB282" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>405</v>
       </c>
       <c r="AC282" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>406</v>
       </c>
       <c r="AD282" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>407</v>
       </c>
       <c r="AE282" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>408</v>
       </c>
       <c r="AF282" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>409</v>
       </c>
       <c r="AG282" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>410</v>
       </c>
       <c r="AH282" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>411</v>
       </c>
       <c r="AI282" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>412</v>
       </c>
       <c r="AJ282" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>413</v>
       </c>
       <c r="AK282" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>414</v>
       </c>
       <c r="AL282" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>415</v>
       </c>
     </row>
     <row r="283" spans="7:38">
       <c r="G283" s="34">
+        <f t="shared" si="147"/>
+        <v>416</v>
+      </c>
+      <c r="H283" s="34">
+        <f t="shared" si="148"/>
+        <v>417</v>
+      </c>
+      <c r="I283" s="34">
+        <f t="shared" si="126"/>
+        <v>418</v>
+      </c>
+      <c r="J283" s="34">
+        <f t="shared" si="126"/>
+        <v>419</v>
+      </c>
+      <c r="K283" s="34">
+        <f t="shared" si="146"/>
+        <v>420</v>
+      </c>
+      <c r="L283" s="34">
         <f t="shared" si="127"/>
-        <v>416</v>
-      </c>
-      <c r="H283" s="34">
+        <v>421</v>
+      </c>
+      <c r="M283" s="34">
         <f t="shared" si="128"/>
-        <v>417</v>
-      </c>
-      <c r="I283" s="34">
-        <f t="shared" si="106"/>
-        <v>418</v>
-      </c>
-      <c r="J283" s="34">
-        <f t="shared" si="106"/>
-        <v>419</v>
-      </c>
-      <c r="K283" s="34">
-        <f t="shared" si="126"/>
-        <v>420</v>
-      </c>
-      <c r="L283" s="34">
-        <f t="shared" si="107"/>
-        <v>421</v>
-      </c>
-      <c r="M283" s="34">
-        <f t="shared" si="108"/>
         <v>422</v>
       </c>
       <c r="N283" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>423</v>
       </c>
       <c r="O283" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>424</v>
       </c>
       <c r="P283" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>425</v>
       </c>
       <c r="Q283" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>426</v>
       </c>
       <c r="R283" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>427</v>
       </c>
       <c r="S283" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>428</v>
       </c>
       <c r="T283" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>429</v>
       </c>
       <c r="U283" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>430</v>
       </c>
       <c r="V283" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>431</v>
       </c>
       <c r="W283" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>432</v>
       </c>
       <c r="X283" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>433</v>
       </c>
       <c r="Y283" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>434</v>
       </c>
       <c r="Z283" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>435</v>
       </c>
       <c r="AA283" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>436</v>
       </c>
       <c r="AB283" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>437</v>
       </c>
       <c r="AC283" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>438</v>
       </c>
       <c r="AD283" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>439</v>
       </c>
       <c r="AE283" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>440</v>
       </c>
       <c r="AF283" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>441</v>
       </c>
       <c r="AG283" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>442</v>
       </c>
       <c r="AH283" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>443</v>
       </c>
       <c r="AI283" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>444</v>
       </c>
       <c r="AJ283" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>445</v>
       </c>
       <c r="AK283" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>446</v>
       </c>
       <c r="AL283" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>447</v>
       </c>
     </row>
     <row r="284" spans="7:38">
       <c r="G284" s="34">
+        <f t="shared" si="147"/>
+        <v>448</v>
+      </c>
+      <c r="H284" s="34">
+        <f t="shared" si="148"/>
+        <v>449</v>
+      </c>
+      <c r="I284" s="34">
+        <f t="shared" si="126"/>
+        <v>450</v>
+      </c>
+      <c r="J284" s="34">
+        <f t="shared" si="126"/>
+        <v>451</v>
+      </c>
+      <c r="K284" s="34">
+        <f t="shared" si="146"/>
+        <v>452</v>
+      </c>
+      <c r="L284" s="34">
         <f t="shared" si="127"/>
-        <v>448</v>
-      </c>
-      <c r="H284" s="34">
+        <v>453</v>
+      </c>
+      <c r="M284" s="34">
         <f t="shared" si="128"/>
-        <v>449</v>
-      </c>
-      <c r="I284" s="34">
-        <f t="shared" si="106"/>
-        <v>450</v>
-      </c>
-      <c r="J284" s="34">
-        <f t="shared" si="106"/>
-        <v>451</v>
-      </c>
-      <c r="K284" s="34">
-        <f t="shared" si="126"/>
-        <v>452</v>
-      </c>
-      <c r="L284" s="34">
-        <f t="shared" si="107"/>
-        <v>453</v>
-      </c>
-      <c r="M284" s="34">
-        <f t="shared" si="108"/>
         <v>454</v>
       </c>
       <c r="N284" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>455</v>
       </c>
       <c r="O284" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>456</v>
       </c>
       <c r="P284" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>457</v>
       </c>
       <c r="Q284" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>458</v>
       </c>
       <c r="R284" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>459</v>
       </c>
       <c r="S284" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>460</v>
       </c>
       <c r="T284" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>461</v>
       </c>
       <c r="U284" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>462</v>
       </c>
       <c r="V284" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>463</v>
       </c>
       <c r="W284" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>464</v>
       </c>
       <c r="X284" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>465</v>
       </c>
       <c r="Y284" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>466</v>
       </c>
       <c r="Z284" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>467</v>
       </c>
       <c r="AA284" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>468</v>
       </c>
       <c r="AB284" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>469</v>
       </c>
       <c r="AC284" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>470</v>
       </c>
       <c r="AD284" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>471</v>
       </c>
       <c r="AE284" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>472</v>
       </c>
       <c r="AF284" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>473</v>
       </c>
       <c r="AG284" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>474</v>
       </c>
       <c r="AH284" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>475</v>
       </c>
       <c r="AI284" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>476</v>
       </c>
       <c r="AJ284" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>477</v>
       </c>
       <c r="AK284" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>478</v>
       </c>
       <c r="AL284" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>479</v>
       </c>
     </row>
     <row r="285" spans="7:38">
       <c r="G285" s="34">
+        <f t="shared" si="147"/>
+        <v>480</v>
+      </c>
+      <c r="H285" s="34">
+        <f t="shared" si="148"/>
+        <v>481</v>
+      </c>
+      <c r="I285" s="34">
+        <f t="shared" si="126"/>
+        <v>482</v>
+      </c>
+      <c r="J285" s="34">
+        <f t="shared" si="126"/>
+        <v>483</v>
+      </c>
+      <c r="K285" s="34">
+        <f t="shared" si="146"/>
+        <v>484</v>
+      </c>
+      <c r="L285" s="34">
         <f t="shared" si="127"/>
-        <v>480</v>
-      </c>
-      <c r="H285" s="34">
+        <v>485</v>
+      </c>
+      <c r="M285" s="34">
         <f t="shared" si="128"/>
-        <v>481</v>
-      </c>
-      <c r="I285" s="34">
-        <f t="shared" si="106"/>
-        <v>482</v>
-      </c>
-      <c r="J285" s="34">
-        <f t="shared" si="106"/>
-        <v>483</v>
-      </c>
-      <c r="K285" s="34">
-        <f t="shared" si="126"/>
-        <v>484</v>
-      </c>
-      <c r="L285" s="34">
-        <f t="shared" si="107"/>
-        <v>485</v>
-      </c>
-      <c r="M285" s="34">
-        <f t="shared" si="108"/>
         <v>486</v>
       </c>
       <c r="N285" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>487</v>
       </c>
       <c r="O285" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>488</v>
       </c>
       <c r="P285" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>489</v>
       </c>
       <c r="Q285" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>490</v>
       </c>
       <c r="R285" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>491</v>
       </c>
       <c r="S285" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>492</v>
       </c>
       <c r="T285" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>493</v>
       </c>
       <c r="U285" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>494</v>
       </c>
       <c r="V285" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>495</v>
       </c>
       <c r="W285" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>496</v>
       </c>
       <c r="X285" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>497</v>
       </c>
       <c r="Y285" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>498</v>
       </c>
       <c r="Z285" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>499</v>
       </c>
       <c r="AA285" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>500</v>
       </c>
       <c r="AB285" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>501</v>
       </c>
       <c r="AC285" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>502</v>
       </c>
       <c r="AD285" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>503</v>
       </c>
       <c r="AE285" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>504</v>
       </c>
       <c r="AF285" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>505</v>
       </c>
       <c r="AG285" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>506</v>
       </c>
       <c r="AH285" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>507</v>
       </c>
       <c r="AI285" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>508</v>
       </c>
       <c r="AJ285" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>509</v>
       </c>
       <c r="AK285" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>510</v>
       </c>
       <c r="AL285" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>511</v>
       </c>
     </row>
     <row r="286" spans="7:38">
       <c r="G286" s="34">
+        <f t="shared" si="147"/>
+        <v>512</v>
+      </c>
+      <c r="H286" s="34">
+        <f t="shared" si="148"/>
+        <v>513</v>
+      </c>
+      <c r="I286" s="34">
+        <f t="shared" si="126"/>
+        <v>514</v>
+      </c>
+      <c r="J286" s="34">
+        <f t="shared" si="126"/>
+        <v>515</v>
+      </c>
+      <c r="K286" s="34">
+        <f t="shared" si="146"/>
+        <v>516</v>
+      </c>
+      <c r="L286" s="34">
         <f t="shared" si="127"/>
-        <v>512</v>
-      </c>
-      <c r="H286" s="34">
+        <v>517</v>
+      </c>
+      <c r="M286" s="34">
         <f t="shared" si="128"/>
-        <v>513</v>
-      </c>
-      <c r="I286" s="34">
-        <f t="shared" si="106"/>
-        <v>514</v>
-      </c>
-      <c r="J286" s="34">
-        <f t="shared" si="106"/>
-        <v>515</v>
-      </c>
-      <c r="K286" s="34">
-        <f t="shared" si="126"/>
-        <v>516</v>
-      </c>
-      <c r="L286" s="34">
-        <f t="shared" si="107"/>
-        <v>517</v>
-      </c>
-      <c r="M286" s="34">
-        <f t="shared" si="108"/>
         <v>518</v>
       </c>
       <c r="N286" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>519</v>
       </c>
       <c r="O286" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>520</v>
       </c>
       <c r="P286" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>521</v>
       </c>
       <c r="Q286" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>522</v>
       </c>
       <c r="R286" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>523</v>
       </c>
       <c r="S286" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>524</v>
       </c>
       <c r="T286" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>525</v>
       </c>
       <c r="U286" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>526</v>
       </c>
       <c r="V286" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>527</v>
       </c>
       <c r="W286" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>528</v>
       </c>
       <c r="X286" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>529</v>
       </c>
       <c r="Y286" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>530</v>
       </c>
       <c r="Z286" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>531</v>
       </c>
       <c r="AA286" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>532</v>
       </c>
       <c r="AB286" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>533</v>
       </c>
       <c r="AC286" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>534</v>
       </c>
       <c r="AD286" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>535</v>
       </c>
       <c r="AE286" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>536</v>
       </c>
       <c r="AF286" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>537</v>
       </c>
       <c r="AG286" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>538</v>
       </c>
       <c r="AH286" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>539</v>
       </c>
       <c r="AI286" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>540</v>
       </c>
       <c r="AJ286" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>541</v>
       </c>
       <c r="AK286" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>542</v>
       </c>
       <c r="AL286" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>543</v>
       </c>
     </row>
     <row r="287" spans="7:38">
       <c r="G287" s="34">
+        <f t="shared" si="147"/>
+        <v>544</v>
+      </c>
+      <c r="H287" s="34">
+        <f t="shared" si="148"/>
+        <v>545</v>
+      </c>
+      <c r="I287" s="34">
+        <f t="shared" si="126"/>
+        <v>546</v>
+      </c>
+      <c r="J287" s="34">
+        <f t="shared" si="126"/>
+        <v>547</v>
+      </c>
+      <c r="K287" s="34">
+        <f t="shared" si="146"/>
+        <v>548</v>
+      </c>
+      <c r="L287" s="34">
         <f t="shared" si="127"/>
-        <v>544</v>
-      </c>
-      <c r="H287" s="34">
+        <v>549</v>
+      </c>
+      <c r="M287" s="34">
         <f t="shared" si="128"/>
-        <v>545</v>
-      </c>
-      <c r="I287" s="34">
-        <f t="shared" si="106"/>
-        <v>546</v>
-      </c>
-      <c r="J287" s="34">
-        <f t="shared" si="106"/>
-        <v>547</v>
-      </c>
-      <c r="K287" s="34">
-        <f t="shared" si="126"/>
-        <v>548</v>
-      </c>
-      <c r="L287" s="34">
-        <f t="shared" si="107"/>
-        <v>549</v>
-      </c>
-      <c r="M287" s="34">
-        <f t="shared" si="108"/>
         <v>550</v>
       </c>
       <c r="N287" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>551</v>
       </c>
       <c r="O287" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="130"/>
         <v>552</v>
       </c>
       <c r="P287" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="131"/>
         <v>553</v>
       </c>
       <c r="Q287" s="34">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
         <v>554</v>
       </c>
       <c r="R287" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="133"/>
         <v>555</v>
       </c>
       <c r="S287" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
         <v>556</v>
       </c>
       <c r="T287" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="135"/>
         <v>557</v>
       </c>
       <c r="U287" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="136"/>
         <v>558</v>
       </c>
       <c r="V287" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="137"/>
         <v>559</v>
       </c>
       <c r="W287" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="138"/>
         <v>560</v>
       </c>
       <c r="X287" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="139"/>
         <v>561</v>
       </c>
       <c r="Y287" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="140"/>
         <v>562</v>
       </c>
       <c r="Z287" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="141"/>
         <v>563</v>
       </c>
       <c r="AA287" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="142"/>
         <v>564</v>
       </c>
       <c r="AB287" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="143"/>
         <v>565</v>
       </c>
       <c r="AC287" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="144"/>
         <v>566</v>
       </c>
       <c r="AD287" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>567</v>
       </c>
       <c r="AE287" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>568</v>
       </c>
       <c r="AF287" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>569</v>
       </c>
       <c r="AG287" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>570</v>
       </c>
       <c r="AH287" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>571</v>
       </c>
       <c r="AI287" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>572</v>
       </c>
       <c r="AJ287" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>573</v>
       </c>
       <c r="AK287" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>574</v>
       </c>
       <c r="AL287" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="145"/>
         <v>575</v>
       </c>
     </row>
     <row r="288" spans="7:38">
       <c r="G288" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="147"/>
         <v>576</v>
       </c>
       <c r="H288" s="34">
-        <f t="shared" ref="H288" si="129">G288+1</f>
+        <f t="shared" ref="H288" si="149">G288+1</f>
         <v>577</v>
       </c>
       <c r="I288" s="34">
-        <f t="shared" ref="I288" si="130">H288+1</f>
+        <f t="shared" ref="I288" si="150">H288+1</f>
         <v>578</v>
       </c>
       <c r="J288" s="34">
-        <f t="shared" ref="J288" si="131">I288+1</f>
+        <f t="shared" ref="J288" si="151">I288+1</f>
         <v>579</v>
       </c>
       <c r="K288" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="146"/>
         <v>580</v>
       </c>
       <c r="L288" s="34">
-        <f t="shared" ref="L288" si="132">K288+1</f>
+        <f t="shared" ref="L288" si="152">K288+1</f>
         <v>581</v>
       </c>
       <c r="M288" s="34">
-        <f t="shared" ref="M288" si="133">L288+1</f>
+        <f t="shared" ref="M288" si="153">L288+1</f>
         <v>582</v>
       </c>
       <c r="N288" s="34">
-        <f t="shared" ref="N288" si="134">M288+1</f>
+        <f t="shared" ref="N288" si="154">M288+1</f>
         <v>583</v>
       </c>
       <c r="O288" s="34">
-        <f t="shared" ref="O288" si="135">N288+1</f>
+        <f t="shared" ref="O288" si="155">N288+1</f>
         <v>584</v>
       </c>
       <c r="P288" s="34">
-        <f t="shared" ref="P288" si="136">O288+1</f>
+        <f t="shared" ref="P288" si="156">O288+1</f>
         <v>585</v>
       </c>
       <c r="Q288" s="34">
-        <f t="shared" ref="Q288" si="137">P288+1</f>
+        <f t="shared" ref="Q288" si="157">P288+1</f>
         <v>586</v>
       </c>
       <c r="R288" s="34">
-        <f t="shared" ref="R288" si="138">Q288+1</f>
+        <f t="shared" ref="R288" si="158">Q288+1</f>
         <v>587</v>
       </c>
       <c r="S288" s="34">
-        <f t="shared" ref="S288" si="139">R288+1</f>
+        <f t="shared" ref="S288" si="159">R288+1</f>
         <v>588</v>
       </c>
       <c r="T288" s="34">
-        <f t="shared" ref="T288" si="140">S288+1</f>
+        <f t="shared" ref="T288" si="160">S288+1</f>
         <v>589</v>
       </c>
       <c r="U288" s="34">
-        <f t="shared" ref="U288" si="141">T288+1</f>
+        <f t="shared" ref="U288" si="161">T288+1</f>
         <v>590</v>
       </c>
       <c r="V288" s="34">
-        <f t="shared" ref="V288" si="142">U288+1</f>
+        <f t="shared" ref="V288" si="162">U288+1</f>
         <v>591</v>
       </c>
       <c r="W288" s="34">
-        <f t="shared" ref="W288" si="143">V288+1</f>
+        <f t="shared" ref="W288" si="163">V288+1</f>
         <v>592</v>
       </c>
       <c r="X288" s="34">
-        <f t="shared" ref="X288" si="144">W288+1</f>
+        <f t="shared" ref="X288" si="164">W288+1</f>
         <v>593</v>
       </c>
       <c r="Y288" s="34">
-        <f t="shared" ref="Y288" si="145">X288+1</f>
+        <f t="shared" ref="Y288" si="165">X288+1</f>
         <v>594</v>
       </c>
       <c r="Z288" s="34">
-        <f t="shared" ref="Z288" si="146">Y288+1</f>
+        <f t="shared" ref="Z288" si="166">Y288+1</f>
         <v>595</v>
       </c>
       <c r="AA288" s="34">
-        <f t="shared" ref="AA288" si="147">Z288+1</f>
+        <f t="shared" ref="AA288" si="167">Z288+1</f>
         <v>596</v>
       </c>
       <c r="AB288" s="34">
-        <f t="shared" ref="AB288" si="148">AA288+1</f>
+        <f t="shared" ref="AB288" si="168">AA288+1</f>
         <v>597</v>
       </c>
       <c r="AC288" s="34">
-        <f t="shared" ref="AC288" si="149">AB288+1</f>
+        <f t="shared" ref="AC288" si="169">AB288+1</f>
         <v>598</v>
       </c>
       <c r="AD288" s="34">
-        <f t="shared" ref="AD288" si="150">AC288+1</f>
+        <f t="shared" ref="AD288" si="170">AC288+1</f>
         <v>599</v>
       </c>
       <c r="AE288" s="34">
-        <f t="shared" ref="AE288:AL288" si="151">AD288+1</f>
+        <f t="shared" ref="AE288:AL288" si="171">AD288+1</f>
         <v>600</v>
       </c>
       <c r="AF288" s="34">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>601</v>
       </c>
       <c r="AG288" s="34">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>602</v>
       </c>
       <c r="AH288" s="34">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>603</v>
       </c>
       <c r="AI288" s="34">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>604</v>
       </c>
       <c r="AJ288" s="34">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>605</v>
       </c>
       <c r="AK288" s="34">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>606</v>
       </c>
       <c r="AL288" s="34">
-        <f t="shared" si="151"/>
+        <f t="shared" si="171"/>
         <v>607</v>
       </c>
     </row>

--- a/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
+++ b/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
@@ -1280,7 +1280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K88" authorId="0">
+    <comment ref="M88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -20463,10 +20463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BS444"/>
+  <dimension ref="A1:BS493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V117" sqref="V117"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88:L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24484,55 +24484,55 @@
         <v>0</v>
       </c>
       <c r="F88" s="33"/>
-      <c r="K88" s="38" t="s">
+      <c r="M88" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="L88" s="38" t="s">
+      <c r="N88" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="M88" s="38" t="s">
+      <c r="O88" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="N88" s="38" t="s">
+      <c r="P88" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="O88" s="38" t="s">
+      <c r="Q88" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="P88" s="38" t="s">
+      <c r="R88" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="Q88" s="38" t="s">
+      <c r="S88" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="R88" s="38" t="s">
+      <c r="T88" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="S88" s="44" t="s">
+      <c r="U88" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="T88" s="38" t="s">
+      <c r="V88" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="U88" s="38" t="s">
+      <c r="W88" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="V88" s="38" t="s">
+      <c r="X88" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="W88" s="38" t="s">
+      <c r="Y88" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="X88" s="1" t="s">
+      <c r="Z88" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Y88" s="1" t="s">
+      <c r="AA88" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z88" s="1" t="s">
+      <c r="AB88" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AA88" s="1" t="s">
+      <c r="AC88" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -25698,7 +25698,7 @@
       <c r="BO95" s="35"/>
       <c r="BP95" s="63"/>
     </row>
-    <row r="96" spans="1:68">
+    <row r="96" spans="1:68" ht="14.25" customHeight="1">
       <c r="A96" s="17" t="s">
         <v>85</v>
       </c>
@@ -34483,7 +34483,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="23.25">
+    <row r="224" spans="1:5" hidden="1"/>
+    <row r="225" spans="1:26" hidden="1"/>
+    <row r="226" spans="1:26" hidden="1"/>
+    <row r="227" spans="1:26" ht="23.25" hidden="1">
       <c r="A227" s="13" t="s">
         <v>223</v>
       </c>
@@ -34493,7 +34496,7 @@
       <c r="F227" s="27"/>
       <c r="G227" s="27"/>
     </row>
-    <row r="228" spans="1:26" ht="18.75">
+    <row r="228" spans="1:26" ht="18.75" hidden="1">
       <c r="A228" t="s">
         <v>206</v>
       </c>
@@ -34501,10 +34504,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="18.75">
+    <row r="229" spans="1:26" ht="18.75" hidden="1">
       <c r="L229" s="18"/>
     </row>
-    <row r="230" spans="1:26" ht="18.75">
+    <row r="230" spans="1:26" ht="18.75" hidden="1">
       <c r="A230" t="s">
         <v>221</v>
       </c>
@@ -34517,19 +34520,19 @@
       </c>
       <c r="L230" s="18"/>
     </row>
-    <row r="231" spans="1:26" ht="18.75">
+    <row r="231" spans="1:26" ht="18.75" hidden="1">
       <c r="L231" s="18"/>
     </row>
-    <row r="232" spans="1:26" ht="18.75">
+    <row r="232" spans="1:26" ht="18.75" hidden="1">
       <c r="L232" s="18"/>
     </row>
-    <row r="233" spans="1:26" ht="18.75">
+    <row r="233" spans="1:26" ht="18.75" hidden="1">
       <c r="L233" s="18"/>
     </row>
-    <row r="234" spans="1:26" ht="18.75">
+    <row r="234" spans="1:26" ht="18.75" hidden="1">
       <c r="L234" s="18"/>
     </row>
-    <row r="235" spans="1:26">
+    <row r="235" spans="1:26" hidden="1">
       <c r="I235" s="6" t="s">
         <v>82</v>
       </c>
@@ -34585,7 +34588,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="236" spans="1:26">
+    <row r="236" spans="1:26" hidden="1">
       <c r="A236" s="5" t="s">
         <v>94</v>
       </c>
@@ -34644,7 +34647,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="237" spans="1:26">
+    <row r="237" spans="1:26" hidden="1">
       <c r="D237" s="6" t="s">
         <v>112</v>
       </c>
@@ -34656,7 +34659,7 @@
       <c r="H237" s="33"/>
       <c r="R237" s="28"/>
     </row>
-    <row r="238" spans="1:26">
+    <row r="238" spans="1:26" hidden="1">
       <c r="A238" t="s">
         <v>93</v>
       </c>
@@ -34722,7 +34725,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="239" spans="1:26">
+    <row r="239" spans="1:26" hidden="1">
       <c r="A239" s="17" t="s">
         <v>83</v>
       </c>
@@ -34788,7 +34791,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="240" spans="1:26">
+    <row r="240" spans="1:26" hidden="1">
       <c r="A240" s="17" t="s">
         <v>84</v>
       </c>
@@ -34854,7 +34857,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="241" spans="1:26">
+    <row r="241" spans="1:26" hidden="1">
       <c r="A241" s="17" t="s">
         <v>85</v>
       </c>
@@ -34920,7 +34923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="242" spans="1:26">
+    <row r="242" spans="1:26" hidden="1">
       <c r="A242" s="17" t="s">
         <v>86</v>
       </c>
@@ -34986,7 +34989,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="243" spans="1:26">
+    <row r="243" spans="1:26" hidden="1">
       <c r="A243" s="17" t="s">
         <v>87</v>
       </c>
@@ -35052,7 +35055,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="244" spans="1:26">
+    <row r="244" spans="1:26" hidden="1">
       <c r="A244" s="14" t="s">
         <v>88</v>
       </c>
@@ -35118,7 +35121,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="245" spans="1:26">
+    <row r="245" spans="1:26" hidden="1">
       <c r="A245" s="14" t="s">
         <v>89</v>
       </c>
@@ -35184,7 +35187,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="246" spans="1:26">
+    <row r="246" spans="1:26" hidden="1">
       <c r="A246" s="14" t="s">
         <v>90</v>
       </c>
@@ -35250,7 +35253,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="247" spans="1:26">
+    <row r="247" spans="1:26" hidden="1">
       <c r="A247" s="14" t="s">
         <v>91</v>
       </c>
@@ -35316,7 +35319,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="248" spans="1:26">
+    <row r="248" spans="1:26" hidden="1">
       <c r="A248" s="14" t="s">
         <v>92</v>
       </c>
@@ -35382,7 +35385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="249" spans="1:26">
+    <row r="249" spans="1:26" hidden="1">
       <c r="D249" s="8"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
@@ -35391,7 +35394,7 @@
       <c r="I249" s="3"/>
       <c r="R249" s="28"/>
     </row>
-    <row r="250" spans="1:26">
+    <row r="250" spans="1:26" hidden="1">
       <c r="D250" s="7"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
@@ -35416,15 +35419,15 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26">
+    <row r="251" spans="1:26" hidden="1">
       <c r="I251" s="5"/>
     </row>
-    <row r="252" spans="1:26" ht="18.75">
+    <row r="252" spans="1:26" ht="18.75" hidden="1">
       <c r="L252" s="18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="253" spans="1:26">
+    <row r="253" spans="1:26" hidden="1">
       <c r="I253" s="6" t="s">
         <v>82</v>
       </c>
@@ -35480,7 +35483,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="254" spans="1:26">
+    <row r="254" spans="1:26" hidden="1">
       <c r="A254" s="5" t="s">
         <v>94</v>
       </c>
@@ -35539,7 +35542,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="255" spans="1:26">
+    <row r="255" spans="1:26" hidden="1">
       <c r="D255" s="6" t="s">
         <v>112</v>
       </c>
@@ -35550,7 +35553,7 @@
       <c r="G255" s="33"/>
       <c r="H255" s="33"/>
     </row>
-    <row r="256" spans="1:26">
+    <row r="256" spans="1:26" hidden="1">
       <c r="A256" t="s">
         <v>93</v>
       </c>
@@ -35616,7 +35619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" hidden="1">
       <c r="A257" s="17" t="s">
         <v>83</v>
       </c>
@@ -35682,7 +35685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" hidden="1">
       <c r="A258" s="17" t="s">
         <v>84</v>
       </c>
@@ -35748,7 +35751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:27">
+    <row r="259" spans="1:27" hidden="1">
       <c r="A259" s="17" t="s">
         <v>85</v>
       </c>
@@ -35814,7 +35817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:27">
+    <row r="260" spans="1:27" hidden="1">
       <c r="A260" s="17" t="s">
         <v>86</v>
       </c>
@@ -35880,7 +35883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:27">
+    <row r="261" spans="1:27" hidden="1">
       <c r="A261" s="17" t="s">
         <v>87</v>
       </c>
@@ -35947,7 +35950,7 @@
       </c>
       <c r="AA261" s="28"/>
     </row>
-    <row r="262" spans="1:27">
+    <row r="262" spans="1:27" hidden="1">
       <c r="A262" s="14" t="s">
         <v>88</v>
       </c>
@@ -36013,7 +36016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:27">
+    <row r="263" spans="1:27" hidden="1">
       <c r="A263" s="14" t="s">
         <v>89</v>
       </c>
@@ -36079,7 +36082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:27">
+    <row r="264" spans="1:27" hidden="1">
       <c r="A264" s="14" t="s">
         <v>90</v>
       </c>
@@ -36145,7 +36148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:27">
+    <row r="265" spans="1:27" hidden="1">
       <c r="A265" s="14" t="s">
         <v>91</v>
       </c>
@@ -36211,7 +36214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:27">
+    <row r="266" spans="1:27" hidden="1">
       <c r="A266" s="14" t="s">
         <v>92</v>
       </c>
@@ -36277,7 +36280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:27">
+    <row r="267" spans="1:27" hidden="1">
       <c r="D267" s="8"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
@@ -36285,12 +36288,13 @@
       <c r="H267" s="4"/>
       <c r="I267" s="3"/>
     </row>
-    <row r="269" spans="1:27">
+    <row r="268" spans="1:27" hidden="1"/>
+    <row r="269" spans="1:27" hidden="1">
       <c r="A269" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="270" spans="1:27">
+    <row r="270" spans="1:27" hidden="1">
       <c r="E270" t="s">
         <v>209</v>
       </c>
@@ -36363,7 +36367,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="271" spans="1:27">
+    <row r="271" spans="1:27" hidden="1">
       <c r="J271" t="str">
         <f>CONCATENATE("0",J257)</f>
         <v>01</v>
@@ -36433,7 +36437,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="272" spans="1:27">
+    <row r="272" spans="1:27" hidden="1">
       <c r="J272" t="str">
         <f t="shared" ref="J272:Z278" si="70">CONCATENATE("0",J258)</f>
         <v>00</v>
@@ -36503,7 +36507,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="273" spans="5:26">
+    <row r="273" spans="5:26" hidden="1">
       <c r="J273" t="str">
         <f t="shared" si="70"/>
         <v>00</v>
@@ -36573,7 +36577,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="274" spans="5:26">
+    <row r="274" spans="5:26" hidden="1">
       <c r="J274" t="str">
         <f t="shared" si="70"/>
         <v>00</v>
@@ -36643,7 +36647,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="275" spans="5:26">
+    <row r="275" spans="5:26" hidden="1">
       <c r="J275" t="str">
         <f t="shared" si="70"/>
         <v>00</v>
@@ -36713,7 +36717,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="276" spans="5:26">
+    <row r="276" spans="5:26" hidden="1">
       <c r="J276" t="str">
         <f t="shared" si="70"/>
         <v>00</v>
@@ -36783,7 +36787,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="277" spans="5:26">
+    <row r="277" spans="5:26" hidden="1">
       <c r="J277" t="str">
         <f>CONCATENATE("0",J263)</f>
         <v>00</v>
@@ -36853,7 +36857,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="278" spans="5:26">
+    <row r="278" spans="5:26" hidden="1">
       <c r="J278" t="str">
         <f>CONCATENATE("0",J264)</f>
         <v>00</v>
@@ -36923,7 +36927,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="279" spans="5:26">
+    <row r="279" spans="5:26" hidden="1">
       <c r="J279" t="str">
         <f t="shared" ref="J279:Z280" si="71">CONCATENATE("0",J265)</f>
         <v>01</v>
@@ -36993,7 +36997,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="280" spans="5:26">
+    <row r="280" spans="5:26" hidden="1">
       <c r="J280" t="str">
         <f t="shared" si="71"/>
         <v>01</v>
@@ -37063,7 +37067,8 @@
         <v>01</v>
       </c>
     </row>
-    <row r="282" spans="5:26">
+    <row r="281" spans="5:26" hidden="1"/>
+    <row r="282" spans="5:26" hidden="1">
       <c r="E282" s="9" t="s">
         <v>210</v>
       </c>
@@ -37071,7 +37076,7 @@
       <c r="G282" s="9"/>
       <c r="H282" s="9"/>
     </row>
-    <row r="283" spans="5:26">
+    <row r="283" spans="5:26" hidden="1">
       <c r="J283" t="str">
         <f>J270</f>
         <v>01</v>
@@ -37141,7 +37146,7 @@
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01</v>
       </c>
     </row>
-    <row r="284" spans="5:26">
+    <row r="284" spans="5:26" hidden="1">
       <c r="J284" t="str">
         <f>CONCATENATE(Z283,".",J271)</f>
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01</v>
@@ -37211,7 +37216,7 @@
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01</v>
       </c>
     </row>
-    <row r="285" spans="5:26">
+    <row r="285" spans="5:26" hidden="1">
       <c r="J285" t="str">
         <f t="shared" ref="J285:J293" si="73">CONCATENATE(Z284,".",J272)</f>
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00</v>
@@ -37281,7 +37286,7 @@
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00</v>
       </c>
     </row>
-    <row r="286" spans="5:26">
+    <row r="286" spans="5:26" hidden="1">
       <c r="J286" t="str">
         <f t="shared" si="73"/>
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00</v>
@@ -37351,7 +37356,7 @@
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00</v>
       </c>
     </row>
-    <row r="287" spans="5:26">
+    <row r="287" spans="5:26" hidden="1">
       <c r="J287" t="str">
         <f t="shared" si="73"/>
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00</v>
@@ -37421,7 +37426,7 @@
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00</v>
       </c>
     </row>
-    <row r="288" spans="5:26">
+    <row r="288" spans="5:26" hidden="1">
       <c r="J288" t="str">
         <f t="shared" si="73"/>
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00</v>
@@ -37491,7 +37496,7 @@
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00</v>
       </c>
     </row>
-    <row r="289" spans="10:26">
+    <row r="289" spans="10:26" hidden="1">
       <c r="J289" t="str">
         <f t="shared" si="73"/>
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00</v>
@@ -37561,7 +37566,7 @@
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00</v>
       </c>
     </row>
-    <row r="290" spans="10:26">
+    <row r="290" spans="10:26" hidden="1">
       <c r="J290" t="str">
         <f t="shared" si="73"/>
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00</v>
@@ -37631,7 +37636,7 @@
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00</v>
       </c>
     </row>
-    <row r="291" spans="10:26">
+    <row r="291" spans="10:26" hidden="1">
       <c r="J291" t="str">
         <f t="shared" si="73"/>
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00</v>
@@ -37701,7 +37706,7 @@
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00</v>
       </c>
     </row>
-    <row r="292" spans="10:26">
+    <row r="292" spans="10:26" hidden="1">
       <c r="J292" t="str">
         <f t="shared" si="73"/>
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01</v>
@@ -37771,7 +37776,7 @@
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01</v>
       </c>
     </row>
-    <row r="293" spans="10:26">
+    <row r="293" spans="10:26" hidden="1">
       <c r="J293" t="str">
         <f t="shared" si="73"/>
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01</v>
@@ -37841,7 +37846,21 @@
         <v>01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.00.00.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.00.00.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.00.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01.01</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="23.25">
+    <row r="294" spans="10:26" hidden="1"/>
+    <row r="295" spans="10:26" hidden="1"/>
+    <row r="296" spans="10:26" hidden="1"/>
+    <row r="297" spans="10:26" hidden="1"/>
+    <row r="298" spans="10:26" hidden="1"/>
+    <row r="299" spans="10:26" hidden="1"/>
+    <row r="300" spans="10:26" hidden="1"/>
+    <row r="301" spans="10:26" hidden="1"/>
+    <row r="302" spans="10:26" hidden="1"/>
+    <row r="303" spans="10:26" hidden="1"/>
+    <row r="304" spans="10:26" hidden="1"/>
+    <row r="305" spans="1:4" hidden="1"/>
+    <row r="306" spans="1:4" hidden="1"/>
+    <row r="307" spans="1:4" hidden="1"/>
+    <row r="308" spans="1:4" ht="23.25" hidden="1">
       <c r="A308" s="31" t="s">
         <v>224</v>
       </c>
@@ -37849,17 +37868,30 @@
       <c r="C308" s="27"/>
       <c r="D308" s="27"/>
     </row>
-    <row r="321" spans="1:29" ht="23.25">
+    <row r="309" spans="1:4" hidden="1"/>
+    <row r="310" spans="1:4" hidden="1"/>
+    <row r="311" spans="1:4" hidden="1"/>
+    <row r="312" spans="1:4" hidden="1"/>
+    <row r="313" spans="1:4" hidden="1"/>
+    <row r="314" spans="1:4" hidden="1"/>
+    <row r="315" spans="1:4" hidden="1"/>
+    <row r="316" spans="1:4" hidden="1"/>
+    <row r="317" spans="1:4" hidden="1"/>
+    <row r="318" spans="1:4" hidden="1"/>
+    <row r="319" spans="1:4" hidden="1"/>
+    <row r="320" spans="1:4" hidden="1"/>
+    <row r="321" spans="1:29" ht="23.25" hidden="1">
       <c r="A321" s="13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="323" spans="1:29" ht="23.25">
+    <row r="322" spans="1:29" hidden="1"/>
+    <row r="323" spans="1:29" ht="23.25" hidden="1">
       <c r="A323" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="324" spans="1:29" ht="18.75">
+    <row r="324" spans="1:29" ht="18.75" hidden="1">
       <c r="A324" t="s">
         <v>206</v>
       </c>
@@ -37867,10 +37899,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="325" spans="1:29" ht="18.75">
+    <row r="325" spans="1:29" ht="18.75" hidden="1">
       <c r="L325" s="18"/>
     </row>
-    <row r="326" spans="1:29" ht="18.75">
+    <row r="326" spans="1:29" ht="18.75" hidden="1">
       <c r="A326" t="s">
         <v>221</v>
       </c>
@@ -37883,19 +37915,19 @@
       </c>
       <c r="L326" s="18"/>
     </row>
-    <row r="327" spans="1:29" ht="18.75">
+    <row r="327" spans="1:29" ht="18.75" hidden="1">
       <c r="L327" s="18"/>
     </row>
-    <row r="328" spans="1:29" ht="18.75">
+    <row r="328" spans="1:29" ht="18.75" hidden="1">
       <c r="L328" s="18"/>
     </row>
-    <row r="329" spans="1:29" ht="18.75">
+    <row r="329" spans="1:29" ht="18.75" hidden="1">
       <c r="L329" s="18"/>
     </row>
-    <row r="330" spans="1:29" ht="18.75">
+    <row r="330" spans="1:29" ht="18.75" hidden="1">
       <c r="L330" s="18"/>
     </row>
-    <row r="331" spans="1:29">
+    <row r="331" spans="1:29" hidden="1">
       <c r="F331" s="6" t="s">
         <v>82</v>
       </c>
@@ -37951,7 +37983,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="332" spans="1:29">
+    <row r="332" spans="1:29" hidden="1">
       <c r="A332" s="5" t="s">
         <v>94</v>
       </c>
@@ -38028,7 +38060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:29">
+    <row r="333" spans="1:29" hidden="1">
       <c r="D333" s="6" t="s">
         <v>112</v>
       </c>
@@ -38129,7 +38161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:29">
+    <row r="334" spans="1:29" hidden="1">
       <c r="D334" s="32">
         <v>-3</v>
       </c>
@@ -38228,7 +38260,7 @@
         <v>2D</v>
       </c>
     </row>
-    <row r="335" spans="1:29">
+    <row r="335" spans="1:29" hidden="1">
       <c r="D335" s="32">
         <v>-2</v>
       </c>
@@ -38327,7 +38359,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="336" spans="1:29">
+    <row r="336" spans="1:29" hidden="1">
       <c r="D336" s="32">
         <v>-1</v>
       </c>
@@ -38426,7 +38458,7 @@
         <v>5B</v>
       </c>
     </row>
-    <row r="337" spans="1:29">
+    <row r="337" spans="1:29" hidden="1">
       <c r="A337" t="s">
         <v>93</v>
       </c>
@@ -38530,7 +38562,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="338" spans="1:29">
+    <row r="338" spans="1:29" hidden="1">
       <c r="A338" s="17" t="s">
         <v>83</v>
       </c>
@@ -38634,7 +38666,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="339" spans="1:29">
+    <row r="339" spans="1:29" hidden="1">
       <c r="A339" s="17" t="s">
         <v>84</v>
       </c>
@@ -38738,7 +38770,7 @@
         <v>A0</v>
       </c>
     </row>
-    <row r="340" spans="1:29">
+    <row r="340" spans="1:29" hidden="1">
       <c r="A340" s="17" t="s">
         <v>85</v>
       </c>
@@ -38842,7 +38874,7 @@
         <v>B7</v>
       </c>
     </row>
-    <row r="341" spans="1:29">
+    <row r="341" spans="1:29" hidden="1">
       <c r="A341" s="17" t="s">
         <v>86</v>
       </c>
@@ -38946,7 +38978,7 @@
         <v>CE</v>
       </c>
     </row>
-    <row r="342" spans="1:29">
+    <row r="342" spans="1:29" hidden="1">
       <c r="A342" s="17" t="s">
         <v>87</v>
       </c>
@@ -39050,7 +39082,7 @@
         <v>E5</v>
       </c>
     </row>
-    <row r="343" spans="1:29">
+    <row r="343" spans="1:29" hidden="1">
       <c r="A343" s="14" t="s">
         <v>88</v>
       </c>
@@ -39154,7 +39186,7 @@
         <v>FC</v>
       </c>
     </row>
-    <row r="344" spans="1:29">
+    <row r="344" spans="1:29" hidden="1">
       <c r="A344" s="14" t="s">
         <v>89</v>
       </c>
@@ -39258,7 +39290,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="345" spans="1:29">
+    <row r="345" spans="1:29" hidden="1">
       <c r="A345" s="14" t="s">
         <v>90</v>
       </c>
@@ -39362,7 +39394,7 @@
         <v>12A</v>
       </c>
     </row>
-    <row r="346" spans="1:29">
+    <row r="346" spans="1:29" hidden="1">
       <c r="A346" s="14" t="s">
         <v>91</v>
       </c>
@@ -39466,7 +39498,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="347" spans="1:29">
+    <row r="347" spans="1:29" hidden="1">
       <c r="A347" s="14" t="s">
         <v>92</v>
       </c>
@@ -39570,7 +39602,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="348" spans="1:29">
+    <row r="348" spans="1:29" hidden="1">
       <c r="A348" s="14"/>
       <c r="D348" s="8" t="s">
         <v>107</v>
@@ -39670,7 +39702,7 @@
         <v>16F</v>
       </c>
     </row>
-    <row r="349" spans="1:29">
+    <row r="349" spans="1:29" hidden="1">
       <c r="A349" s="14"/>
       <c r="D349" s="8" t="s">
         <v>108</v>
@@ -39770,7 +39802,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="350" spans="1:29">
+    <row r="350" spans="1:29" hidden="1">
       <c r="A350" s="14"/>
       <c r="D350" s="8" t="s">
         <v>109</v>
@@ -39870,7 +39902,7 @@
         <v>19D</v>
       </c>
     </row>
-    <row r="351" spans="1:29">
+    <row r="351" spans="1:29" hidden="1">
       <c r="D351" s="8"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
@@ -39896,7 +39928,7 @@
       <c r="Z351" s="4"/>
       <c r="AA351" s="4"/>
     </row>
-    <row r="352" spans="1:29">
+    <row r="352" spans="1:29" hidden="1">
       <c r="D352" s="7"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
@@ -39921,15 +39953,18 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:29">
+    <row r="353" spans="1:29" hidden="1">
       <c r="I353" s="5"/>
     </row>
-    <row r="357" spans="1:29">
+    <row r="354" spans="1:29" hidden="1"/>
+    <row r="355" spans="1:29" hidden="1"/>
+    <row r="356" spans="1:29" hidden="1"/>
+    <row r="357" spans="1:29" hidden="1">
       <c r="A357" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="358" spans="1:29">
+    <row r="358" spans="1:29" hidden="1">
       <c r="G358" s="34">
         <v>0</v>
       </c>
@@ -40022,7 +40057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="359" spans="1:29">
+    <row r="359" spans="1:29" hidden="1">
       <c r="G359" s="34">
         <f>AC358+1</f>
         <v>23</v>
@@ -40116,7 +40151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="360" spans="1:29">
+    <row r="360" spans="1:29" hidden="1">
       <c r="G360" s="34">
         <f t="shared" ref="G360:G375" si="95">AC359+1</f>
         <v>46</v>
@@ -40210,7 +40245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="361" spans="1:29">
+    <row r="361" spans="1:29" hidden="1">
       <c r="G361" s="34">
         <f t="shared" si="95"/>
         <v>69</v>
@@ -40304,7 +40339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="362" spans="1:29">
+    <row r="362" spans="1:29" hidden="1">
       <c r="G362" s="34">
         <f t="shared" si="95"/>
         <v>92</v>
@@ -40398,7 +40433,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="363" spans="1:29">
+    <row r="363" spans="1:29" hidden="1">
       <c r="G363" s="34">
         <f t="shared" si="95"/>
         <v>115</v>
@@ -40492,7 +40527,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="364" spans="1:29">
+    <row r="364" spans="1:29" hidden="1">
       <c r="G364" s="34">
         <f t="shared" si="95"/>
         <v>138</v>
@@ -40586,7 +40621,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="365" spans="1:29">
+    <row r="365" spans="1:29" hidden="1">
       <c r="G365" s="34">
         <f t="shared" si="95"/>
         <v>161</v>
@@ -40680,7 +40715,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="366" spans="1:29">
+    <row r="366" spans="1:29" hidden="1">
       <c r="G366" s="34">
         <f t="shared" si="95"/>
         <v>184</v>
@@ -40774,7 +40809,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="367" spans="1:29">
+    <row r="367" spans="1:29" hidden="1">
       <c r="G367" s="34">
         <f t="shared" si="95"/>
         <v>207</v>
@@ -40868,7 +40903,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="368" spans="1:29">
+    <row r="368" spans="1:29" hidden="1">
       <c r="G368" s="34">
         <f t="shared" si="95"/>
         <v>230</v>
@@ -40962,7 +40997,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="369" spans="7:29">
+    <row r="369" spans="7:29" hidden="1">
       <c r="G369" s="34">
         <f t="shared" si="95"/>
         <v>253</v>
@@ -41056,7 +41091,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="370" spans="7:29">
+    <row r="370" spans="7:29" hidden="1">
       <c r="G370" s="34">
         <f t="shared" si="95"/>
         <v>276</v>
@@ -41150,7 +41185,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="371" spans="7:29">
+    <row r="371" spans="7:29" hidden="1">
       <c r="G371" s="34">
         <f t="shared" si="95"/>
         <v>299</v>
@@ -41244,7 +41279,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="372" spans="7:29">
+    <row r="372" spans="7:29" hidden="1">
       <c r="G372" s="34">
         <f t="shared" si="95"/>
         <v>322</v>
@@ -41338,7 +41373,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="373" spans="7:29">
+    <row r="373" spans="7:29" hidden="1">
       <c r="G373" s="34">
         <f t="shared" si="95"/>
         <v>345</v>
@@ -41432,7 +41467,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="374" spans="7:29">
+    <row r="374" spans="7:29" hidden="1">
       <c r="G374" s="34">
         <f t="shared" si="95"/>
         <v>368</v>
@@ -41526,7 +41561,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="375" spans="7:29">
+    <row r="375" spans="7:29" hidden="1">
       <c r="G375" s="34">
         <f t="shared" si="95"/>
         <v>391</v>
@@ -41620,17 +41655,30 @@
         <v>413</v>
       </c>
     </row>
-    <row r="388" spans="1:38" ht="23.25">
+    <row r="376" spans="7:29" hidden="1"/>
+    <row r="377" spans="7:29" hidden="1"/>
+    <row r="378" spans="7:29" hidden="1"/>
+    <row r="379" spans="7:29" hidden="1"/>
+    <row r="380" spans="7:29" hidden="1"/>
+    <row r="381" spans="7:29" hidden="1"/>
+    <row r="382" spans="7:29" hidden="1"/>
+    <row r="383" spans="7:29" hidden="1"/>
+    <row r="384" spans="7:29" hidden="1"/>
+    <row r="385" spans="1:38" hidden="1"/>
+    <row r="386" spans="1:38" hidden="1"/>
+    <row r="387" spans="1:38" hidden="1"/>
+    <row r="388" spans="1:38" ht="23.25" hidden="1">
       <c r="A388" s="13" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="390" spans="1:38" ht="23.25">
+    <row r="389" spans="1:38" hidden="1"/>
+    <row r="390" spans="1:38" ht="23.25" hidden="1">
       <c r="A390" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="391" spans="1:38" ht="18.75">
+    <row r="391" spans="1:38" ht="18.75" hidden="1">
       <c r="A391" t="s">
         <v>206</v>
       </c>
@@ -41638,10 +41686,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="392" spans="1:38" ht="18.75">
+    <row r="392" spans="1:38" ht="18.75" hidden="1">
       <c r="L392" s="18"/>
     </row>
-    <row r="393" spans="1:38" ht="18.75">
+    <row r="393" spans="1:38" ht="18.75" hidden="1">
       <c r="A393" t="s">
         <v>221</v>
       </c>
@@ -41654,13 +41702,13 @@
       </c>
       <c r="L393" s="18"/>
     </row>
-    <row r="394" spans="1:38" ht="18.75">
+    <row r="394" spans="1:38" ht="18.75" hidden="1">
       <c r="L394" s="18"/>
     </row>
-    <row r="395" spans="1:38" ht="18.75">
+    <row r="395" spans="1:38" ht="18.75" hidden="1">
       <c r="L395" s="18"/>
     </row>
-    <row r="396" spans="1:38" ht="18.75">
+    <row r="396" spans="1:38" ht="18.75" hidden="1">
       <c r="E396" t="s">
         <v>228</v>
       </c>
@@ -41673,7 +41721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:38" ht="18.75">
+    <row r="397" spans="1:38" ht="18.75" hidden="1">
       <c r="E397" t="s">
         <v>230</v>
       </c>
@@ -41682,13 +41730,13 @@
       </c>
       <c r="L397" s="18"/>
     </row>
-    <row r="398" spans="1:38" ht="18.75">
+    <row r="398" spans="1:38" ht="18.75" hidden="1">
       <c r="F398" s="6" t="s">
         <v>82</v>
       </c>
       <c r="L398" s="18"/>
     </row>
-    <row r="399" spans="1:38" ht="15.75" thickBot="1">
+    <row r="399" spans="1:38" ht="15.75" hidden="1" thickBot="1">
       <c r="A399" s="5" t="s">
         <v>94</v>
       </c>
@@ -41792,7 +41840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
+    <row r="400" spans="1:38" ht="16.5" hidden="1" thickTop="1" thickBot="1">
       <c r="D400" s="6" t="s">
         <v>112</v>
       </c>
@@ -41929,7 +41977,7 @@
         <v>1F</v>
       </c>
     </row>
-    <row r="401" spans="1:38" ht="15.75" thickTop="1">
+    <row r="401" spans="1:38" ht="15.75" hidden="1" thickTop="1">
       <c r="D401" s="32">
         <v>-3</v>
       </c>
@@ -42064,7 +42112,7 @@
         <v>3F</v>
       </c>
     </row>
-    <row r="402" spans="1:38">
+    <row r="402" spans="1:38" hidden="1">
       <c r="D402" s="32">
         <v>-2</v>
       </c>
@@ -42199,7 +42247,7 @@
         <v>5F</v>
       </c>
     </row>
-    <row r="403" spans="1:38">
+    <row r="403" spans="1:38" hidden="1">
       <c r="D403" s="32">
         <v>-1</v>
       </c>
@@ -42334,7 +42382,7 @@
         <v>7F</v>
       </c>
     </row>
-    <row r="404" spans="1:38">
+    <row r="404" spans="1:38" hidden="1">
       <c r="A404" t="s">
         <v>93</v>
       </c>
@@ -42474,7 +42522,7 @@
         <v>9F</v>
       </c>
     </row>
-    <row r="405" spans="1:38">
+    <row r="405" spans="1:38" hidden="1">
       <c r="A405" s="17" t="s">
         <v>83</v>
       </c>
@@ -42614,7 +42662,7 @@
         <v>BF</v>
       </c>
     </row>
-    <row r="406" spans="1:38">
+    <row r="406" spans="1:38" hidden="1">
       <c r="A406" s="17" t="s">
         <v>84</v>
       </c>
@@ -42754,7 +42802,7 @@
         <v>DF</v>
       </c>
     </row>
-    <row r="407" spans="1:38">
+    <row r="407" spans="1:38" hidden="1">
       <c r="A407" s="17" t="s">
         <v>85</v>
       </c>
@@ -42894,7 +42942,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="408" spans="1:38">
+    <row r="408" spans="1:38" hidden="1">
       <c r="A408" s="17" t="s">
         <v>86</v>
       </c>
@@ -43034,7 +43082,7 @@
         <v>11F</v>
       </c>
     </row>
-    <row r="409" spans="1:38">
+    <row r="409" spans="1:38" hidden="1">
       <c r="A409" s="17" t="s">
         <v>87</v>
       </c>
@@ -43174,7 +43222,7 @@
         <v>13F</v>
       </c>
     </row>
-    <row r="410" spans="1:38">
+    <row r="410" spans="1:38" hidden="1">
       <c r="A410" s="14" t="s">
         <v>88</v>
       </c>
@@ -43314,7 +43362,7 @@
         <v>15F</v>
       </c>
     </row>
-    <row r="411" spans="1:38">
+    <row r="411" spans="1:38" hidden="1">
       <c r="A411" s="14" t="s">
         <v>89</v>
       </c>
@@ -43454,7 +43502,7 @@
         <v>17F</v>
       </c>
     </row>
-    <row r="412" spans="1:38">
+    <row r="412" spans="1:38" hidden="1">
       <c r="A412" s="14" t="s">
         <v>90</v>
       </c>
@@ -43594,7 +43642,7 @@
         <v>19F</v>
       </c>
     </row>
-    <row r="413" spans="1:38">
+    <row r="413" spans="1:38" hidden="1">
       <c r="A413" s="14" t="s">
         <v>91</v>
       </c>
@@ -43734,7 +43782,7 @@
         <v>1BF</v>
       </c>
     </row>
-    <row r="414" spans="1:38">
+    <row r="414" spans="1:38" hidden="1">
       <c r="A414" s="14" t="s">
         <v>92</v>
       </c>
@@ -43874,7 +43922,7 @@
         <v>1DF</v>
       </c>
     </row>
-    <row r="415" spans="1:38">
+    <row r="415" spans="1:38" hidden="1">
       <c r="A415" s="14"/>
       <c r="D415" s="8" t="s">
         <v>107</v>
@@ -44010,7 +44058,7 @@
         <v>1FF</v>
       </c>
     </row>
-    <row r="416" spans="1:38">
+    <row r="416" spans="1:38" hidden="1">
       <c r="A416" s="14"/>
       <c r="D416" s="8" t="s">
         <v>108</v>
@@ -44146,7 +44194,7 @@
         <v>21F</v>
       </c>
     </row>
-    <row r="417" spans="1:38">
+    <row r="417" spans="1:38" hidden="1">
       <c r="A417" s="14"/>
       <c r="D417" s="8" t="s">
         <v>109</v>
@@ -44282,7 +44330,7 @@
         <v>23F</v>
       </c>
     </row>
-    <row r="418" spans="1:38">
+    <row r="418" spans="1:38" hidden="1">
       <c r="A418" s="14"/>
       <c r="D418" s="8" t="s">
         <v>110</v>
@@ -44418,7 +44466,7 @@
         <v>25E</v>
       </c>
     </row>
-    <row r="419" spans="1:38">
+    <row r="419" spans="1:38" hidden="1">
       <c r="D419" s="7"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
@@ -44443,15 +44491,19 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="1:38">
+    <row r="420" spans="1:38" hidden="1">
       <c r="I420" s="5"/>
     </row>
-    <row r="425" spans="1:38">
+    <row r="421" spans="1:38" hidden="1"/>
+    <row r="422" spans="1:38" hidden="1"/>
+    <row r="423" spans="1:38" hidden="1"/>
+    <row r="424" spans="1:38" hidden="1"/>
+    <row r="425" spans="1:38" hidden="1">
       <c r="A425" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="426" spans="1:38">
+    <row r="426" spans="1:38" hidden="1">
       <c r="G426" s="34">
         <v>0</v>
       </c>
@@ -44580,7 +44632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="427" spans="1:38">
+    <row r="427" spans="1:38" hidden="1">
       <c r="G427" s="34">
         <f>AL426+1</f>
         <v>32</v>
@@ -44710,7 +44762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="428" spans="1:38">
+    <row r="428" spans="1:38" hidden="1">
       <c r="G428" s="34">
         <f t="shared" ref="G428:G444" si="208">AL427+1</f>
         <v>64</v>
@@ -44840,7 +44892,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="429" spans="1:38">
+    <row r="429" spans="1:38" hidden="1">
       <c r="G429" s="34">
         <f t="shared" si="208"/>
         <v>96</v>
@@ -44970,7 +45022,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="430" spans="1:38">
+    <row r="430" spans="1:38" hidden="1">
       <c r="G430" s="34">
         <f t="shared" si="208"/>
         <v>128</v>
@@ -45100,7 +45152,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="431" spans="1:38">
+    <row r="431" spans="1:38" hidden="1">
       <c r="G431" s="34">
         <f t="shared" si="208"/>
         <v>160</v>
@@ -45230,7 +45282,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="432" spans="1:38">
+    <row r="432" spans="1:38" hidden="1">
       <c r="G432" s="34">
         <f t="shared" si="208"/>
         <v>192</v>
@@ -45360,7 +45412,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="433" spans="7:38">
+    <row r="433" spans="7:38" hidden="1">
       <c r="G433" s="34">
         <f t="shared" si="208"/>
         <v>224</v>
@@ -45490,7 +45542,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="434" spans="7:38">
+    <row r="434" spans="7:38" hidden="1">
       <c r="G434" s="34">
         <f t="shared" si="208"/>
         <v>256</v>
@@ -45620,7 +45672,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="435" spans="7:38">
+    <row r="435" spans="7:38" hidden="1">
       <c r="G435" s="34">
         <f t="shared" si="208"/>
         <v>288</v>
@@ -45750,7 +45802,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="436" spans="7:38">
+    <row r="436" spans="7:38" hidden="1">
       <c r="G436" s="34">
         <f t="shared" si="208"/>
         <v>320</v>
@@ -45880,7 +45932,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="437" spans="7:38">
+    <row r="437" spans="7:38" hidden="1">
       <c r="G437" s="34">
         <f t="shared" si="208"/>
         <v>352</v>
@@ -46010,7 +46062,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="438" spans="7:38">
+    <row r="438" spans="7:38" hidden="1">
       <c r="G438" s="34">
         <f t="shared" si="208"/>
         <v>384</v>
@@ -46140,7 +46192,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="439" spans="7:38">
+    <row r="439" spans="7:38" hidden="1">
       <c r="G439" s="34">
         <f t="shared" si="208"/>
         <v>416</v>
@@ -46270,7 +46322,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="440" spans="7:38">
+    <row r="440" spans="7:38" hidden="1">
       <c r="G440" s="34">
         <f t="shared" si="208"/>
         <v>448</v>
@@ -46400,7 +46452,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="441" spans="7:38">
+    <row r="441" spans="7:38" hidden="1">
       <c r="G441" s="34">
         <f t="shared" si="208"/>
         <v>480</v>
@@ -46530,7 +46582,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="442" spans="7:38">
+    <row r="442" spans="7:38" hidden="1">
       <c r="G442" s="34">
         <f t="shared" si="208"/>
         <v>512</v>
@@ -46660,7 +46712,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="443" spans="7:38">
+    <row r="443" spans="7:38" hidden="1">
       <c r="G443" s="34">
         <f t="shared" si="208"/>
         <v>544</v>
@@ -46790,7 +46842,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="444" spans="7:38">
+    <row r="444" spans="7:38" hidden="1">
       <c r="G444" s="34">
         <f t="shared" si="208"/>
         <v>576</v>
@@ -46920,9 +46972,58 @@
         <v>607</v>
       </c>
     </row>
+    <row r="445" spans="7:38" hidden="1"/>
+    <row r="446" spans="7:38" hidden="1"/>
+    <row r="447" spans="7:38" hidden="1"/>
+    <row r="448" spans="7:38" hidden="1"/>
+    <row r="449" hidden="1"/>
+    <row r="450" hidden="1"/>
+    <row r="451" hidden="1"/>
+    <row r="452" hidden="1"/>
+    <row r="453" hidden="1"/>
+    <row r="454" hidden="1"/>
+    <row r="455" hidden="1"/>
+    <row r="456" hidden="1"/>
+    <row r="457" hidden="1"/>
+    <row r="458" hidden="1"/>
+    <row r="459" hidden="1"/>
+    <row r="460" hidden="1"/>
+    <row r="461" hidden="1"/>
+    <row r="462" hidden="1"/>
+    <row r="463" hidden="1"/>
+    <row r="464" hidden="1"/>
+    <row r="465" hidden="1"/>
+    <row r="466" hidden="1"/>
+    <row r="467" hidden="1"/>
+    <row r="468" hidden="1"/>
+    <row r="469" hidden="1"/>
+    <row r="470" hidden="1"/>
+    <row r="471" hidden="1"/>
+    <row r="472" hidden="1"/>
+    <row r="473" hidden="1"/>
+    <row r="474" hidden="1"/>
+    <row r="475" hidden="1"/>
+    <row r="476" hidden="1"/>
+    <row r="477" hidden="1"/>
+    <row r="478" hidden="1"/>
+    <row r="479" hidden="1"/>
+    <row r="480" hidden="1"/>
+    <row r="481" hidden="1"/>
+    <row r="482" hidden="1"/>
+    <row r="483" hidden="1"/>
+    <row r="484" hidden="1"/>
+    <row r="485" hidden="1"/>
+    <row r="486" hidden="1"/>
+    <row r="487" hidden="1"/>
+    <row r="488" hidden="1"/>
+    <row r="489" hidden="1"/>
+    <row r="490" hidden="1"/>
+    <row r="491" hidden="1"/>
+    <row r="492" hidden="1"/>
+    <row r="493" hidden="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="13" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="16" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
+++ b/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="8235" windowHeight="3720"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="8235" windowHeight="3720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOD (Sunrise_Sunset) Stencils" sheetId="10" r:id="rId1"/>
@@ -1496,7 +1496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E93" authorId="0">
+    <comment ref="E95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3860,7 +3860,7 @@
   </sheetPr>
   <dimension ref="A1:BP406"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
@@ -25020,8 +25020,8 @@
   </sheetPr>
   <dimension ref="A1:BS493"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15:U21"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29703,9 +29703,6 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="E93" s="4">
-        <v>0</v>
-      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="35" t="str">
         <f t="shared" ref="G93:AM93" si="13">DEC2HEX(G123)</f>
@@ -29870,10 +29867,6 @@
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="E94" s="4">
-        <f>E93+1</f>
-        <v>1</v>
-      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="35" t="str">
         <f t="shared" ref="G94:AM94" si="14">DEC2HEX(G124)</f>
@@ -30039,140 +30032,139 @@
         <v>6</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" ref="E95:E103" si="15">E94+1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="35" t="str">
-        <f t="shared" ref="G95:AM95" si="16">DEC2HEX(G125)</f>
+        <f t="shared" ref="G95:AM95" si="15">DEC2HEX(G125)</f>
         <v>C6</v>
       </c>
       <c r="H95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>C7</v>
       </c>
       <c r="I95" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>C8</v>
       </c>
       <c r="J95" s="61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>C9</v>
       </c>
       <c r="K95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>CA</v>
       </c>
       <c r="L95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>CB</v>
       </c>
       <c r="M95" s="51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>CC</v>
       </c>
       <c r="N95" s="51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>CD</v>
       </c>
       <c r="O95" s="51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>CE</v>
       </c>
       <c r="P95" s="51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>CF</v>
       </c>
       <c r="Q95" s="51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>D0</v>
       </c>
       <c r="R95" s="62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>D1</v>
       </c>
       <c r="S95" s="62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>D2</v>
       </c>
       <c r="T95" s="62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>D3</v>
       </c>
       <c r="U95" s="62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>D4</v>
       </c>
       <c r="V95" s="62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>D5</v>
       </c>
       <c r="W95" s="62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>D6</v>
       </c>
       <c r="X95" s="62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>D7</v>
       </c>
       <c r="Y95" s="51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>D8</v>
       </c>
       <c r="Z95" s="51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>D9</v>
       </c>
       <c r="AA95" s="51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>DA</v>
       </c>
       <c r="AB95" s="51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>DB</v>
       </c>
       <c r="AC95" s="51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>DC</v>
       </c>
       <c r="AD95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>DD</v>
       </c>
       <c r="AE95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>DE</v>
       </c>
       <c r="AF95" s="63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>DF</v>
       </c>
       <c r="AG95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>E0</v>
       </c>
       <c r="AH95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>E1</v>
       </c>
       <c r="AI95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>E2</v>
       </c>
       <c r="AJ95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>E3</v>
       </c>
       <c r="AK95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>E4</v>
       </c>
       <c r="AL95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>E5</v>
       </c>
       <c r="AM95" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>E6</v>
       </c>
       <c r="AS95" s="53"/>
@@ -30207,140 +30199,140 @@
         <v>7</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f>E95+1</f>
+        <v>1</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="35" t="str">
-        <f t="shared" ref="G96:AM96" si="17">DEC2HEX(G126)</f>
+        <f t="shared" ref="G96:AM96" si="16">DEC2HEX(G126)</f>
         <v>E7</v>
       </c>
       <c r="H96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>E8</v>
       </c>
       <c r="I96" s="53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>E9</v>
       </c>
       <c r="J96" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>EA</v>
       </c>
       <c r="K96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>EB</v>
       </c>
       <c r="L96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>EC</v>
       </c>
       <c r="M96" s="51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>ED</v>
       </c>
       <c r="N96" s="51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>EE</v>
       </c>
       <c r="O96" s="51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>EF</v>
       </c>
       <c r="P96" s="51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>F0</v>
       </c>
       <c r="Q96" s="51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>F1</v>
       </c>
       <c r="R96" s="65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>F2</v>
       </c>
       <c r="S96" s="62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>F3</v>
       </c>
       <c r="T96" s="66" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>F4</v>
       </c>
       <c r="U96" s="62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>F5</v>
       </c>
       <c r="V96" s="66" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>F6</v>
       </c>
       <c r="W96" s="62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>F7</v>
       </c>
       <c r="X96" s="65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>F8</v>
       </c>
       <c r="Y96" s="51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>F9</v>
       </c>
       <c r="Z96" s="51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>FA</v>
       </c>
       <c r="AA96" s="51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>FB</v>
       </c>
       <c r="AB96" s="51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>FC</v>
       </c>
       <c r="AC96" s="51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>FD</v>
       </c>
       <c r="AD96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>FE</v>
       </c>
       <c r="AE96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>FF</v>
       </c>
       <c r="AF96" s="63" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="AG96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>101</v>
       </c>
       <c r="AH96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>102</v>
       </c>
       <c r="AI96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>103</v>
       </c>
       <c r="AJ96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>104</v>
       </c>
       <c r="AK96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>105</v>
       </c>
       <c r="AL96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>106</v>
       </c>
       <c r="AM96" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>107</v>
       </c>
       <c r="AS96" s="53"/>
@@ -30375,8 +30367,8 @@
         <v>8</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" ref="E97:E105" si="17">E96+1</f>
+        <v>2</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="35" t="str">
@@ -30543,8 +30535,8 @@
         <v>9</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="35" t="str">
@@ -30710,8 +30702,8 @@
         <v>106</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="35" t="str">
@@ -30877,8 +30869,8 @@
         <v>107</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="15"/>
-        <v>7</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="35" t="str">
@@ -31044,8 +31036,8 @@
         <v>108</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <f t="shared" si="17"/>
+        <v>6</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="35" t="str">
@@ -31211,8 +31203,8 @@
         <v>109</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="15"/>
-        <v>9</v>
+        <f t="shared" si="17"/>
+        <v>7</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="35" t="str">
@@ -31378,8 +31370,8 @@
         <v>110</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="35" t="str">
@@ -31544,7 +31536,10 @@
       <c r="D104" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E104" s="4"/>
+      <c r="E104" s="4">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="35" t="str">
         <f t="shared" ref="G104:AM104" si="25">DEC2HEX(G134)</f>
@@ -31708,7 +31703,10 @@
       <c r="D105" s="16">
         <v>10</v>
       </c>
-      <c r="E105" s="4"/>
+      <c r="E105" s="4">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="35" t="str">
         <f t="shared" ref="G105:AM105" si="26">DEC2HEX(G135)</f>

--- a/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
+++ b/Map_Shapes/Map/() darkness/TOD, ELS, PLS Charts v0.01.xlsx
@@ -25020,8 +25020,8 @@
   </sheetPr>
   <dimension ref="A1:BS493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
